--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -40,31 +40,223 @@
     <t>diff by source</t>
   </si>
   <si>
+    <t>saleem-shakir-gilmore.json</t>
+  </si>
+  <si>
+    <t>oakland-2014-11-04</t>
+  </si>
+  <si>
+    <t>Saleem Shakir-Gilmore</t>
+  </si>
+  <si>
+    <t>nicolas-heidorn.json</t>
+  </si>
+  <si>
+    <t>Nicolas Heidorn</t>
+  </si>
+  <si>
+    <t>renato-almanzor.json</t>
+  </si>
+  <si>
+    <t>Renato Almanzor</t>
+  </si>
+  <si>
+    <t>courtney-ruby.json</t>
+  </si>
+  <si>
+    <t>Courtney Ruby</t>
+  </si>
+  <si>
+    <t>jean-quan.json</t>
+  </si>
+  <si>
+    <t>Jean Quan</t>
+  </si>
+  <si>
+    <t>william-bo-ghirardelli.json</t>
+  </si>
+  <si>
+    <t>William "Bo" Ghirardelli</t>
+  </si>
+  <si>
+    <t>joe-tuman.json</t>
+  </si>
+  <si>
+    <t>Joe Tuman</t>
+  </si>
+  <si>
+    <t>annie-campbell-washington.json</t>
+  </si>
+  <si>
+    <t>Annie Campbell Washington</t>
+  </si>
+  <si>
+    <t>libby-schaaf.json</t>
+  </si>
+  <si>
+    <t>Libby Schaaf</t>
+  </si>
+  <si>
+    <t>cheri-spigner.json</t>
+  </si>
+  <si>
+    <t>Cheri Spigner</t>
+  </si>
+  <si>
+    <t>ken-houston.json</t>
+  </si>
+  <si>
+    <t>Ken Houston</t>
+  </si>
+  <si>
+    <t>bryan-parker.json</t>
+  </si>
+  <si>
+    <t>Bryan Parker</t>
+  </si>
+  <si>
+    <t>len-raphael.json</t>
+  </si>
+  <si>
+    <t>Len Raphael</t>
+  </si>
+  <si>
+    <t>jason-anderson.json</t>
+  </si>
+  <si>
+    <t>Jason Anderson</t>
+  </si>
+  <si>
+    <t>andrew-park.json</t>
+  </si>
+  <si>
+    <t>Andrew Park</t>
+  </si>
+  <si>
+    <t>rebecca-kaplan.json</t>
+  </si>
+  <si>
+    <t>Rebecca Kaplan</t>
+  </si>
+  <si>
+    <t>paul-lim.json</t>
+  </si>
+  <si>
+    <t>Paul Lim</t>
+  </si>
+  <si>
+    <t>shanthi-gonzales.json</t>
+  </si>
+  <si>
+    <t>Shanthi Gonzales</t>
+  </si>
+  <si>
+    <t>peter-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Liu</t>
+  </si>
+  <si>
+    <t>pat-mccullough.json</t>
+  </si>
+  <si>
+    <t>Pat Mccullough</t>
+  </si>
+  <si>
+    <t>desley-brooks.json</t>
+  </si>
+  <si>
+    <t>Desley Brooks</t>
+  </si>
+  <si>
+    <t>vicente-cruz.json</t>
+  </si>
+  <si>
+    <t>Vicente Cruz</t>
+  </si>
+  <si>
+    <t>aimee-eng.json</t>
+  </si>
+  <si>
+    <t>Aimee Eng</t>
+  </si>
+  <si>
+    <t>james-moore.json</t>
+  </si>
+  <si>
+    <t>James Moore</t>
+  </si>
+  <si>
+    <t>michael-johnson.json</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>christopher-dobbins.json</t>
+  </si>
+  <si>
+    <t>Christopher Dobbins</t>
+  </si>
+  <si>
+    <t>eric-wilson.json</t>
+  </si>
+  <si>
+    <t>Eric Wilson</t>
+  </si>
+  <si>
+    <t>saied-karamooz.json</t>
+  </si>
+  <si>
+    <t>Saied Karamooz</t>
+  </si>
+  <si>
+    <t>shereda-nosakhare.json</t>
+  </si>
+  <si>
+    <t>Shereda Nosakhare</t>
+  </si>
+  <si>
+    <t>summuel-washington.json</t>
+  </si>
+  <si>
+    <t>Summuel Washington</t>
+  </si>
+  <si>
     <t>abel-guillen.json</t>
   </si>
   <si>
-    <t>oakland-2014-11-04</t>
-  </si>
-  <si>
     <t>Abel Guillén</t>
   </si>
   <si>
-    <t>aimee-eng.json</t>
-  </si>
-  <si>
-    <t>Aimee Eng</t>
-  </si>
-  <si>
-    <t>andrew-park.json</t>
-  </si>
-  <si>
-    <t>Andrew Park</t>
-  </si>
-  <si>
-    <t>annie-campbell-washington.json</t>
-  </si>
-  <si>
-    <t>Annie Campbell Washington</t>
+    <t>nancy-sidebotham.json</t>
+  </si>
+  <si>
+    <t>Nancy Sidebotham</t>
+  </si>
+  <si>
+    <t>kevin-blackburn.json</t>
+  </si>
+  <si>
+    <t>Kevin Blackburn</t>
+  </si>
+  <si>
+    <t>nina-senn.json</t>
+  </si>
+  <si>
+    <t>Nina Senn</t>
+  </si>
+  <si>
+    <t>jill-broadhurst.json</t>
+  </si>
+  <si>
+    <t>Jill Broadhurst</t>
+  </si>
+  <si>
+    <t>dana-king.json</t>
+  </si>
+  <si>
+    <t>Dana King</t>
   </si>
   <si>
     <t>brenda-roberts.json</t>
@@ -73,10 +265,16 @@
     <t>Brenda Roberts</t>
   </si>
   <si>
-    <t>bryan-parker.json</t>
-  </si>
-  <si>
-    <t>Bryan Parker</t>
+    <t>karl-debro.json</t>
+  </si>
+  <si>
+    <t>Karl Debro</t>
+  </si>
+  <si>
+    <t>ken-maxey.json</t>
+  </si>
+  <si>
+    <t>Ken Maxey</t>
   </si>
   <si>
     <t>charles-williams.json</t>
@@ -85,217 +283,523 @@
     <t>Charles Williams</t>
   </si>
   <si>
-    <t>cheri-spigner.json</t>
-  </si>
-  <si>
-    <t>Cheri Spigner</t>
-  </si>
-  <si>
-    <t>christopher-dobbins.json</t>
-  </si>
-  <si>
-    <t>Christopher Dobbins</t>
-  </si>
-  <si>
-    <t>courtney-ruby.json</t>
-  </si>
-  <si>
-    <t>Courtney Ruby</t>
-  </si>
-  <si>
     <t>dan-siegel.json</t>
   </si>
   <si>
     <t>Dan Siegel</t>
   </si>
   <si>
-    <t>dana-king.json</t>
-  </si>
-  <si>
-    <t>Dana King</t>
-  </si>
-  <si>
-    <t>desley-brooks.json</t>
-  </si>
-  <si>
-    <t>Desley Brooks</t>
-  </si>
-  <si>
-    <t>eric-wilson.json</t>
-  </si>
-  <si>
-    <t>Eric Wilson</t>
-  </si>
-  <si>
-    <t>james-moore.json</t>
-  </si>
-  <si>
-    <t>James Moore</t>
-  </si>
-  <si>
-    <t>jason-anderson.json</t>
-  </si>
-  <si>
-    <t>Jason Anderson</t>
-  </si>
-  <si>
-    <t>jean-quan.json</t>
-  </si>
-  <si>
-    <t>Jean Quan</t>
-  </si>
-  <si>
-    <t>jill-broadhurst.json</t>
-  </si>
-  <si>
-    <t>Jill Broadhurst</t>
-  </si>
-  <si>
-    <t>joe-tuman.json</t>
-  </si>
-  <si>
-    <t>Joe Tuman</t>
-  </si>
-  <si>
-    <t>karl-debro.json</t>
-  </si>
-  <si>
-    <t>Karl Debro</t>
-  </si>
-  <si>
-    <t>ken-houston.json</t>
-  </si>
-  <si>
-    <t>Ken Houston</t>
-  </si>
-  <si>
-    <t>ken-maxey.json</t>
-  </si>
-  <si>
-    <t>Ken Maxey</t>
-  </si>
-  <si>
-    <t>kevin-blackburn.json</t>
-  </si>
-  <si>
-    <t>Kevin Blackburn</t>
-  </si>
-  <si>
-    <t>len-raphael.json</t>
-  </si>
-  <si>
-    <t>Len Raphael</t>
-  </si>
-  <si>
-    <t>libby-schaaf.json</t>
-  </si>
-  <si>
-    <t>Libby Schaaf</t>
-  </si>
-  <si>
-    <t>michael-johnson.json</t>
-  </si>
-  <si>
-    <t>Michael Johnson</t>
-  </si>
-  <si>
-    <t>nancy-sidebotham.json</t>
-  </si>
-  <si>
-    <t>Nancy Sidebotham</t>
-  </si>
-  <si>
-    <t>nicolas-heidorn.json</t>
-  </si>
-  <si>
-    <t>Nicolas Heidorn</t>
-  </si>
-  <si>
-    <t>nina-senn.json</t>
-  </si>
-  <si>
-    <t>Nina Senn</t>
-  </si>
-  <si>
-    <t>pat-mccullough.json</t>
-  </si>
-  <si>
-    <t>Pat Mccullough</t>
-  </si>
-  <si>
-    <t>paul-lim.json</t>
-  </si>
-  <si>
-    <t>Paul Lim</t>
-  </si>
-  <si>
-    <t>peter-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Liu</t>
-  </si>
-  <si>
-    <t>rebecca-kaplan.json</t>
-  </si>
-  <si>
-    <t>Rebecca Kaplan</t>
-  </si>
-  <si>
-    <t>renato-almanzor.json</t>
-  </si>
-  <si>
-    <t>Renato Almanzor</t>
-  </si>
-  <si>
-    <t>saied-karamooz.json</t>
-  </si>
-  <si>
-    <t>Saied Karamooz</t>
-  </si>
-  <si>
-    <t>saleem-shakir-gilmore.json</t>
-  </si>
-  <si>
-    <t>Saleem Shakir-Gilmore</t>
-  </si>
-  <si>
-    <t>shanthi-gonzales.json</t>
-  </si>
-  <si>
-    <t>Shanthi Gonzales</t>
-  </si>
-  <si>
-    <t>shereda-nosakhare.json</t>
-  </si>
-  <si>
-    <t>Shereda Nosakhare</t>
-  </si>
-  <si>
-    <t>summuel-washington.json</t>
-  </si>
-  <si>
-    <t>Summuel Washington</t>
-  </si>
-  <si>
-    <t>vicente-cruz.json</t>
-  </si>
-  <si>
-    <t>Vicente Cruz</t>
-  </si>
-  <si>
-    <t>william-bo-ghirardelli.json</t>
-  </si>
-  <si>
-    <t>William "Bo" Ghirardelli</t>
+    <t>vancedric-williams.json</t>
+  </si>
+  <si>
+    <t>oakland-2020-11-03</t>
+  </si>
+  <si>
+    <t>VanCedric Williams</t>
+  </si>
+  <si>
+    <t>cherisse-gash.json</t>
+  </si>
+  <si>
+    <t>Cherisse Gash</t>
+  </si>
+  <si>
+    <t>eli-ferran.json</t>
+  </si>
+  <si>
+    <t>Eli Ferran</t>
+  </si>
+  <si>
+    <t>clifford-thompson.json</t>
+  </si>
+  <si>
+    <t>Clifford Thompson</t>
+  </si>
+  <si>
+    <t>treva-reid.json</t>
+  </si>
+  <si>
+    <t>Treva Reid</t>
+  </si>
+  <si>
+    <t>steph-dominguez-walton.json</t>
+  </si>
+  <si>
+    <t>Steph Dominguez Walton</t>
+  </si>
+  <si>
+    <t>alexus-taylor.json</t>
+  </si>
+  <si>
+    <t>Alexus Taylor</t>
+  </si>
+  <si>
+    <t>mike-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Mike Hutchinson</t>
+  </si>
+  <si>
+    <t>derreck-b-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck B. Johnson</t>
+  </si>
+  <si>
+    <t>austin-dannhaus.json</t>
+  </si>
+  <si>
+    <t>Austin Dannhaus</t>
+  </si>
+  <si>
+    <t>tri-ngo.json</t>
+  </si>
+  <si>
+    <t>Tri Ngo</t>
+  </si>
+  <si>
+    <t>mark-hurty.json</t>
+  </si>
+  <si>
+    <t>Mark Hurty</t>
+  </si>
+  <si>
+    <t>faye-taylor.json</t>
+  </si>
+  <si>
+    <t>Faye Taylor</t>
+  </si>
+  <si>
+    <t>kristina-molina.json</t>
+  </si>
+  <si>
+    <t>Kristina Molina</t>
+  </si>
+  <si>
+    <t>marchon-tatmon.json</t>
+  </si>
+  <si>
+    <t>Marchon Tatmon</t>
+  </si>
+  <si>
+    <t>zoe-lopez-meraz.json</t>
+  </si>
+  <si>
+    <t>Zoe Lopez-Meraz</t>
+  </si>
+  <si>
+    <t>carroll-fife.json</t>
+  </si>
+  <si>
+    <t>Carroll Fife</t>
+  </si>
+  <si>
+    <t>maiya-edgerly.json</t>
+  </si>
+  <si>
+    <t>Maiya Edgerly</t>
+  </si>
+  <si>
+    <t>stacy-thomas.json</t>
+  </si>
+  <si>
+    <t>Stacy Thomas</t>
+  </si>
+  <si>
+    <t>leroy-gaines.json</t>
+  </si>
+  <si>
+    <t>Leroy Gaines</t>
+  </si>
+  <si>
+    <t>ben-coach-tapscott.json</t>
+  </si>
+  <si>
+    <t>Ben "Coach" Tapscott</t>
+  </si>
+  <si>
+    <t>bronche-taylor.json</t>
+  </si>
+  <si>
+    <t>Bronché Taylor</t>
+  </si>
+  <si>
+    <t>lynette-gibson-mcelhaney.json</t>
+  </si>
+  <si>
+    <t>Lynette Gibson McElhaney</t>
+  </si>
+  <si>
+    <t>marcie-hodge.json</t>
+  </si>
+  <si>
+    <t>Marcie Hodge</t>
+  </si>
+  <si>
+    <t>maximo-santana.json</t>
+  </si>
+  <si>
+    <t>Maximo Santana</t>
+  </si>
+  <si>
+    <t>meron-semedar.json</t>
+  </si>
+  <si>
+    <t>Meron Semedar</t>
   </si>
   <si>
     <t>barbara-parker.json</t>
   </si>
   <si>
+    <t>Barbara Parker</t>
+  </si>
+  <si>
+    <t>seneca-scott.json</t>
+  </si>
+  <si>
+    <t>Seneca Scott</t>
+  </si>
+  <si>
+    <t>robert-bob-jackson.json</t>
+  </si>
+  <si>
+    <t>Robert "Bob" Jackson</t>
+  </si>
+  <si>
+    <t>benjamin-sam-davis.json</t>
+  </si>
+  <si>
+    <t>Benjamin "Sam" Davis</t>
+  </si>
+  <si>
+    <t>richard-santos-raya.json</t>
+  </si>
+  <si>
+    <t>Richard Santos Raya</t>
+  </si>
+  <si>
+    <t>victor-javier-valerio.json</t>
+  </si>
+  <si>
+    <t>Victor Javier Valerio</t>
+  </si>
+  <si>
+    <t>aaron-clay.json</t>
+  </si>
+  <si>
+    <t>Aaron Clay</t>
+  </si>
+  <si>
+    <t>jorge-c-lerma.json</t>
+  </si>
+  <si>
+    <t>Jorge C. Lerma</t>
+  </si>
+  <si>
+    <t>dan-kalb.json</t>
+  </si>
+  <si>
+    <t>Dan Kalb</t>
+  </si>
+  <si>
+    <t>sheila-pope-lawrence.json</t>
+  </si>
+  <si>
+    <t>Sheila Pope Lawrence</t>
+  </si>
+  <si>
+    <t>noel-gallo.json</t>
+  </si>
+  <si>
+    <t>Noel Gallo</t>
+  </si>
+  <si>
+    <t>natasha-middleton.json</t>
+  </si>
+  <si>
+    <t>oakland-2018-11-06</t>
+  </si>
+  <si>
+    <t>Natasha Middleton</t>
+  </si>
+  <si>
+    <t>pamela-price.json</t>
+  </si>
+  <si>
+    <t>Pamela Price</t>
+  </si>
+  <si>
+    <t>francis-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Hummel</t>
+  </si>
+  <si>
+    <t>joseph-tanios.json</t>
+  </si>
+  <si>
+    <t>Joseph Tanios</t>
+  </si>
+  <si>
+    <t>mya-whitaker.json</t>
+  </si>
+  <si>
+    <t>Mya Whitaker</t>
+  </si>
+  <si>
+    <t>cedric-anthony-troupe.json</t>
+  </si>
+  <si>
+    <t>Cedric Anthony Troupe</t>
+  </si>
+  <si>
+    <t>nikki-fortunato-bas.json</t>
+  </si>
+  <si>
+    <t>Nikki Fortunato Bas</t>
+  </si>
+  <si>
+    <t>charlie-michelson.json</t>
+  </si>
+  <si>
+    <t>Charlie Michelson</t>
+  </si>
+  <si>
+    <t>maria-marlo-rodriguez.json</t>
+  </si>
+  <si>
+    <t>Maria "Marlo" Rodriguez</t>
+  </si>
+  <si>
+    <t>sheng-thao.json</t>
+  </si>
+  <si>
+    <t>Sheng Thao</t>
+  </si>
+  <si>
+    <t>nayeli-maxson.json</t>
+  </si>
+  <si>
+    <t>Nayeli Maxson</t>
+  </si>
+  <si>
+    <t>clarissa-doutherd.json</t>
+  </si>
+  <si>
+    <t>Clarissa Doutherd</t>
+  </si>
+  <si>
+    <t>gary-yee.json</t>
+  </si>
+  <si>
+    <t>Gary Yee</t>
+  </si>
+  <si>
+    <t>jesse-a-j-smith.json</t>
+  </si>
+  <si>
+    <t>Jesse A.J. Smith</t>
+  </si>
+  <si>
+    <t>pamela-harris.json</t>
+  </si>
+  <si>
+    <t>Pamela Harris</t>
+  </si>
+  <si>
+    <t>donte-kenzie-smith.json</t>
+  </si>
+  <si>
+    <t>Donte Kenzie Smith</t>
+  </si>
+  <si>
+    <t>joseph-simmons.json</t>
+  </si>
+  <si>
+    <t>Joseph Simmons</t>
+  </si>
+  <si>
+    <t>anthony-wilson.json</t>
+  </si>
+  <si>
+    <t>Anthony Wilson</t>
+  </si>
+  <si>
+    <t>loren-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Taylor</t>
+  </si>
+  <si>
+    <t>cat-brooks.json</t>
+  </si>
+  <si>
+    <t>Cat Brooks</t>
+  </si>
+  <si>
+    <t>oakland-2024-11-05</t>
+  </si>
+  <si>
+    <t>donnel-c-dunbar.json</t>
+  </si>
+  <si>
+    <t>Donnel C. Dunbar</t>
+  </si>
+  <si>
+    <t>shantell-herndon.json</t>
+  </si>
+  <si>
+    <t>Shantell Herndon</t>
+  </si>
+  <si>
+    <t>van-cedric-williams.json</t>
+  </si>
+  <si>
+    <t>Van Cedric Williams</t>
+  </si>
+  <si>
+    <t>shan-m-hirsch.json</t>
+  </si>
+  <si>
+    <t>Shan M. Hirsch</t>
+  </si>
+  <si>
+    <t>edward-c-frank.json</t>
+  </si>
+  <si>
+    <t>Edward C. Frank</t>
+  </si>
+  <si>
+    <t>tonya-love.json</t>
+  </si>
+  <si>
+    <t>Tonya Love</t>
+  </si>
+  <si>
+    <t>sam-davis.json</t>
+  </si>
+  <si>
+    <t>Sam Davis</t>
+  </si>
+  <si>
+    <t>debra-sherman.json</t>
+  </si>
+  <si>
+    <t>Debra Sherman</t>
+  </si>
+  <si>
+    <t>selika-thomas.json</t>
+  </si>
+  <si>
+    <t>Selika Thomas</t>
+  </si>
+  <si>
+    <t>ryan-richardson.json</t>
+  </si>
+  <si>
+    <t>Ryan Richardson</t>
+  </si>
+  <si>
+    <t>alexandra-ritzie-hernandez.json</t>
+  </si>
+  <si>
+    <t>Alexandra Ritzie-Hernandez</t>
+  </si>
+  <si>
+    <t>warren-logan.json</t>
+  </si>
+  <si>
+    <t>Warren Logan</t>
+  </si>
+  <si>
+    <t>fabian-robinson.json</t>
+  </si>
+  <si>
+    <t>Fabian Robinson</t>
+  </si>
+  <si>
+    <t>tyron-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron Jordan</t>
+  </si>
+  <si>
+    <t>merika-goolsby.json</t>
+  </si>
+  <si>
+    <t>Merika Goolsby</t>
+  </si>
+  <si>
+    <t>zac-unger.json</t>
+  </si>
+  <si>
+    <t>Zac Unger</t>
+  </si>
+  <si>
+    <t>christian-miguel-martinez.json</t>
+  </si>
+  <si>
+    <t>oakland-2023-11-07</t>
+  </si>
+  <si>
+    <t>Christian Miguel Martinez</t>
+  </si>
+  <si>
+    <t>bruce-quan.json</t>
+  </si>
+  <si>
     <t>oakland-2016-11-08</t>
   </si>
   <si>
-    <t>Barbara Parker</t>
+    <t>Bruce Quan</t>
+  </si>
+  <si>
+    <t>roseann-torres.json</t>
+  </si>
+  <si>
+    <t>Roseann Torres</t>
+  </si>
+  <si>
+    <t>jody-london.json</t>
+  </si>
+  <si>
+    <t>Jody London</t>
+  </si>
+  <si>
+    <t>francis-matt-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Matt Hummel</t>
+  </si>
+  <si>
+    <t>larry-reid.json</t>
+  </si>
+  <si>
+    <t>Larry Reid</t>
+  </si>
+  <si>
+    <t>peggy-moore.json</t>
+  </si>
+  <si>
+    <t>Peggy Moore</t>
+  </si>
+  <si>
+    <t>lucky-narain.json</t>
+  </si>
+  <si>
+    <t>Lucky Narain</t>
+  </si>
+  <si>
+    <t>donald-macleay.json</t>
+  </si>
+  <si>
+    <t>Donald Macleay</t>
+  </si>
+  <si>
+    <t>jumoke-hinton-hodge.json</t>
+  </si>
+  <si>
+    <t>Jumoke Hinton Hodge</t>
   </si>
   <si>
     <t>benjamin-lang.json</t>
@@ -304,10 +808,28 @@
     <t>Benjamin Lang</t>
   </si>
   <si>
-    <t>bruce-quan.json</t>
-  </si>
-  <si>
-    <t>Bruce Quan</t>
+    <t>viola-gonzales.json</t>
+  </si>
+  <si>
+    <t>Viola Gonzales</t>
+  </si>
+  <si>
+    <t>nehanda-imara.json</t>
+  </si>
+  <si>
+    <t>Nehanda Imara</t>
+  </si>
+  <si>
+    <t>james-harris.json</t>
+  </si>
+  <si>
+    <t>James Harris</t>
+  </si>
+  <si>
+    <t>kharyshi-wiginton.json</t>
+  </si>
+  <si>
+    <t>Kharyshi Wiginton</t>
   </si>
   <si>
     <t>chris-jackson.json</t>
@@ -316,22 +838,10 @@
     <t>Chris Jackson</t>
   </si>
   <si>
-    <t>dan-kalb.json</t>
-  </si>
-  <si>
-    <t>Dan Kalb</t>
-  </si>
-  <si>
-    <t>donald-macleay.json</t>
-  </si>
-  <si>
-    <t>Donald Macleay</t>
-  </si>
-  <si>
-    <t>francis-matt-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Matt Hummel</t>
+    <t>michael-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Michael Hutchinson</t>
   </si>
   <si>
     <t>huber-trenado.json</t>
@@ -340,22 +850,10 @@
     <t>Huber Trenado</t>
   </si>
   <si>
-    <t>james-harris.json</t>
-  </si>
-  <si>
-    <t>James Harris</t>
-  </si>
-  <si>
-    <t>jody-london.json</t>
-  </si>
-  <si>
-    <t>Jody London</t>
-  </si>
-  <si>
-    <t>jumoke-hinton-hodge.json</t>
-  </si>
-  <si>
-    <t>Jumoke Hinton Hodge</t>
+    <t>noni-session.json</t>
+  </si>
+  <si>
+    <t>Noni Session</t>
   </si>
   <si>
     <t>kevin-corbett.json</t>
@@ -364,709 +862,211 @@
     <t>Kevin Corbett</t>
   </si>
   <si>
-    <t>kharyshi-wiginton.json</t>
-  </si>
-  <si>
-    <t>Kharyshi Wiginton</t>
-  </si>
-  <si>
-    <t>larry-reid.json</t>
-  </si>
-  <si>
-    <t>Larry Reid</t>
-  </si>
-  <si>
-    <t>lucky-narain.json</t>
-  </si>
-  <si>
-    <t>Lucky Narain</t>
-  </si>
-  <si>
-    <t>lynette-gibson-mcelhaney.json</t>
-  </si>
-  <si>
-    <t>Lynette Gibson McElhaney</t>
-  </si>
-  <si>
-    <t>marcie-hodge.json</t>
-  </si>
-  <si>
-    <t>Marcie Hodge</t>
-  </si>
-  <si>
     <t>michael-hassid.json</t>
   </si>
   <si>
     <t>Michael Hassid</t>
   </si>
   <si>
-    <t>michael-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>nehanda-imara.json</t>
-  </si>
-  <si>
-    <t>Nehanda Imara</t>
-  </si>
-  <si>
-    <t>noel-gallo.json</t>
-  </si>
-  <si>
-    <t>Noel Gallo</t>
-  </si>
-  <si>
-    <t>noni-session.json</t>
-  </si>
-  <si>
-    <t>Noni Session</t>
-  </si>
-  <si>
-    <t>peggy-moore.json</t>
-  </si>
-  <si>
-    <t>Peggy Moore</t>
-  </si>
-  <si>
-    <t>roseann-torres.json</t>
-  </si>
-  <si>
-    <t>Roseann Torres</t>
-  </si>
-  <si>
-    <t>viola-gonzales.json</t>
-  </si>
-  <si>
-    <t>Viola Gonzales</t>
-  </si>
-  <si>
-    <t>oakland-2018-11-06</t>
-  </si>
-  <si>
-    <t>anthony-wilson.json</t>
-  </si>
-  <si>
-    <t>Anthony Wilson</t>
-  </si>
-  <si>
-    <t>cat-brooks.json</t>
-  </si>
-  <si>
-    <t>Cat Brooks</t>
-  </si>
-  <si>
-    <t>cedric-anthony-troupe.json</t>
-  </si>
-  <si>
-    <t>Cedric Anthony Troupe</t>
-  </si>
-  <si>
-    <t>charlie-michelson.json</t>
-  </si>
-  <si>
-    <t>Charlie Michelson</t>
-  </si>
-  <si>
-    <t>clarissa-doutherd.json</t>
-  </si>
-  <si>
-    <t>Clarissa Doutherd</t>
-  </si>
-  <si>
-    <t>donte-kenzie-smith.json</t>
-  </si>
-  <si>
-    <t>Donte Kenzie Smith</t>
-  </si>
-  <si>
-    <t>francis-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Hummel</t>
-  </si>
-  <si>
-    <t>gary-yee.json</t>
-  </si>
-  <si>
-    <t>Gary Yee</t>
-  </si>
-  <si>
-    <t>jesse-a-j-smith.json</t>
-  </si>
-  <si>
-    <t>Jesse A.J. Smith</t>
-  </si>
-  <si>
-    <t>joseph-simmons.json</t>
-  </si>
-  <si>
-    <t>Joseph Simmons</t>
-  </si>
-  <si>
-    <t>joseph-tanios.json</t>
-  </si>
-  <si>
-    <t>Joseph Tanios</t>
-  </si>
-  <si>
-    <t>loren-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Taylor</t>
-  </si>
-  <si>
-    <t>marchon-tatmon.json</t>
-  </si>
-  <si>
-    <t>Marchon Tatmon</t>
-  </si>
-  <si>
-    <t>maria-marlo-rodriguez.json</t>
-  </si>
-  <si>
-    <t>Maria "Marlo" Rodriguez</t>
-  </si>
-  <si>
-    <t>mya-whitaker.json</t>
-  </si>
-  <si>
-    <t>Mya Whitaker</t>
-  </si>
-  <si>
-    <t>natasha-middleton.json</t>
-  </si>
-  <si>
-    <t>Natasha Middleton</t>
-  </si>
-  <si>
-    <t>nayeli-maxson.json</t>
-  </si>
-  <si>
-    <t>Nayeli Maxson</t>
-  </si>
-  <si>
-    <t>nikki-fortunato-bas.json</t>
-  </si>
-  <si>
-    <t>Nikki Fortunato Bas</t>
-  </si>
-  <si>
-    <t>pamela-harris.json</t>
-  </si>
-  <si>
-    <t>Pamela Harris</t>
-  </si>
-  <si>
-    <t>pamela-price.json</t>
-  </si>
-  <si>
-    <t>Pamela Price</t>
-  </si>
-  <si>
-    <t>sheng-thao.json</t>
-  </si>
-  <si>
-    <t>Sheng Thao</t>
-  </si>
-  <si>
-    <t>aaron-clay.json</t>
-  </si>
-  <si>
-    <t>oakland-2020-11-03</t>
-  </si>
-  <si>
-    <t>Aaron Clay</t>
-  </si>
-  <si>
-    <t>alexus-taylor.json</t>
-  </si>
-  <si>
-    <t>Alexus Taylor</t>
-  </si>
-  <si>
-    <t>austin-dannhaus.json</t>
-  </si>
-  <si>
-    <t>Austin Dannhaus</t>
-  </si>
-  <si>
-    <t>ben-coach-tapscott.json</t>
-  </si>
-  <si>
-    <t>Ben "Coach" Tapscott</t>
-  </si>
-  <si>
-    <t>benjamin-sam-davis.json</t>
-  </si>
-  <si>
-    <t>Benjamin "Sam" Davis</t>
-  </si>
-  <si>
-    <t>bronche-taylor.json</t>
-  </si>
-  <si>
-    <t>Bronché Taylor</t>
-  </si>
-  <si>
-    <t>carroll-fife.json</t>
-  </si>
-  <si>
-    <t>Carroll Fife</t>
-  </si>
-  <si>
-    <t>cherisse-gash.json</t>
-  </si>
-  <si>
-    <t>Cherisse Gash</t>
-  </si>
-  <si>
-    <t>clifford-thompson.json</t>
-  </si>
-  <si>
-    <t>Clifford Thompson</t>
-  </si>
-  <si>
-    <t>derreck-b-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck B. Johnson</t>
-  </si>
-  <si>
-    <t>eli-ferran.json</t>
-  </si>
-  <si>
-    <t>Eli Ferran</t>
-  </si>
-  <si>
-    <t>faye-taylor.json</t>
-  </si>
-  <si>
-    <t>Faye Taylor</t>
-  </si>
-  <si>
-    <t>jorge-c-lerma.json</t>
-  </si>
-  <si>
-    <t>Jorge C. Lerma</t>
-  </si>
-  <si>
-    <t>kristina-molina.json</t>
-  </si>
-  <si>
-    <t>Kristina Molina</t>
-  </si>
-  <si>
-    <t>leroy-gaines.json</t>
-  </si>
-  <si>
-    <t>Leroy Gaines</t>
-  </si>
-  <si>
-    <t>maiya-edgerly.json</t>
-  </si>
-  <si>
-    <t>Maiya Edgerly</t>
-  </si>
-  <si>
-    <t>mark-hurty.json</t>
-  </si>
-  <si>
-    <t>Mark Hurty</t>
-  </si>
-  <si>
-    <t>maximo-santana.json</t>
-  </si>
-  <si>
-    <t>Maximo Santana</t>
-  </si>
-  <si>
-    <t>meron-semedar.json</t>
-  </si>
-  <si>
-    <t>Meron Semedar</t>
-  </si>
-  <si>
-    <t>mike-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Mike Hutchinson</t>
-  </si>
-  <si>
-    <t>richard-santos-raya.json</t>
-  </si>
-  <si>
-    <t>Richard Santos Raya</t>
-  </si>
-  <si>
-    <t>robert-bob-jackson.json</t>
-  </si>
-  <si>
-    <t>Robert "Bob" Jackson</t>
-  </si>
-  <si>
-    <t>seneca-scott.json</t>
-  </si>
-  <si>
-    <t>Seneca Scott</t>
-  </si>
-  <si>
-    <t>sheila-pope-lawrence.json</t>
-  </si>
-  <si>
-    <t>Sheila Pope Lawrence</t>
-  </si>
-  <si>
-    <t>stacy-thomas.json</t>
-  </si>
-  <si>
-    <t>Stacy Thomas</t>
-  </si>
-  <si>
-    <t>steph-dominguez-walton.json</t>
-  </si>
-  <si>
-    <t>Steph Dominguez Walton</t>
-  </si>
-  <si>
-    <t>treva-reid.json</t>
-  </si>
-  <si>
-    <t>Treva Reid</t>
-  </si>
-  <si>
-    <t>tri-ngo.json</t>
-  </si>
-  <si>
-    <t>Tri Ngo</t>
-  </si>
-  <si>
-    <t>vancedric-williams.json</t>
-  </si>
-  <si>
-    <t>VanCedric Williams</t>
-  </si>
-  <si>
-    <t>victor-javier-valerio.json</t>
-  </si>
-  <si>
-    <t>Victor Javier Valerio</t>
-  </si>
-  <si>
-    <t>zoe-lopez-meraz.json</t>
-  </si>
-  <si>
-    <t>Zoe Lopez-Meraz</t>
+    <t>derrick-soo.json</t>
+  </si>
+  <si>
+    <t>oakland-2022-11-08</t>
+  </si>
+  <si>
+    <t>Derrick Soo</t>
+  </si>
+  <si>
+    <t>max-orozco.json</t>
+  </si>
+  <si>
+    <t>Max Orozco</t>
+  </si>
+  <si>
+    <t>john-reimann.json</t>
+  </si>
+  <si>
+    <t>John Reimann</t>
+  </si>
+  <si>
+    <t>nick-resnick.json</t>
+  </si>
+  <si>
+    <t>Nick Resnick</t>
+  </si>
+  <si>
+    <t>paulina-gonzalez.json</t>
+  </si>
+  <si>
+    <t>Paulina Gonzalez</t>
+  </si>
+  <si>
+    <t>john-mimosa-marks.json</t>
+  </si>
+  <si>
+    <t>John Mimosa Marks</t>
+  </si>
+  <si>
+    <t>nenna-joiner.json</t>
+  </si>
+  <si>
+    <t>Nenna Joiner</t>
+  </si>
+  <si>
+    <t>jesse-tapia-juarez.json</t>
+  </si>
+  <si>
+    <t>Jesse Tapia-Juarez</t>
+  </si>
+  <si>
+    <t>kevin-jenkins.json</t>
+  </si>
+  <si>
+    <t>Kevin Jenkins</t>
+  </si>
+  <si>
+    <t>loren-manuel-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Manuel Taylor</t>
+  </si>
+  <si>
+    <t>ignacio-de-la-fuente.json</t>
+  </si>
+  <si>
+    <t>Ignacio De La Fuente</t>
+  </si>
+  <si>
+    <t>desmond-i-jeffries.json</t>
+  </si>
+  <si>
+    <t>Desmond I. Jeffries</t>
+  </si>
+  <si>
+    <t>tyron-c-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron C. Jordan</t>
+  </si>
+  <si>
+    <t>kenny-session.json</t>
+  </si>
+  <si>
+    <t>Kenny Session</t>
+  </si>
+  <si>
+    <t>yakpasua-michael-gbagba-zazaboi.json</t>
+  </si>
+  <si>
+    <t>Yakpasua Michael Gbagba Zazaboi</t>
+  </si>
+  <si>
+    <t>renia-webb.json</t>
+  </si>
+  <si>
+    <t>Renia Webb</t>
+  </si>
+  <si>
+    <t>pecolia-manigo.json</t>
+  </si>
+  <si>
+    <t>Pecolia Manigo</t>
+  </si>
+  <si>
+    <t>janani-ramachandran.json</t>
+  </si>
+  <si>
+    <t>Janani Ramachandran</t>
+  </si>
+  <si>
+    <t>valarie-bachelor.json</t>
+  </si>
+  <si>
+    <t>Valarie Bachelor</t>
+  </si>
+  <si>
+    <t>stephen-schear.json</t>
+  </si>
+  <si>
+    <t>Stephen Schear</t>
+  </si>
+  <si>
+    <t>derreck-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck Johnson</t>
+  </si>
+  <si>
+    <t>jennifer-brouhard.json</t>
+  </si>
+  <si>
+    <t>Jennifer Brouhard</t>
+  </si>
+  <si>
+    <t>david-kakishiba.json</t>
+  </si>
+  <si>
+    <t>David Kakishiba</t>
+  </si>
+  <si>
+    <t>treva-d-reid.json</t>
+  </si>
+  <si>
+    <t>Treva D. Reid</t>
+  </si>
+  <si>
+    <t>gregory-hodge.json</t>
+  </si>
+  <si>
+    <t>Gregory Hodge</t>
+  </si>
+  <si>
+    <t>kyra-mungia.json</t>
+  </si>
+  <si>
+    <t>Kyra Mungia</t>
+  </si>
+  <si>
+    <t>peter-y-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Y. Liu</t>
   </si>
   <si>
     <t>allyssa-victory-villanueva.json</t>
   </si>
   <si>
-    <t>oakland-2022-11-08</t>
-  </si>
-  <si>
     <t>Allyssa Victory Villanueva</t>
   </si>
   <si>
-    <t>david-kakishiba.json</t>
-  </si>
-  <si>
-    <t>David Kakishiba</t>
-  </si>
-  <si>
-    <t>derreck-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck Johnson</t>
-  </si>
-  <si>
-    <t>derrick-soo.json</t>
-  </si>
-  <si>
-    <t>Derrick Soo</t>
-  </si>
-  <si>
-    <t>desmond-i-jeffries.json</t>
-  </si>
-  <si>
-    <t>Desmond I. Jeffries</t>
-  </si>
-  <si>
     <t>elbert-owens.json</t>
   </si>
   <si>
     <t>Elbert Owens</t>
   </si>
   <si>
-    <t>gregory-hodge.json</t>
-  </si>
-  <si>
-    <t>Gregory Hodge</t>
-  </si>
-  <si>
     <t>harold-lowe.json</t>
   </si>
   <si>
     <t>Harold Lowe</t>
   </si>
   <si>
-    <t>ignacio-de-la-fuente.json</t>
-  </si>
-  <si>
-    <t>Ignacio De La Fuente</t>
-  </si>
-  <si>
-    <t>janani-ramachandran.json</t>
-  </si>
-  <si>
-    <t>Janani Ramachandran</t>
-  </si>
-  <si>
-    <t>jennifer-brouhard.json</t>
-  </si>
-  <si>
-    <t>Jennifer Brouhard</t>
-  </si>
-  <si>
-    <t>jesse-tapia-juarez.json</t>
-  </si>
-  <si>
-    <t>Jesse Tapia-Juarez</t>
-  </si>
-  <si>
     <t>joel-velasquez.json</t>
   </si>
   <si>
     <t>Joel Velasquez</t>
   </si>
   <si>
-    <t>john-mimosa-marks.json</t>
-  </si>
-  <si>
-    <t>John Mimosa Marks</t>
-  </si>
-  <si>
-    <t>john-reimann.json</t>
-  </si>
-  <si>
-    <t>John Reimann</t>
-  </si>
-  <si>
-    <t>kenny-session.json</t>
-  </si>
-  <si>
-    <t>Kenny Session</t>
-  </si>
-  <si>
-    <t>kevin-jenkins.json</t>
-  </si>
-  <si>
-    <t>Kevin Jenkins</t>
-  </si>
-  <si>
-    <t>kyra-mungia.json</t>
-  </si>
-  <si>
-    <t>Kyra Mungia</t>
-  </si>
-  <si>
-    <t>loren-manuel-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Manuel Taylor</t>
+    <t>monesha-carter.json</t>
+  </si>
+  <si>
+    <t>Monesha Carter</t>
   </si>
   <si>
     <t>mart-bradley.json</t>
   </si>
   <si>
     <t>Mart Bradley</t>
-  </si>
-  <si>
-    <t>max-orozco.json</t>
-  </si>
-  <si>
-    <t>Max Orozco</t>
-  </si>
-  <si>
-    <t>monesha-carter.json</t>
-  </si>
-  <si>
-    <t>Monesha Carter</t>
-  </si>
-  <si>
-    <t>nenna-joiner.json</t>
-  </si>
-  <si>
-    <t>Nenna Joiner</t>
-  </si>
-  <si>
-    <t>nick-resnick.json</t>
-  </si>
-  <si>
-    <t>Nick Resnick</t>
-  </si>
-  <si>
-    <t>paulina-gonzalez.json</t>
-  </si>
-  <si>
-    <t>Paulina Gonzalez</t>
-  </si>
-  <si>
-    <t>pecolia-manigo.json</t>
-  </si>
-  <si>
-    <t>Pecolia Manigo</t>
-  </si>
-  <si>
-    <t>peter-y-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Y. Liu</t>
-  </si>
-  <si>
-    <t>renia-webb.json</t>
-  </si>
-  <si>
-    <t>Renia Webb</t>
-  </si>
-  <si>
-    <t>stephen-schear.json</t>
-  </si>
-  <si>
-    <t>Stephen Schear</t>
-  </si>
-  <si>
-    <t>treva-d-reid.json</t>
-  </si>
-  <si>
-    <t>Treva D. Reid</t>
-  </si>
-  <si>
-    <t>tyron-c-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron C. Jordan</t>
-  </si>
-  <si>
-    <t>valarie-bachelor.json</t>
-  </si>
-  <si>
-    <t>Valarie Bachelor</t>
-  </si>
-  <si>
-    <t>yakpasua-michael-gbagba-zazaboi.json</t>
-  </si>
-  <si>
-    <t>Yakpasua Michael Gbagba Zazaboi</t>
-  </si>
-  <si>
-    <t>alexandra-ritzie-hernandez.json</t>
-  </si>
-  <si>
-    <t>oakland-2023-11-07</t>
-  </si>
-  <si>
-    <t>Alexandra Ritzie-Hernandez</t>
-  </si>
-  <si>
-    <t>christian-miguel-martinez.json</t>
-  </si>
-  <si>
-    <t>Christian Miguel Martinez</t>
-  </si>
-  <si>
-    <t>oakland-2024-11-05</t>
-  </si>
-  <si>
-    <t>debra-sherman.json</t>
-  </si>
-  <si>
-    <t>Debra Sherman</t>
-  </si>
-  <si>
-    <t>donnel-c-dunbar.json</t>
-  </si>
-  <si>
-    <t>Donnel C. Dunbar</t>
-  </si>
-  <si>
-    <t>edward-c-frank.json</t>
-  </si>
-  <si>
-    <t>Edward C. Frank</t>
-  </si>
-  <si>
-    <t>fabian-robinson.json</t>
-  </si>
-  <si>
-    <t>Fabian Robinson</t>
-  </si>
-  <si>
-    <t>merika-goolsby.json</t>
-  </si>
-  <si>
-    <t>Merika Goolsby</t>
-  </si>
-  <si>
-    <t>ryan-richardson.json</t>
-  </si>
-  <si>
-    <t>Ryan Richardson</t>
-  </si>
-  <si>
-    <t>sam-davis.json</t>
-  </si>
-  <si>
-    <t>Sam Davis</t>
-  </si>
-  <si>
-    <t>selika-thomas.json</t>
-  </si>
-  <si>
-    <t>Selika Thomas</t>
-  </si>
-  <si>
-    <t>shan-m-hirsch.json</t>
-  </si>
-  <si>
-    <t>Shan M. Hirsch</t>
-  </si>
-  <si>
-    <t>shantell-herndon.json</t>
-  </si>
-  <si>
-    <t>Shantell Herndon</t>
-  </si>
-  <si>
-    <t>tonya-love.json</t>
-  </si>
-  <si>
-    <t>Tonya Love</t>
-  </si>
-  <si>
-    <t>tyron-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron Jordan</t>
-  </si>
-  <si>
-    <t>van-cedric-williams.json</t>
-  </si>
-  <si>
-    <t>Van Cedric Williams</t>
-  </si>
-  <si>
-    <t>warren-logan.json</t>
-  </si>
-  <si>
-    <t>Warren Logan</t>
-  </si>
-  <si>
-    <t>zac-unger.json</t>
-  </si>
-  <si>
-    <t>Zac Unger</t>
   </si>
 </sst>
 </file>
@@ -1465,13 +1465,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>177069.06</v>
+        <v>17639</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>176990.06</v>
+        <v>17639</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>176990.06</v>
+        <v>17639</v>
       </c>
       <c r="G2">
         <f>E2-D2</f>
@@ -1493,13 +1493,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>33744.95</v>
+        <v>147.23</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>33744.95</v>
+        <v>147.23</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>33744.95</v>
+        <v>147.23</v>
       </c>
       <c r="G3">
         <f>E3-D3</f>
@@ -1521,13 +1521,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>67825.58</v>
+        <v>12093</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>67450.58</v>
+        <v>12093</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>67450.58</v>
+        <v>12093</v>
       </c>
       <c r="G4">
         <f>E4-D4</f>
@@ -1549,13 +1549,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>124860.15</v>
+        <v>164638.37</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>124686.15</v>
+        <v>164638.37</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>124686.15</v>
+        <v>164638.37</v>
       </c>
       <c r="G5">
         <f>E5-D5</f>
@@ -1577,13 +1577,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>69175</v>
+        <v>242342.31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>69175</v>
+        <v>242276.53</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>69175</v>
+        <v>242276.53</v>
       </c>
       <c r="G6">
         <f>E6-D6</f>
@@ -1605,13 +1605,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>237608.59</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>237608.59</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>237608.59</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>E7-D7</f>
@@ -1633,13 +1633,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>11835</v>
+        <v>115502.98</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>11835</v>
+        <v>115502.98</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>11835</v>
+        <v>115502.98</v>
       </c>
       <c r="G8">
         <f>E8-D8</f>
@@ -1661,13 +1661,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>18747.83</v>
+        <v>124860.15</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>18747.83</v>
+        <v>124686.15</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>18747.83</v>
+        <v>124686.15</v>
       </c>
       <c r="G9">
         <f>E9-D9</f>
@@ -1689,13 +1689,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5000</v>
+        <v>462809.82</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5000</v>
+        <v>462809.82</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5000</v>
+        <v>462809.82</v>
       </c>
       <c r="G10">
         <f>E10-D10</f>
@@ -1717,13 +1717,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>164638.37</v>
+        <v>18747.83</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>164638.37</v>
+        <v>18747.83</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>164638.37</v>
+        <v>18747.83</v>
       </c>
       <c r="G11">
         <f>E11-D11</f>
@@ -1745,13 +1745,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>E12-D12</f>
@@ -1773,13 +1773,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>237608.59</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>237608.59</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>237608.59</v>
       </c>
       <c r="G13">
         <f>E13-D13</f>
@@ -1801,13 +1801,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>38429</v>
+        <v>37784.69</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>38429</v>
+        <v>37784.69</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>38429</v>
+        <v>37784.69</v>
       </c>
       <c r="G14">
         <f>E14-D14</f>
@@ -1857,13 +1857,13 @@
         <v>38</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>10758</v>
+        <v>67825.58</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10758</v>
+        <v>67450.58</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>10758</v>
+        <v>67450.58</v>
       </c>
       <c r="G16">
         <f>E16-D16</f>
@@ -1885,13 +1885,13 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>347445.36</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>347445.36</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>347445.36</v>
       </c>
       <c r="G17">
         <f>E17-D17</f>
@@ -1913,13 +1913,13 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>242342.31</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>242276.53</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>242276.53</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f>E18-D18</f>
@@ -1941,13 +1941,13 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>96641</v>
+        <v>73585.61</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>78241</v>
+        <v>73885.61</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>78241</v>
+        <v>73885.61</v>
       </c>
       <c r="G19">
         <f>E19-D19</f>
@@ -1969,13 +1969,13 @@
         <v>46</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>115502.98</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>115502.98</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>115502.98</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f>E20-D20</f>
@@ -1997,13 +1997,13 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1165.8</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1165.8</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1165.8</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f>E21-D21</f>
@@ -2025,13 +2025,13 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>38429</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>38429</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>38429</v>
       </c>
       <c r="G22">
         <f>E22-D22</f>
@@ -2081,13 +2081,13 @@
         <v>54</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>62212</v>
+        <v>33744.95</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>62212</v>
+        <v>33744.95</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>62212</v>
+        <v>33744.95</v>
       </c>
       <c r="G24">
         <f>E24-D24</f>
@@ -2109,13 +2109,13 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>37784.69</v>
+        <v>10758</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>37784.69</v>
+        <v>10758</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>37784.69</v>
+        <v>10758</v>
       </c>
       <c r="G25">
         <f>E25-D25</f>
@@ -2137,13 +2137,13 @@
         <v>58</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>462809.82</v>
+        <v>34487.87</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>462809.82</v>
+        <v>34487.87</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>462809.82</v>
+        <v>34487.87</v>
       </c>
       <c r="G26">
         <f>E26-D26</f>
@@ -2165,13 +2165,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>34487.87</v>
+        <v>5000</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>34487.87</v>
+        <v>5000</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>34487.87</v>
+        <v>5000</v>
       </c>
       <c r="G27">
         <f>E27-D27</f>
@@ -2221,13 +2221,13 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>147.23</v>
+        <v>2609.9</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>147.23</v>
+        <v>2609.9</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>147.23</v>
+        <v>2609.9</v>
       </c>
       <c r="G29">
         <f>E29-D29</f>
@@ -2249,13 +2249,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>24233.82</v>
+        <v>32601.29</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>24233.82</v>
+        <v>28801.29</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>24233.82</v>
+        <v>28801.29</v>
       </c>
       <c r="G30">
         <f>E30-D30</f>
@@ -2305,13 +2305,13 @@
         <v>70</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0</v>
+        <v>177069.06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0</v>
+        <v>176990.06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0</v>
+        <v>176990.06</v>
       </c>
       <c r="G32">
         <f>E32-D32</f>
@@ -2361,13 +2361,13 @@
         <v>74</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>347445.36</v>
+        <v>62212</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>347445.36</v>
+        <v>62212</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>347445.36</v>
+        <v>62212</v>
       </c>
       <c r="G34">
         <f>E34-D34</f>
@@ -2389,13 +2389,13 @@
         <v>76</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>12093</v>
+        <v>24233.82</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>12093</v>
+        <v>24233.82</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>12093</v>
+        <v>24233.82</v>
       </c>
       <c r="G35">
         <f>E35-D35</f>
@@ -2417,13 +2417,13 @@
         <v>78</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2609.9</v>
+        <v>96641</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2609.9</v>
+        <v>78241</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2609.9</v>
+        <v>78241</v>
       </c>
       <c r="G36">
         <f>E36-D36</f>
@@ -2445,13 +2445,13 @@
         <v>80</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>17639</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>17639</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>17639</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="G37">
         <f>E37-D37</f>
@@ -2473,13 +2473,13 @@
         <v>82</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>73585.61</v>
+        <v>69175</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>73885.61</v>
+        <v>69175</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>73885.61</v>
+        <v>69175</v>
       </c>
       <c r="G38">
         <f>E38-D38</f>
@@ -2501,13 +2501,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>32601.29</v>
+        <v>1165.8</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>28801.29</v>
+        <v>1165.8</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>28801.29</v>
+        <v>1165.8</v>
       </c>
       <c r="G39">
         <f>E39-D39</f>
@@ -2557,13 +2557,13 @@
         <v>88</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="G41">
         <f>E41-D41</f>
@@ -2585,13 +2585,13 @@
         <v>90</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="G42">
         <f>E42-D42</f>
@@ -2613,13 +2613,13 @@
         <v>93</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>67909</v>
+        <v>36218.73</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>67909</v>
+        <v>36218.73</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>67909</v>
+        <v>36218.73</v>
       </c>
       <c r="G43">
         <f>E43-D43</f>
@@ -2641,13 +2641,13 @@
         <v>95</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="G44">
         <f>E44-D44</f>
@@ -2669,13 +2669,13 @@
         <v>97</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>75623.14</v>
+        <v>91201.06</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>75623.14</v>
+        <v>116256.07</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>75623.14</v>
+        <v>116256.07</v>
       </c>
       <c r="G45">
         <f>E45-D45</f>
@@ -2697,13 +2697,13 @@
         <v>99</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>25462</v>
+        <v>8261</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>25462</v>
+        <v>17570</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>25462</v>
+        <v>17570</v>
       </c>
       <c r="G46">
         <f>E46-D46</f>
@@ -2725,13 +2725,13 @@
         <v>101</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>114510.66</v>
+        <v>166664.47</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>114510.66</v>
+        <v>166664.47</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>114510.66</v>
+        <v>166664.47</v>
       </c>
       <c r="G47">
         <f>E47-D47</f>
@@ -2753,13 +2753,13 @@
         <v>103</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>5219.5</v>
+        <v>175685.18</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>5219.5</v>
+        <v>171785.18</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>5219.5</v>
+        <v>171785.18</v>
       </c>
       <c r="G48">
         <f>E48-D48</f>
@@ -2781,13 +2781,13 @@
         <v>105</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f>E49-D49</f>
@@ -2809,13 +2809,13 @@
         <v>107</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>21685.48</v>
+        <v>27381.49</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>21661.31</v>
+        <v>27360</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>21661.31</v>
+        <v>27360</v>
       </c>
       <c r="G50">
         <f>E50-D50</f>
@@ -2837,13 +2837,13 @@
         <v>109</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>27586</v>
+        <v>152579.98</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>27586</v>
+        <v>263064.98</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>27586</v>
+        <v>263064.98</v>
       </c>
       <c r="G51">
         <f>E51-D51</f>
@@ -2865,13 +2865,13 @@
         <v>111</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>22344</v>
+        <v>39343</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>22344</v>
+        <v>39343</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>22344</v>
+        <v>39343</v>
       </c>
       <c r="G52">
         <f>E52-D52</f>
@@ -2893,13 +2893,13 @@
         <v>113</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>25041.85</v>
+        <v>26410.15</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>25041.85</v>
+        <v>26410.15</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>25041.85</v>
+        <v>26410.15</v>
       </c>
       <c r="G53">
         <f>E53-D53</f>
@@ -2921,13 +2921,13 @@
         <v>115</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>42542</v>
+        <v>19109</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>42542</v>
+        <v>19109</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>42542</v>
+        <v>19109</v>
       </c>
       <c r="G54">
         <f>E54-D54</f>
@@ -2949,13 +2949,13 @@
         <v>117</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>5798</v>
+        <v>2250</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>5798</v>
+        <v>2250</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>5798</v>
+        <v>2250</v>
       </c>
       <c r="G55">
         <f>E55-D55</f>
@@ -2977,13 +2977,13 @@
         <v>119</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <f>E56-D56</f>
@@ -3005,13 +3005,13 @@
         <v>121</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0</v>
+        <v>28147.36</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="G57">
         <f>E57-D57</f>
@@ -3024,22 +3024,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>128456.69</v>
+        <v>252632.43</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>128456.69</v>
+        <v>252632.43</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>128456.69</v>
+        <v>252632.43</v>
       </c>
       <c r="G58">
         <f>E58-D58</f>
@@ -3052,22 +3052,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>49348</v>
+        <v>2563.15</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45848</v>
+        <v>6364.15</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45848</v>
+        <v>6364.15</v>
       </c>
       <c r="G59">
         <f>E59-D59</f>
@@ -3080,22 +3080,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>8546</v>
+        <v>53915.6</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>8546</v>
+        <v>202245.6</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>8546</v>
+        <v>202245.6</v>
       </c>
       <c r="G60">
         <f>E60-D60</f>
@@ -3108,22 +3108,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="G61">
         <f>E61-D61</f>
@@ -3136,22 +3136,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="G62">
         <f>E62-D62</f>
@@ -3173,13 +3173,13 @@
         <v>131</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>27941</v>
+        <v>48671.7</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>27941</v>
+        <v>48671.7</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>27941</v>
+        <v>48671.7</v>
       </c>
       <c r="G63">
         <f>E63-D63</f>
@@ -3201,13 +3201,13 @@
         <v>133</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>48119</v>
+        <v>13862.58</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>48119</v>
+        <v>13841.58</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>48119</v>
+        <v>13841.58</v>
       </c>
       <c r="G64">
         <f>E64-D64</f>
@@ -3229,13 +3229,13 @@
         <v>135</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>10634</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>10634</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>10634</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <f>E65-D65</f>
@@ -3257,13 +3257,13 @@
         <v>137</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>316892.58</v>
+        <v>238153.84</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>134125.58</v>
+        <v>238153.84</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>134125.58</v>
+        <v>238153.84</v>
       </c>
       <c r="G66">
         <f>E66-D66</f>
@@ -3276,22 +3276,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>174571.99</v>
+        <v>15065</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>174571.99</v>
+        <v>15065</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>174571.99</v>
+        <v>15065</v>
       </c>
       <c r="G67">
         <f>E67-D67</f>
@@ -3304,22 +3304,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <f>E68-D68</f>
@@ -3332,22 +3332,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>69742.41</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>69742.41</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>69742.41</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <f>E69-D69</f>
@@ -3360,22 +3360,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>200652</v>
+        <v>84182.67</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>200652</v>
+        <v>94682.67</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>200652</v>
+        <v>94682.67</v>
       </c>
       <c r="G70">
         <f>E70-D70</f>
@@ -3388,22 +3388,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-3014.3</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>-3014.3</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-3014.3</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <f>E71-D71</f>
@@ -3416,22 +3416,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>11770.79</v>
+        <v>171614.83</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>10960.79</v>
+        <v>101546.49</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>10960.79</v>
+        <v>101546.49</v>
       </c>
       <c r="G72">
         <f>E72-D72</f>
@@ -3444,22 +3444,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>57047.13</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>57047.13</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>57047.13</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="G73">
         <f>E73-D73</f>
@@ -3472,22 +3472,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>191189.79</v>
+        <v>32262.96</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>191169.79</v>
+        <v>32262.96</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>191169.79</v>
+        <v>32262.96</v>
       </c>
       <c r="G74">
         <f>E74-D74</f>
@@ -3500,13 +3500,13 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -3528,22 +3528,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>95012</v>
+        <v>71517.67</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>95196</v>
+        <v>71517.67</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>95196</v>
+        <v>71517.67</v>
       </c>
       <c r="G76">
         <f>E76-D76</f>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>55131.12</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>55131.12</v>
+        <v>0</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>55131.12</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <f>E77-D77</f>
@@ -3584,22 +3584,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>52266.74</v>
+        <v>50576</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>52227.34</v>
+        <v>35026</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>52227.34</v>
+        <v>35026</v>
       </c>
       <c r="G78">
         <f>E78-D78</f>
@@ -3612,22 +3612,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>105825</v>
+        <v>164884.39</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>105825</v>
+        <v>164800.04</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>105825</v>
+        <v>164800.04</v>
       </c>
       <c r="G79">
         <f>E79-D79</f>
@@ -3640,22 +3640,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0</v>
+        <v>17885.74</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>0</v>
+        <v>17885.74</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>0</v>
+        <v>17885.74</v>
       </c>
       <c r="G80">
         <f>E80-D80</f>
@@ -3668,22 +3668,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>14928.6</v>
+        <v>82077</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>14928.6</v>
+        <v>82077</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>14928.6</v>
+        <v>82077</v>
       </c>
       <c r="G81">
         <f>E81-D81</f>
@@ -3696,22 +3696,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>33876.58</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>25168.58</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>25168.58</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="G82">
         <f>E82-D82</f>
@@ -3724,22 +3724,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>52764.9</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>0</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>0</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="G83">
         <f>E83-D83</f>
@@ -3752,22 +3752,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>57141.65</v>
+        <v>52266.74</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>57141.65</v>
+        <v>52227.34</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>57141.65</v>
+        <v>52227.34</v>
       </c>
       <c r="G84">
         <f>E84-D84</f>
@@ -3780,22 +3780,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>24920</v>
+        <v>14928.6</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>24920</v>
+        <v>14928.6</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>24920</v>
+        <v>14928.6</v>
       </c>
       <c r="G85">
         <f>E85-D85</f>
@@ -3808,22 +3808,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>0</v>
+        <v>615607.3</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>0</v>
+        <v>615607.3</v>
       </c>
       <c r="G86">
         <f>E86-D86</f>
@@ -3836,22 +3836,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>615607.3</v>
+        <v>0</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>615607.3</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <f>E87-D87</f>
@@ -3864,22 +3864,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>153340.26</v>
+        <v>24920</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>154427.26</v>
+        <v>24920</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>154427.26</v>
+        <v>24920</v>
       </c>
       <c r="G88">
         <f>E88-D88</f>
@@ -3892,22 +3892,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>22734.8</v>
+        <v>28752</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>22734.8</v>
+        <v>19392</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>22734.8</v>
+        <v>19392</v>
       </c>
       <c r="G89">
         <f>E89-D89</f>
@@ -3920,22 +3920,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>25483</v>
+        <v>22734.8</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>25483</v>
+        <v>22734.8</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>25483</v>
+        <v>22734.8</v>
       </c>
       <c r="G90">
         <f>E90-D90</f>
@@ -3948,22 +3948,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>28752</v>
+        <v>47283</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>19392</v>
+        <v>41883</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>19392</v>
+        <v>41883</v>
       </c>
       <c r="G91">
         <f>E91-D91</f>
@@ -3976,13 +3976,13 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -4004,22 +4004,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>0</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <f>E93-D93</f>
@@ -4032,22 +4032,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>58399.56</v>
+        <v>43000</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>58379.56</v>
+        <v>43000</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>58379.56</v>
+        <v>43000</v>
       </c>
       <c r="G94">
         <f>E94-D94</f>
@@ -4060,22 +4060,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>43000</v>
+        <v>95012</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>43000</v>
+        <v>95196</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>43000</v>
+        <v>95196</v>
       </c>
       <c r="G95">
         <f>E95-D95</f>
@@ -4088,22 +4088,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>68499.13</v>
+        <v>105825</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>68464.13</v>
+        <v>105825</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>68464.13</v>
+        <v>105825</v>
       </c>
       <c r="G96">
         <f>E96-D96</f>
@@ -4116,22 +4116,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>52764.9</v>
+        <v>25483</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>25483</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>25483</v>
       </c>
       <c r="G97">
         <f>E97-D97</f>
@@ -4144,22 +4144,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>125319.19</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>0</v>
+        <v>125319.19</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>0</v>
+        <v>125319.19</v>
       </c>
       <c r="G98">
         <f>E98-D98</f>
@@ -4172,22 +4172,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>9548.6</v>
+        <v>-3014.3</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>9548.6</v>
+        <v>-3014.3</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>9548.6</v>
+        <v>-3014.3</v>
       </c>
       <c r="G99">
         <f>E99-D99</f>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>47283</v>
+        <v>58399.56</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>41883</v>
+        <v>58379.56</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>41883</v>
+        <v>58379.56</v>
       </c>
       <c r="G100">
         <f>E100-D100</f>
@@ -4228,22 +4228,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>125319.19</v>
+        <v>55131.12</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>125319.19</v>
+        <v>55131.12</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>125319.19</v>
+        <v>55131.12</v>
       </c>
       <c r="G101">
         <f>E101-D101</f>
@@ -4256,22 +4256,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>71517.67</v>
+        <v>33876.58</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>71517.67</v>
+        <v>25168.58</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>71517.67</v>
+        <v>25168.58</v>
       </c>
       <c r="G102">
         <f>E102-D102</f>
@@ -4284,22 +4284,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>0</v>
+        <v>9548.6</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>0</v>
+        <v>9548.6</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>0</v>
+        <v>9548.6</v>
       </c>
       <c r="G103">
         <f>E103-D103</f>
@@ -4312,22 +4312,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>39343</v>
+        <v>0</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>39343</v>
+        <v>0</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>39343</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <f>E104-D104</f>
@@ -4340,22 +4340,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>84182.67</v>
+        <v>68499.13</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>94682.67</v>
+        <v>68464.13</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>94682.67</v>
+        <v>68464.13</v>
       </c>
       <c r="G105">
         <f>E105-D105</f>
@@ -4368,22 +4368,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>13862.58</v>
+        <v>200652</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>13841.58</v>
+        <v>200652</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>13841.58</v>
+        <v>200652</v>
       </c>
       <c r="G106">
         <f>E106-D106</f>
@@ -4396,22 +4396,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>0</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>0</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <f>E107-D107</f>
@@ -4424,13 +4424,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -4452,22 +4452,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>53915.6</v>
+        <v>57141.65</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>202245.6</v>
+        <v>57141.65</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>202245.6</v>
+        <v>57141.65</v>
       </c>
       <c r="G109">
         <f>E109-D109</f>
@@ -4480,22 +4480,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>6225</v>
+        <v>57047.13</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>6225</v>
+        <v>57047.13</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>6225</v>
+        <v>57047.13</v>
       </c>
       <c r="G110">
         <f>E110-D110</f>
@@ -4508,22 +4508,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D111" s="2" t="n">
-        <v>8261</v>
+        <v>11770.79</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>17570</v>
+        <v>10960.79</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>17570</v>
+        <v>10960.79</v>
       </c>
       <c r="G111">
         <f>E111-D111</f>
@@ -4536,22 +4536,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>164884.39</v>
+        <v>153340.26</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>164800.04</v>
+        <v>154427.26</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>164800.04</v>
+        <v>154427.26</v>
       </c>
       <c r="G112">
         <f>E112-D112</f>
@@ -4564,22 +4564,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>152579.98</v>
+        <v>191189.79</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>263064.98</v>
+        <v>191169.79</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>263064.98</v>
+        <v>191169.79</v>
       </c>
       <c r="G113">
         <f>E113-D113</f>
@@ -4592,22 +4592,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>91201.06</v>
+        <v>10088.01</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>116256.07</v>
+        <v>20986.5</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>116256.07</v>
+        <v>20986.5</v>
       </c>
       <c r="G114">
         <f>E114-D114</f>
@@ -4623,19 +4623,19 @@
         <v>208</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <f>E115-D115</f>
@@ -4651,19 +4651,19 @@
         <v>210</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>50576</v>
+        <v>0</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>35026</v>
+        <v>0</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>35026</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <f>E116-D116</f>
@@ -4679,7 +4679,7 @@
         <v>212</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>213</v>
@@ -4707,19 +4707,19 @@
         <v>214</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>48671.7</v>
+        <v>0</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>48671.7</v>
+        <v>0</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>48671.7</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <f>E118-D118</f>
@@ -4732,22 +4732,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>238153.84</v>
+        <v>0</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>238153.84</v>
+        <v>0</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>238153.84</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <f>E119-D119</f>
@@ -4760,22 +4760,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <f>E120-D120</f>
@@ -4788,22 +4788,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>28147.36</v>
+        <v>0</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <f>E121-D121</f>
@@ -4816,22 +4816,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>15065</v>
+        <v>971</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>15065</v>
+        <v>971</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>15065</v>
+        <v>971</v>
       </c>
       <c r="G122">
         <f>E122-D122</f>
@@ -4844,22 +4844,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>19109</v>
+        <v>4592</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>19109</v>
+        <v>4592</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>19109</v>
+        <v>4592</v>
       </c>
       <c r="G123">
         <f>E123-D123</f>
@@ -4872,13 +4872,13 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -4900,22 +4900,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G125">
         <f>E125-D125</f>
@@ -4931,19 +4931,19 @@
         <v>224</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>27381.49</v>
+        <v>0</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>27360</v>
+        <v>0</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>27360</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <f>E126-D126</f>
@@ -4956,22 +4956,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>0</v>
+        <v>25186</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>0</v>
+        <v>25186</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>0</v>
+        <v>25186</v>
       </c>
       <c r="G127">
         <f>E127-D127</f>
@@ -4984,22 +4984,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>82077</v>
+        <v>0</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>82077</v>
+        <v>0</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>82077</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <f>E128-D128</f>
@@ -5012,22 +5012,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>252632.43</v>
+        <v>46973</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>252632.43</v>
+        <v>46973</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>252632.43</v>
+        <v>46973</v>
       </c>
       <c r="G129">
         <f>E129-D129</f>
@@ -5040,22 +5040,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>32262.96</v>
+        <v>0</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>32262.96</v>
+        <v>0</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>32262.96</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <f>E130-D130</f>
@@ -5068,22 +5068,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>171614.83</v>
+        <v>0</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>101546.49</v>
+        <v>0</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>101546.49</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <f>E131-D131</f>
@@ -5096,13 +5096,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>0</v>
@@ -5124,22 +5124,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>17885.74</v>
+        <v>120280.55</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>17885.74</v>
+        <v>120280.55</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>17885.74</v>
+        <v>120280.55</v>
       </c>
       <c r="G133">
         <f>E133-D133</f>
@@ -5152,22 +5152,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <f>E134-D134</f>
@@ -5180,22 +5180,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>175685.18</v>
+        <v>29118</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>171785.18</v>
+        <v>19568</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>171785.18</v>
+        <v>19568</v>
       </c>
       <c r="G135">
         <f>E135-D135</f>
@@ -5208,22 +5208,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>166664.47</v>
+        <v>5885</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>166664.47</v>
+        <v>16223</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>166664.47</v>
+        <v>16223</v>
       </c>
       <c r="G136">
         <f>E136-D136</f>
@@ -5236,22 +5236,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>26410.15</v>
+        <v>75623.14</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>26410.15</v>
+        <v>75623.14</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>26410.15</v>
+        <v>75623.14</v>
       </c>
       <c r="G137">
         <f>E137-D137</f>
@@ -5264,22 +5264,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>36218.73</v>
+        <v>42403.01</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>36218.73</v>
+        <v>42403.01</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>36218.73</v>
+        <v>42403.01</v>
       </c>
       <c r="G138">
         <f>E138-D138</f>
@@ -5292,22 +5292,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>0</v>
+        <v>22344</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>0</v>
+        <v>22344</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>0</v>
+        <v>22344</v>
       </c>
       <c r="G139">
         <f>E139-D139</f>
@@ -5320,22 +5320,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>2563.15</v>
+        <v>1750</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>6364.15</v>
+        <v>1750</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>6364.15</v>
+        <v>1750</v>
       </c>
       <c r="G140">
         <f>E140-D140</f>
@@ -5348,22 +5348,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>34544.2</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>26700.2</v>
+        <v>76760.71000000001</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>26700.2</v>
+        <v>76760.71000000001</v>
       </c>
       <c r="G141">
         <f>E141-D141</f>
@@ -5376,22 +5376,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>0</v>
+        <v>316892.58</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>0</v>
+        <v>134125.58</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>0</v>
+        <v>134125.58</v>
       </c>
       <c r="G142">
         <f>E142-D142</f>
@@ -5404,22 +5404,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>37094.65</v>
+        <v>0</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>41144.65</v>
+        <v>0</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>41144.65</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <f>E143-D143</f>
@@ -5432,22 +5432,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>23645</v>
+        <v>5219.5</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>66770</v>
+        <v>5219.5</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>66770</v>
+        <v>5219.5</v>
       </c>
       <c r="G144">
         <f>E144-D144</f>
@@ -5460,22 +5460,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="G145">
         <f>E145-D145</f>
@@ -5488,13 +5488,13 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D146" s="2" t="n">
         <v>0</v>
@@ -5516,22 +5516,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>0</v>
+        <v>174571.99</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>0</v>
+        <v>174571.99</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>0</v>
+        <v>174571.99</v>
       </c>
       <c r="G147">
         <f>E147-D147</f>
@@ -5544,22 +5544,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>137576.15</v>
+        <v>69742.41</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>173686.15</v>
+        <v>69742.41</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>173686.15</v>
+        <v>69742.41</v>
       </c>
       <c r="G148">
         <f>E148-D148</f>
@@ -5572,22 +5572,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>18839</v>
+        <v>27941</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>34089</v>
+        <v>27941</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>34089</v>
+        <v>27941</v>
       </c>
       <c r="G149">
         <f>E149-D149</f>
@@ -5600,22 +5600,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>257158.97</v>
+        <v>27586</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>257158.97</v>
+        <v>27586</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>257158.97</v>
+        <v>27586</v>
       </c>
       <c r="G150">
         <f>E150-D150</f>
@@ -5628,22 +5628,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>178133.19</v>
+        <v>5798</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>178133.19</v>
+        <v>5798</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>178133.19</v>
+        <v>5798</v>
       </c>
       <c r="G151">
         <f>E151-D151</f>
@@ -5656,22 +5656,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>16286</v>
+        <v>25462</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>22436</v>
+        <v>25462</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>22436</v>
+        <v>25462</v>
       </c>
       <c r="G152">
         <f>E152-D152</f>
@@ -5684,13 +5684,13 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D153" s="2" t="n">
         <v>0</v>
@@ -5712,22 +5712,22 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>0</v>
+        <v>128456.69</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>0</v>
+        <v>128456.69</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>0</v>
+        <v>128456.69</v>
       </c>
       <c r="G154">
         <f>E154-D154</f>
@@ -5740,22 +5740,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>0</v>
+        <v>49348</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>0</v>
+        <v>45848</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>0</v>
+        <v>45848</v>
       </c>
       <c r="G155">
         <f>E155-D155</f>
@@ -5768,22 +5768,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D156" s="2" t="n">
-        <v>0</v>
+        <v>21685.48</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>0</v>
+        <v>21661.31</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>0</v>
+        <v>21661.31</v>
       </c>
       <c r="G156">
         <f>E156-D156</f>
@@ -5796,22 +5796,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="D157" s="2" t="n">
-        <v>8965</v>
+        <v>10634</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>13215</v>
+        <v>10634</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>13215</v>
+        <v>10634</v>
       </c>
       <c r="G157">
         <f>E157-D157</f>
@@ -5824,22 +5824,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>52204</v>
+        <v>67909</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>83679</v>
+        <v>67909</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>83679</v>
+        <v>67909</v>
       </c>
       <c r="G158">
         <f>E158-D158</f>
@@ -5852,22 +5852,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>49384</v>
+        <v>42542</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>69234</v>
+        <v>42542</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>69234</v>
+        <v>42542</v>
       </c>
       <c r="G159">
         <f>E159-D159</f>
@@ -5880,22 +5880,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>424114.99</v>
+        <v>8546</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>8546</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>8546</v>
       </c>
       <c r="G160">
         <f>E160-D160</f>
@@ -5908,22 +5908,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G161">
         <f>E161-D161</f>
@@ -5936,22 +5936,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>2594.65</v>
+        <v>114510.66</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>2275</v>
+        <v>114510.66</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>2275</v>
+        <v>114510.66</v>
       </c>
       <c r="G162">
         <f>E162-D162</f>
@@ -5964,22 +5964,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>10346</v>
+        <v>48119</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>10346</v>
+        <v>48119</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>10346</v>
+        <v>48119</v>
       </c>
       <c r="G163">
         <f>E163-D163</f>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D164" s="2" t="n">
         <v>0</v>
@@ -6020,22 +6020,22 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>0</v>
+        <v>2594.65</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="G165">
         <f>E165-D165</f>
@@ -6048,22 +6048,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>59938.36</v>
+        <v>0</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>59938.36</v>
+        <v>0</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>59938.36</v>
+        <v>0</v>
       </c>
       <c r="G166">
         <f>E166-D166</f>
@@ -6076,13 +6076,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>28103</v>
@@ -6104,22 +6104,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>175063</v>
+        <v>5131</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>175023.41</v>
+        <v>17991</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>175023.41</v>
+        <v>17991</v>
       </c>
       <c r="G168">
         <f>E168-D168</f>
@@ -6132,22 +6132,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>5131</v>
+        <v>0</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>17991</v>
+        <v>0</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>17991</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <f>E169-D169</f>
@@ -6160,22 +6160,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>34408</v>
+        <v>10346</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>37758</v>
+        <v>10346</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>37758</v>
+        <v>10346</v>
       </c>
       <c r="G170">
         <f>E170-D170</f>
@@ -6188,13 +6188,13 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>0</v>
@@ -6216,22 +6216,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>0</v>
+        <v>59938.36</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>0</v>
+        <v>59938.36</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>0</v>
+        <v>59938.36</v>
       </c>
       <c r="G172">
         <f>E172-D172</f>
@@ -6244,22 +6244,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="G173">
         <f>E173-D173</f>
@@ -6272,22 +6272,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>574120.47</v>
+        <v>52204</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>479841.47</v>
+        <v>83679</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>479841.47</v>
+        <v>83679</v>
       </c>
       <c r="G174">
         <f>E174-D174</f>
@@ -6300,22 +6300,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>0</v>
+        <v>424114.99</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>0</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>0</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="G175">
         <f>E175-D175</f>
@@ -6328,22 +6328,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>125340.12</v>
+        <v>257158.97</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>227843.71</v>
+        <v>257158.97</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>227843.71</v>
+        <v>257158.97</v>
       </c>
       <c r="G176">
         <f>E176-D176</f>
@@ -6356,13 +6356,13 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D177" s="2" t="n">
         <v>0</v>
@@ -6384,22 +6384,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>17092.21</v>
+        <v>0</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="G178">
         <f>E178-D178</f>
@@ -6412,22 +6412,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>13256.09</v>
+        <v>8965</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>13256.09</v>
+        <v>13215</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>13256.09</v>
+        <v>13215</v>
       </c>
       <c r="G179">
         <f>E179-D179</f>
@@ -6440,22 +6440,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>29118</v>
+        <v>175063</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>19568</v>
+        <v>175023.41</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>19568</v>
+        <v>175023.41</v>
       </c>
       <c r="G180">
         <f>E180-D180</f>
@@ -6468,22 +6468,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="G181">
         <f>E181-D181</f>
@@ -6496,22 +6496,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="D182" s="2" t="n">
-        <v>5885</v>
+        <v>0</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>16223</v>
+        <v>0</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>16223</v>
+        <v>0</v>
       </c>
       <c r="G182">
         <f>E182-D182</f>
@@ -6524,22 +6524,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>0</v>
+        <v>574120.47</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="G183">
         <f>E183-D183</f>
@@ -6552,22 +6552,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>1200</v>
+        <v>34408</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>1200</v>
+        <v>37758</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>1200</v>
+        <v>37758</v>
       </c>
       <c r="G184">
         <f>E184-D184</f>
@@ -6580,22 +6580,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="D185" s="2" t="n">
-        <v>0</v>
+        <v>178133.19</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>0</v>
+        <v>178133.19</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>0</v>
+        <v>178133.19</v>
       </c>
       <c r="G185">
         <f>E185-D185</f>
@@ -6608,22 +6608,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>0</v>
+        <v>17092.21</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="G186">
         <f>E186-D186</f>
@@ -6636,13 +6636,13 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D187" s="2" t="n">
         <v>0</v>
@@ -6664,22 +6664,22 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>0</v>
+        <v>23645</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="G188">
         <f>E188-D188</f>
@@ -6692,22 +6692,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>0</v>
+        <v>16286</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>0</v>
+        <v>22436</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>0</v>
+        <v>22436</v>
       </c>
       <c r="G189">
         <f>E189-D189</f>
@@ -6720,22 +6720,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>56</v>
+        <v>330</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>971</v>
+        <v>37094.65</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>971</v>
+        <v>41144.65</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>971</v>
+        <v>41144.65</v>
       </c>
       <c r="G190">
         <f>E190-D190</f>
@@ -6748,22 +6748,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>329</v>
+        <v>146</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>330</v>
+        <v>147</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>0</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>0</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>0</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="G191">
         <f>E191-D191</f>
@@ -6779,19 +6779,19 @@
         <v>331</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>332</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>25186</v>
+        <v>125340.12</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>25186</v>
+        <v>227843.71</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>25186</v>
+        <v>227843.71</v>
       </c>
       <c r="G192">
         <f>E192-D192</f>
@@ -6807,19 +6807,19 @@
         <v>333</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>334</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>4592</v>
+        <v>137576.15</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>4592</v>
+        <v>173686.15</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>4592</v>
+        <v>173686.15</v>
       </c>
       <c r="G193">
         <f>E193-D193</f>
@@ -6835,19 +6835,19 @@
         <v>335</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>336</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>0</v>
+        <v>49384</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="G194">
         <f>E194-D194</f>
@@ -6863,7 +6863,7 @@
         <v>337</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>338</v>
@@ -6891,19 +6891,19 @@
         <v>339</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>0</v>
+        <v>34544.2</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="G196">
         <f>E196-D196</f>
@@ -6919,7 +6919,7 @@
         <v>341</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>342</v>
@@ -6944,22 +6944,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>10088.01</v>
+        <v>18839</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>20986.5</v>
+        <v>34089</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>20986.5</v>
+        <v>34089</v>
       </c>
       <c r="G198">
         <f>E198-D198</f>
@@ -6972,13 +6972,13 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>343</v>
+        <v>71</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="D199" s="2" t="n">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>345</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>346</v>
@@ -7031,19 +7031,19 @@
         <v>347</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>46973</v>
+        <v>0</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>46973</v>
+        <v>0</v>
       </c>
       <c r="F201" s="2" t="n">
-        <v>46973</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <f>E201-D201</f>
@@ -7059,19 +7059,19 @@
         <v>349</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>350</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>120280.55</v>
+        <v>0</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>120280.55</v>
+        <v>0</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>120280.55</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <f>E202-D202</f>

--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
   <si>
     <t>filename</t>
   </si>
@@ -743,6 +743,15 @@
   </si>
   <si>
     <t>Christian Miguel Martinez</t>
+  </si>
+  <si>
+    <t>michael-houston.json</t>
+  </si>
+  <si>
+    <t>oakland-2024-03-05</t>
+  </si>
+  <si>
+    <t>Michael Houston</t>
   </si>
   <si>
     <t>bruce-quan.json</t>
@@ -1410,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5245,13 +5254,13 @@
         <v>245</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>75623.14</v>
+        <v>17045</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>75623.14</v>
+        <v>17045</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>75623.14</v>
+        <v>17045</v>
       </c>
       <c r="G137">
         <f>E137-D137</f>
@@ -5267,19 +5276,19 @@
         <v>246</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>42403.01</v>
+        <v>75623.14</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>42403.01</v>
+        <v>75623.14</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>42403.01</v>
+        <v>75623.14</v>
       </c>
       <c r="G138">
         <f>E138-D138</f>
@@ -5292,22 +5301,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>22344</v>
+        <v>42403.01</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>22344</v>
+        <v>42403.01</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>22344</v>
+        <v>42403.01</v>
       </c>
       <c r="G139">
         <f>E139-D139</f>
@@ -5320,22 +5329,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>1750</v>
+        <v>22344</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>1750</v>
+        <v>22344</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>1750</v>
+        <v>22344</v>
       </c>
       <c r="G140">
         <f>E140-D140</f>
@@ -5348,22 +5357,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>1750</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>1750</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>1750</v>
       </c>
       <c r="G141">
         <f>E141-D141</f>
@@ -5376,22 +5385,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>316892.58</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>134125.58</v>
+        <v>76760.71000000001</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>134125.58</v>
+        <v>76760.71000000001</v>
       </c>
       <c r="G142">
         <f>E142-D142</f>
@@ -5404,22 +5413,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>0</v>
+        <v>316892.58</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>0</v>
+        <v>134125.58</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>0</v>
+        <v>134125.58</v>
       </c>
       <c r="G143">
         <f>E143-D143</f>
@@ -5432,22 +5441,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <f>E144-D144</f>
@@ -5460,22 +5469,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>25041.85</v>
+        <v>5219.5</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>25041.85</v>
+        <v>5219.5</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>25041.85</v>
+        <v>5219.5</v>
       </c>
       <c r="G145">
         <f>E145-D145</f>
@@ -5488,22 +5497,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="G146">
         <f>E146-D146</f>
@@ -5516,22 +5525,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>174571.99</v>
+        <v>0</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>174571.99</v>
+        <v>0</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>174571.99</v>
+        <v>0</v>
       </c>
       <c r="G147">
         <f>E147-D147</f>
@@ -5544,22 +5553,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>69742.41</v>
+        <v>174571.99</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>69742.41</v>
+        <v>174571.99</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>69742.41</v>
+        <v>174571.99</v>
       </c>
       <c r="G148">
         <f>E148-D148</f>
@@ -5572,22 +5581,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>27941</v>
+        <v>69742.41</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>27941</v>
+        <v>69742.41</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>27941</v>
+        <v>69742.41</v>
       </c>
       <c r="G149">
         <f>E149-D149</f>
@@ -5600,22 +5609,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>27586</v>
+        <v>27941</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>27586</v>
+        <v>27941</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>27586</v>
+        <v>27941</v>
       </c>
       <c r="G150">
         <f>E150-D150</f>
@@ -5628,22 +5637,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>5798</v>
+        <v>27586</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>5798</v>
+        <v>27586</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>5798</v>
+        <v>27586</v>
       </c>
       <c r="G151">
         <f>E151-D151</f>
@@ -5656,22 +5665,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>25462</v>
+        <v>5798</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>25462</v>
+        <v>5798</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>25462</v>
+        <v>5798</v>
       </c>
       <c r="G152">
         <f>E152-D152</f>
@@ -5684,22 +5693,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="G153">
         <f>E153-D153</f>
@@ -5712,22 +5721,22 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="G154">
         <f>E154-D154</f>
@@ -5740,22 +5749,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>49348</v>
+        <v>128456.69</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>45848</v>
+        <v>128456.69</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>45848</v>
+        <v>128456.69</v>
       </c>
       <c r="G155">
         <f>E155-D155</f>
@@ -5768,22 +5777,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>21685.48</v>
+        <v>49348</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>21661.31</v>
+        <v>45848</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>21661.31</v>
+        <v>45848</v>
       </c>
       <c r="G156">
         <f>E156-D156</f>
@@ -5796,22 +5805,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>10634</v>
+        <v>21685.48</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>10634</v>
+        <v>21661.31</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>10634</v>
+        <v>21661.31</v>
       </c>
       <c r="G157">
         <f>E157-D157</f>
@@ -5824,22 +5833,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>67909</v>
+        <v>10634</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>67909</v>
+        <v>10634</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>67909</v>
+        <v>10634</v>
       </c>
       <c r="G158">
         <f>E158-D158</f>
@@ -5852,22 +5861,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>42542</v>
+        <v>67909</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>42542</v>
+        <v>67909</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>42542</v>
+        <v>67909</v>
       </c>
       <c r="G159">
         <f>E159-D159</f>
@@ -5880,22 +5889,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>8546</v>
+        <v>42542</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>8546</v>
+        <v>42542</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>8546</v>
+        <v>42542</v>
       </c>
       <c r="G160">
         <f>E160-D160</f>
@@ -5908,22 +5917,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>396</v>
+        <v>8546</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>396</v>
+        <v>8546</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>396</v>
+        <v>8546</v>
       </c>
       <c r="G161">
         <f>E161-D161</f>
@@ -5936,22 +5945,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>114510.66</v>
+        <v>396</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>114510.66</v>
+        <v>396</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>114510.66</v>
+        <v>396</v>
       </c>
       <c r="G162">
         <f>E162-D162</f>
@@ -5964,22 +5973,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>48119</v>
+        <v>114510.66</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>48119</v>
+        <v>114510.66</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>48119</v>
+        <v>114510.66</v>
       </c>
       <c r="G163">
         <f>E163-D163</f>
@@ -5992,22 +6001,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="G164">
         <f>E164-D164</f>
@@ -6023,19 +6032,19 @@
         <v>287</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>2594.65</v>
+        <v>0</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>2275</v>
+        <v>0</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>2275</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <f>E165-D165</f>
@@ -6048,22 +6057,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>0</v>
+        <v>2594.65</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="G166">
         <f>E166-D166</f>
@@ -6076,22 +6085,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>28103</v>
+        <v>0</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>58618</v>
+        <v>0</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>58618</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <f>E167-D167</f>
@@ -6104,22 +6113,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>5131</v>
+        <v>28103</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>17991</v>
+        <v>58618</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>17991</v>
+        <v>58618</v>
       </c>
       <c r="G168">
         <f>E168-D168</f>
@@ -6132,22 +6141,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>0</v>
+        <v>5131</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>0</v>
+        <v>17991</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>0</v>
+        <v>17991</v>
       </c>
       <c r="G169">
         <f>E169-D169</f>
@@ -6160,22 +6169,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <f>E170-D170</f>
@@ -6188,22 +6197,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="G171">
         <f>E171-D171</f>
@@ -6216,22 +6225,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>59938.36</v>
+        <v>0</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>59938.36</v>
+        <v>0</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>59938.36</v>
+        <v>0</v>
       </c>
       <c r="G172">
         <f>E172-D172</f>
@@ -6244,22 +6253,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>0</v>
+        <v>59938.36</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>0</v>
+        <v>59938.36</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>0</v>
+        <v>59938.36</v>
       </c>
       <c r="G173">
         <f>E173-D173</f>
@@ -6272,22 +6281,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>52204</v>
+        <v>0</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <f>E174-D174</f>
@@ -6300,22 +6309,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>424114.99</v>
+        <v>52204</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>83679</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>83679</v>
       </c>
       <c r="G175">
         <f>E175-D175</f>
@@ -6328,22 +6337,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>257158.97</v>
+        <v>424114.99</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>257158.97</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>257158.97</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="G176">
         <f>E176-D176</f>
@@ -6356,22 +6365,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="G177">
         <f>E177-D177</f>
@@ -6384,13 +6393,13 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>0</v>
@@ -6412,22 +6421,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>8965</v>
+        <v>0</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>13215</v>
+        <v>0</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>13215</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <f>E179-D179</f>
@@ -6440,22 +6449,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>175063</v>
+        <v>8965</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>175023.41</v>
+        <v>13215</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>175023.41</v>
+        <v>13215</v>
       </c>
       <c r="G180">
         <f>E180-D180</f>
@@ -6468,22 +6477,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>13256.09</v>
+        <v>175063</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>13256.09</v>
+        <v>175023.41</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>13256.09</v>
+        <v>175023.41</v>
       </c>
       <c r="G181">
         <f>E181-D181</f>
@@ -6496,22 +6505,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="G182">
         <f>E182-D182</f>
@@ -6524,22 +6533,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>574120.47</v>
+        <v>0</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <f>E183-D183</f>
@@ -6552,22 +6561,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>34408</v>
+        <v>574120.47</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>37758</v>
+        <v>479841.47</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>37758</v>
+        <v>479841.47</v>
       </c>
       <c r="G184">
         <f>E184-D184</f>
@@ -6580,22 +6589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>178133.19</v>
+        <v>34408</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>178133.19</v>
+        <v>37758</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>178133.19</v>
+        <v>37758</v>
       </c>
       <c r="G185">
         <f>E185-D185</f>
@@ -6608,22 +6617,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>17092.21</v>
+        <v>178133.19</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>35707.63</v>
+        <v>178133.19</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>35707.63</v>
+        <v>178133.19</v>
       </c>
       <c r="G186">
         <f>E186-D186</f>
@@ -6636,22 +6645,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>0</v>
+        <v>17092.21</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="G187">
         <f>E187-D187</f>
@@ -6664,22 +6673,22 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>23645</v>
+        <v>0</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="G188">
         <f>E188-D188</f>
@@ -6692,22 +6701,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>16286</v>
+        <v>23645</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>22436</v>
+        <v>66770</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>22436</v>
+        <v>66770</v>
       </c>
       <c r="G189">
         <f>E189-D189</f>
@@ -6720,22 +6729,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>37094.65</v>
+        <v>16286</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>41144.65</v>
+        <v>22436</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>41144.65</v>
+        <v>22436</v>
       </c>
       <c r="G190">
         <f>E190-D190</f>
@@ -6748,22 +6757,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>37094.65</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>41144.65</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>41144.65</v>
       </c>
       <c r="G191">
         <f>E191-D191</f>
@@ -6776,22 +6785,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>332</v>
+        <v>147</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>125340.12</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>227843.71</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>227843.71</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="G192">
         <f>E192-D192</f>
@@ -6804,22 +6813,22 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>137576.15</v>
+        <v>125340.12</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>173686.15</v>
+        <v>227843.71</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>173686.15</v>
+        <v>227843.71</v>
       </c>
       <c r="G193">
         <f>E193-D193</f>
@@ -6832,22 +6841,22 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>49384</v>
+        <v>137576.15</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>69234</v>
+        <v>173686.15</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>69234</v>
+        <v>173686.15</v>
       </c>
       <c r="G194">
         <f>E194-D194</f>
@@ -6860,22 +6869,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>0</v>
+        <v>49384</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="G195">
         <f>E195-D195</f>
@@ -6888,22 +6897,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>34544.2</v>
+        <v>0</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="G196">
         <f>E196-D196</f>
@@ -6916,22 +6925,22 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>0</v>
+        <v>34544.2</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="G197">
         <f>E197-D197</f>
@@ -6944,22 +6953,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>18839</v>
+        <v>0</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>34089</v>
+        <v>0</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>34089</v>
+        <v>0</v>
       </c>
       <c r="G198">
         <f>E198-D198</f>
@@ -6972,22 +6981,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>0</v>
+        <v>18839</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>0</v>
+        <v>34089</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>0</v>
+        <v>34089</v>
       </c>
       <c r="G199">
         <f>E199-D199</f>
@@ -7000,13 +7009,13 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>346</v>
+        <v>72</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>0</v>
@@ -7028,13 +7037,13 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>0</v>
@@ -7056,13 +7065,13 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>0</v>
@@ -7079,6 +7088,34 @@
       </c>
       <c r="H202">
         <f>F202-D202</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <f>E203-D203</f>
+        <v/>
+      </c>
+      <c r="H203">
+        <f>F203-D203</f>
         <v/>
       </c>
     </row>

--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -6598,13 +6598,13 @@
         <v>321</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>34408</v>
+        <v>34858</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>37758</v>
+        <v>38208</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>37758</v>
+        <v>38208</v>
       </c>
       <c r="G185">
         <f>E185-D185</f>

--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -40,37 +40,247 @@
     <t>diff by source</t>
   </si>
   <si>
+    <t>abel-guillen.json</t>
+  </si>
+  <si>
+    <t>oakland-2014-11-04</t>
+  </si>
+  <si>
+    <t>Abel Guillén</t>
+  </si>
+  <si>
+    <t>aimee-eng.json</t>
+  </si>
+  <si>
+    <t>Aimee Eng</t>
+  </si>
+  <si>
+    <t>andrew-park.json</t>
+  </si>
+  <si>
+    <t>Andrew Park</t>
+  </si>
+  <si>
+    <t>annie-campbell-washington.json</t>
+  </si>
+  <si>
+    <t>Annie Campbell Washington</t>
+  </si>
+  <si>
+    <t>brenda-roberts.json</t>
+  </si>
+  <si>
+    <t>Brenda Roberts</t>
+  </si>
+  <si>
+    <t>bryan-parker.json</t>
+  </si>
+  <si>
+    <t>Bryan Parker</t>
+  </si>
+  <si>
+    <t>charles-williams.json</t>
+  </si>
+  <si>
+    <t>Charles Williams</t>
+  </si>
+  <si>
+    <t>cheri-spigner.json</t>
+  </si>
+  <si>
+    <t>Cheri Spigner</t>
+  </si>
+  <si>
+    <t>christopher-dobbins.json</t>
+  </si>
+  <si>
+    <t>Christopher Dobbins</t>
+  </si>
+  <si>
+    <t>courtney-ruby.json</t>
+  </si>
+  <si>
+    <t>Courtney Ruby</t>
+  </si>
+  <si>
+    <t>dan-siegel.json</t>
+  </si>
+  <si>
+    <t>Dan Siegel</t>
+  </si>
+  <si>
+    <t>dana-king.json</t>
+  </si>
+  <si>
+    <t>Dana King</t>
+  </si>
+  <si>
+    <t>desley-brooks.json</t>
+  </si>
+  <si>
+    <t>Desley Brooks</t>
+  </si>
+  <si>
+    <t>eric-wilson.json</t>
+  </si>
+  <si>
+    <t>Eric Wilson</t>
+  </si>
+  <si>
+    <t>james-moore.json</t>
+  </si>
+  <si>
+    <t>James Moore</t>
+  </si>
+  <si>
+    <t>jason-anderson.json</t>
+  </si>
+  <si>
+    <t>Jason Anderson</t>
+  </si>
+  <si>
+    <t>jean-quan.json</t>
+  </si>
+  <si>
+    <t>Jean Quan</t>
+  </si>
+  <si>
+    <t>jill-broadhurst.json</t>
+  </si>
+  <si>
+    <t>Jill Broadhurst</t>
+  </si>
+  <si>
+    <t>joe-tuman.json</t>
+  </si>
+  <si>
+    <t>Joe Tuman</t>
+  </si>
+  <si>
+    <t>karl-debro.json</t>
+  </si>
+  <si>
+    <t>Karl Debro</t>
+  </si>
+  <si>
+    <t>ken-houston.json</t>
+  </si>
+  <si>
+    <t>Ken Houston</t>
+  </si>
+  <si>
+    <t>ken-maxey.json</t>
+  </si>
+  <si>
+    <t>Ken Maxey</t>
+  </si>
+  <si>
+    <t>kevin-blackburn.json</t>
+  </si>
+  <si>
+    <t>Kevin Blackburn</t>
+  </si>
+  <si>
+    <t>len-raphael.json</t>
+  </si>
+  <si>
+    <t>Len Raphael</t>
+  </si>
+  <si>
+    <t>libby-schaaf.json</t>
+  </si>
+  <si>
+    <t>Libby Schaaf</t>
+  </si>
+  <si>
+    <t>michael-johnson.json</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>nancy-sidebotham.json</t>
+  </si>
+  <si>
+    <t>Nancy Sidebotham</t>
+  </si>
+  <si>
+    <t>nicolas-heidorn.json</t>
+  </si>
+  <si>
+    <t>Nicolas Heidorn</t>
+  </si>
+  <si>
+    <t>nina-senn.json</t>
+  </si>
+  <si>
+    <t>Nina Senn</t>
+  </si>
+  <si>
+    <t>pat-mccullough.json</t>
+  </si>
+  <si>
+    <t>Pat Mccullough</t>
+  </si>
+  <si>
+    <t>paul-lim.json</t>
+  </si>
+  <si>
+    <t>Paul Lim</t>
+  </si>
+  <si>
+    <t>peter-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Liu</t>
+  </si>
+  <si>
+    <t>rebecca-kaplan.json</t>
+  </si>
+  <si>
+    <t>Rebecca Kaplan</t>
+  </si>
+  <si>
+    <t>renato-almanzor.json</t>
+  </si>
+  <si>
+    <t>Renato Almanzor</t>
+  </si>
+  <si>
+    <t>saied-karamooz.json</t>
+  </si>
+  <si>
+    <t>Saied Karamooz</t>
+  </si>
+  <si>
     <t>saleem-shakir-gilmore.json</t>
   </si>
   <si>
-    <t>oakland-2014-11-04</t>
-  </si>
-  <si>
     <t>Saleem Shakir-Gilmore</t>
   </si>
   <si>
-    <t>nicolas-heidorn.json</t>
-  </si>
-  <si>
-    <t>Nicolas Heidorn</t>
-  </si>
-  <si>
-    <t>renato-almanzor.json</t>
-  </si>
-  <si>
-    <t>Renato Almanzor</t>
-  </si>
-  <si>
-    <t>courtney-ruby.json</t>
-  </si>
-  <si>
-    <t>Courtney Ruby</t>
-  </si>
-  <si>
-    <t>jean-quan.json</t>
-  </si>
-  <si>
-    <t>Jean Quan</t>
+    <t>shanthi-gonzales.json</t>
+  </si>
+  <si>
+    <t>Shanthi Gonzales</t>
+  </si>
+  <si>
+    <t>shereda-nosakhare.json</t>
+  </si>
+  <si>
+    <t>Shereda Nosakhare</t>
+  </si>
+  <si>
+    <t>summuel-washington.json</t>
+  </si>
+  <si>
+    <t>Summuel Washington</t>
+  </si>
+  <si>
+    <t>vicente-cruz.json</t>
+  </si>
+  <si>
+    <t>Vicente Cruz</t>
   </si>
   <si>
     <t>william-bo-ghirardelli.json</t>
@@ -79,307 +289,469 @@
     <t>William "Bo" Ghirardelli</t>
   </si>
   <si>
-    <t>joe-tuman.json</t>
-  </si>
-  <si>
-    <t>Joe Tuman</t>
-  </si>
-  <si>
-    <t>annie-campbell-washington.json</t>
-  </si>
-  <si>
-    <t>Annie Campbell Washington</t>
-  </si>
-  <si>
-    <t>libby-schaaf.json</t>
-  </si>
-  <si>
-    <t>Libby Schaaf</t>
-  </si>
-  <si>
-    <t>cheri-spigner.json</t>
-  </si>
-  <si>
-    <t>Cheri Spigner</t>
-  </si>
-  <si>
-    <t>ken-houston.json</t>
-  </si>
-  <si>
-    <t>Ken Houston</t>
-  </si>
-  <si>
-    <t>bryan-parker.json</t>
-  </si>
-  <si>
-    <t>Bryan Parker</t>
-  </si>
-  <si>
-    <t>len-raphael.json</t>
-  </si>
-  <si>
-    <t>Len Raphael</t>
-  </si>
-  <si>
-    <t>jason-anderson.json</t>
-  </si>
-  <si>
-    <t>Jason Anderson</t>
-  </si>
-  <si>
-    <t>andrew-park.json</t>
-  </si>
-  <si>
-    <t>Andrew Park</t>
-  </si>
-  <si>
-    <t>rebecca-kaplan.json</t>
-  </si>
-  <si>
-    <t>Rebecca Kaplan</t>
-  </si>
-  <si>
-    <t>paul-lim.json</t>
-  </si>
-  <si>
-    <t>Paul Lim</t>
-  </si>
-  <si>
-    <t>shanthi-gonzales.json</t>
-  </si>
-  <si>
-    <t>Shanthi Gonzales</t>
-  </si>
-  <si>
-    <t>peter-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Liu</t>
-  </si>
-  <si>
-    <t>pat-mccullough.json</t>
-  </si>
-  <si>
-    <t>Pat Mccullough</t>
-  </si>
-  <si>
-    <t>desley-brooks.json</t>
-  </si>
-  <si>
-    <t>Desley Brooks</t>
-  </si>
-  <si>
-    <t>vicente-cruz.json</t>
-  </si>
-  <si>
-    <t>Vicente Cruz</t>
-  </si>
-  <si>
-    <t>aimee-eng.json</t>
-  </si>
-  <si>
-    <t>Aimee Eng</t>
-  </si>
-  <si>
-    <t>james-moore.json</t>
-  </si>
-  <si>
-    <t>James Moore</t>
-  </si>
-  <si>
-    <t>michael-johnson.json</t>
-  </si>
-  <si>
-    <t>Michael Johnson</t>
-  </si>
-  <si>
-    <t>christopher-dobbins.json</t>
-  </si>
-  <si>
-    <t>Christopher Dobbins</t>
-  </si>
-  <si>
-    <t>eric-wilson.json</t>
-  </si>
-  <si>
-    <t>Eric Wilson</t>
-  </si>
-  <si>
-    <t>saied-karamooz.json</t>
-  </si>
-  <si>
-    <t>Saied Karamooz</t>
-  </si>
-  <si>
-    <t>shereda-nosakhare.json</t>
-  </si>
-  <si>
-    <t>Shereda Nosakhare</t>
-  </si>
-  <si>
-    <t>summuel-washington.json</t>
-  </si>
-  <si>
-    <t>Summuel Washington</t>
-  </si>
-  <si>
-    <t>abel-guillen.json</t>
-  </si>
-  <si>
-    <t>Abel Guillén</t>
-  </si>
-  <si>
-    <t>nancy-sidebotham.json</t>
-  </si>
-  <si>
-    <t>Nancy Sidebotham</t>
-  </si>
-  <si>
-    <t>kevin-blackburn.json</t>
-  </si>
-  <si>
-    <t>Kevin Blackburn</t>
-  </si>
-  <si>
-    <t>nina-senn.json</t>
-  </si>
-  <si>
-    <t>Nina Senn</t>
-  </si>
-  <si>
-    <t>jill-broadhurst.json</t>
-  </si>
-  <si>
-    <t>Jill Broadhurst</t>
-  </si>
-  <si>
-    <t>dana-king.json</t>
-  </si>
-  <si>
-    <t>Dana King</t>
-  </si>
-  <si>
-    <t>brenda-roberts.json</t>
-  </si>
-  <si>
-    <t>Brenda Roberts</t>
-  </si>
-  <si>
-    <t>karl-debro.json</t>
-  </si>
-  <si>
-    <t>Karl Debro</t>
-  </si>
-  <si>
-    <t>ken-maxey.json</t>
-  </si>
-  <si>
-    <t>Ken Maxey</t>
-  </si>
-  <si>
-    <t>charles-williams.json</t>
-  </si>
-  <si>
-    <t>Charles Williams</t>
-  </si>
-  <si>
-    <t>dan-siegel.json</t>
-  </si>
-  <si>
-    <t>Dan Siegel</t>
+    <t>barbara-parker.json</t>
+  </si>
+  <si>
+    <t>oakland-2016-11-08</t>
+  </si>
+  <si>
+    <t>Barbara Parker</t>
+  </si>
+  <si>
+    <t>benjamin-lang.json</t>
+  </si>
+  <si>
+    <t>Benjamin Lang</t>
+  </si>
+  <si>
+    <t>bruce-quan.json</t>
+  </si>
+  <si>
+    <t>Bruce Quan</t>
+  </si>
+  <si>
+    <t>chris-jackson.json</t>
+  </si>
+  <si>
+    <t>Chris Jackson</t>
+  </si>
+  <si>
+    <t>dan-kalb.json</t>
+  </si>
+  <si>
+    <t>Dan Kalb</t>
+  </si>
+  <si>
+    <t>donald-macleay.json</t>
+  </si>
+  <si>
+    <t>Donald Macleay</t>
+  </si>
+  <si>
+    <t>francis-matt-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Matt Hummel</t>
+  </si>
+  <si>
+    <t>huber-trenado.json</t>
+  </si>
+  <si>
+    <t>Huber Trenado</t>
+  </si>
+  <si>
+    <t>james-harris.json</t>
+  </si>
+  <si>
+    <t>James Harris</t>
+  </si>
+  <si>
+    <t>jody-london.json</t>
+  </si>
+  <si>
+    <t>Jody London</t>
+  </si>
+  <si>
+    <t>jumoke-hinton-hodge.json</t>
+  </si>
+  <si>
+    <t>Jumoke Hinton Hodge</t>
+  </si>
+  <si>
+    <t>kevin-corbett.json</t>
+  </si>
+  <si>
+    <t>Kevin Corbett</t>
+  </si>
+  <si>
+    <t>kharyshi-wiginton.json</t>
+  </si>
+  <si>
+    <t>Kharyshi Wiginton</t>
+  </si>
+  <si>
+    <t>larry-reid.json</t>
+  </si>
+  <si>
+    <t>Larry Reid</t>
+  </si>
+  <si>
+    <t>lucky-narain.json</t>
+  </si>
+  <si>
+    <t>Lucky Narain</t>
+  </si>
+  <si>
+    <t>lynette-gibson-mcelhaney.json</t>
+  </si>
+  <si>
+    <t>Lynette Gibson McElhaney</t>
+  </si>
+  <si>
+    <t>marcie-hodge.json</t>
+  </si>
+  <si>
+    <t>Marcie Hodge</t>
+  </si>
+  <si>
+    <t>michael-hassid.json</t>
+  </si>
+  <si>
+    <t>Michael Hassid</t>
+  </si>
+  <si>
+    <t>michael-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Michael Hutchinson</t>
+  </si>
+  <si>
+    <t>nehanda-imara.json</t>
+  </si>
+  <si>
+    <t>Nehanda Imara</t>
+  </si>
+  <si>
+    <t>noel-gallo.json</t>
+  </si>
+  <si>
+    <t>Noel Gallo</t>
+  </si>
+  <si>
+    <t>noni-session.json</t>
+  </si>
+  <si>
+    <t>Noni Session</t>
+  </si>
+  <si>
+    <t>peggy-moore.json</t>
+  </si>
+  <si>
+    <t>Peggy Moore</t>
+  </si>
+  <si>
+    <t>roseann-torres.json</t>
+  </si>
+  <si>
+    <t>Roseann Torres</t>
+  </si>
+  <si>
+    <t>viola-gonzales.json</t>
+  </si>
+  <si>
+    <t>Viola Gonzales</t>
+  </si>
+  <si>
+    <t>oakland-2018-11-06</t>
+  </si>
+  <si>
+    <t>anthony-wilson.json</t>
+  </si>
+  <si>
+    <t>Anthony Wilson</t>
+  </si>
+  <si>
+    <t>cat-brooks.json</t>
+  </si>
+  <si>
+    <t>Cat Brooks</t>
+  </si>
+  <si>
+    <t>cedric-anthony-troupe.json</t>
+  </si>
+  <si>
+    <t>Cedric Anthony Troupe</t>
+  </si>
+  <si>
+    <t>charlie-michelson.json</t>
+  </si>
+  <si>
+    <t>Charlie Michelson</t>
+  </si>
+  <si>
+    <t>clarissa-doutherd.json</t>
+  </si>
+  <si>
+    <t>Clarissa Doutherd</t>
+  </si>
+  <si>
+    <t>donte-kenzie-smith.json</t>
+  </si>
+  <si>
+    <t>Donte Kenzie Smith</t>
+  </si>
+  <si>
+    <t>francis-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Hummel</t>
+  </si>
+  <si>
+    <t>gary-yee.json</t>
+  </si>
+  <si>
+    <t>Gary Yee</t>
+  </si>
+  <si>
+    <t>jesse-a-j-smith.json</t>
+  </si>
+  <si>
+    <t>Jesse A.J. Smith</t>
+  </si>
+  <si>
+    <t>joseph-simmons.json</t>
+  </si>
+  <si>
+    <t>Joseph Simmons</t>
+  </si>
+  <si>
+    <t>joseph-tanios.json</t>
+  </si>
+  <si>
+    <t>Joseph Tanios</t>
+  </si>
+  <si>
+    <t>loren-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Taylor</t>
+  </si>
+  <si>
+    <t>marchon-tatmon.json</t>
+  </si>
+  <si>
+    <t>Marchon Tatmon</t>
+  </si>
+  <si>
+    <t>maria-marlo-rodriguez.json</t>
+  </si>
+  <si>
+    <t>Maria "Marlo" Rodriguez</t>
+  </si>
+  <si>
+    <t>mya-whitaker.json</t>
+  </si>
+  <si>
+    <t>Mya Whitaker</t>
+  </si>
+  <si>
+    <t>natasha-middleton.json</t>
+  </si>
+  <si>
+    <t>Natasha Middleton</t>
+  </si>
+  <si>
+    <t>nayeli-maxson.json</t>
+  </si>
+  <si>
+    <t>Nayeli Maxson</t>
+  </si>
+  <si>
+    <t>nikki-fortunato-bas.json</t>
+  </si>
+  <si>
+    <t>Nikki Fortunato Bas</t>
+  </si>
+  <si>
+    <t>pamela-harris.json</t>
+  </si>
+  <si>
+    <t>Pamela Harris</t>
+  </si>
+  <si>
+    <t>pamela-price.json</t>
+  </si>
+  <si>
+    <t>Pamela Price</t>
+  </si>
+  <si>
+    <t>sheng-thao.json</t>
+  </si>
+  <si>
+    <t>Sheng Thao</t>
+  </si>
+  <si>
+    <t>aaron-clay.json</t>
+  </si>
+  <si>
+    <t>oakland-2020-11-03</t>
+  </si>
+  <si>
+    <t>Aaron Clay</t>
+  </si>
+  <si>
+    <t>alexus-taylor.json</t>
+  </si>
+  <si>
+    <t>Alexus Taylor</t>
+  </si>
+  <si>
+    <t>austin-dannhaus.json</t>
+  </si>
+  <si>
+    <t>Austin Dannhaus</t>
+  </si>
+  <si>
+    <t>ben-coach-tapscott.json</t>
+  </si>
+  <si>
+    <t>Ben "Coach" Tapscott</t>
+  </si>
+  <si>
+    <t>benjamin-sam-davis.json</t>
+  </si>
+  <si>
+    <t>Benjamin "Sam" Davis</t>
+  </si>
+  <si>
+    <t>bronche-taylor.json</t>
+  </si>
+  <si>
+    <t>Bronché Taylor</t>
+  </si>
+  <si>
+    <t>carroll-fife.json</t>
+  </si>
+  <si>
+    <t>Carroll Fife</t>
+  </si>
+  <si>
+    <t>cherisse-gash.json</t>
+  </si>
+  <si>
+    <t>Cherisse Gash</t>
+  </si>
+  <si>
+    <t>clifford-thompson.json</t>
+  </si>
+  <si>
+    <t>Clifford Thompson</t>
+  </si>
+  <si>
+    <t>derreck-b-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck B. Johnson</t>
+  </si>
+  <si>
+    <t>eli-ferran.json</t>
+  </si>
+  <si>
+    <t>Eli Ferran</t>
+  </si>
+  <si>
+    <t>faye-taylor.json</t>
+  </si>
+  <si>
+    <t>Faye Taylor</t>
+  </si>
+  <si>
+    <t>jorge-c-lerma.json</t>
+  </si>
+  <si>
+    <t>Jorge C. Lerma</t>
+  </si>
+  <si>
+    <t>kristina-molina.json</t>
+  </si>
+  <si>
+    <t>Kristina Molina</t>
+  </si>
+  <si>
+    <t>leroy-gaines.json</t>
+  </si>
+  <si>
+    <t>Leroy Gaines</t>
+  </si>
+  <si>
+    <t>maiya-edgerly.json</t>
+  </si>
+  <si>
+    <t>Maiya Edgerly</t>
+  </si>
+  <si>
+    <t>mark-hurty.json</t>
+  </si>
+  <si>
+    <t>Mark Hurty</t>
+  </si>
+  <si>
+    <t>maximo-santana.json</t>
+  </si>
+  <si>
+    <t>Maximo Santana</t>
+  </si>
+  <si>
+    <t>meron-semedar.json</t>
+  </si>
+  <si>
+    <t>Meron Semedar</t>
+  </si>
+  <si>
+    <t>mike-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Mike Hutchinson</t>
+  </si>
+  <si>
+    <t>richard-santos-raya.json</t>
+  </si>
+  <si>
+    <t>Richard Santos Raya</t>
+  </si>
+  <si>
+    <t>robert-bob-jackson.json</t>
+  </si>
+  <si>
+    <t>Robert "Bob" Jackson</t>
+  </si>
+  <si>
+    <t>seneca-scott.json</t>
+  </si>
+  <si>
+    <t>Seneca Scott</t>
+  </si>
+  <si>
+    <t>sheila-pope-lawrence.json</t>
+  </si>
+  <si>
+    <t>Sheila Pope Lawrence</t>
+  </si>
+  <si>
+    <t>stacy-thomas.json</t>
+  </si>
+  <si>
+    <t>Stacy Thomas</t>
+  </si>
+  <si>
+    <t>steph-dominguez-walton.json</t>
+  </si>
+  <si>
+    <t>Steph Dominguez Walton</t>
+  </si>
+  <si>
+    <t>treva-reid.json</t>
+  </si>
+  <si>
+    <t>Treva Reid</t>
+  </si>
+  <si>
+    <t>tri-ngo.json</t>
+  </si>
+  <si>
+    <t>Tri Ngo</t>
   </si>
   <si>
     <t>vancedric-williams.json</t>
   </si>
   <si>
-    <t>oakland-2020-11-03</t>
-  </si>
-  <si>
     <t>VanCedric Williams</t>
   </si>
   <si>
-    <t>cherisse-gash.json</t>
-  </si>
-  <si>
-    <t>Cherisse Gash</t>
-  </si>
-  <si>
-    <t>eli-ferran.json</t>
-  </si>
-  <si>
-    <t>Eli Ferran</t>
-  </si>
-  <si>
-    <t>clifford-thompson.json</t>
-  </si>
-  <si>
-    <t>Clifford Thompson</t>
-  </si>
-  <si>
-    <t>treva-reid.json</t>
-  </si>
-  <si>
-    <t>Treva Reid</t>
-  </si>
-  <si>
-    <t>steph-dominguez-walton.json</t>
-  </si>
-  <si>
-    <t>Steph Dominguez Walton</t>
-  </si>
-  <si>
-    <t>alexus-taylor.json</t>
-  </si>
-  <si>
-    <t>Alexus Taylor</t>
-  </si>
-  <si>
-    <t>mike-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Mike Hutchinson</t>
-  </si>
-  <si>
-    <t>derreck-b-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck B. Johnson</t>
-  </si>
-  <si>
-    <t>austin-dannhaus.json</t>
-  </si>
-  <si>
-    <t>Austin Dannhaus</t>
-  </si>
-  <si>
-    <t>tri-ngo.json</t>
-  </si>
-  <si>
-    <t>Tri Ngo</t>
-  </si>
-  <si>
-    <t>mark-hurty.json</t>
-  </si>
-  <si>
-    <t>Mark Hurty</t>
-  </si>
-  <si>
-    <t>faye-taylor.json</t>
-  </si>
-  <si>
-    <t>Faye Taylor</t>
-  </si>
-  <si>
-    <t>kristina-molina.json</t>
-  </si>
-  <si>
-    <t>Kristina Molina</t>
-  </si>
-  <si>
-    <t>marchon-tatmon.json</t>
-  </si>
-  <si>
-    <t>Marchon Tatmon</t>
+    <t>victor-javier-valerio.json</t>
+  </si>
+  <si>
+    <t>Victor Javier Valerio</t>
   </si>
   <si>
     <t>zoe-lopez-meraz.json</t>
@@ -388,694 +760,322 @@
     <t>Zoe Lopez-Meraz</t>
   </si>
   <si>
-    <t>carroll-fife.json</t>
-  </si>
-  <si>
-    <t>Carroll Fife</t>
-  </si>
-  <si>
-    <t>maiya-edgerly.json</t>
-  </si>
-  <si>
-    <t>Maiya Edgerly</t>
-  </si>
-  <si>
-    <t>stacy-thomas.json</t>
-  </si>
-  <si>
-    <t>Stacy Thomas</t>
-  </si>
-  <si>
-    <t>leroy-gaines.json</t>
-  </si>
-  <si>
-    <t>Leroy Gaines</t>
-  </si>
-  <si>
-    <t>ben-coach-tapscott.json</t>
-  </si>
-  <si>
-    <t>Ben "Coach" Tapscott</t>
-  </si>
-  <si>
-    <t>bronche-taylor.json</t>
-  </si>
-  <si>
-    <t>Bronché Taylor</t>
-  </si>
-  <si>
-    <t>lynette-gibson-mcelhaney.json</t>
-  </si>
-  <si>
-    <t>Lynette Gibson McElhaney</t>
-  </si>
-  <si>
-    <t>marcie-hodge.json</t>
-  </si>
-  <si>
-    <t>Marcie Hodge</t>
-  </si>
-  <si>
-    <t>maximo-santana.json</t>
-  </si>
-  <si>
-    <t>Maximo Santana</t>
-  </si>
-  <si>
-    <t>meron-semedar.json</t>
-  </si>
-  <si>
-    <t>Meron Semedar</t>
-  </si>
-  <si>
-    <t>barbara-parker.json</t>
-  </si>
-  <si>
-    <t>Barbara Parker</t>
-  </si>
-  <si>
-    <t>seneca-scott.json</t>
-  </si>
-  <si>
-    <t>Seneca Scott</t>
-  </si>
-  <si>
-    <t>robert-bob-jackson.json</t>
-  </si>
-  <si>
-    <t>Robert "Bob" Jackson</t>
-  </si>
-  <si>
-    <t>benjamin-sam-davis.json</t>
-  </si>
-  <si>
-    <t>Benjamin "Sam" Davis</t>
-  </si>
-  <si>
-    <t>richard-santos-raya.json</t>
-  </si>
-  <si>
-    <t>Richard Santos Raya</t>
-  </si>
-  <si>
-    <t>victor-javier-valerio.json</t>
-  </si>
-  <si>
-    <t>Victor Javier Valerio</t>
-  </si>
-  <si>
-    <t>aaron-clay.json</t>
-  </si>
-  <si>
-    <t>Aaron Clay</t>
-  </si>
-  <si>
-    <t>jorge-c-lerma.json</t>
-  </si>
-  <si>
-    <t>Jorge C. Lerma</t>
-  </si>
-  <si>
-    <t>dan-kalb.json</t>
-  </si>
-  <si>
-    <t>Dan Kalb</t>
-  </si>
-  <si>
-    <t>sheila-pope-lawrence.json</t>
-  </si>
-  <si>
-    <t>Sheila Pope Lawrence</t>
-  </si>
-  <si>
-    <t>noel-gallo.json</t>
-  </si>
-  <si>
-    <t>Noel Gallo</t>
-  </si>
-  <si>
-    <t>natasha-middleton.json</t>
-  </si>
-  <si>
-    <t>oakland-2018-11-06</t>
-  </si>
-  <si>
-    <t>Natasha Middleton</t>
-  </si>
-  <si>
-    <t>pamela-price.json</t>
-  </si>
-  <si>
-    <t>Pamela Price</t>
-  </si>
-  <si>
-    <t>francis-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Hummel</t>
-  </si>
-  <si>
-    <t>joseph-tanios.json</t>
-  </si>
-  <si>
-    <t>Joseph Tanios</t>
-  </si>
-  <si>
-    <t>mya-whitaker.json</t>
-  </si>
-  <si>
-    <t>Mya Whitaker</t>
-  </si>
-  <si>
-    <t>cedric-anthony-troupe.json</t>
-  </si>
-  <si>
-    <t>Cedric Anthony Troupe</t>
-  </si>
-  <si>
-    <t>nikki-fortunato-bas.json</t>
-  </si>
-  <si>
-    <t>Nikki Fortunato Bas</t>
-  </si>
-  <si>
-    <t>charlie-michelson.json</t>
-  </si>
-  <si>
-    <t>Charlie Michelson</t>
-  </si>
-  <si>
-    <t>maria-marlo-rodriguez.json</t>
-  </si>
-  <si>
-    <t>Maria "Marlo" Rodriguez</t>
-  </si>
-  <si>
-    <t>sheng-thao.json</t>
-  </si>
-  <si>
-    <t>Sheng Thao</t>
-  </si>
-  <si>
-    <t>nayeli-maxson.json</t>
-  </si>
-  <si>
-    <t>Nayeli Maxson</t>
-  </si>
-  <si>
-    <t>clarissa-doutherd.json</t>
-  </si>
-  <si>
-    <t>Clarissa Doutherd</t>
-  </si>
-  <si>
-    <t>gary-yee.json</t>
-  </si>
-  <si>
-    <t>Gary Yee</t>
-  </si>
-  <si>
-    <t>jesse-a-j-smith.json</t>
-  </si>
-  <si>
-    <t>Jesse A.J. Smith</t>
-  </si>
-  <si>
-    <t>pamela-harris.json</t>
-  </si>
-  <si>
-    <t>Pamela Harris</t>
-  </si>
-  <si>
-    <t>donte-kenzie-smith.json</t>
-  </si>
-  <si>
-    <t>Donte Kenzie Smith</t>
-  </si>
-  <si>
-    <t>joseph-simmons.json</t>
-  </si>
-  <si>
-    <t>Joseph Simmons</t>
-  </si>
-  <si>
-    <t>anthony-wilson.json</t>
-  </si>
-  <si>
-    <t>Anthony Wilson</t>
-  </si>
-  <si>
-    <t>loren-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Taylor</t>
-  </si>
-  <si>
-    <t>cat-brooks.json</t>
-  </si>
-  <si>
-    <t>Cat Brooks</t>
+    <t>allyssa-victory-villanueva.json</t>
+  </si>
+  <si>
+    <t>oakland-2022-11-08</t>
+  </si>
+  <si>
+    <t>Allyssa Victory Villanueva</t>
+  </si>
+  <si>
+    <t>david-kakishiba.json</t>
+  </si>
+  <si>
+    <t>David Kakishiba</t>
+  </si>
+  <si>
+    <t>derreck-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck Johnson</t>
+  </si>
+  <si>
+    <t>derrick-soo.json</t>
+  </si>
+  <si>
+    <t>Derrick Soo</t>
+  </si>
+  <si>
+    <t>desmond-i-jeffries.json</t>
+  </si>
+  <si>
+    <t>Desmond I. Jeffries</t>
+  </si>
+  <si>
+    <t>elbert-owens.json</t>
+  </si>
+  <si>
+    <t>Elbert Owens</t>
+  </si>
+  <si>
+    <t>gregory-hodge.json</t>
+  </si>
+  <si>
+    <t>Gregory Hodge</t>
+  </si>
+  <si>
+    <t>harold-lowe.json</t>
+  </si>
+  <si>
+    <t>Harold Lowe</t>
+  </si>
+  <si>
+    <t>ignacio-de-la-fuente.json</t>
+  </si>
+  <si>
+    <t>Ignacio De La Fuente</t>
+  </si>
+  <si>
+    <t>janani-ramachandran.json</t>
+  </si>
+  <si>
+    <t>Janani Ramachandran</t>
+  </si>
+  <si>
+    <t>jennifer-brouhard.json</t>
+  </si>
+  <si>
+    <t>Jennifer Brouhard</t>
+  </si>
+  <si>
+    <t>jesse-tapia-juarez.json</t>
+  </si>
+  <si>
+    <t>Jesse Tapia-Juarez</t>
+  </si>
+  <si>
+    <t>joel-velasquez.json</t>
+  </si>
+  <si>
+    <t>Joel Velasquez</t>
+  </si>
+  <si>
+    <t>john-mimosa-marks.json</t>
+  </si>
+  <si>
+    <t>John Mimosa Marks</t>
+  </si>
+  <si>
+    <t>john-reimann.json</t>
+  </si>
+  <si>
+    <t>John Reimann</t>
+  </si>
+  <si>
+    <t>kenny-session.json</t>
+  </si>
+  <si>
+    <t>Kenny Session</t>
+  </si>
+  <si>
+    <t>kevin-jenkins.json</t>
+  </si>
+  <si>
+    <t>Kevin Jenkins</t>
+  </si>
+  <si>
+    <t>kyra-mungia.json</t>
+  </si>
+  <si>
+    <t>Kyra Mungia</t>
+  </si>
+  <si>
+    <t>loren-manuel-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Manuel Taylor</t>
+  </si>
+  <si>
+    <t>mart-bradley.json</t>
+  </si>
+  <si>
+    <t>Mart Bradley</t>
+  </si>
+  <si>
+    <t>max-orozco.json</t>
+  </si>
+  <si>
+    <t>Max Orozco</t>
+  </si>
+  <si>
+    <t>monesha-carter.json</t>
+  </si>
+  <si>
+    <t>Monesha Carter</t>
+  </si>
+  <si>
+    <t>nenna-joiner.json</t>
+  </si>
+  <si>
+    <t>Nenna Joiner</t>
+  </si>
+  <si>
+    <t>nick-resnick.json</t>
+  </si>
+  <si>
+    <t>Nick Resnick</t>
+  </si>
+  <si>
+    <t>paulina-gonzalez.json</t>
+  </si>
+  <si>
+    <t>Paulina Gonzalez</t>
+  </si>
+  <si>
+    <t>pecolia-manigo.json</t>
+  </si>
+  <si>
+    <t>Pecolia Manigo</t>
+  </si>
+  <si>
+    <t>peter-y-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Y. Liu</t>
+  </si>
+  <si>
+    <t>renia-webb.json</t>
+  </si>
+  <si>
+    <t>Renia Webb</t>
+  </si>
+  <si>
+    <t>stephen-schear.json</t>
+  </si>
+  <si>
+    <t>Stephen Schear</t>
+  </si>
+  <si>
+    <t>treva-d-reid.json</t>
+  </si>
+  <si>
+    <t>Treva D. Reid</t>
+  </si>
+  <si>
+    <t>tyron-c-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron C. Jordan</t>
+  </si>
+  <si>
+    <t>valarie-bachelor.json</t>
+  </si>
+  <si>
+    <t>Valarie Bachelor</t>
+  </si>
+  <si>
+    <t>yakpasua-michael-gbagba-zazaboi.json</t>
+  </si>
+  <si>
+    <t>Yakpasua Michael Gbagba Zazaboi</t>
+  </si>
+  <si>
+    <t>alexandra-ritzie-hernandez.json</t>
+  </si>
+  <si>
+    <t>oakland-2023-11-07</t>
+  </si>
+  <si>
+    <t>Alexandra Ritzie-Hernandez</t>
+  </si>
+  <si>
+    <t>christian-miguel-martinez.json</t>
+  </si>
+  <si>
+    <t>Christian Miguel Martinez</t>
+  </si>
+  <si>
+    <t>michael-houston.json</t>
+  </si>
+  <si>
+    <t>oakland-2024-03-05</t>
+  </si>
+  <si>
+    <t>Michael Houston</t>
   </si>
   <si>
     <t>oakland-2024-11-05</t>
   </si>
   <si>
+    <t>debra-sherman.json</t>
+  </si>
+  <si>
+    <t>Debra Sherman</t>
+  </si>
+  <si>
     <t>donnel-c-dunbar.json</t>
   </si>
   <si>
     <t>Donnel C. Dunbar</t>
   </si>
   <si>
+    <t>edward-c-frank.json</t>
+  </si>
+  <si>
+    <t>Edward C. Frank</t>
+  </si>
+  <si>
+    <t>fabian-robinson.json</t>
+  </si>
+  <si>
+    <t>Fabian Robinson</t>
+  </si>
+  <si>
+    <t>merika-goolsby.json</t>
+  </si>
+  <si>
+    <t>Merika Goolsby</t>
+  </si>
+  <si>
+    <t>ryan-richardson.json</t>
+  </si>
+  <si>
+    <t>Ryan Richardson</t>
+  </si>
+  <si>
+    <t>sam-davis.json</t>
+  </si>
+  <si>
+    <t>Sam Davis</t>
+  </si>
+  <si>
+    <t>selika-thomas.json</t>
+  </si>
+  <si>
+    <t>Selika Thomas</t>
+  </si>
+  <si>
+    <t>shan-m-hirsch.json</t>
+  </si>
+  <si>
+    <t>Shan M. Hirsch</t>
+  </si>
+  <si>
     <t>shantell-herndon.json</t>
   </si>
   <si>
     <t>Shantell Herndon</t>
   </si>
   <si>
+    <t>tonya-love.json</t>
+  </si>
+  <si>
+    <t>Tonya Love</t>
+  </si>
+  <si>
+    <t>tyron-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron Jordan</t>
+  </si>
+  <si>
     <t>van-cedric-williams.json</t>
   </si>
   <si>
     <t>Van Cedric Williams</t>
   </si>
   <si>
-    <t>shan-m-hirsch.json</t>
-  </si>
-  <si>
-    <t>Shan M. Hirsch</t>
-  </si>
-  <si>
-    <t>edward-c-frank.json</t>
-  </si>
-  <si>
-    <t>Edward C. Frank</t>
-  </si>
-  <si>
-    <t>tonya-love.json</t>
-  </si>
-  <si>
-    <t>Tonya Love</t>
-  </si>
-  <si>
-    <t>sam-davis.json</t>
-  </si>
-  <si>
-    <t>Sam Davis</t>
-  </si>
-  <si>
-    <t>debra-sherman.json</t>
-  </si>
-  <si>
-    <t>Debra Sherman</t>
-  </si>
-  <si>
-    <t>selika-thomas.json</t>
-  </si>
-  <si>
-    <t>Selika Thomas</t>
-  </si>
-  <si>
-    <t>ryan-richardson.json</t>
-  </si>
-  <si>
-    <t>Ryan Richardson</t>
-  </si>
-  <si>
-    <t>alexandra-ritzie-hernandez.json</t>
-  </si>
-  <si>
-    <t>Alexandra Ritzie-Hernandez</t>
-  </si>
-  <si>
     <t>warren-logan.json</t>
   </si>
   <si>
     <t>Warren Logan</t>
   </si>
   <si>
-    <t>fabian-robinson.json</t>
-  </si>
-  <si>
-    <t>Fabian Robinson</t>
-  </si>
-  <si>
-    <t>tyron-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron Jordan</t>
-  </si>
-  <si>
-    <t>merika-goolsby.json</t>
-  </si>
-  <si>
-    <t>Merika Goolsby</t>
-  </si>
-  <si>
     <t>zac-unger.json</t>
   </si>
   <si>
     <t>Zac Unger</t>
-  </si>
-  <si>
-    <t>christian-miguel-martinez.json</t>
-  </si>
-  <si>
-    <t>oakland-2023-11-07</t>
-  </si>
-  <si>
-    <t>Christian Miguel Martinez</t>
-  </si>
-  <si>
-    <t>michael-houston.json</t>
-  </si>
-  <si>
-    <t>oakland-2024-03-05</t>
-  </si>
-  <si>
-    <t>Michael Houston</t>
-  </si>
-  <si>
-    <t>bruce-quan.json</t>
-  </si>
-  <si>
-    <t>oakland-2016-11-08</t>
-  </si>
-  <si>
-    <t>Bruce Quan</t>
-  </si>
-  <si>
-    <t>roseann-torres.json</t>
-  </si>
-  <si>
-    <t>Roseann Torres</t>
-  </si>
-  <si>
-    <t>jody-london.json</t>
-  </si>
-  <si>
-    <t>Jody London</t>
-  </si>
-  <si>
-    <t>francis-matt-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Matt Hummel</t>
-  </si>
-  <si>
-    <t>larry-reid.json</t>
-  </si>
-  <si>
-    <t>Larry Reid</t>
-  </si>
-  <si>
-    <t>peggy-moore.json</t>
-  </si>
-  <si>
-    <t>Peggy Moore</t>
-  </si>
-  <si>
-    <t>lucky-narain.json</t>
-  </si>
-  <si>
-    <t>Lucky Narain</t>
-  </si>
-  <si>
-    <t>donald-macleay.json</t>
-  </si>
-  <si>
-    <t>Donald Macleay</t>
-  </si>
-  <si>
-    <t>jumoke-hinton-hodge.json</t>
-  </si>
-  <si>
-    <t>Jumoke Hinton Hodge</t>
-  </si>
-  <si>
-    <t>benjamin-lang.json</t>
-  </si>
-  <si>
-    <t>Benjamin Lang</t>
-  </si>
-  <si>
-    <t>viola-gonzales.json</t>
-  </si>
-  <si>
-    <t>Viola Gonzales</t>
-  </si>
-  <si>
-    <t>nehanda-imara.json</t>
-  </si>
-  <si>
-    <t>Nehanda Imara</t>
-  </si>
-  <si>
-    <t>james-harris.json</t>
-  </si>
-  <si>
-    <t>James Harris</t>
-  </si>
-  <si>
-    <t>kharyshi-wiginton.json</t>
-  </si>
-  <si>
-    <t>Kharyshi Wiginton</t>
-  </si>
-  <si>
-    <t>chris-jackson.json</t>
-  </si>
-  <si>
-    <t>Chris Jackson</t>
-  </si>
-  <si>
-    <t>michael-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>huber-trenado.json</t>
-  </si>
-  <si>
-    <t>Huber Trenado</t>
-  </si>
-  <si>
-    <t>noni-session.json</t>
-  </si>
-  <si>
-    <t>Noni Session</t>
-  </si>
-  <si>
-    <t>kevin-corbett.json</t>
-  </si>
-  <si>
-    <t>Kevin Corbett</t>
-  </si>
-  <si>
-    <t>michael-hassid.json</t>
-  </si>
-  <si>
-    <t>Michael Hassid</t>
-  </si>
-  <si>
-    <t>derrick-soo.json</t>
-  </si>
-  <si>
-    <t>oakland-2022-11-08</t>
-  </si>
-  <si>
-    <t>Derrick Soo</t>
-  </si>
-  <si>
-    <t>max-orozco.json</t>
-  </si>
-  <si>
-    <t>Max Orozco</t>
-  </si>
-  <si>
-    <t>john-reimann.json</t>
-  </si>
-  <si>
-    <t>John Reimann</t>
-  </si>
-  <si>
-    <t>nick-resnick.json</t>
-  </si>
-  <si>
-    <t>Nick Resnick</t>
-  </si>
-  <si>
-    <t>paulina-gonzalez.json</t>
-  </si>
-  <si>
-    <t>Paulina Gonzalez</t>
-  </si>
-  <si>
-    <t>john-mimosa-marks.json</t>
-  </si>
-  <si>
-    <t>John Mimosa Marks</t>
-  </si>
-  <si>
-    <t>nenna-joiner.json</t>
-  </si>
-  <si>
-    <t>Nenna Joiner</t>
-  </si>
-  <si>
-    <t>jesse-tapia-juarez.json</t>
-  </si>
-  <si>
-    <t>Jesse Tapia-Juarez</t>
-  </si>
-  <si>
-    <t>kevin-jenkins.json</t>
-  </si>
-  <si>
-    <t>Kevin Jenkins</t>
-  </si>
-  <si>
-    <t>loren-manuel-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Manuel Taylor</t>
-  </si>
-  <si>
-    <t>ignacio-de-la-fuente.json</t>
-  </si>
-  <si>
-    <t>Ignacio De La Fuente</t>
-  </si>
-  <si>
-    <t>desmond-i-jeffries.json</t>
-  </si>
-  <si>
-    <t>Desmond I. Jeffries</t>
-  </si>
-  <si>
-    <t>tyron-c-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron C. Jordan</t>
-  </si>
-  <si>
-    <t>kenny-session.json</t>
-  </si>
-  <si>
-    <t>Kenny Session</t>
-  </si>
-  <si>
-    <t>yakpasua-michael-gbagba-zazaboi.json</t>
-  </si>
-  <si>
-    <t>Yakpasua Michael Gbagba Zazaboi</t>
-  </si>
-  <si>
-    <t>renia-webb.json</t>
-  </si>
-  <si>
-    <t>Renia Webb</t>
-  </si>
-  <si>
-    <t>pecolia-manigo.json</t>
-  </si>
-  <si>
-    <t>Pecolia Manigo</t>
-  </si>
-  <si>
-    <t>janani-ramachandran.json</t>
-  </si>
-  <si>
-    <t>Janani Ramachandran</t>
-  </si>
-  <si>
-    <t>valarie-bachelor.json</t>
-  </si>
-  <si>
-    <t>Valarie Bachelor</t>
-  </si>
-  <si>
-    <t>stephen-schear.json</t>
-  </si>
-  <si>
-    <t>Stephen Schear</t>
-  </si>
-  <si>
-    <t>derreck-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck Johnson</t>
-  </si>
-  <si>
-    <t>jennifer-brouhard.json</t>
-  </si>
-  <si>
-    <t>Jennifer Brouhard</t>
-  </si>
-  <si>
-    <t>david-kakishiba.json</t>
-  </si>
-  <si>
-    <t>David Kakishiba</t>
-  </si>
-  <si>
-    <t>treva-d-reid.json</t>
-  </si>
-  <si>
-    <t>Treva D. Reid</t>
-  </si>
-  <si>
-    <t>gregory-hodge.json</t>
-  </si>
-  <si>
-    <t>Gregory Hodge</t>
-  </si>
-  <si>
-    <t>kyra-mungia.json</t>
-  </si>
-  <si>
-    <t>Kyra Mungia</t>
-  </si>
-  <si>
-    <t>peter-y-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Y. Liu</t>
-  </si>
-  <si>
-    <t>allyssa-victory-villanueva.json</t>
-  </si>
-  <si>
-    <t>Allyssa Victory Villanueva</t>
-  </si>
-  <si>
-    <t>elbert-owens.json</t>
-  </si>
-  <si>
-    <t>Elbert Owens</t>
-  </si>
-  <si>
-    <t>harold-lowe.json</t>
-  </si>
-  <si>
-    <t>Harold Lowe</t>
-  </si>
-  <si>
-    <t>joel-velasquez.json</t>
-  </si>
-  <si>
-    <t>Joel Velasquez</t>
-  </si>
-  <si>
-    <t>monesha-carter.json</t>
-  </si>
-  <si>
-    <t>Monesha Carter</t>
-  </si>
-  <si>
-    <t>mart-bradley.json</t>
-  </si>
-  <si>
-    <t>Mart Bradley</t>
   </si>
 </sst>
 </file>
@@ -1474,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>17639</v>
+        <v>177069.06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>17639</v>
+        <v>177069.06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17639</v>
+        <v>177069.06</v>
       </c>
       <c r="G2">
         <f>E2-D2</f>
@@ -1502,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>147.23</v>
+        <v>33744.95</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>147.23</v>
+        <v>33744.95</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>147.23</v>
+        <v>33744.95</v>
       </c>
       <c r="G3">
         <f>E3-D3</f>
@@ -1530,13 +1530,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12093</v>
+        <v>67825.58</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>12093</v>
+        <v>67825.58</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>12093</v>
+        <v>67825.58</v>
       </c>
       <c r="G4">
         <f>E4-D4</f>
@@ -1558,13 +1558,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>164638.37</v>
+        <v>124860.15</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>164638.37</v>
+        <v>124860.15</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>164638.37</v>
+        <v>124860.15</v>
       </c>
       <c r="G5">
         <f>E5-D5</f>
@@ -1586,13 +1586,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>242342.31</v>
+        <v>69175</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>242276.53</v>
+        <v>69175</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>242276.53</v>
+        <v>69175</v>
       </c>
       <c r="G6">
         <f>E6-D6</f>
@@ -1614,13 +1614,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>237608.59</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>237608.59</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0</v>
+        <v>237608.59</v>
       </c>
       <c r="G7">
         <f>E7-D7</f>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>115502.98</v>
+        <v>11835</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>115502.98</v>
+        <v>11835</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>115502.98</v>
+        <v>11835</v>
       </c>
       <c r="G8">
         <f>E8-D8</f>
@@ -1670,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>124860.15</v>
+        <v>18747.83</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>124686.15</v>
+        <v>18747.83</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>124686.15</v>
+        <v>18747.83</v>
       </c>
       <c r="G9">
         <f>E9-D9</f>
@@ -1698,13 +1698,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>462809.82</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>462809.82</v>
+        <v>5000</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>462809.82</v>
+        <v>5000</v>
       </c>
       <c r="G10">
         <f>E10-D10</f>
@@ -1726,13 +1726,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>18747.83</v>
+        <v>164638.37</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>18747.83</v>
+        <v>164638.37</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>18747.83</v>
+        <v>164638.37</v>
       </c>
       <c r="G11">
         <f>E11-D11</f>
@@ -1754,13 +1754,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="G12">
         <f>E12-D12</f>
@@ -1782,13 +1782,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>237608.59</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>237608.59</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>237608.59</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="G13">
         <f>E13-D13</f>
@@ -1810,13 +1810,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>37784.69</v>
+        <v>38429</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>37784.69</v>
+        <v>38429</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>37784.69</v>
+        <v>38429</v>
       </c>
       <c r="G14">
         <f>E14-D14</f>
@@ -1866,13 +1866,13 @@
         <v>38</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>67825.58</v>
+        <v>10758</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>67450.58</v>
+        <v>10758</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>67450.58</v>
+        <v>10758</v>
       </c>
       <c r="G16">
         <f>E16-D16</f>
@@ -1894,13 +1894,13 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>347445.36</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>347445.36</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>347445.36</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f>E17-D17</f>
@@ -1922,13 +1922,13 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>242342.31</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>242342.31</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>242342.31</v>
       </c>
       <c r="G18">
         <f>E18-D18</f>
@@ -1950,13 +1950,13 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>73585.61</v>
+        <v>96641</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>73885.61</v>
+        <v>78241</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>73885.61</v>
+        <v>78241</v>
       </c>
       <c r="G19">
         <f>E19-D19</f>
@@ -1978,13 +1978,13 @@
         <v>46</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>115502.98</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>115502.98</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>115502.98</v>
       </c>
       <c r="G20">
         <f>E20-D20</f>
@@ -2006,13 +2006,13 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>1165.8</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>1165.8</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>1165.8</v>
       </c>
       <c r="G21">
         <f>E21-D21</f>
@@ -2034,13 +2034,13 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>38429</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>38429</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>38429</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f>E22-D22</f>
@@ -2090,13 +2090,13 @@
         <v>54</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>33744.95</v>
+        <v>62212</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>33744.95</v>
+        <v>62212</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>33744.95</v>
+        <v>62212</v>
       </c>
       <c r="G24">
         <f>E24-D24</f>
@@ -2118,13 +2118,13 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>10758</v>
+        <v>37784.69</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>10758</v>
+        <v>37784.69</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>10758</v>
+        <v>37784.69</v>
       </c>
       <c r="G25">
         <f>E25-D25</f>
@@ -2146,13 +2146,13 @@
         <v>58</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>34487.87</v>
+        <v>462809.82</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>34487.87</v>
+        <v>462809.82</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>34487.87</v>
+        <v>462809.82</v>
       </c>
       <c r="G26">
         <f>E26-D26</f>
@@ -2174,13 +2174,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5000</v>
+        <v>34487.87</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>5000</v>
+        <v>34487.87</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5000</v>
+        <v>34487.87</v>
       </c>
       <c r="G27">
         <f>E27-D27</f>
@@ -2230,13 +2230,13 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2609.9</v>
+        <v>147.23</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2609.9</v>
+        <v>147.23</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2609.9</v>
+        <v>147.23</v>
       </c>
       <c r="G29">
         <f>E29-D29</f>
@@ -2258,13 +2258,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>32601.29</v>
+        <v>24233.82</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>28801.29</v>
+        <v>24233.82</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>28801.29</v>
+        <v>24233.82</v>
       </c>
       <c r="G30">
         <f>E30-D30</f>
@@ -2314,13 +2314,13 @@
         <v>70</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>177069.06</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>176990.06</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>176990.06</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <f>E32-D32</f>
@@ -2370,13 +2370,13 @@
         <v>74</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>62212</v>
+        <v>347445.36</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>62212</v>
+        <v>347445.36</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>62212</v>
+        <v>347445.36</v>
       </c>
       <c r="G34">
         <f>E34-D34</f>
@@ -2398,13 +2398,13 @@
         <v>76</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>24233.82</v>
+        <v>12093</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>24233.82</v>
+        <v>12093</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>24233.82</v>
+        <v>12093</v>
       </c>
       <c r="G35">
         <f>E35-D35</f>
@@ -2426,13 +2426,13 @@
         <v>78</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>96641</v>
+        <v>2609.9</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>78241</v>
+        <v>2609.9</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>78241</v>
+        <v>2609.9</v>
       </c>
       <c r="G36">
         <f>E36-D36</f>
@@ -2454,13 +2454,13 @@
         <v>80</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>17639</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>17639</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>17639</v>
       </c>
       <c r="G37">
         <f>E37-D37</f>
@@ -2482,13 +2482,13 @@
         <v>82</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>69175</v>
+        <v>73585.61</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>69175</v>
+        <v>73885.61</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>69175</v>
+        <v>73885.61</v>
       </c>
       <c r="G38">
         <f>E38-D38</f>
@@ -2510,13 +2510,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1165.8</v>
+        <v>32601.29</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1165.8</v>
+        <v>28801.29</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1165.8</v>
+        <v>28801.29</v>
       </c>
       <c r="G39">
         <f>E39-D39</f>
@@ -2566,13 +2566,13 @@
         <v>88</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>11835</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>11835</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>11835</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f>E41-D41</f>
@@ -2594,13 +2594,13 @@
         <v>90</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <f>E42-D42</f>
@@ -2622,13 +2622,13 @@
         <v>93</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>36218.73</v>
+        <v>67909</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>36218.73</v>
+        <v>67909</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>36218.73</v>
+        <v>67909</v>
       </c>
       <c r="G43">
         <f>E43-D43</f>
@@ -2650,13 +2650,13 @@
         <v>95</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <f>E44-D44</f>
@@ -2678,13 +2678,13 @@
         <v>97</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>91201.06</v>
+        <v>75623.14</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>116256.07</v>
+        <v>75623.14</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>116256.07</v>
+        <v>75623.14</v>
       </c>
       <c r="G45">
         <f>E45-D45</f>
@@ -2706,13 +2706,13 @@
         <v>99</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>8261</v>
+        <v>25462</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>17570</v>
+        <v>25462</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>17570</v>
+        <v>25462</v>
       </c>
       <c r="G46">
         <f>E46-D46</f>
@@ -2734,13 +2734,13 @@
         <v>101</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>166664.47</v>
+        <v>114510.66</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>166664.47</v>
+        <v>114510.66</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>166664.47</v>
+        <v>114510.66</v>
       </c>
       <c r="G47">
         <f>E47-D47</f>
@@ -2762,13 +2762,13 @@
         <v>103</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>175685.18</v>
+        <v>5219.5</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>171785.18</v>
+        <v>5219.5</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>171785.18</v>
+        <v>5219.5</v>
       </c>
       <c r="G48">
         <f>E48-D48</f>
@@ -2790,13 +2790,13 @@
         <v>105</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G49">
         <f>E49-D49</f>
@@ -2818,13 +2818,13 @@
         <v>107</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>27381.49</v>
+        <v>21685.48</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>27360</v>
+        <v>21685.48</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>27360</v>
+        <v>21685.48</v>
       </c>
       <c r="G50">
         <f>E50-D50</f>
@@ -2846,13 +2846,13 @@
         <v>109</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>152579.98</v>
+        <v>27586</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>263064.98</v>
+        <v>27586</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>263064.98</v>
+        <v>27586</v>
       </c>
       <c r="G51">
         <f>E51-D51</f>
@@ -2874,13 +2874,13 @@
         <v>111</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>39343</v>
+        <v>22344</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>39343</v>
+        <v>22344</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>39343</v>
+        <v>22344</v>
       </c>
       <c r="G52">
         <f>E52-D52</f>
@@ -2902,13 +2902,13 @@
         <v>113</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>26410.15</v>
+        <v>25041.85</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>26410.15</v>
+        <v>25041.85</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>26410.15</v>
+        <v>25041.85</v>
       </c>
       <c r="G53">
         <f>E53-D53</f>
@@ -2930,13 +2930,13 @@
         <v>115</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>19109</v>
+        <v>42542</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>19109</v>
+        <v>42542</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>19109</v>
+        <v>42542</v>
       </c>
       <c r="G54">
         <f>E54-D54</f>
@@ -2958,13 +2958,13 @@
         <v>117</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2250</v>
+        <v>5798</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2250</v>
+        <v>5798</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2250</v>
+        <v>5798</v>
       </c>
       <c r="G55">
         <f>E55-D55</f>
@@ -2986,13 +2986,13 @@
         <v>119</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="G56">
         <f>E56-D56</f>
@@ -3014,13 +3014,13 @@
         <v>121</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>28147.36</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <f>E57-D57</f>
@@ -3033,22 +3033,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>252632.43</v>
+        <v>128456.69</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>252632.43</v>
+        <v>128456.69</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>252632.43</v>
+        <v>128456.69</v>
       </c>
       <c r="G58">
         <f>E58-D58</f>
@@ -3061,22 +3061,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2563.15</v>
+        <v>49348</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>6364.15</v>
+        <v>45848</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>6364.15</v>
+        <v>45848</v>
       </c>
       <c r="G59">
         <f>E59-D59</f>
@@ -3089,22 +3089,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>53915.6</v>
+        <v>8546</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>202245.6</v>
+        <v>8546</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>202245.6</v>
+        <v>8546</v>
       </c>
       <c r="G60">
         <f>E60-D60</f>
@@ -3117,22 +3117,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <f>E61-D61</f>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="G62">
         <f>E62-D62</f>
@@ -3182,13 +3182,13 @@
         <v>131</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>48671.7</v>
+        <v>27941</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>48671.7</v>
+        <v>27941</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>48671.7</v>
+        <v>27941</v>
       </c>
       <c r="G63">
         <f>E63-D63</f>
@@ -3210,13 +3210,13 @@
         <v>133</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>13862.58</v>
+        <v>48119</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>13841.58</v>
+        <v>48119</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>13841.58</v>
+        <v>48119</v>
       </c>
       <c r="G64">
         <f>E64-D64</f>
@@ -3238,13 +3238,13 @@
         <v>135</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="G65">
         <f>E65-D65</f>
@@ -3266,13 +3266,13 @@
         <v>137</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>238153.84</v>
+        <v>316892.58</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>238153.84</v>
+        <v>134325.58</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>238153.84</v>
+        <v>134325.58</v>
       </c>
       <c r="G66">
         <f>E66-D66</f>
@@ -3285,22 +3285,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>15065</v>
+        <v>174571.99</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>15065</v>
+        <v>174571.99</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>15065</v>
+        <v>174571.99</v>
       </c>
       <c r="G67">
         <f>E67-D67</f>
@@ -3313,22 +3313,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="G68">
         <f>E68-D68</f>
@@ -3341,22 +3341,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0</v>
+        <v>69742.41</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>0</v>
+        <v>69742.41</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>0</v>
+        <v>69742.41</v>
       </c>
       <c r="G69">
         <f>E69-D69</f>
@@ -3369,22 +3369,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>84182.67</v>
+        <v>200652</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>94682.67</v>
+        <v>200652</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>94682.67</v>
+        <v>200652</v>
       </c>
       <c r="G70">
         <f>E70-D70</f>
@@ -3397,22 +3397,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0</v>
+        <v>-3014.3</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>0</v>
+        <v>-3014.3</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>0</v>
+        <v>-3014.3</v>
       </c>
       <c r="G71">
         <f>E71-D71</f>
@@ -3425,22 +3425,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>171614.83</v>
+        <v>11770.79</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>101546.49</v>
+        <v>10960.79</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>101546.49</v>
+        <v>10960.79</v>
       </c>
       <c r="G72">
         <f>E72-D72</f>
@@ -3453,22 +3453,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>57047.13</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>57047.13</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>57047.13</v>
       </c>
       <c r="G73">
         <f>E73-D73</f>
@@ -3481,22 +3481,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>32262.96</v>
+        <v>191189.79</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>32262.96</v>
+        <v>191189.79</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>32262.96</v>
+        <v>191189.79</v>
       </c>
       <c r="G74">
         <f>E74-D74</f>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -3537,22 +3537,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>71517.67</v>
+        <v>95012</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>71517.67</v>
+        <v>95236</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>71517.67</v>
+        <v>95236</v>
       </c>
       <c r="G76">
         <f>E76-D76</f>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0</v>
+        <v>55131.12</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>0</v>
+        <v>55131.12</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>0</v>
+        <v>55131.12</v>
       </c>
       <c r="G77">
         <f>E77-D77</f>
@@ -3593,22 +3593,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>50576</v>
+        <v>52266.74</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>35026</v>
+        <v>52266.74</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>35026</v>
+        <v>52266.74</v>
       </c>
       <c r="G78">
         <f>E78-D78</f>
@@ -3621,22 +3621,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>164884.39</v>
+        <v>105825</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>164800.04</v>
+        <v>105825</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>164800.04</v>
+        <v>105825</v>
       </c>
       <c r="G79">
         <f>E79-D79</f>
@@ -3649,22 +3649,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>17885.74</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>17885.74</v>
+        <v>0</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>17885.74</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <f>E80-D80</f>
@@ -3677,22 +3677,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>82077</v>
+        <v>14928.6</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>82077</v>
+        <v>14928.6</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>82077</v>
+        <v>14928.6</v>
       </c>
       <c r="G81">
         <f>E81-D81</f>
@@ -3705,22 +3705,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>33876.58</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>25168.58</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>25168.58</v>
       </c>
       <c r="G82">
         <f>E82-D82</f>
@@ -3733,22 +3733,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>52764.9</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <f>E83-D83</f>
@@ -3761,22 +3761,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>52266.74</v>
+        <v>57141.65</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>52227.34</v>
+        <v>57141.65</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>52227.34</v>
+        <v>57141.65</v>
       </c>
       <c r="G84">
         <f>E84-D84</f>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>14928.6</v>
+        <v>24920</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>14928.6</v>
+        <v>24920</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>14928.6</v>
+        <v>24920</v>
       </c>
       <c r="G85">
         <f>E85-D85</f>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>615607.3</v>
+        <v>0</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>615607.3</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <f>E86-D86</f>
@@ -3845,22 +3845,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="G87">
         <f>E87-D87</f>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>24920</v>
+        <v>153340.26</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>24920</v>
+        <v>154427.26</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>24920</v>
+        <v>154427.26</v>
       </c>
       <c r="G88">
         <f>E88-D88</f>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>28752</v>
+        <v>22734.8</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>19392</v>
+        <v>22734.8</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>19392</v>
+        <v>22734.8</v>
       </c>
       <c r="G89">
         <f>E89-D89</f>
@@ -3929,22 +3929,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>22734.8</v>
+        <v>25483</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>22734.8</v>
+        <v>25483</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>22734.8</v>
+        <v>25483</v>
       </c>
       <c r="G90">
         <f>E90-D90</f>
@@ -3957,22 +3957,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>47283</v>
+        <v>28752</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>41883</v>
+        <v>19392</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>41883</v>
+        <v>19392</v>
       </c>
       <c r="G91">
         <f>E91-D91</f>
@@ -3985,13 +3985,13 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -4013,22 +4013,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>0</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>0</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="G93">
         <f>E93-D93</f>
@@ -4041,22 +4041,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>43000</v>
+        <v>58399.56</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>43000</v>
+        <v>58399.56</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>43000</v>
+        <v>58399.56</v>
       </c>
       <c r="G94">
         <f>E94-D94</f>
@@ -4069,22 +4069,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>95012</v>
+        <v>43000</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>95196</v>
+        <v>43000</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>95196</v>
+        <v>43000</v>
       </c>
       <c r="G95">
         <f>E95-D95</f>
@@ -4097,22 +4097,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>105825</v>
+        <v>68499.13</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>105825</v>
+        <v>68499.13</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>105825</v>
+        <v>68499.13</v>
       </c>
       <c r="G96">
         <f>E96-D96</f>
@@ -4125,22 +4125,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>25483</v>
+        <v>52764.9</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>25483</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>25483</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="G97">
         <f>E97-D97</f>
@@ -4153,22 +4153,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>125319.19</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>125319.19</v>
+        <v>0</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>125319.19</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <f>E98-D98</f>
@@ -4181,22 +4181,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-3014.3</v>
+        <v>9548.6</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>-3014.3</v>
+        <v>9548.6</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-3014.3</v>
+        <v>9548.6</v>
       </c>
       <c r="G99">
         <f>E99-D99</f>
@@ -4209,22 +4209,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>58399.56</v>
+        <v>47283</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>58379.56</v>
+        <v>41883</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>58379.56</v>
+        <v>41883</v>
       </c>
       <c r="G100">
         <f>E100-D100</f>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>55131.12</v>
+        <v>125319.19</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>55131.12</v>
+        <v>125319.19</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>55131.12</v>
+        <v>125319.19</v>
       </c>
       <c r="G101">
         <f>E101-D101</f>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>33876.58</v>
+        <v>71517.67</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>25168.58</v>
+        <v>71517.67</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>25168.58</v>
+        <v>71517.67</v>
       </c>
       <c r="G102">
         <f>E102-D102</f>
@@ -4293,22 +4293,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>9548.6</v>
+        <v>0</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>9548.6</v>
+        <v>0</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>9548.6</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <f>E103-D103</f>
@@ -4321,22 +4321,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>0</v>
+        <v>39343</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>0</v>
+        <v>39343</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>0</v>
+        <v>39343</v>
       </c>
       <c r="G104">
         <f>E104-D104</f>
@@ -4349,22 +4349,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>68499.13</v>
+        <v>84182.67</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>68464.13</v>
+        <v>94682.67</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>68464.13</v>
+        <v>94682.67</v>
       </c>
       <c r="G105">
         <f>E105-D105</f>
@@ -4377,22 +4377,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>200652</v>
+        <v>13862.58</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>200652</v>
+        <v>13862.58</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>200652</v>
+        <v>13862.58</v>
       </c>
       <c r="G106">
         <f>E106-D106</f>
@@ -4405,22 +4405,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>0</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>0</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>0</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="G107">
         <f>E107-D107</f>
@@ -4433,13 +4433,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -4461,22 +4461,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D109" s="2" t="n">
-        <v>57141.65</v>
+        <v>53915.6</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>57141.65</v>
+        <v>202245.6</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>57141.65</v>
+        <v>202245.6</v>
       </c>
       <c r="G109">
         <f>E109-D109</f>
@@ -4489,22 +4489,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>57047.13</v>
+        <v>6225</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>57047.13</v>
+        <v>6225</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>57047.13</v>
+        <v>6225</v>
       </c>
       <c r="G110">
         <f>E110-D110</f>
@@ -4517,22 +4517,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>11770.79</v>
+        <v>8261</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>10960.79</v>
+        <v>17570</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>10960.79</v>
+        <v>17570</v>
       </c>
       <c r="G111">
         <f>E111-D111</f>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>153340.26</v>
+        <v>164884.39</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>154427.26</v>
+        <v>164884.39</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>154427.26</v>
+        <v>164884.39</v>
       </c>
       <c r="G112">
         <f>E112-D112</f>
@@ -4573,22 +4573,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="D113" s="2" t="n">
-        <v>191189.79</v>
+        <v>152579.98</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>191169.79</v>
+        <v>263064.98</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>191169.79</v>
+        <v>263064.98</v>
       </c>
       <c r="G113">
         <f>E113-D113</f>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D114" s="2" t="n">
-        <v>10088.01</v>
+        <v>91201.06</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>20986.5</v>
+        <v>116256.07</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>20986.5</v>
+        <v>116256.07</v>
       </c>
       <c r="G114">
         <f>E114-D114</f>
@@ -4632,19 +4632,19 @@
         <v>208</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="G115">
         <f>E115-D115</f>
@@ -4660,19 +4660,19 @@
         <v>210</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>0</v>
+        <v>50576</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>0</v>
+        <v>35026</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>0</v>
+        <v>35026</v>
       </c>
       <c r="G116">
         <f>E116-D116</f>
@@ -4688,7 +4688,7 @@
         <v>212</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>213</v>
@@ -4716,19 +4716,19 @@
         <v>214</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>0</v>
+        <v>48671.7</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>0</v>
+        <v>48671.7</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>0</v>
+        <v>48671.7</v>
       </c>
       <c r="G118">
         <f>E118-D118</f>
@@ -4741,22 +4741,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>0</v>
+        <v>238153.84</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>0</v>
+        <v>238153.84</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>0</v>
+        <v>238153.84</v>
       </c>
       <c r="G119">
         <f>E119-D119</f>
@@ -4769,22 +4769,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="G120">
         <f>E120-D120</f>
@@ -4797,22 +4797,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>0</v>
+        <v>28147.36</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="G121">
         <f>E121-D121</f>
@@ -4825,22 +4825,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>971</v>
+        <v>15065</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>971</v>
+        <v>15065</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>971</v>
+        <v>15065</v>
       </c>
       <c r="G122">
         <f>E122-D122</f>
@@ -4853,22 +4853,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>4592</v>
+        <v>19109</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>4592</v>
+        <v>19109</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>4592</v>
+        <v>19109</v>
       </c>
       <c r="G123">
         <f>E123-D123</f>
@@ -4881,13 +4881,13 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -4909,22 +4909,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <f>E125-D125</f>
@@ -4940,19 +4940,19 @@
         <v>224</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>0</v>
+        <v>27381.49</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>0</v>
+        <v>27381.49</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>0</v>
+        <v>27381.49</v>
       </c>
       <c r="G126">
         <f>E126-D126</f>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>25186</v>
+        <v>0</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>25186</v>
+        <v>0</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>25186</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <f>E127-D127</f>
@@ -4993,22 +4993,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>0</v>
+        <v>82077</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>0</v>
+        <v>82077</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>0</v>
+        <v>82077</v>
       </c>
       <c r="G128">
         <f>E128-D128</f>
@@ -5021,22 +5021,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>46973</v>
+        <v>252632.43</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>46973</v>
+        <v>252632.43</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>46973</v>
+        <v>252632.43</v>
       </c>
       <c r="G129">
         <f>E129-D129</f>
@@ -5049,22 +5049,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>0</v>
+        <v>32262.96</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>0</v>
+        <v>32262.96</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>0</v>
+        <v>32262.96</v>
       </c>
       <c r="G130">
         <f>E130-D130</f>
@@ -5077,22 +5077,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>0</v>
+        <v>171614.83</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>0</v>
+        <v>101546.49</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>0</v>
+        <v>101546.49</v>
       </c>
       <c r="G131">
         <f>E131-D131</f>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>0</v>
@@ -5133,22 +5133,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>120280.55</v>
+        <v>17885.74</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>120280.55</v>
+        <v>17885.74</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>120280.55</v>
+        <v>17885.74</v>
       </c>
       <c r="G133">
         <f>E133-D133</f>
@@ -5161,22 +5161,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G134">
         <f>E134-D134</f>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>29118</v>
+        <v>175685.18</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>19568</v>
+        <v>171785.18</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>19568</v>
+        <v>171785.18</v>
       </c>
       <c r="G135">
         <f>E135-D135</f>
@@ -5217,22 +5217,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>5885</v>
+        <v>166664.47</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>16223</v>
+        <v>166664.47</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>16223</v>
+        <v>166664.47</v>
       </c>
       <c r="G136">
         <f>E136-D136</f>
@@ -5245,22 +5245,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>17045</v>
+        <v>26410.15</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>17045</v>
+        <v>26410.15</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>17045</v>
+        <v>26410.15</v>
       </c>
       <c r="G137">
         <f>E137-D137</f>
@@ -5273,22 +5273,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>75623.14</v>
+        <v>36218.73</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>75623.14</v>
+        <v>36218.73</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>75623.14</v>
+        <v>36218.73</v>
       </c>
       <c r="G138">
         <f>E138-D138</f>
@@ -5301,22 +5301,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <f>E139-D139</f>
@@ -5329,22 +5329,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D140" s="2" t="n">
-        <v>22344</v>
+        <v>2563.15</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>22344</v>
+        <v>6364.15</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>22344</v>
+        <v>6364.15</v>
       </c>
       <c r="G140">
         <f>E140-D140</f>
@@ -5357,22 +5357,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1750</v>
+        <v>34544.2</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>1750</v>
+        <v>26700.2</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>1750</v>
+        <v>26700.2</v>
       </c>
       <c r="G141">
         <f>E141-D141</f>
@@ -5385,22 +5385,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>0</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <f>E142-D142</f>
@@ -5413,22 +5413,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>316892.58</v>
+        <v>37094.65</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>134125.58</v>
+        <v>41144.65</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>134125.58</v>
+        <v>41144.65</v>
       </c>
       <c r="G143">
         <f>E143-D143</f>
@@ -5441,22 +5441,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>0</v>
+        <v>23645</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="G144">
         <f>E144-D144</f>
@@ -5469,22 +5469,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <f>E145-D145</f>
@@ -5497,22 +5497,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>25041.85</v>
+        <v>0</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>25041.85</v>
+        <v>0</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>25041.85</v>
+        <v>0</v>
       </c>
       <c r="G146">
         <f>E146-D146</f>
@@ -5525,13 +5525,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>0</v>
@@ -5553,22 +5553,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>174571.99</v>
+        <v>137576.15</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>174571.99</v>
+        <v>173686.15</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>174571.99</v>
+        <v>173686.15</v>
       </c>
       <c r="G148">
         <f>E148-D148</f>
@@ -5581,22 +5581,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>69742.41</v>
+        <v>18839</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>69742.41</v>
+        <v>34089</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>69742.41</v>
+        <v>34089</v>
       </c>
       <c r="G149">
         <f>E149-D149</f>
@@ -5609,22 +5609,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>27941</v>
+        <v>257158.97</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>27941</v>
+        <v>257158.97</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>27941</v>
+        <v>257158.97</v>
       </c>
       <c r="G150">
         <f>E150-D150</f>
@@ -5637,22 +5637,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>27586</v>
+        <v>178133.19</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>27586</v>
+        <v>178133.19</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>27586</v>
+        <v>178133.19</v>
       </c>
       <c r="G151">
         <f>E151-D151</f>
@@ -5665,22 +5665,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>5798</v>
+        <v>16286</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>5798</v>
+        <v>22436</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>5798</v>
+        <v>22436</v>
       </c>
       <c r="G152">
         <f>E152-D152</f>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>25462</v>
+        <v>0</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>25462</v>
+        <v>0</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>25462</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <f>E153-D153</f>
@@ -5721,13 +5721,13 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>0</v>
@@ -5749,22 +5749,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="G155">
         <f>E155-D155</f>
@@ -5777,22 +5777,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>138</v>
+        <v>277</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>49348</v>
+        <v>0</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>45848</v>
+        <v>0</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45848</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <f>E156-D156</f>
@@ -5808,19 +5808,19 @@
         <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>21685.48</v>
+        <v>8965</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>21661.31</v>
+        <v>13215</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>21661.31</v>
+        <v>13215</v>
       </c>
       <c r="G157">
         <f>E157-D157</f>
@@ -5836,19 +5836,19 @@
         <v>281</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>10634</v>
+        <v>52204</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>10634</v>
+        <v>83679</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>10634</v>
+        <v>83679</v>
       </c>
       <c r="G158">
         <f>E158-D158</f>
@@ -5861,22 +5861,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>67909</v>
+        <v>49384</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>67909</v>
+        <v>69234</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>67909</v>
+        <v>69234</v>
       </c>
       <c r="G159">
         <f>E159-D159</f>
@@ -5889,22 +5889,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>42542</v>
+        <v>424114.99</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>42542</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>42542</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="G160">
         <f>E160-D160</f>
@@ -5917,22 +5917,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>8546</v>
+        <v>0</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>8546</v>
+        <v>0</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>8546</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <f>E161-D161</f>
@@ -5945,22 +5945,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>396</v>
+        <v>2594.65</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>396</v>
+        <v>2294.65</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>396</v>
+        <v>2294.65</v>
       </c>
       <c r="G162">
         <f>E162-D162</f>
@@ -5973,22 +5973,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>114510.66</v>
+        <v>10346</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>114510.66</v>
+        <v>10346</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>114510.66</v>
+        <v>10346</v>
       </c>
       <c r="G163">
         <f>E163-D163</f>
@@ -6001,22 +6001,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>48119</v>
+        <v>0</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>48119</v>
+        <v>0</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>48119</v>
+        <v>0</v>
       </c>
       <c r="G164">
         <f>E164-D164</f>
@@ -6029,13 +6029,13 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="D165" s="2" t="n">
         <v>0</v>
@@ -6057,22 +6057,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>2594.65</v>
+        <v>59938.36</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>2275</v>
+        <v>59938.36</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>2275</v>
+        <v>59938.36</v>
       </c>
       <c r="G166">
         <f>E166-D166</f>
@@ -6085,22 +6085,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>0</v>
+        <v>28103</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>0</v>
+        <v>58618</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>0</v>
+        <v>58618</v>
       </c>
       <c r="G167">
         <f>E167-D167</f>
@@ -6113,22 +6113,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>28103</v>
+        <v>175063</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>58618</v>
+        <v>175063</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>58618</v>
+        <v>175063</v>
       </c>
       <c r="G168">
         <f>E168-D168</f>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>5131</v>
@@ -6169,22 +6169,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>0</v>
+        <v>34858</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>0</v>
+        <v>38208</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>0</v>
+        <v>38208</v>
       </c>
       <c r="G170">
         <f>E170-D170</f>
@@ -6197,22 +6197,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <f>E171-D171</f>
@@ -6225,13 +6225,13 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>0</v>
@@ -6253,22 +6253,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>59938.36</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>59938.36</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>59938.36</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="G173">
         <f>E173-D173</f>
@@ -6281,22 +6281,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>0</v>
+        <v>574120.47</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="G174">
         <f>E174-D174</f>
@@ -6309,22 +6309,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>52204</v>
+        <v>0</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <f>E175-D175</f>
@@ -6337,22 +6337,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>424114.99</v>
+        <v>125340.12</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>227843.71</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>227843.71</v>
       </c>
       <c r="G176">
         <f>E176-D176</f>
@@ -6365,22 +6365,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>257158.97</v>
+        <v>0</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>257158.97</v>
+        <v>0</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>257158.97</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <f>E177-D177</f>
@@ -6393,22 +6393,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>0</v>
+        <v>17092.21</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="G178">
         <f>E178-D178</f>
@@ -6421,22 +6421,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="G179">
         <f>E179-D179</f>
@@ -6449,22 +6449,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>8965</v>
+        <v>29118</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>13215</v>
+        <v>19568</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>13215</v>
+        <v>19568</v>
       </c>
       <c r="G180">
         <f>E180-D180</f>
@@ -6477,22 +6477,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>179</v>
+        <v>318</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>180</v>
+        <v>319</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>175063</v>
+        <v>0</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>175023.41</v>
+        <v>0</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>175023.41</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <f>E181-D181</f>
@@ -6505,22 +6505,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="C182" s="1" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>13256.09</v>
+        <v>5885</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>13256.09</v>
+        <v>16223</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>13256.09</v>
+        <v>16223</v>
       </c>
       <c r="G182">
         <f>E182-D182</f>
@@ -6533,22 +6533,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="G183">
         <f>E183-D183</f>
@@ -6561,22 +6561,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>574120.47</v>
+        <v>0</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="G184">
         <f>E184-D184</f>
@@ -6589,22 +6589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>320</v>
+        <v>198</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>34858</v>
+        <v>1200</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>38208</v>
+        <v>1200</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>38208</v>
+        <v>1200</v>
       </c>
       <c r="G185">
         <f>E185-D185</f>
@@ -6617,22 +6617,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>178133.19</v>
+        <v>0</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>178133.19</v>
+        <v>0</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>178133.19</v>
+        <v>0</v>
       </c>
       <c r="G186">
         <f>E186-D186</f>
@@ -6645,22 +6645,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>17092.21</v>
+        <v>0</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <f>E187-D187</f>
@@ -6673,13 +6673,13 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0</v>
@@ -6701,22 +6701,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>23645</v>
+        <v>0</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="G189">
         <f>E189-D189</f>
@@ -6729,22 +6729,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>330</v>
+        <v>208</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>16286</v>
+        <v>0</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>22436</v>
+        <v>0</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>22436</v>
+        <v>0</v>
       </c>
       <c r="G190">
         <f>E190-D190</f>
@@ -6757,22 +6757,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>333</v>
+        <v>56</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>37094.65</v>
+        <v>971</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>41144.65</v>
+        <v>971</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>41144.65</v>
+        <v>971</v>
       </c>
       <c r="G191">
         <f>E191-D191</f>
@@ -6785,22 +6785,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="G192">
         <f>E192-D192</f>
@@ -6816,19 +6816,19 @@
         <v>334</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>125340.12</v>
+        <v>25186</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>227843.71</v>
+        <v>25186</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>227843.71</v>
+        <v>25186</v>
       </c>
       <c r="G193">
         <f>E193-D193</f>
@@ -6844,19 +6844,19 @@
         <v>336</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>137576.15</v>
+        <v>4592</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>173686.15</v>
+        <v>4592</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>173686.15</v>
+        <v>4592</v>
       </c>
       <c r="G194">
         <f>E194-D194</f>
@@ -6872,19 +6872,19 @@
         <v>338</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>49384</v>
+        <v>0</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>69234</v>
+        <v>0</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>69234</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <f>E195-D195</f>
@@ -6900,7 +6900,7 @@
         <v>340</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>341</v>
@@ -6928,19 +6928,19 @@
         <v>342</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>34544.2</v>
+        <v>0</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="G197">
         <f>E197-D197</f>
@@ -6956,7 +6956,7 @@
         <v>344</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>345</v>
@@ -6981,22 +6981,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>18839</v>
+        <v>10088.01</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>34089</v>
+        <v>21036.5</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>34089</v>
+        <v>21036.5</v>
       </c>
       <c r="G199">
         <f>E199-D199</f>
@@ -7009,13 +7009,13 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>348</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>349</v>
@@ -7068,19 +7068,19 @@
         <v>350</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>0</v>
+        <v>46973</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>0</v>
+        <v>46973</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>0</v>
+        <v>46973</v>
       </c>
       <c r="G202">
         <f>E202-D202</f>
@@ -7096,19 +7096,19 @@
         <v>352</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>0</v>
+        <v>120280.55</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>0</v>
+        <v>120280.55</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>0</v>
+        <v>120280.55</v>
       </c>
       <c r="G203">
         <f>E203-D203</f>

--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
   <si>
     <t>filename</t>
   </si>
@@ -743,6 +743,15 @@
   </si>
   <si>
     <t>Christian Miguel Martinez</t>
+  </si>
+  <si>
+    <t>michael-houston.json</t>
+  </si>
+  <si>
+    <t>oakland-2024-03-05</t>
+  </si>
+  <si>
+    <t>Michael Houston</t>
   </si>
   <si>
     <t>bruce-quan.json</t>
@@ -1410,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5245,13 +5254,13 @@
         <v>245</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>75623.14</v>
+        <v>17045</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>75623.14</v>
+        <v>17045</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>75623.14</v>
+        <v>17045</v>
       </c>
       <c r="G137">
         <f>E137-D137</f>
@@ -5267,19 +5276,19 @@
         <v>246</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>42403.01</v>
+        <v>75623.14</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>42403.01</v>
+        <v>75623.14</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>42403.01</v>
+        <v>75623.14</v>
       </c>
       <c r="G138">
         <f>E138-D138</f>
@@ -5292,22 +5301,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>22344</v>
+        <v>42403.01</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>22344</v>
+        <v>42403.01</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>22344</v>
+        <v>42403.01</v>
       </c>
       <c r="G139">
         <f>E139-D139</f>
@@ -5320,22 +5329,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>1750</v>
+        <v>22344</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>1750</v>
+        <v>22344</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>1750</v>
+        <v>22344</v>
       </c>
       <c r="G140">
         <f>E140-D140</f>
@@ -5348,22 +5357,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>1750</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>1750</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>1750</v>
       </c>
       <c r="G141">
         <f>E141-D141</f>
@@ -5376,22 +5385,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>316892.58</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>134125.58</v>
+        <v>76760.71000000001</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>134125.58</v>
+        <v>76760.71000000001</v>
       </c>
       <c r="G142">
         <f>E142-D142</f>
@@ -5404,22 +5413,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>0</v>
+        <v>316892.58</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>0</v>
+        <v>134125.58</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>0</v>
+        <v>134125.58</v>
       </c>
       <c r="G143">
         <f>E143-D143</f>
@@ -5432,22 +5441,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <f>E144-D144</f>
@@ -5460,22 +5469,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>25041.85</v>
+        <v>5219.5</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>25041.85</v>
+        <v>5219.5</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>25041.85</v>
+        <v>5219.5</v>
       </c>
       <c r="G145">
         <f>E145-D145</f>
@@ -5488,22 +5497,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="G146">
         <f>E146-D146</f>
@@ -5516,22 +5525,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>174571.99</v>
+        <v>0</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>174571.99</v>
+        <v>0</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>174571.99</v>
+        <v>0</v>
       </c>
       <c r="G147">
         <f>E147-D147</f>
@@ -5544,22 +5553,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>69742.41</v>
+        <v>174571.99</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>69742.41</v>
+        <v>174571.99</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>69742.41</v>
+        <v>174571.99</v>
       </c>
       <c r="G148">
         <f>E148-D148</f>
@@ -5572,22 +5581,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>27941</v>
+        <v>69742.41</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>27941</v>
+        <v>69742.41</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>27941</v>
+        <v>69742.41</v>
       </c>
       <c r="G149">
         <f>E149-D149</f>
@@ -5600,22 +5609,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>27586</v>
+        <v>27941</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>27586</v>
+        <v>27941</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>27586</v>
+        <v>27941</v>
       </c>
       <c r="G150">
         <f>E150-D150</f>
@@ -5628,22 +5637,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>5798</v>
+        <v>27586</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>5798</v>
+        <v>27586</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>5798</v>
+        <v>27586</v>
       </c>
       <c r="G151">
         <f>E151-D151</f>
@@ -5656,22 +5665,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>25462</v>
+        <v>5798</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>25462</v>
+        <v>5798</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>25462</v>
+        <v>5798</v>
       </c>
       <c r="G152">
         <f>E152-D152</f>
@@ -5684,22 +5693,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="G153">
         <f>E153-D153</f>
@@ -5712,22 +5721,22 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="G154">
         <f>E154-D154</f>
@@ -5740,22 +5749,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>49348</v>
+        <v>128456.69</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>45848</v>
+        <v>128456.69</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>45848</v>
+        <v>128456.69</v>
       </c>
       <c r="G155">
         <f>E155-D155</f>
@@ -5768,22 +5777,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>21685.48</v>
+        <v>49348</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>21661.31</v>
+        <v>45848</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>21661.31</v>
+        <v>45848</v>
       </c>
       <c r="G156">
         <f>E156-D156</f>
@@ -5796,22 +5805,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>10634</v>
+        <v>21685.48</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>10634</v>
+        <v>21661.31</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>10634</v>
+        <v>21661.31</v>
       </c>
       <c r="G157">
         <f>E157-D157</f>
@@ -5824,22 +5833,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>67909</v>
+        <v>10634</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>67909</v>
+        <v>10634</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>67909</v>
+        <v>10634</v>
       </c>
       <c r="G158">
         <f>E158-D158</f>
@@ -5852,22 +5861,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>42542</v>
+        <v>67909</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>42542</v>
+        <v>67909</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>42542</v>
+        <v>67909</v>
       </c>
       <c r="G159">
         <f>E159-D159</f>
@@ -5880,22 +5889,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>8546</v>
+        <v>42542</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>8546</v>
+        <v>42542</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>8546</v>
+        <v>42542</v>
       </c>
       <c r="G160">
         <f>E160-D160</f>
@@ -5908,22 +5917,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>396</v>
+        <v>8546</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>396</v>
+        <v>8546</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>396</v>
+        <v>8546</v>
       </c>
       <c r="G161">
         <f>E161-D161</f>
@@ -5936,22 +5945,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>114510.66</v>
+        <v>396</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>114510.66</v>
+        <v>396</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>114510.66</v>
+        <v>396</v>
       </c>
       <c r="G162">
         <f>E162-D162</f>
@@ -5964,22 +5973,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>48119</v>
+        <v>114510.66</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>48119</v>
+        <v>114510.66</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>48119</v>
+        <v>114510.66</v>
       </c>
       <c r="G163">
         <f>E163-D163</f>
@@ -5992,22 +6001,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="G164">
         <f>E164-D164</f>
@@ -6023,19 +6032,19 @@
         <v>287</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>2594.65</v>
+        <v>0</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>2275</v>
+        <v>0</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>2275</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <f>E165-D165</f>
@@ -6048,22 +6057,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>0</v>
+        <v>2594.65</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="G166">
         <f>E166-D166</f>
@@ -6076,22 +6085,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>28103</v>
+        <v>0</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>58618</v>
+        <v>0</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>58618</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <f>E167-D167</f>
@@ -6104,22 +6113,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>5131</v>
+        <v>28103</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>17991</v>
+        <v>58618</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>17991</v>
+        <v>58618</v>
       </c>
       <c r="G168">
         <f>E168-D168</f>
@@ -6132,22 +6141,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>0</v>
+        <v>5131</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>0</v>
+        <v>17991</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>0</v>
+        <v>17991</v>
       </c>
       <c r="G169">
         <f>E169-D169</f>
@@ -6160,22 +6169,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <f>E170-D170</f>
@@ -6188,22 +6197,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="G171">
         <f>E171-D171</f>
@@ -6216,22 +6225,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>59938.36</v>
+        <v>0</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>59938.36</v>
+        <v>0</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>59938.36</v>
+        <v>0</v>
       </c>
       <c r="G172">
         <f>E172-D172</f>
@@ -6244,22 +6253,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>0</v>
+        <v>59938.36</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>0</v>
+        <v>59938.36</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>0</v>
+        <v>59938.36</v>
       </c>
       <c r="G173">
         <f>E173-D173</f>
@@ -6272,22 +6281,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>52204</v>
+        <v>0</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <f>E174-D174</f>
@@ -6300,22 +6309,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>424114.99</v>
+        <v>52204</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>83679</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>83679</v>
       </c>
       <c r="G175">
         <f>E175-D175</f>
@@ -6328,22 +6337,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>257158.97</v>
+        <v>424114.99</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>257158.97</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>257158.97</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="G176">
         <f>E176-D176</f>
@@ -6356,22 +6365,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="G177">
         <f>E177-D177</f>
@@ -6384,13 +6393,13 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>0</v>
@@ -6412,22 +6421,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>8965</v>
+        <v>0</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>13215</v>
+        <v>0</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>13215</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <f>E179-D179</f>
@@ -6440,22 +6449,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>175063</v>
+        <v>8965</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>175023.41</v>
+        <v>13215</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>175023.41</v>
+        <v>13215</v>
       </c>
       <c r="G180">
         <f>E180-D180</f>
@@ -6468,22 +6477,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>13256.09</v>
+        <v>175063</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>13256.09</v>
+        <v>175023.41</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>13256.09</v>
+        <v>175023.41</v>
       </c>
       <c r="G181">
         <f>E181-D181</f>
@@ -6496,22 +6505,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="G182">
         <f>E182-D182</f>
@@ -6524,22 +6533,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>574120.47</v>
+        <v>0</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <f>E183-D183</f>
@@ -6552,22 +6561,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>34408</v>
+        <v>574120.47</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>37758</v>
+        <v>479841.47</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>37758</v>
+        <v>479841.47</v>
       </c>
       <c r="G184">
         <f>E184-D184</f>
@@ -6580,22 +6589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>178133.19</v>
+        <v>34858</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>178133.19</v>
+        <v>38208</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>178133.19</v>
+        <v>38208</v>
       </c>
       <c r="G185">
         <f>E185-D185</f>
@@ -6608,22 +6617,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>17092.21</v>
+        <v>178133.19</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>35707.63</v>
+        <v>178133.19</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>35707.63</v>
+        <v>178133.19</v>
       </c>
       <c r="G186">
         <f>E186-D186</f>
@@ -6636,22 +6645,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>0</v>
+        <v>17092.21</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="G187">
         <f>E187-D187</f>
@@ -6664,22 +6673,22 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>23645</v>
+        <v>0</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="G188">
         <f>E188-D188</f>
@@ -6692,22 +6701,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>16286</v>
+        <v>23645</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>22436</v>
+        <v>66770</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>22436</v>
+        <v>66770</v>
       </c>
       <c r="G189">
         <f>E189-D189</f>
@@ -6720,22 +6729,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>37094.65</v>
+        <v>16286</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>41144.65</v>
+        <v>22436</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>41144.65</v>
+        <v>22436</v>
       </c>
       <c r="G190">
         <f>E190-D190</f>
@@ -6748,22 +6757,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>37094.65</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>41144.65</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>41144.65</v>
       </c>
       <c r="G191">
         <f>E191-D191</f>
@@ -6776,22 +6785,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>332</v>
+        <v>147</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>125340.12</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>227843.71</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>227843.71</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="G192">
         <f>E192-D192</f>
@@ -6804,22 +6813,22 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>137576.15</v>
+        <v>125340.12</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>173686.15</v>
+        <v>227843.71</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>173686.15</v>
+        <v>227843.71</v>
       </c>
       <c r="G193">
         <f>E193-D193</f>
@@ -6832,22 +6841,22 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>49384</v>
+        <v>137576.15</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>69234</v>
+        <v>173686.15</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>69234</v>
+        <v>173686.15</v>
       </c>
       <c r="G194">
         <f>E194-D194</f>
@@ -6860,22 +6869,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>0</v>
+        <v>49384</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="G195">
         <f>E195-D195</f>
@@ -6888,22 +6897,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>34544.2</v>
+        <v>0</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="G196">
         <f>E196-D196</f>
@@ -6916,22 +6925,22 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>0</v>
+        <v>34544.2</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="G197">
         <f>E197-D197</f>
@@ -6944,22 +6953,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>18839</v>
+        <v>0</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>34089</v>
+        <v>0</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>34089</v>
+        <v>0</v>
       </c>
       <c r="G198">
         <f>E198-D198</f>
@@ -6972,22 +6981,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>0</v>
+        <v>18839</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>0</v>
+        <v>34089</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>0</v>
+        <v>34089</v>
       </c>
       <c r="G199">
         <f>E199-D199</f>
@@ -7000,13 +7009,13 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>346</v>
+        <v>72</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>0</v>
@@ -7028,13 +7037,13 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>0</v>
@@ -7056,13 +7065,13 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>0</v>
@@ -7079,6 +7088,34 @@
       </c>
       <c r="H202">
         <f>F202-D202</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <f>E203-D203</f>
+        <v/>
+      </c>
+      <c r="H203">
+        <f>F203-D203</f>
         <v/>
       </c>
     </row>

--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -1589,10 +1589,10 @@
         <v>242342.31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>242276.53</v>
+        <v>242342.31</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>242276.53</v>
+        <v>242342.31</v>
       </c>
       <c r="G6">
         <f>E6-D6</f>
@@ -1673,10 +1673,10 @@
         <v>124860.15</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>124686.15</v>
+        <v>124860.15</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>124686.15</v>
+        <v>124860.15</v>
       </c>
       <c r="G9">
         <f>E9-D9</f>
@@ -1869,10 +1869,10 @@
         <v>67825.58</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>67450.58</v>
+        <v>67825.58</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>67450.58</v>
+        <v>67825.58</v>
       </c>
       <c r="G16">
         <f>E16-D16</f>
@@ -2317,10 +2317,10 @@
         <v>177069.06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>176990.06</v>
+        <v>177069.06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>176990.06</v>
+        <v>177069.06</v>
       </c>
       <c r="G32">
         <f>E32-D32</f>
@@ -2821,10 +2821,10 @@
         <v>27381.49</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>27360</v>
+        <v>27381.49</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>27360</v>
+        <v>27381.49</v>
       </c>
       <c r="G50">
         <f>E50-D50</f>
@@ -3213,10 +3213,10 @@
         <v>13862.58</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>13841.58</v>
+        <v>13862.58</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>13841.58</v>
+        <v>13862.58</v>
       </c>
       <c r="G64">
         <f>E64-D64</f>
@@ -3633,10 +3633,10 @@
         <v>164884.39</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>164800.04</v>
+        <v>164884.39</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>164800.04</v>
+        <v>164884.39</v>
       </c>
       <c r="G79">
         <f>E79-D79</f>
@@ -3773,10 +3773,10 @@
         <v>52266.74</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>52227.34</v>
+        <v>52266.74</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>52227.34</v>
+        <v>52266.74</v>
       </c>
       <c r="G84">
         <f>E84-D84</f>
@@ -3829,10 +3829,10 @@
         <v>615686.6</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>615607.3</v>
+        <v>615686.6</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>615607.3</v>
+        <v>615686.6</v>
       </c>
       <c r="G86">
         <f>E86-D86</f>
@@ -4081,10 +4081,10 @@
         <v>95012</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>95196</v>
+        <v>95236</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>95196</v>
+        <v>95236</v>
       </c>
       <c r="G95">
         <f>E95-D95</f>
@@ -4221,10 +4221,10 @@
         <v>58399.56</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>58379.56</v>
+        <v>58399.56</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>58379.56</v>
+        <v>58399.56</v>
       </c>
       <c r="G100">
         <f>E100-D100</f>
@@ -4361,10 +4361,10 @@
         <v>68499.13</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>68464.13</v>
+        <v>68499.13</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>68464.13</v>
+        <v>68499.13</v>
       </c>
       <c r="G105">
         <f>E105-D105</f>
@@ -4585,10 +4585,10 @@
         <v>191189.79</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>191169.79</v>
+        <v>191189.79</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>191169.79</v>
+        <v>191189.79</v>
       </c>
       <c r="G113">
         <f>E113-D113</f>
@@ -4613,10 +4613,10 @@
         <v>10088.01</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>20986.5</v>
+        <v>21036.5</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>20986.5</v>
+        <v>21036.5</v>
       </c>
       <c r="G114">
         <f>E114-D114</f>
@@ -5397,10 +5397,10 @@
         <v>76910.71000000001</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="G142">
         <f>E142-D142</f>
@@ -5425,10 +5425,10 @@
         <v>316892.58</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>134125.58</v>
+        <v>134325.58</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>134125.58</v>
+        <v>134325.58</v>
       </c>
       <c r="G143">
         <f>E143-D143</f>
@@ -5817,10 +5817,10 @@
         <v>21685.48</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>21661.31</v>
+        <v>21685.48</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>21661.31</v>
+        <v>21685.48</v>
       </c>
       <c r="G157">
         <f>E157-D157</f>
@@ -6069,10 +6069,10 @@
         <v>2594.65</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>2275</v>
+        <v>2294.65</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>2275</v>
+        <v>2294.65</v>
       </c>
       <c r="G166">
         <f>E166-D166</f>
@@ -6489,10 +6489,10 @@
         <v>175063</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>175023.41</v>
+        <v>175063</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>175023.41</v>
+        <v>175063</v>
       </c>
       <c r="G181">
         <f>E181-D181</f>

--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -40,37 +40,247 @@
     <t>diff by source</t>
   </si>
   <si>
+    <t>abel-guillen.json</t>
+  </si>
+  <si>
+    <t>oakland-2014-11-04</t>
+  </si>
+  <si>
+    <t>Abel Guillén</t>
+  </si>
+  <si>
+    <t>aimee-eng.json</t>
+  </si>
+  <si>
+    <t>Aimee Eng</t>
+  </si>
+  <si>
+    <t>andrew-park.json</t>
+  </si>
+  <si>
+    <t>Andrew Park</t>
+  </si>
+  <si>
+    <t>annie-campbell-washington.json</t>
+  </si>
+  <si>
+    <t>Annie Campbell Washington</t>
+  </si>
+  <si>
+    <t>brenda-roberts.json</t>
+  </si>
+  <si>
+    <t>Brenda Roberts</t>
+  </si>
+  <si>
+    <t>bryan-parker.json</t>
+  </si>
+  <si>
+    <t>Bryan Parker</t>
+  </si>
+  <si>
+    <t>charles-williams.json</t>
+  </si>
+  <si>
+    <t>Charles Williams</t>
+  </si>
+  <si>
+    <t>cheri-spigner.json</t>
+  </si>
+  <si>
+    <t>Cheri Spigner</t>
+  </si>
+  <si>
+    <t>christopher-dobbins.json</t>
+  </si>
+  <si>
+    <t>Christopher Dobbins</t>
+  </si>
+  <si>
+    <t>courtney-ruby.json</t>
+  </si>
+  <si>
+    <t>Courtney Ruby</t>
+  </si>
+  <si>
+    <t>dan-siegel.json</t>
+  </si>
+  <si>
+    <t>Dan Siegel</t>
+  </si>
+  <si>
+    <t>dana-king.json</t>
+  </si>
+  <si>
+    <t>Dana King</t>
+  </si>
+  <si>
+    <t>desley-brooks.json</t>
+  </si>
+  <si>
+    <t>Desley Brooks</t>
+  </si>
+  <si>
+    <t>eric-wilson.json</t>
+  </si>
+  <si>
+    <t>Eric Wilson</t>
+  </si>
+  <si>
+    <t>james-moore.json</t>
+  </si>
+  <si>
+    <t>James Moore</t>
+  </si>
+  <si>
+    <t>jason-anderson.json</t>
+  </si>
+  <si>
+    <t>Jason Anderson</t>
+  </si>
+  <si>
+    <t>jean-quan.json</t>
+  </si>
+  <si>
+    <t>Jean Quan</t>
+  </si>
+  <si>
+    <t>jill-broadhurst.json</t>
+  </si>
+  <si>
+    <t>Jill Broadhurst</t>
+  </si>
+  <si>
+    <t>joe-tuman.json</t>
+  </si>
+  <si>
+    <t>Joe Tuman</t>
+  </si>
+  <si>
+    <t>karl-debro.json</t>
+  </si>
+  <si>
+    <t>Karl Debro</t>
+  </si>
+  <si>
+    <t>ken-houston.json</t>
+  </si>
+  <si>
+    <t>Ken Houston</t>
+  </si>
+  <si>
+    <t>ken-maxey.json</t>
+  </si>
+  <si>
+    <t>Ken Maxey</t>
+  </si>
+  <si>
+    <t>kevin-blackburn.json</t>
+  </si>
+  <si>
+    <t>Kevin Blackburn</t>
+  </si>
+  <si>
+    <t>len-raphael.json</t>
+  </si>
+  <si>
+    <t>Len Raphael</t>
+  </si>
+  <si>
+    <t>libby-schaaf.json</t>
+  </si>
+  <si>
+    <t>Libby Schaaf</t>
+  </si>
+  <si>
+    <t>michael-johnson.json</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>nancy-sidebotham.json</t>
+  </si>
+  <si>
+    <t>Nancy Sidebotham</t>
+  </si>
+  <si>
+    <t>nicolas-heidorn.json</t>
+  </si>
+  <si>
+    <t>Nicolas Heidorn</t>
+  </si>
+  <si>
+    <t>nina-senn.json</t>
+  </si>
+  <si>
+    <t>Nina Senn</t>
+  </si>
+  <si>
+    <t>pat-mccullough.json</t>
+  </si>
+  <si>
+    <t>Pat Mccullough</t>
+  </si>
+  <si>
+    <t>paul-lim.json</t>
+  </si>
+  <si>
+    <t>Paul Lim</t>
+  </si>
+  <si>
+    <t>peter-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Liu</t>
+  </si>
+  <si>
+    <t>rebecca-kaplan.json</t>
+  </si>
+  <si>
+    <t>Rebecca Kaplan</t>
+  </si>
+  <si>
+    <t>renato-almanzor.json</t>
+  </si>
+  <si>
+    <t>Renato Almanzor</t>
+  </si>
+  <si>
+    <t>saied-karamooz.json</t>
+  </si>
+  <si>
+    <t>Saied Karamooz</t>
+  </si>
+  <si>
     <t>saleem-shakir-gilmore.json</t>
   </si>
   <si>
-    <t>oakland-2014-11-04</t>
-  </si>
-  <si>
     <t>Saleem Shakir-Gilmore</t>
   </si>
   <si>
-    <t>nicolas-heidorn.json</t>
-  </si>
-  <si>
-    <t>Nicolas Heidorn</t>
-  </si>
-  <si>
-    <t>renato-almanzor.json</t>
-  </si>
-  <si>
-    <t>Renato Almanzor</t>
-  </si>
-  <si>
-    <t>courtney-ruby.json</t>
-  </si>
-  <si>
-    <t>Courtney Ruby</t>
-  </si>
-  <si>
-    <t>jean-quan.json</t>
-  </si>
-  <si>
-    <t>Jean Quan</t>
+    <t>shanthi-gonzales.json</t>
+  </si>
+  <si>
+    <t>Shanthi Gonzales</t>
+  </si>
+  <si>
+    <t>shereda-nosakhare.json</t>
+  </si>
+  <si>
+    <t>Shereda Nosakhare</t>
+  </si>
+  <si>
+    <t>summuel-washington.json</t>
+  </si>
+  <si>
+    <t>Summuel Washington</t>
+  </si>
+  <si>
+    <t>vicente-cruz.json</t>
+  </si>
+  <si>
+    <t>Vicente Cruz</t>
   </si>
   <si>
     <t>william-bo-ghirardelli.json</t>
@@ -79,307 +289,469 @@
     <t>William "Bo" Ghirardelli</t>
   </si>
   <si>
-    <t>joe-tuman.json</t>
-  </si>
-  <si>
-    <t>Joe Tuman</t>
-  </si>
-  <si>
-    <t>annie-campbell-washington.json</t>
-  </si>
-  <si>
-    <t>Annie Campbell Washington</t>
-  </si>
-  <si>
-    <t>libby-schaaf.json</t>
-  </si>
-  <si>
-    <t>Libby Schaaf</t>
-  </si>
-  <si>
-    <t>cheri-spigner.json</t>
-  </si>
-  <si>
-    <t>Cheri Spigner</t>
-  </si>
-  <si>
-    <t>ken-houston.json</t>
-  </si>
-  <si>
-    <t>Ken Houston</t>
-  </si>
-  <si>
-    <t>bryan-parker.json</t>
-  </si>
-  <si>
-    <t>Bryan Parker</t>
-  </si>
-  <si>
-    <t>len-raphael.json</t>
-  </si>
-  <si>
-    <t>Len Raphael</t>
-  </si>
-  <si>
-    <t>jason-anderson.json</t>
-  </si>
-  <si>
-    <t>Jason Anderson</t>
-  </si>
-  <si>
-    <t>andrew-park.json</t>
-  </si>
-  <si>
-    <t>Andrew Park</t>
-  </si>
-  <si>
-    <t>rebecca-kaplan.json</t>
-  </si>
-  <si>
-    <t>Rebecca Kaplan</t>
-  </si>
-  <si>
-    <t>paul-lim.json</t>
-  </si>
-  <si>
-    <t>Paul Lim</t>
-  </si>
-  <si>
-    <t>shanthi-gonzales.json</t>
-  </si>
-  <si>
-    <t>Shanthi Gonzales</t>
-  </si>
-  <si>
-    <t>peter-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Liu</t>
-  </si>
-  <si>
-    <t>pat-mccullough.json</t>
-  </si>
-  <si>
-    <t>Pat Mccullough</t>
-  </si>
-  <si>
-    <t>desley-brooks.json</t>
-  </si>
-  <si>
-    <t>Desley Brooks</t>
-  </si>
-  <si>
-    <t>vicente-cruz.json</t>
-  </si>
-  <si>
-    <t>Vicente Cruz</t>
-  </si>
-  <si>
-    <t>aimee-eng.json</t>
-  </si>
-  <si>
-    <t>Aimee Eng</t>
-  </si>
-  <si>
-    <t>james-moore.json</t>
-  </si>
-  <si>
-    <t>James Moore</t>
-  </si>
-  <si>
-    <t>michael-johnson.json</t>
-  </si>
-  <si>
-    <t>Michael Johnson</t>
-  </si>
-  <si>
-    <t>christopher-dobbins.json</t>
-  </si>
-  <si>
-    <t>Christopher Dobbins</t>
-  </si>
-  <si>
-    <t>eric-wilson.json</t>
-  </si>
-  <si>
-    <t>Eric Wilson</t>
-  </si>
-  <si>
-    <t>saied-karamooz.json</t>
-  </si>
-  <si>
-    <t>Saied Karamooz</t>
-  </si>
-  <si>
-    <t>shereda-nosakhare.json</t>
-  </si>
-  <si>
-    <t>Shereda Nosakhare</t>
-  </si>
-  <si>
-    <t>summuel-washington.json</t>
-  </si>
-  <si>
-    <t>Summuel Washington</t>
-  </si>
-  <si>
-    <t>abel-guillen.json</t>
-  </si>
-  <si>
-    <t>Abel Guillén</t>
-  </si>
-  <si>
-    <t>nancy-sidebotham.json</t>
-  </si>
-  <si>
-    <t>Nancy Sidebotham</t>
-  </si>
-  <si>
-    <t>kevin-blackburn.json</t>
-  </si>
-  <si>
-    <t>Kevin Blackburn</t>
-  </si>
-  <si>
-    <t>nina-senn.json</t>
-  </si>
-  <si>
-    <t>Nina Senn</t>
-  </si>
-  <si>
-    <t>jill-broadhurst.json</t>
-  </si>
-  <si>
-    <t>Jill Broadhurst</t>
-  </si>
-  <si>
-    <t>dana-king.json</t>
-  </si>
-  <si>
-    <t>Dana King</t>
-  </si>
-  <si>
-    <t>brenda-roberts.json</t>
-  </si>
-  <si>
-    <t>Brenda Roberts</t>
-  </si>
-  <si>
-    <t>karl-debro.json</t>
-  </si>
-  <si>
-    <t>Karl Debro</t>
-  </si>
-  <si>
-    <t>ken-maxey.json</t>
-  </si>
-  <si>
-    <t>Ken Maxey</t>
-  </si>
-  <si>
-    <t>charles-williams.json</t>
-  </si>
-  <si>
-    <t>Charles Williams</t>
-  </si>
-  <si>
-    <t>dan-siegel.json</t>
-  </si>
-  <si>
-    <t>Dan Siegel</t>
+    <t>barbara-parker.json</t>
+  </si>
+  <si>
+    <t>oakland-2016-11-08</t>
+  </si>
+  <si>
+    <t>Barbara Parker</t>
+  </si>
+  <si>
+    <t>benjamin-lang.json</t>
+  </si>
+  <si>
+    <t>Benjamin Lang</t>
+  </si>
+  <si>
+    <t>bruce-quan.json</t>
+  </si>
+  <si>
+    <t>Bruce Quan</t>
+  </si>
+  <si>
+    <t>chris-jackson.json</t>
+  </si>
+  <si>
+    <t>Chris Jackson</t>
+  </si>
+  <si>
+    <t>dan-kalb.json</t>
+  </si>
+  <si>
+    <t>Dan Kalb</t>
+  </si>
+  <si>
+    <t>donald-macleay.json</t>
+  </si>
+  <si>
+    <t>Donald Macleay</t>
+  </si>
+  <si>
+    <t>francis-matt-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Matt Hummel</t>
+  </si>
+  <si>
+    <t>huber-trenado.json</t>
+  </si>
+  <si>
+    <t>Huber Trenado</t>
+  </si>
+  <si>
+    <t>james-harris.json</t>
+  </si>
+  <si>
+    <t>James Harris</t>
+  </si>
+  <si>
+    <t>jody-london.json</t>
+  </si>
+  <si>
+    <t>Jody London</t>
+  </si>
+  <si>
+    <t>jumoke-hinton-hodge.json</t>
+  </si>
+  <si>
+    <t>Jumoke Hinton Hodge</t>
+  </si>
+  <si>
+    <t>kevin-corbett.json</t>
+  </si>
+  <si>
+    <t>Kevin Corbett</t>
+  </si>
+  <si>
+    <t>kharyshi-wiginton.json</t>
+  </si>
+  <si>
+    <t>Kharyshi Wiginton</t>
+  </si>
+  <si>
+    <t>larry-reid.json</t>
+  </si>
+  <si>
+    <t>Larry Reid</t>
+  </si>
+  <si>
+    <t>lucky-narain.json</t>
+  </si>
+  <si>
+    <t>Lucky Narain</t>
+  </si>
+  <si>
+    <t>lynette-gibson-mcelhaney.json</t>
+  </si>
+  <si>
+    <t>Lynette Gibson McElhaney</t>
+  </si>
+  <si>
+    <t>marcie-hodge.json</t>
+  </si>
+  <si>
+    <t>Marcie Hodge</t>
+  </si>
+  <si>
+    <t>michael-hassid.json</t>
+  </si>
+  <si>
+    <t>Michael Hassid</t>
+  </si>
+  <si>
+    <t>michael-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Michael Hutchinson</t>
+  </si>
+  <si>
+    <t>nehanda-imara.json</t>
+  </si>
+  <si>
+    <t>Nehanda Imara</t>
+  </si>
+  <si>
+    <t>noel-gallo.json</t>
+  </si>
+  <si>
+    <t>Noel Gallo</t>
+  </si>
+  <si>
+    <t>noni-session.json</t>
+  </si>
+  <si>
+    <t>Noni Session</t>
+  </si>
+  <si>
+    <t>peggy-moore.json</t>
+  </si>
+  <si>
+    <t>Peggy Moore</t>
+  </si>
+  <si>
+    <t>roseann-torres.json</t>
+  </si>
+  <si>
+    <t>Roseann Torres</t>
+  </si>
+  <si>
+    <t>viola-gonzales.json</t>
+  </si>
+  <si>
+    <t>Viola Gonzales</t>
+  </si>
+  <si>
+    <t>oakland-2018-11-06</t>
+  </si>
+  <si>
+    <t>anthony-wilson.json</t>
+  </si>
+  <si>
+    <t>Anthony Wilson</t>
+  </si>
+  <si>
+    <t>cat-brooks.json</t>
+  </si>
+  <si>
+    <t>Cat Brooks</t>
+  </si>
+  <si>
+    <t>cedric-anthony-troupe.json</t>
+  </si>
+  <si>
+    <t>Cedric Anthony Troupe</t>
+  </si>
+  <si>
+    <t>charlie-michelson.json</t>
+  </si>
+  <si>
+    <t>Charlie Michelson</t>
+  </si>
+  <si>
+    <t>clarissa-doutherd.json</t>
+  </si>
+  <si>
+    <t>Clarissa Doutherd</t>
+  </si>
+  <si>
+    <t>donte-kenzie-smith.json</t>
+  </si>
+  <si>
+    <t>Donte Kenzie Smith</t>
+  </si>
+  <si>
+    <t>francis-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Hummel</t>
+  </si>
+  <si>
+    <t>gary-yee.json</t>
+  </si>
+  <si>
+    <t>Gary Yee</t>
+  </si>
+  <si>
+    <t>jesse-a-j-smith.json</t>
+  </si>
+  <si>
+    <t>Jesse A.J. Smith</t>
+  </si>
+  <si>
+    <t>joseph-simmons.json</t>
+  </si>
+  <si>
+    <t>Joseph Simmons</t>
+  </si>
+  <si>
+    <t>joseph-tanios.json</t>
+  </si>
+  <si>
+    <t>Joseph Tanios</t>
+  </si>
+  <si>
+    <t>loren-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Taylor</t>
+  </si>
+  <si>
+    <t>marchon-tatmon.json</t>
+  </si>
+  <si>
+    <t>Marchon Tatmon</t>
+  </si>
+  <si>
+    <t>maria-marlo-rodriguez.json</t>
+  </si>
+  <si>
+    <t>Maria "Marlo" Rodriguez</t>
+  </si>
+  <si>
+    <t>mya-whitaker.json</t>
+  </si>
+  <si>
+    <t>Mya Whitaker</t>
+  </si>
+  <si>
+    <t>natasha-middleton.json</t>
+  </si>
+  <si>
+    <t>Natasha Middleton</t>
+  </si>
+  <si>
+    <t>nayeli-maxson.json</t>
+  </si>
+  <si>
+    <t>Nayeli Maxson</t>
+  </si>
+  <si>
+    <t>nikki-fortunato-bas.json</t>
+  </si>
+  <si>
+    <t>Nikki Fortunato Bas</t>
+  </si>
+  <si>
+    <t>pamela-harris.json</t>
+  </si>
+  <si>
+    <t>Pamela Harris</t>
+  </si>
+  <si>
+    <t>pamela-price.json</t>
+  </si>
+  <si>
+    <t>Pamela Price</t>
+  </si>
+  <si>
+    <t>sheng-thao.json</t>
+  </si>
+  <si>
+    <t>Sheng Thao</t>
+  </si>
+  <si>
+    <t>aaron-clay.json</t>
+  </si>
+  <si>
+    <t>oakland-2020-11-03</t>
+  </si>
+  <si>
+    <t>Aaron Clay</t>
+  </si>
+  <si>
+    <t>alexus-taylor.json</t>
+  </si>
+  <si>
+    <t>Alexus Taylor</t>
+  </si>
+  <si>
+    <t>austin-dannhaus.json</t>
+  </si>
+  <si>
+    <t>Austin Dannhaus</t>
+  </si>
+  <si>
+    <t>ben-coach-tapscott.json</t>
+  </si>
+  <si>
+    <t>Ben "Coach" Tapscott</t>
+  </si>
+  <si>
+    <t>benjamin-sam-davis.json</t>
+  </si>
+  <si>
+    <t>Benjamin "Sam" Davis</t>
+  </si>
+  <si>
+    <t>bronche-taylor.json</t>
+  </si>
+  <si>
+    <t>Bronché Taylor</t>
+  </si>
+  <si>
+    <t>carroll-fife.json</t>
+  </si>
+  <si>
+    <t>Carroll Fife</t>
+  </si>
+  <si>
+    <t>cherisse-gash.json</t>
+  </si>
+  <si>
+    <t>Cherisse Gash</t>
+  </si>
+  <si>
+    <t>clifford-thompson.json</t>
+  </si>
+  <si>
+    <t>Clifford Thompson</t>
+  </si>
+  <si>
+    <t>derreck-b-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck B. Johnson</t>
+  </si>
+  <si>
+    <t>eli-ferran.json</t>
+  </si>
+  <si>
+    <t>Eli Ferran</t>
+  </si>
+  <si>
+    <t>faye-taylor.json</t>
+  </si>
+  <si>
+    <t>Faye Taylor</t>
+  </si>
+  <si>
+    <t>jorge-c-lerma.json</t>
+  </si>
+  <si>
+    <t>Jorge C. Lerma</t>
+  </si>
+  <si>
+    <t>kristina-molina.json</t>
+  </si>
+  <si>
+    <t>Kristina Molina</t>
+  </si>
+  <si>
+    <t>leroy-gaines.json</t>
+  </si>
+  <si>
+    <t>Leroy Gaines</t>
+  </si>
+  <si>
+    <t>maiya-edgerly.json</t>
+  </si>
+  <si>
+    <t>Maiya Edgerly</t>
+  </si>
+  <si>
+    <t>mark-hurty.json</t>
+  </si>
+  <si>
+    <t>Mark Hurty</t>
+  </si>
+  <si>
+    <t>maximo-santana.json</t>
+  </si>
+  <si>
+    <t>Maximo Santana</t>
+  </si>
+  <si>
+    <t>meron-semedar.json</t>
+  </si>
+  <si>
+    <t>Meron Semedar</t>
+  </si>
+  <si>
+    <t>mike-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Mike Hutchinson</t>
+  </si>
+  <si>
+    <t>richard-santos-raya.json</t>
+  </si>
+  <si>
+    <t>Richard Santos Raya</t>
+  </si>
+  <si>
+    <t>robert-bob-jackson.json</t>
+  </si>
+  <si>
+    <t>Robert "Bob" Jackson</t>
+  </si>
+  <si>
+    <t>seneca-scott.json</t>
+  </si>
+  <si>
+    <t>Seneca Scott</t>
+  </si>
+  <si>
+    <t>sheila-pope-lawrence.json</t>
+  </si>
+  <si>
+    <t>Sheila Pope Lawrence</t>
+  </si>
+  <si>
+    <t>stacy-thomas.json</t>
+  </si>
+  <si>
+    <t>Stacy Thomas</t>
+  </si>
+  <si>
+    <t>steph-dominguez-walton.json</t>
+  </si>
+  <si>
+    <t>Steph Dominguez Walton</t>
+  </si>
+  <si>
+    <t>treva-reid.json</t>
+  </si>
+  <si>
+    <t>Treva Reid</t>
+  </si>
+  <si>
+    <t>tri-ngo.json</t>
+  </si>
+  <si>
+    <t>Tri Ngo</t>
   </si>
   <si>
     <t>vancedric-williams.json</t>
   </si>
   <si>
-    <t>oakland-2020-11-03</t>
-  </si>
-  <si>
     <t>VanCedric Williams</t>
   </si>
   <si>
-    <t>cherisse-gash.json</t>
-  </si>
-  <si>
-    <t>Cherisse Gash</t>
-  </si>
-  <si>
-    <t>eli-ferran.json</t>
-  </si>
-  <si>
-    <t>Eli Ferran</t>
-  </si>
-  <si>
-    <t>clifford-thompson.json</t>
-  </si>
-  <si>
-    <t>Clifford Thompson</t>
-  </si>
-  <si>
-    <t>treva-reid.json</t>
-  </si>
-  <si>
-    <t>Treva Reid</t>
-  </si>
-  <si>
-    <t>steph-dominguez-walton.json</t>
-  </si>
-  <si>
-    <t>Steph Dominguez Walton</t>
-  </si>
-  <si>
-    <t>alexus-taylor.json</t>
-  </si>
-  <si>
-    <t>Alexus Taylor</t>
-  </si>
-  <si>
-    <t>mike-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Mike Hutchinson</t>
-  </si>
-  <si>
-    <t>derreck-b-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck B. Johnson</t>
-  </si>
-  <si>
-    <t>austin-dannhaus.json</t>
-  </si>
-  <si>
-    <t>Austin Dannhaus</t>
-  </si>
-  <si>
-    <t>tri-ngo.json</t>
-  </si>
-  <si>
-    <t>Tri Ngo</t>
-  </si>
-  <si>
-    <t>mark-hurty.json</t>
-  </si>
-  <si>
-    <t>Mark Hurty</t>
-  </si>
-  <si>
-    <t>faye-taylor.json</t>
-  </si>
-  <si>
-    <t>Faye Taylor</t>
-  </si>
-  <si>
-    <t>kristina-molina.json</t>
-  </si>
-  <si>
-    <t>Kristina Molina</t>
-  </si>
-  <si>
-    <t>marchon-tatmon.json</t>
-  </si>
-  <si>
-    <t>Marchon Tatmon</t>
+    <t>victor-javier-valerio.json</t>
+  </si>
+  <si>
+    <t>Victor Javier Valerio</t>
   </si>
   <si>
     <t>zoe-lopez-meraz.json</t>
@@ -388,694 +760,322 @@
     <t>Zoe Lopez-Meraz</t>
   </si>
   <si>
-    <t>carroll-fife.json</t>
-  </si>
-  <si>
-    <t>Carroll Fife</t>
-  </si>
-  <si>
-    <t>maiya-edgerly.json</t>
-  </si>
-  <si>
-    <t>Maiya Edgerly</t>
-  </si>
-  <si>
-    <t>stacy-thomas.json</t>
-  </si>
-  <si>
-    <t>Stacy Thomas</t>
-  </si>
-  <si>
-    <t>leroy-gaines.json</t>
-  </si>
-  <si>
-    <t>Leroy Gaines</t>
-  </si>
-  <si>
-    <t>ben-coach-tapscott.json</t>
-  </si>
-  <si>
-    <t>Ben "Coach" Tapscott</t>
-  </si>
-  <si>
-    <t>bronche-taylor.json</t>
-  </si>
-  <si>
-    <t>Bronché Taylor</t>
-  </si>
-  <si>
-    <t>lynette-gibson-mcelhaney.json</t>
-  </si>
-  <si>
-    <t>Lynette Gibson McElhaney</t>
-  </si>
-  <si>
-    <t>marcie-hodge.json</t>
-  </si>
-  <si>
-    <t>Marcie Hodge</t>
-  </si>
-  <si>
-    <t>maximo-santana.json</t>
-  </si>
-  <si>
-    <t>Maximo Santana</t>
-  </si>
-  <si>
-    <t>meron-semedar.json</t>
-  </si>
-  <si>
-    <t>Meron Semedar</t>
-  </si>
-  <si>
-    <t>barbara-parker.json</t>
-  </si>
-  <si>
-    <t>Barbara Parker</t>
-  </si>
-  <si>
-    <t>seneca-scott.json</t>
-  </si>
-  <si>
-    <t>Seneca Scott</t>
-  </si>
-  <si>
-    <t>robert-bob-jackson.json</t>
-  </si>
-  <si>
-    <t>Robert "Bob" Jackson</t>
-  </si>
-  <si>
-    <t>benjamin-sam-davis.json</t>
-  </si>
-  <si>
-    <t>Benjamin "Sam" Davis</t>
-  </si>
-  <si>
-    <t>richard-santos-raya.json</t>
-  </si>
-  <si>
-    <t>Richard Santos Raya</t>
-  </si>
-  <si>
-    <t>victor-javier-valerio.json</t>
-  </si>
-  <si>
-    <t>Victor Javier Valerio</t>
-  </si>
-  <si>
-    <t>aaron-clay.json</t>
-  </si>
-  <si>
-    <t>Aaron Clay</t>
-  </si>
-  <si>
-    <t>jorge-c-lerma.json</t>
-  </si>
-  <si>
-    <t>Jorge C. Lerma</t>
-  </si>
-  <si>
-    <t>dan-kalb.json</t>
-  </si>
-  <si>
-    <t>Dan Kalb</t>
-  </si>
-  <si>
-    <t>sheila-pope-lawrence.json</t>
-  </si>
-  <si>
-    <t>Sheila Pope Lawrence</t>
-  </si>
-  <si>
-    <t>noel-gallo.json</t>
-  </si>
-  <si>
-    <t>Noel Gallo</t>
-  </si>
-  <si>
-    <t>natasha-middleton.json</t>
-  </si>
-  <si>
-    <t>oakland-2018-11-06</t>
-  </si>
-  <si>
-    <t>Natasha Middleton</t>
-  </si>
-  <si>
-    <t>pamela-price.json</t>
-  </si>
-  <si>
-    <t>Pamela Price</t>
-  </si>
-  <si>
-    <t>francis-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Hummel</t>
-  </si>
-  <si>
-    <t>joseph-tanios.json</t>
-  </si>
-  <si>
-    <t>Joseph Tanios</t>
-  </si>
-  <si>
-    <t>mya-whitaker.json</t>
-  </si>
-  <si>
-    <t>Mya Whitaker</t>
-  </si>
-  <si>
-    <t>cedric-anthony-troupe.json</t>
-  </si>
-  <si>
-    <t>Cedric Anthony Troupe</t>
-  </si>
-  <si>
-    <t>nikki-fortunato-bas.json</t>
-  </si>
-  <si>
-    <t>Nikki Fortunato Bas</t>
-  </si>
-  <si>
-    <t>charlie-michelson.json</t>
-  </si>
-  <si>
-    <t>Charlie Michelson</t>
-  </si>
-  <si>
-    <t>maria-marlo-rodriguez.json</t>
-  </si>
-  <si>
-    <t>Maria "Marlo" Rodriguez</t>
-  </si>
-  <si>
-    <t>sheng-thao.json</t>
-  </si>
-  <si>
-    <t>Sheng Thao</t>
-  </si>
-  <si>
-    <t>nayeli-maxson.json</t>
-  </si>
-  <si>
-    <t>Nayeli Maxson</t>
-  </si>
-  <si>
-    <t>clarissa-doutherd.json</t>
-  </si>
-  <si>
-    <t>Clarissa Doutherd</t>
-  </si>
-  <si>
-    <t>gary-yee.json</t>
-  </si>
-  <si>
-    <t>Gary Yee</t>
-  </si>
-  <si>
-    <t>jesse-a-j-smith.json</t>
-  </si>
-  <si>
-    <t>Jesse A.J. Smith</t>
-  </si>
-  <si>
-    <t>pamela-harris.json</t>
-  </si>
-  <si>
-    <t>Pamela Harris</t>
-  </si>
-  <si>
-    <t>donte-kenzie-smith.json</t>
-  </si>
-  <si>
-    <t>Donte Kenzie Smith</t>
-  </si>
-  <si>
-    <t>joseph-simmons.json</t>
-  </si>
-  <si>
-    <t>Joseph Simmons</t>
-  </si>
-  <si>
-    <t>anthony-wilson.json</t>
-  </si>
-  <si>
-    <t>Anthony Wilson</t>
-  </si>
-  <si>
-    <t>loren-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Taylor</t>
-  </si>
-  <si>
-    <t>cat-brooks.json</t>
-  </si>
-  <si>
-    <t>Cat Brooks</t>
+    <t>allyssa-victory-villanueva.json</t>
+  </si>
+  <si>
+    <t>oakland-2022-11-08</t>
+  </si>
+  <si>
+    <t>Allyssa Victory Villanueva</t>
+  </si>
+  <si>
+    <t>david-kakishiba.json</t>
+  </si>
+  <si>
+    <t>David Kakishiba</t>
+  </si>
+  <si>
+    <t>derreck-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck Johnson</t>
+  </si>
+  <si>
+    <t>derrick-soo.json</t>
+  </si>
+  <si>
+    <t>Derrick Soo</t>
+  </si>
+  <si>
+    <t>desmond-i-jeffries.json</t>
+  </si>
+  <si>
+    <t>Desmond I. Jeffries</t>
+  </si>
+  <si>
+    <t>elbert-owens.json</t>
+  </si>
+  <si>
+    <t>Elbert Owens</t>
+  </si>
+  <si>
+    <t>gregory-hodge.json</t>
+  </si>
+  <si>
+    <t>Gregory Hodge</t>
+  </si>
+  <si>
+    <t>harold-lowe.json</t>
+  </si>
+  <si>
+    <t>Harold Lowe</t>
+  </si>
+  <si>
+    <t>ignacio-de-la-fuente.json</t>
+  </si>
+  <si>
+    <t>Ignacio De La Fuente</t>
+  </si>
+  <si>
+    <t>janani-ramachandran.json</t>
+  </si>
+  <si>
+    <t>Janani Ramachandran</t>
+  </si>
+  <si>
+    <t>jennifer-brouhard.json</t>
+  </si>
+  <si>
+    <t>Jennifer Brouhard</t>
+  </si>
+  <si>
+    <t>jesse-tapia-juarez.json</t>
+  </si>
+  <si>
+    <t>Jesse Tapia-Juarez</t>
+  </si>
+  <si>
+    <t>joel-velasquez.json</t>
+  </si>
+  <si>
+    <t>Joel Velasquez</t>
+  </si>
+  <si>
+    <t>john-mimosa-marks.json</t>
+  </si>
+  <si>
+    <t>John Mimosa Marks</t>
+  </si>
+  <si>
+    <t>john-reimann.json</t>
+  </si>
+  <si>
+    <t>John Reimann</t>
+  </si>
+  <si>
+    <t>kenny-session.json</t>
+  </si>
+  <si>
+    <t>Kenny Session</t>
+  </si>
+  <si>
+    <t>kevin-jenkins.json</t>
+  </si>
+  <si>
+    <t>Kevin Jenkins</t>
+  </si>
+  <si>
+    <t>kyra-mungia.json</t>
+  </si>
+  <si>
+    <t>Kyra Mungia</t>
+  </si>
+  <si>
+    <t>loren-manuel-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Manuel Taylor</t>
+  </si>
+  <si>
+    <t>mart-bradley.json</t>
+  </si>
+  <si>
+    <t>Mart Bradley</t>
+  </si>
+  <si>
+    <t>max-orozco.json</t>
+  </si>
+  <si>
+    <t>Max Orozco</t>
+  </si>
+  <si>
+    <t>monesha-carter.json</t>
+  </si>
+  <si>
+    <t>Monesha Carter</t>
+  </si>
+  <si>
+    <t>nenna-joiner.json</t>
+  </si>
+  <si>
+    <t>Nenna Joiner</t>
+  </si>
+  <si>
+    <t>nick-resnick.json</t>
+  </si>
+  <si>
+    <t>Nick Resnick</t>
+  </si>
+  <si>
+    <t>paulina-gonzalez.json</t>
+  </si>
+  <si>
+    <t>Paulina Gonzalez</t>
+  </si>
+  <si>
+    <t>pecolia-manigo.json</t>
+  </si>
+  <si>
+    <t>Pecolia Manigo</t>
+  </si>
+  <si>
+    <t>peter-y-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Y. Liu</t>
+  </si>
+  <si>
+    <t>renia-webb.json</t>
+  </si>
+  <si>
+    <t>Renia Webb</t>
+  </si>
+  <si>
+    <t>stephen-schear.json</t>
+  </si>
+  <si>
+    <t>Stephen Schear</t>
+  </si>
+  <si>
+    <t>treva-d-reid.json</t>
+  </si>
+  <si>
+    <t>Treva D. Reid</t>
+  </si>
+  <si>
+    <t>tyron-c-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron C. Jordan</t>
+  </si>
+  <si>
+    <t>valarie-bachelor.json</t>
+  </si>
+  <si>
+    <t>Valarie Bachelor</t>
+  </si>
+  <si>
+    <t>yakpasua-michael-gbagba-zazaboi.json</t>
+  </si>
+  <si>
+    <t>Yakpasua Michael Gbagba Zazaboi</t>
+  </si>
+  <si>
+    <t>alexandra-ritzie-hernandez.json</t>
+  </si>
+  <si>
+    <t>oakland-2023-11-07</t>
+  </si>
+  <si>
+    <t>Alexandra Ritzie-Hernandez</t>
+  </si>
+  <si>
+    <t>christian-miguel-martinez.json</t>
+  </si>
+  <si>
+    <t>Christian Miguel Martinez</t>
+  </si>
+  <si>
+    <t>michael-houston.json</t>
+  </si>
+  <si>
+    <t>oakland-2024-03-05</t>
+  </si>
+  <si>
+    <t>Michael Houston</t>
   </si>
   <si>
     <t>oakland-2024-11-05</t>
   </si>
   <si>
+    <t>debra-sherman.json</t>
+  </si>
+  <si>
+    <t>Debra Sherman</t>
+  </si>
+  <si>
     <t>donnel-c-dunbar.json</t>
   </si>
   <si>
     <t>Donnel C. Dunbar</t>
   </si>
   <si>
+    <t>edward-c-frank.json</t>
+  </si>
+  <si>
+    <t>Edward C. Frank</t>
+  </si>
+  <si>
+    <t>fabian-robinson.json</t>
+  </si>
+  <si>
+    <t>Fabian Robinson</t>
+  </si>
+  <si>
+    <t>merika-goolsby.json</t>
+  </si>
+  <si>
+    <t>Merika Goolsby</t>
+  </si>
+  <si>
+    <t>ryan-richardson.json</t>
+  </si>
+  <si>
+    <t>Ryan Richardson</t>
+  </si>
+  <si>
+    <t>sam-davis.json</t>
+  </si>
+  <si>
+    <t>Sam Davis</t>
+  </si>
+  <si>
+    <t>selika-thomas.json</t>
+  </si>
+  <si>
+    <t>Selika Thomas</t>
+  </si>
+  <si>
+    <t>shan-m-hirsch.json</t>
+  </si>
+  <si>
+    <t>Shan M. Hirsch</t>
+  </si>
+  <si>
     <t>shantell-herndon.json</t>
   </si>
   <si>
     <t>Shantell Herndon</t>
   </si>
   <si>
+    <t>tonya-love.json</t>
+  </si>
+  <si>
+    <t>Tonya Love</t>
+  </si>
+  <si>
+    <t>tyron-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron Jordan</t>
+  </si>
+  <si>
     <t>van-cedric-williams.json</t>
   </si>
   <si>
     <t>Van Cedric Williams</t>
   </si>
   <si>
-    <t>shan-m-hirsch.json</t>
-  </si>
-  <si>
-    <t>Shan M. Hirsch</t>
-  </si>
-  <si>
-    <t>edward-c-frank.json</t>
-  </si>
-  <si>
-    <t>Edward C. Frank</t>
-  </si>
-  <si>
-    <t>tonya-love.json</t>
-  </si>
-  <si>
-    <t>Tonya Love</t>
-  </si>
-  <si>
-    <t>sam-davis.json</t>
-  </si>
-  <si>
-    <t>Sam Davis</t>
-  </si>
-  <si>
-    <t>debra-sherman.json</t>
-  </si>
-  <si>
-    <t>Debra Sherman</t>
-  </si>
-  <si>
-    <t>selika-thomas.json</t>
-  </si>
-  <si>
-    <t>Selika Thomas</t>
-  </si>
-  <si>
-    <t>ryan-richardson.json</t>
-  </si>
-  <si>
-    <t>Ryan Richardson</t>
-  </si>
-  <si>
-    <t>alexandra-ritzie-hernandez.json</t>
-  </si>
-  <si>
-    <t>Alexandra Ritzie-Hernandez</t>
-  </si>
-  <si>
     <t>warren-logan.json</t>
   </si>
   <si>
     <t>Warren Logan</t>
   </si>
   <si>
-    <t>fabian-robinson.json</t>
-  </si>
-  <si>
-    <t>Fabian Robinson</t>
-  </si>
-  <si>
-    <t>tyron-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron Jordan</t>
-  </si>
-  <si>
-    <t>merika-goolsby.json</t>
-  </si>
-  <si>
-    <t>Merika Goolsby</t>
-  </si>
-  <si>
     <t>zac-unger.json</t>
   </si>
   <si>
     <t>Zac Unger</t>
-  </si>
-  <si>
-    <t>christian-miguel-martinez.json</t>
-  </si>
-  <si>
-    <t>oakland-2023-11-07</t>
-  </si>
-  <si>
-    <t>Christian Miguel Martinez</t>
-  </si>
-  <si>
-    <t>michael-houston.json</t>
-  </si>
-  <si>
-    <t>oakland-2024-03-05</t>
-  </si>
-  <si>
-    <t>Michael Houston</t>
-  </si>
-  <si>
-    <t>bruce-quan.json</t>
-  </si>
-  <si>
-    <t>oakland-2016-11-08</t>
-  </si>
-  <si>
-    <t>Bruce Quan</t>
-  </si>
-  <si>
-    <t>roseann-torres.json</t>
-  </si>
-  <si>
-    <t>Roseann Torres</t>
-  </si>
-  <si>
-    <t>jody-london.json</t>
-  </si>
-  <si>
-    <t>Jody London</t>
-  </si>
-  <si>
-    <t>francis-matt-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Matt Hummel</t>
-  </si>
-  <si>
-    <t>larry-reid.json</t>
-  </si>
-  <si>
-    <t>Larry Reid</t>
-  </si>
-  <si>
-    <t>peggy-moore.json</t>
-  </si>
-  <si>
-    <t>Peggy Moore</t>
-  </si>
-  <si>
-    <t>lucky-narain.json</t>
-  </si>
-  <si>
-    <t>Lucky Narain</t>
-  </si>
-  <si>
-    <t>donald-macleay.json</t>
-  </si>
-  <si>
-    <t>Donald Macleay</t>
-  </si>
-  <si>
-    <t>jumoke-hinton-hodge.json</t>
-  </si>
-  <si>
-    <t>Jumoke Hinton Hodge</t>
-  </si>
-  <si>
-    <t>benjamin-lang.json</t>
-  </si>
-  <si>
-    <t>Benjamin Lang</t>
-  </si>
-  <si>
-    <t>viola-gonzales.json</t>
-  </si>
-  <si>
-    <t>Viola Gonzales</t>
-  </si>
-  <si>
-    <t>nehanda-imara.json</t>
-  </si>
-  <si>
-    <t>Nehanda Imara</t>
-  </si>
-  <si>
-    <t>james-harris.json</t>
-  </si>
-  <si>
-    <t>James Harris</t>
-  </si>
-  <si>
-    <t>kharyshi-wiginton.json</t>
-  </si>
-  <si>
-    <t>Kharyshi Wiginton</t>
-  </si>
-  <si>
-    <t>chris-jackson.json</t>
-  </si>
-  <si>
-    <t>Chris Jackson</t>
-  </si>
-  <si>
-    <t>michael-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>huber-trenado.json</t>
-  </si>
-  <si>
-    <t>Huber Trenado</t>
-  </si>
-  <si>
-    <t>noni-session.json</t>
-  </si>
-  <si>
-    <t>Noni Session</t>
-  </si>
-  <si>
-    <t>kevin-corbett.json</t>
-  </si>
-  <si>
-    <t>Kevin Corbett</t>
-  </si>
-  <si>
-    <t>michael-hassid.json</t>
-  </si>
-  <si>
-    <t>Michael Hassid</t>
-  </si>
-  <si>
-    <t>derrick-soo.json</t>
-  </si>
-  <si>
-    <t>oakland-2022-11-08</t>
-  </si>
-  <si>
-    <t>Derrick Soo</t>
-  </si>
-  <si>
-    <t>max-orozco.json</t>
-  </si>
-  <si>
-    <t>Max Orozco</t>
-  </si>
-  <si>
-    <t>john-reimann.json</t>
-  </si>
-  <si>
-    <t>John Reimann</t>
-  </si>
-  <si>
-    <t>nick-resnick.json</t>
-  </si>
-  <si>
-    <t>Nick Resnick</t>
-  </si>
-  <si>
-    <t>paulina-gonzalez.json</t>
-  </si>
-  <si>
-    <t>Paulina Gonzalez</t>
-  </si>
-  <si>
-    <t>john-mimosa-marks.json</t>
-  </si>
-  <si>
-    <t>John Mimosa Marks</t>
-  </si>
-  <si>
-    <t>nenna-joiner.json</t>
-  </si>
-  <si>
-    <t>Nenna Joiner</t>
-  </si>
-  <si>
-    <t>jesse-tapia-juarez.json</t>
-  </si>
-  <si>
-    <t>Jesse Tapia-Juarez</t>
-  </si>
-  <si>
-    <t>kevin-jenkins.json</t>
-  </si>
-  <si>
-    <t>Kevin Jenkins</t>
-  </si>
-  <si>
-    <t>loren-manuel-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Manuel Taylor</t>
-  </si>
-  <si>
-    <t>ignacio-de-la-fuente.json</t>
-  </si>
-  <si>
-    <t>Ignacio De La Fuente</t>
-  </si>
-  <si>
-    <t>desmond-i-jeffries.json</t>
-  </si>
-  <si>
-    <t>Desmond I. Jeffries</t>
-  </si>
-  <si>
-    <t>tyron-c-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron C. Jordan</t>
-  </si>
-  <si>
-    <t>kenny-session.json</t>
-  </si>
-  <si>
-    <t>Kenny Session</t>
-  </si>
-  <si>
-    <t>yakpasua-michael-gbagba-zazaboi.json</t>
-  </si>
-  <si>
-    <t>Yakpasua Michael Gbagba Zazaboi</t>
-  </si>
-  <si>
-    <t>renia-webb.json</t>
-  </si>
-  <si>
-    <t>Renia Webb</t>
-  </si>
-  <si>
-    <t>pecolia-manigo.json</t>
-  </si>
-  <si>
-    <t>Pecolia Manigo</t>
-  </si>
-  <si>
-    <t>janani-ramachandran.json</t>
-  </si>
-  <si>
-    <t>Janani Ramachandran</t>
-  </si>
-  <si>
-    <t>valarie-bachelor.json</t>
-  </si>
-  <si>
-    <t>Valarie Bachelor</t>
-  </si>
-  <si>
-    <t>stephen-schear.json</t>
-  </si>
-  <si>
-    <t>Stephen Schear</t>
-  </si>
-  <si>
-    <t>derreck-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck Johnson</t>
-  </si>
-  <si>
-    <t>jennifer-brouhard.json</t>
-  </si>
-  <si>
-    <t>Jennifer Brouhard</t>
-  </si>
-  <si>
-    <t>david-kakishiba.json</t>
-  </si>
-  <si>
-    <t>David Kakishiba</t>
-  </si>
-  <si>
-    <t>treva-d-reid.json</t>
-  </si>
-  <si>
-    <t>Treva D. Reid</t>
-  </si>
-  <si>
-    <t>gregory-hodge.json</t>
-  </si>
-  <si>
-    <t>Gregory Hodge</t>
-  </si>
-  <si>
-    <t>kyra-mungia.json</t>
-  </si>
-  <si>
-    <t>Kyra Mungia</t>
-  </si>
-  <si>
-    <t>peter-y-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Y. Liu</t>
-  </si>
-  <si>
-    <t>allyssa-victory-villanueva.json</t>
-  </si>
-  <si>
-    <t>Allyssa Victory Villanueva</t>
-  </si>
-  <si>
-    <t>elbert-owens.json</t>
-  </si>
-  <si>
-    <t>Elbert Owens</t>
-  </si>
-  <si>
-    <t>harold-lowe.json</t>
-  </si>
-  <si>
-    <t>Harold Lowe</t>
-  </si>
-  <si>
-    <t>joel-velasquez.json</t>
-  </si>
-  <si>
-    <t>Joel Velasquez</t>
-  </si>
-  <si>
-    <t>monesha-carter.json</t>
-  </si>
-  <si>
-    <t>Monesha Carter</t>
-  </si>
-  <si>
-    <t>mart-bradley.json</t>
-  </si>
-  <si>
-    <t>Mart Bradley</t>
   </si>
 </sst>
 </file>
@@ -1474,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>17639</v>
+        <v>177069.06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>17639</v>
+        <v>176990.06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17639</v>
+        <v>176990.06</v>
       </c>
       <c r="G2">
         <f>E2-D2</f>
@@ -1502,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>147.23</v>
+        <v>33744.95</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>147.23</v>
+        <v>33744.95</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>147.23</v>
+        <v>33744.95</v>
       </c>
       <c r="G3">
         <f>E3-D3</f>
@@ -1530,13 +1530,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12093</v>
+        <v>67825.58</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>12093</v>
+        <v>67450.58</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>12093</v>
+        <v>67450.58</v>
       </c>
       <c r="G4">
         <f>E4-D4</f>
@@ -1558,13 +1558,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>164638.37</v>
+        <v>124860.15</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>164638.37</v>
+        <v>124686.15</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>164638.37</v>
+        <v>124686.15</v>
       </c>
       <c r="G5">
         <f>E5-D5</f>
@@ -1586,13 +1586,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>242342.31</v>
+        <v>69175</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>242276.53</v>
+        <v>69175</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>242276.53</v>
+        <v>69175</v>
       </c>
       <c r="G6">
         <f>E6-D6</f>
@@ -1614,13 +1614,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>237608.59</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>237608.59</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0</v>
+        <v>237608.59</v>
       </c>
       <c r="G7">
         <f>E7-D7</f>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>115502.98</v>
+        <v>11835</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>115502.98</v>
+        <v>11835</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>115502.98</v>
+        <v>11835</v>
       </c>
       <c r="G8">
         <f>E8-D8</f>
@@ -1670,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>124860.15</v>
+        <v>18747.83</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>124686.15</v>
+        <v>18747.83</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>124686.15</v>
+        <v>18747.83</v>
       </c>
       <c r="G9">
         <f>E9-D9</f>
@@ -1698,13 +1698,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>462809.82</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>462809.82</v>
+        <v>5000</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>462809.82</v>
+        <v>5000</v>
       </c>
       <c r="G10">
         <f>E10-D10</f>
@@ -1726,13 +1726,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>18747.83</v>
+        <v>164638.37</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>18747.83</v>
+        <v>164638.37</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>18747.83</v>
+        <v>164638.37</v>
       </c>
       <c r="G11">
         <f>E11-D11</f>
@@ -1754,13 +1754,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="G12">
         <f>E12-D12</f>
@@ -1782,13 +1782,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>237608.59</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>237608.59</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>237608.59</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="G13">
         <f>E13-D13</f>
@@ -1810,13 +1810,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>37784.69</v>
+        <v>38429</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>37784.69</v>
+        <v>38429</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>37784.69</v>
+        <v>38429</v>
       </c>
       <c r="G14">
         <f>E14-D14</f>
@@ -1866,13 +1866,13 @@
         <v>38</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>67825.58</v>
+        <v>10758</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>67450.58</v>
+        <v>10758</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>67450.58</v>
+        <v>10758</v>
       </c>
       <c r="G16">
         <f>E16-D16</f>
@@ -1894,13 +1894,13 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>347445.36</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>347445.36</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>347445.36</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f>E17-D17</f>
@@ -1922,13 +1922,13 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>242342.31</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>242276.53</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>242276.53</v>
       </c>
       <c r="G18">
         <f>E18-D18</f>
@@ -1950,13 +1950,13 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>73585.61</v>
+        <v>96641</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>73885.61</v>
+        <v>78241</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>73885.61</v>
+        <v>78241</v>
       </c>
       <c r="G19">
         <f>E19-D19</f>
@@ -1978,13 +1978,13 @@
         <v>46</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>115502.98</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>115502.98</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>115502.98</v>
       </c>
       <c r="G20">
         <f>E20-D20</f>
@@ -2006,13 +2006,13 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>1165.8</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>1165.8</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>1165.8</v>
       </c>
       <c r="G21">
         <f>E21-D21</f>
@@ -2034,13 +2034,13 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>38429</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>38429</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>38429</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f>E22-D22</f>
@@ -2090,13 +2090,13 @@
         <v>54</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>33744.95</v>
+        <v>62212</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>33744.95</v>
+        <v>62212</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>33744.95</v>
+        <v>62212</v>
       </c>
       <c r="G24">
         <f>E24-D24</f>
@@ -2118,13 +2118,13 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>10758</v>
+        <v>37784.69</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>10758</v>
+        <v>37784.69</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>10758</v>
+        <v>37784.69</v>
       </c>
       <c r="G25">
         <f>E25-D25</f>
@@ -2146,13 +2146,13 @@
         <v>58</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>34487.87</v>
+        <v>462809.82</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>34487.87</v>
+        <v>462809.82</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>34487.87</v>
+        <v>462809.82</v>
       </c>
       <c r="G26">
         <f>E26-D26</f>
@@ -2174,13 +2174,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5000</v>
+        <v>34487.87</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>5000</v>
+        <v>34487.87</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5000</v>
+        <v>34487.87</v>
       </c>
       <c r="G27">
         <f>E27-D27</f>
@@ -2230,13 +2230,13 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2609.9</v>
+        <v>147.23</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2609.9</v>
+        <v>147.23</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2609.9</v>
+        <v>147.23</v>
       </c>
       <c r="G29">
         <f>E29-D29</f>
@@ -2258,13 +2258,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>32601.29</v>
+        <v>24233.82</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>28801.29</v>
+        <v>24233.82</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>28801.29</v>
+        <v>24233.82</v>
       </c>
       <c r="G30">
         <f>E30-D30</f>
@@ -2314,13 +2314,13 @@
         <v>70</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>177069.06</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>176990.06</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>176990.06</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <f>E32-D32</f>
@@ -2370,13 +2370,13 @@
         <v>74</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>62212</v>
+        <v>347445.36</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>62212</v>
+        <v>347445.36</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>62212</v>
+        <v>347445.36</v>
       </c>
       <c r="G34">
         <f>E34-D34</f>
@@ -2398,13 +2398,13 @@
         <v>76</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>24233.82</v>
+        <v>12093</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>24233.82</v>
+        <v>12093</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>24233.82</v>
+        <v>12093</v>
       </c>
       <c r="G35">
         <f>E35-D35</f>
@@ -2426,13 +2426,13 @@
         <v>78</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>96641</v>
+        <v>2609.9</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>78241</v>
+        <v>2609.9</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>78241</v>
+        <v>2609.9</v>
       </c>
       <c r="G36">
         <f>E36-D36</f>
@@ -2454,13 +2454,13 @@
         <v>80</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>17639</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>17639</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>17639</v>
       </c>
       <c r="G37">
         <f>E37-D37</f>
@@ -2482,13 +2482,13 @@
         <v>82</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>69175</v>
+        <v>73585.61</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>69175</v>
+        <v>73885.61</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>69175</v>
+        <v>73885.61</v>
       </c>
       <c r="G38">
         <f>E38-D38</f>
@@ -2510,13 +2510,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1165.8</v>
+        <v>32601.29</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1165.8</v>
+        <v>28801.29</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1165.8</v>
+        <v>28801.29</v>
       </c>
       <c r="G39">
         <f>E39-D39</f>
@@ -2566,13 +2566,13 @@
         <v>88</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>11835</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>11835</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>11835</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f>E41-D41</f>
@@ -2594,13 +2594,13 @@
         <v>90</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <f>E42-D42</f>
@@ -2622,13 +2622,13 @@
         <v>93</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>36218.73</v>
+        <v>67909</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>36218.73</v>
+        <v>67909</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>36218.73</v>
+        <v>67909</v>
       </c>
       <c r="G43">
         <f>E43-D43</f>
@@ -2650,13 +2650,13 @@
         <v>95</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <f>E44-D44</f>
@@ -2678,13 +2678,13 @@
         <v>97</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>91201.06</v>
+        <v>75623.14</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>116256.07</v>
+        <v>75623.14</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>116256.07</v>
+        <v>75623.14</v>
       </c>
       <c r="G45">
         <f>E45-D45</f>
@@ -2706,13 +2706,13 @@
         <v>99</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>8261</v>
+        <v>25462</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>17570</v>
+        <v>25462</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>17570</v>
+        <v>25462</v>
       </c>
       <c r="G46">
         <f>E46-D46</f>
@@ -2734,13 +2734,13 @@
         <v>101</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>166664.47</v>
+        <v>114510.66</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>166664.47</v>
+        <v>114510.66</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>166664.47</v>
+        <v>114510.66</v>
       </c>
       <c r="G47">
         <f>E47-D47</f>
@@ -2762,13 +2762,13 @@
         <v>103</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>175685.18</v>
+        <v>5219.5</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>171785.18</v>
+        <v>5219.5</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>171785.18</v>
+        <v>5219.5</v>
       </c>
       <c r="G48">
         <f>E48-D48</f>
@@ -2790,13 +2790,13 @@
         <v>105</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G49">
         <f>E49-D49</f>
@@ -2818,13 +2818,13 @@
         <v>107</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>27381.49</v>
+        <v>21685.48</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>27360</v>
+        <v>21661.31</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>27360</v>
+        <v>21661.31</v>
       </c>
       <c r="G50">
         <f>E50-D50</f>
@@ -2846,13 +2846,13 @@
         <v>109</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>152579.98</v>
+        <v>27586</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>263064.98</v>
+        <v>27586</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>263064.98</v>
+        <v>27586</v>
       </c>
       <c r="G51">
         <f>E51-D51</f>
@@ -2874,13 +2874,13 @@
         <v>111</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>39343</v>
+        <v>22344</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>39343</v>
+        <v>22344</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>39343</v>
+        <v>22344</v>
       </c>
       <c r="G52">
         <f>E52-D52</f>
@@ -2902,13 +2902,13 @@
         <v>113</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>26410.15</v>
+        <v>25041.85</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>26410.15</v>
+        <v>25041.85</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>26410.15</v>
+        <v>25041.85</v>
       </c>
       <c r="G53">
         <f>E53-D53</f>
@@ -2930,13 +2930,13 @@
         <v>115</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>19109</v>
+        <v>42542</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>19109</v>
+        <v>42542</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>19109</v>
+        <v>42542</v>
       </c>
       <c r="G54">
         <f>E54-D54</f>
@@ -2958,13 +2958,13 @@
         <v>117</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2250</v>
+        <v>5798</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2250</v>
+        <v>5798</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2250</v>
+        <v>5798</v>
       </c>
       <c r="G55">
         <f>E55-D55</f>
@@ -2986,13 +2986,13 @@
         <v>119</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>0</v>
+        <v>76760.71000000001</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>0</v>
+        <v>76760.71000000001</v>
       </c>
       <c r="G56">
         <f>E56-D56</f>
@@ -3014,13 +3014,13 @@
         <v>121</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>28147.36</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <f>E57-D57</f>
@@ -3033,22 +3033,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>252632.43</v>
+        <v>128456.69</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>252632.43</v>
+        <v>128456.69</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>252632.43</v>
+        <v>128456.69</v>
       </c>
       <c r="G58">
         <f>E58-D58</f>
@@ -3061,22 +3061,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2563.15</v>
+        <v>49348</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>6364.15</v>
+        <v>45848</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>6364.15</v>
+        <v>45848</v>
       </c>
       <c r="G59">
         <f>E59-D59</f>
@@ -3089,22 +3089,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>53915.6</v>
+        <v>8546</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>202245.6</v>
+        <v>8546</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>202245.6</v>
+        <v>8546</v>
       </c>
       <c r="G60">
         <f>E60-D60</f>
@@ -3117,22 +3117,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <f>E61-D61</f>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="G62">
         <f>E62-D62</f>
@@ -3182,13 +3182,13 @@
         <v>131</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>48671.7</v>
+        <v>27941</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>48671.7</v>
+        <v>27941</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>48671.7</v>
+        <v>27941</v>
       </c>
       <c r="G63">
         <f>E63-D63</f>
@@ -3210,13 +3210,13 @@
         <v>133</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>13862.58</v>
+        <v>48119</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>13841.58</v>
+        <v>48119</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>13841.58</v>
+        <v>48119</v>
       </c>
       <c r="G64">
         <f>E64-D64</f>
@@ -3238,13 +3238,13 @@
         <v>135</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="G65">
         <f>E65-D65</f>
@@ -3266,13 +3266,13 @@
         <v>137</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>238153.84</v>
+        <v>316892.58</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>238153.84</v>
+        <v>134125.58</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>238153.84</v>
+        <v>134125.58</v>
       </c>
       <c r="G66">
         <f>E66-D66</f>
@@ -3285,22 +3285,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>15065</v>
+        <v>174571.99</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>15065</v>
+        <v>174571.99</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>15065</v>
+        <v>174571.99</v>
       </c>
       <c r="G67">
         <f>E67-D67</f>
@@ -3313,22 +3313,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="G68">
         <f>E68-D68</f>
@@ -3341,22 +3341,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0</v>
+        <v>69742.41</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>0</v>
+        <v>69742.41</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>0</v>
+        <v>69742.41</v>
       </c>
       <c r="G69">
         <f>E69-D69</f>
@@ -3369,22 +3369,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>84182.67</v>
+        <v>200652</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>94682.67</v>
+        <v>200652</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>94682.67</v>
+        <v>200652</v>
       </c>
       <c r="G70">
         <f>E70-D70</f>
@@ -3397,22 +3397,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0</v>
+        <v>-3014.3</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>0</v>
+        <v>-3014.3</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>0</v>
+        <v>-3014.3</v>
       </c>
       <c r="G71">
         <f>E71-D71</f>
@@ -3425,22 +3425,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>171614.83</v>
+        <v>11770.79</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>101546.49</v>
+        <v>10960.79</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>101546.49</v>
+        <v>10960.79</v>
       </c>
       <c r="G72">
         <f>E72-D72</f>
@@ -3453,22 +3453,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>57047.13</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>57047.13</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>57047.13</v>
       </c>
       <c r="G73">
         <f>E73-D73</f>
@@ -3481,22 +3481,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>32262.96</v>
+        <v>191189.79</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>32262.96</v>
+        <v>191169.79</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>32262.96</v>
+        <v>191169.79</v>
       </c>
       <c r="G74">
         <f>E74-D74</f>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -3537,22 +3537,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>71517.67</v>
+        <v>95012</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>71517.67</v>
+        <v>95196</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>71517.67</v>
+        <v>95196</v>
       </c>
       <c r="G76">
         <f>E76-D76</f>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0</v>
+        <v>55131.12</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>0</v>
+        <v>55131.12</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>0</v>
+        <v>55131.12</v>
       </c>
       <c r="G77">
         <f>E77-D77</f>
@@ -3593,22 +3593,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>50576</v>
+        <v>52266.74</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>35026</v>
+        <v>52227.34</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>35026</v>
+        <v>52227.34</v>
       </c>
       <c r="G78">
         <f>E78-D78</f>
@@ -3621,22 +3621,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>164884.39</v>
+        <v>105825</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>164800.04</v>
+        <v>105825</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>164800.04</v>
+        <v>105825</v>
       </c>
       <c r="G79">
         <f>E79-D79</f>
@@ -3649,22 +3649,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>17885.74</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>17885.74</v>
+        <v>0</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>17885.74</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <f>E80-D80</f>
@@ -3677,22 +3677,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>82077</v>
+        <v>14928.6</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>82077</v>
+        <v>14928.6</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>82077</v>
+        <v>14928.6</v>
       </c>
       <c r="G81">
         <f>E81-D81</f>
@@ -3705,22 +3705,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>33876.58</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>25168.58</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>25168.58</v>
       </c>
       <c r="G82">
         <f>E82-D82</f>
@@ -3733,22 +3733,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>52764.9</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <f>E83-D83</f>
@@ -3761,22 +3761,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>52266.74</v>
+        <v>57141.65</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>52227.34</v>
+        <v>57141.65</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>52227.34</v>
+        <v>57141.65</v>
       </c>
       <c r="G84">
         <f>E84-D84</f>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>14928.6</v>
+        <v>24920</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>14928.6</v>
+        <v>24920</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>14928.6</v>
+        <v>24920</v>
       </c>
       <c r="G85">
         <f>E85-D85</f>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>615607.3</v>
+        <v>0</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>615607.3</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <f>E86-D86</f>
@@ -3845,22 +3845,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>0</v>
+        <v>615607.3</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>0</v>
+        <v>615607.3</v>
       </c>
       <c r="G87">
         <f>E87-D87</f>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>24920</v>
+        <v>153340.26</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>24920</v>
+        <v>154427.26</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>24920</v>
+        <v>154427.26</v>
       </c>
       <c r="G88">
         <f>E88-D88</f>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>28752</v>
+        <v>22734.8</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>19392</v>
+        <v>22734.8</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>19392</v>
+        <v>22734.8</v>
       </c>
       <c r="G89">
         <f>E89-D89</f>
@@ -3929,22 +3929,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>22734.8</v>
+        <v>25483</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>22734.8</v>
+        <v>25483</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>22734.8</v>
+        <v>25483</v>
       </c>
       <c r="G90">
         <f>E90-D90</f>
@@ -3957,22 +3957,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>47283</v>
+        <v>28752</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>41883</v>
+        <v>19392</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>41883</v>
+        <v>19392</v>
       </c>
       <c r="G91">
         <f>E91-D91</f>
@@ -3985,13 +3985,13 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -4013,22 +4013,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>0</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>0</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="G93">
         <f>E93-D93</f>
@@ -4041,22 +4041,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>43000</v>
+        <v>58399.56</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>43000</v>
+        <v>58379.56</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>43000</v>
+        <v>58379.56</v>
       </c>
       <c r="G94">
         <f>E94-D94</f>
@@ -4069,22 +4069,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>95012</v>
+        <v>43000</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>95196</v>
+        <v>43000</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>95196</v>
+        <v>43000</v>
       </c>
       <c r="G95">
         <f>E95-D95</f>
@@ -4097,22 +4097,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>105825</v>
+        <v>68499.13</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>105825</v>
+        <v>68464.13</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>105825</v>
+        <v>68464.13</v>
       </c>
       <c r="G96">
         <f>E96-D96</f>
@@ -4125,22 +4125,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>25483</v>
+        <v>52764.9</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>25483</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>25483</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="G97">
         <f>E97-D97</f>
@@ -4153,22 +4153,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>125319.19</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>125319.19</v>
+        <v>0</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>125319.19</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <f>E98-D98</f>
@@ -4181,22 +4181,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-3014.3</v>
+        <v>9548.6</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>-3014.3</v>
+        <v>9548.6</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-3014.3</v>
+        <v>9548.6</v>
       </c>
       <c r="G99">
         <f>E99-D99</f>
@@ -4209,22 +4209,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>58399.56</v>
+        <v>47283</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>58379.56</v>
+        <v>41883</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>58379.56</v>
+        <v>41883</v>
       </c>
       <c r="G100">
         <f>E100-D100</f>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>55131.12</v>
+        <v>125319.19</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>55131.12</v>
+        <v>125319.19</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>55131.12</v>
+        <v>125319.19</v>
       </c>
       <c r="G101">
         <f>E101-D101</f>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>33876.58</v>
+        <v>71517.67</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>25168.58</v>
+        <v>71517.67</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>25168.58</v>
+        <v>71517.67</v>
       </c>
       <c r="G102">
         <f>E102-D102</f>
@@ -4293,22 +4293,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>9548.6</v>
+        <v>0</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>9548.6</v>
+        <v>0</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>9548.6</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <f>E103-D103</f>
@@ -4321,22 +4321,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>0</v>
+        <v>39343</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>0</v>
+        <v>39343</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>0</v>
+        <v>39343</v>
       </c>
       <c r="G104">
         <f>E104-D104</f>
@@ -4349,22 +4349,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>68499.13</v>
+        <v>84182.67</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>68464.13</v>
+        <v>94682.67</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>68464.13</v>
+        <v>94682.67</v>
       </c>
       <c r="G105">
         <f>E105-D105</f>
@@ -4377,22 +4377,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>200652</v>
+        <v>13862.58</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>200652</v>
+        <v>13841.58</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>200652</v>
+        <v>13841.58</v>
       </c>
       <c r="G106">
         <f>E106-D106</f>
@@ -4405,22 +4405,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>0</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>0</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>0</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="G107">
         <f>E107-D107</f>
@@ -4433,13 +4433,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -4461,22 +4461,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D109" s="2" t="n">
-        <v>57141.65</v>
+        <v>53915.6</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>57141.65</v>
+        <v>202245.6</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>57141.65</v>
+        <v>202245.6</v>
       </c>
       <c r="G109">
         <f>E109-D109</f>
@@ -4489,22 +4489,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>57047.13</v>
+        <v>6225</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>57047.13</v>
+        <v>6225</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>57047.13</v>
+        <v>6225</v>
       </c>
       <c r="G110">
         <f>E110-D110</f>
@@ -4517,22 +4517,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>11770.79</v>
+        <v>8261</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>10960.79</v>
+        <v>17570</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>10960.79</v>
+        <v>17570</v>
       </c>
       <c r="G111">
         <f>E111-D111</f>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>153340.26</v>
+        <v>164884.39</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>154427.26</v>
+        <v>164800.04</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>154427.26</v>
+        <v>164800.04</v>
       </c>
       <c r="G112">
         <f>E112-D112</f>
@@ -4573,22 +4573,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="D113" s="2" t="n">
-        <v>191189.79</v>
+        <v>152579.98</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>191169.79</v>
+        <v>263064.98</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>191169.79</v>
+        <v>263064.98</v>
       </c>
       <c r="G113">
         <f>E113-D113</f>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D114" s="2" t="n">
-        <v>10088.01</v>
+        <v>91201.06</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>20986.5</v>
+        <v>116256.07</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>20986.5</v>
+        <v>116256.07</v>
       </c>
       <c r="G114">
         <f>E114-D114</f>
@@ -4632,19 +4632,19 @@
         <v>208</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="G115">
         <f>E115-D115</f>
@@ -4660,19 +4660,19 @@
         <v>210</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>0</v>
+        <v>50576</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>0</v>
+        <v>35026</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>0</v>
+        <v>35026</v>
       </c>
       <c r="G116">
         <f>E116-D116</f>
@@ -4688,7 +4688,7 @@
         <v>212</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>213</v>
@@ -4716,19 +4716,19 @@
         <v>214</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>0</v>
+        <v>48671.7</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>0</v>
+        <v>48671.7</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>0</v>
+        <v>48671.7</v>
       </c>
       <c r="G118">
         <f>E118-D118</f>
@@ -4741,22 +4741,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>0</v>
+        <v>238153.84</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>0</v>
+        <v>238153.84</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>0</v>
+        <v>238153.84</v>
       </c>
       <c r="G119">
         <f>E119-D119</f>
@@ -4769,22 +4769,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="G120">
         <f>E120-D120</f>
@@ -4797,22 +4797,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>0</v>
+        <v>28147.36</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="G121">
         <f>E121-D121</f>
@@ -4825,22 +4825,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>971</v>
+        <v>15065</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>971</v>
+        <v>15065</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>971</v>
+        <v>15065</v>
       </c>
       <c r="G122">
         <f>E122-D122</f>
@@ -4853,22 +4853,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>4592</v>
+        <v>19109</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>4592</v>
+        <v>19109</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>4592</v>
+        <v>19109</v>
       </c>
       <c r="G123">
         <f>E123-D123</f>
@@ -4881,13 +4881,13 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -4909,22 +4909,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <f>E125-D125</f>
@@ -4940,19 +4940,19 @@
         <v>224</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>0</v>
+        <v>27381.49</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>0</v>
+        <v>27360</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>0</v>
+        <v>27360</v>
       </c>
       <c r="G126">
         <f>E126-D126</f>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>25186</v>
+        <v>0</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>25186</v>
+        <v>0</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>25186</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <f>E127-D127</f>
@@ -4993,22 +4993,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>0</v>
+        <v>82077</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>0</v>
+        <v>82077</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>0</v>
+        <v>82077</v>
       </c>
       <c r="G128">
         <f>E128-D128</f>
@@ -5021,22 +5021,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>46973</v>
+        <v>252632.43</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>46973</v>
+        <v>252632.43</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>46973</v>
+        <v>252632.43</v>
       </c>
       <c r="G129">
         <f>E129-D129</f>
@@ -5049,22 +5049,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>0</v>
+        <v>32262.96</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>0</v>
+        <v>32262.96</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>0</v>
+        <v>32262.96</v>
       </c>
       <c r="G130">
         <f>E130-D130</f>
@@ -5077,22 +5077,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>0</v>
+        <v>171614.83</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>0</v>
+        <v>101546.49</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>0</v>
+        <v>101546.49</v>
       </c>
       <c r="G131">
         <f>E131-D131</f>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>0</v>
@@ -5133,22 +5133,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>120280.55</v>
+        <v>17885.74</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>120280.55</v>
+        <v>17885.74</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>120280.55</v>
+        <v>17885.74</v>
       </c>
       <c r="G133">
         <f>E133-D133</f>
@@ -5161,22 +5161,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G134">
         <f>E134-D134</f>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>29118</v>
+        <v>175685.18</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>19568</v>
+        <v>171785.18</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>19568</v>
+        <v>171785.18</v>
       </c>
       <c r="G135">
         <f>E135-D135</f>
@@ -5217,22 +5217,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>5885</v>
+        <v>166664.47</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>16223</v>
+        <v>166664.47</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>16223</v>
+        <v>166664.47</v>
       </c>
       <c r="G136">
         <f>E136-D136</f>
@@ -5245,22 +5245,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>17045</v>
+        <v>26410.15</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>17045</v>
+        <v>26410.15</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>17045</v>
+        <v>26410.15</v>
       </c>
       <c r="G137">
         <f>E137-D137</f>
@@ -5273,22 +5273,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>75623.14</v>
+        <v>36218.73</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>75623.14</v>
+        <v>36218.73</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>75623.14</v>
+        <v>36218.73</v>
       </c>
       <c r="G138">
         <f>E138-D138</f>
@@ -5301,22 +5301,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <f>E139-D139</f>
@@ -5329,22 +5329,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D140" s="2" t="n">
-        <v>22344</v>
+        <v>2563.15</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>22344</v>
+        <v>6364.15</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>22344</v>
+        <v>6364.15</v>
       </c>
       <c r="G140">
         <f>E140-D140</f>
@@ -5357,22 +5357,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1750</v>
+        <v>34544.2</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>1750</v>
+        <v>26700.2</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>1750</v>
+        <v>26700.2</v>
       </c>
       <c r="G141">
         <f>E141-D141</f>
@@ -5385,22 +5385,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>0</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <f>E142-D142</f>
@@ -5413,22 +5413,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>316892.58</v>
+        <v>37094.65</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>134125.58</v>
+        <v>41144.65</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>134125.58</v>
+        <v>41144.65</v>
       </c>
       <c r="G143">
         <f>E143-D143</f>
@@ -5441,22 +5441,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>0</v>
+        <v>23645</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="G144">
         <f>E144-D144</f>
@@ -5469,22 +5469,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <f>E145-D145</f>
@@ -5497,22 +5497,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>25041.85</v>
+        <v>0</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>25041.85</v>
+        <v>0</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>25041.85</v>
+        <v>0</v>
       </c>
       <c r="G146">
         <f>E146-D146</f>
@@ -5525,13 +5525,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>0</v>
@@ -5553,22 +5553,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>174571.99</v>
+        <v>137576.15</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>174571.99</v>
+        <v>173686.15</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>174571.99</v>
+        <v>173686.15</v>
       </c>
       <c r="G148">
         <f>E148-D148</f>
@@ -5581,22 +5581,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>69742.41</v>
+        <v>18839</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>69742.41</v>
+        <v>34089</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>69742.41</v>
+        <v>34089</v>
       </c>
       <c r="G149">
         <f>E149-D149</f>
@@ -5609,22 +5609,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>27941</v>
+        <v>257158.97</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>27941</v>
+        <v>257158.97</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>27941</v>
+        <v>257158.97</v>
       </c>
       <c r="G150">
         <f>E150-D150</f>
@@ -5637,22 +5637,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>27586</v>
+        <v>178133.19</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>27586</v>
+        <v>178133.19</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>27586</v>
+        <v>178133.19</v>
       </c>
       <c r="G151">
         <f>E151-D151</f>
@@ -5665,22 +5665,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>5798</v>
+        <v>16286</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>5798</v>
+        <v>22436</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>5798</v>
+        <v>22436</v>
       </c>
       <c r="G152">
         <f>E152-D152</f>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>25462</v>
+        <v>0</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>25462</v>
+        <v>0</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>25462</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <f>E153-D153</f>
@@ -5721,13 +5721,13 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>0</v>
@@ -5749,22 +5749,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="G155">
         <f>E155-D155</f>
@@ -5777,22 +5777,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>138</v>
+        <v>277</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>49348</v>
+        <v>0</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>45848</v>
+        <v>0</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45848</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <f>E156-D156</f>
@@ -5808,19 +5808,19 @@
         <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>21685.48</v>
+        <v>8965</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>21661.31</v>
+        <v>13215</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>21661.31</v>
+        <v>13215</v>
       </c>
       <c r="G157">
         <f>E157-D157</f>
@@ -5836,19 +5836,19 @@
         <v>281</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>10634</v>
+        <v>52204</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>10634</v>
+        <v>83679</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>10634</v>
+        <v>83679</v>
       </c>
       <c r="G158">
         <f>E158-D158</f>
@@ -5861,22 +5861,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>67909</v>
+        <v>49384</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>67909</v>
+        <v>69234</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>67909</v>
+        <v>69234</v>
       </c>
       <c r="G159">
         <f>E159-D159</f>
@@ -5889,22 +5889,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>42542</v>
+        <v>424114.99</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>42542</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>42542</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="G160">
         <f>E160-D160</f>
@@ -5917,22 +5917,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>8546</v>
+        <v>0</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>8546</v>
+        <v>0</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>8546</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <f>E161-D161</f>
@@ -5945,22 +5945,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>396</v>
+        <v>2594.65</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>396</v>
+        <v>2275</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>396</v>
+        <v>2275</v>
       </c>
       <c r="G162">
         <f>E162-D162</f>
@@ -5973,22 +5973,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>114510.66</v>
+        <v>10346</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>114510.66</v>
+        <v>10346</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>114510.66</v>
+        <v>10346</v>
       </c>
       <c r="G163">
         <f>E163-D163</f>
@@ -6001,22 +6001,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>48119</v>
+        <v>0</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>48119</v>
+        <v>0</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>48119</v>
+        <v>0</v>
       </c>
       <c r="G164">
         <f>E164-D164</f>
@@ -6029,13 +6029,13 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="D165" s="2" t="n">
         <v>0</v>
@@ -6057,22 +6057,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>2594.65</v>
+        <v>59938.36</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>2275</v>
+        <v>59938.36</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>2275</v>
+        <v>59938.36</v>
       </c>
       <c r="G166">
         <f>E166-D166</f>
@@ -6085,22 +6085,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>0</v>
+        <v>28103</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>0</v>
+        <v>58618</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>0</v>
+        <v>58618</v>
       </c>
       <c r="G167">
         <f>E167-D167</f>
@@ -6113,22 +6113,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>28103</v>
+        <v>175063</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>58618</v>
+        <v>175023.41</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>58618</v>
+        <v>175023.41</v>
       </c>
       <c r="G168">
         <f>E168-D168</f>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>5131</v>
@@ -6169,22 +6169,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>0</v>
+        <v>34858</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>0</v>
+        <v>38208</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>0</v>
+        <v>38208</v>
       </c>
       <c r="G170">
         <f>E170-D170</f>
@@ -6197,22 +6197,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <f>E171-D171</f>
@@ -6225,13 +6225,13 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>0</v>
@@ -6253,22 +6253,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>59938.36</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>59938.36</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>59938.36</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="G173">
         <f>E173-D173</f>
@@ -6281,22 +6281,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>0</v>
+        <v>574120.47</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="G174">
         <f>E174-D174</f>
@@ -6309,22 +6309,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>52204</v>
+        <v>0</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <f>E175-D175</f>
@@ -6337,22 +6337,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>424114.99</v>
+        <v>125340.12</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>227843.71</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>227843.71</v>
       </c>
       <c r="G176">
         <f>E176-D176</f>
@@ -6365,22 +6365,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>257158.97</v>
+        <v>0</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>257158.97</v>
+        <v>0</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>257158.97</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <f>E177-D177</f>
@@ -6393,22 +6393,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>0</v>
+        <v>17092.21</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="G178">
         <f>E178-D178</f>
@@ -6421,22 +6421,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="G179">
         <f>E179-D179</f>
@@ -6449,22 +6449,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>8965</v>
+        <v>29118</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>13215</v>
+        <v>19568</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>13215</v>
+        <v>19568</v>
       </c>
       <c r="G180">
         <f>E180-D180</f>
@@ -6477,22 +6477,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>179</v>
+        <v>318</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>180</v>
+        <v>319</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>175063</v>
+        <v>0</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>175023.41</v>
+        <v>0</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>175023.41</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <f>E181-D181</f>
@@ -6505,22 +6505,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="C182" s="1" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>13256.09</v>
+        <v>5885</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>13256.09</v>
+        <v>16223</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>13256.09</v>
+        <v>16223</v>
       </c>
       <c r="G182">
         <f>E182-D182</f>
@@ -6533,22 +6533,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="G183">
         <f>E183-D183</f>
@@ -6561,22 +6561,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>574120.47</v>
+        <v>0</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="G184">
         <f>E184-D184</f>
@@ -6589,22 +6589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>320</v>
+        <v>198</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>34858</v>
+        <v>1200</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>38208</v>
+        <v>1200</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>38208</v>
+        <v>1200</v>
       </c>
       <c r="G185">
         <f>E185-D185</f>
@@ -6617,22 +6617,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>178133.19</v>
+        <v>0</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>178133.19</v>
+        <v>0</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>178133.19</v>
+        <v>0</v>
       </c>
       <c r="G186">
         <f>E186-D186</f>
@@ -6645,22 +6645,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>17092.21</v>
+        <v>0</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <f>E187-D187</f>
@@ -6673,13 +6673,13 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0</v>
@@ -6701,22 +6701,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>23645</v>
+        <v>0</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="G189">
         <f>E189-D189</f>
@@ -6729,22 +6729,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>330</v>
+        <v>208</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>16286</v>
+        <v>0</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>22436</v>
+        <v>0</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>22436</v>
+        <v>0</v>
       </c>
       <c r="G190">
         <f>E190-D190</f>
@@ -6757,22 +6757,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>333</v>
+        <v>56</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>37094.65</v>
+        <v>971</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>41144.65</v>
+        <v>971</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>41144.65</v>
+        <v>971</v>
       </c>
       <c r="G191">
         <f>E191-D191</f>
@@ -6785,22 +6785,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="G192">
         <f>E192-D192</f>
@@ -6816,19 +6816,19 @@
         <v>334</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>125340.12</v>
+        <v>25186</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>227843.71</v>
+        <v>25186</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>227843.71</v>
+        <v>25186</v>
       </c>
       <c r="G193">
         <f>E193-D193</f>
@@ -6844,19 +6844,19 @@
         <v>336</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>137576.15</v>
+        <v>4592</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>173686.15</v>
+        <v>4592</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>173686.15</v>
+        <v>4592</v>
       </c>
       <c r="G194">
         <f>E194-D194</f>
@@ -6872,19 +6872,19 @@
         <v>338</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>49384</v>
+        <v>0</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>69234</v>
+        <v>0</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>69234</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <f>E195-D195</f>
@@ -6900,7 +6900,7 @@
         <v>340</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>341</v>
@@ -6928,19 +6928,19 @@
         <v>342</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>34544.2</v>
+        <v>0</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="G197">
         <f>E197-D197</f>
@@ -6956,7 +6956,7 @@
         <v>344</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>345</v>
@@ -6981,22 +6981,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>18839</v>
+        <v>10088.01</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>34089</v>
+        <v>20986.5</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>34089</v>
+        <v>20986.5</v>
       </c>
       <c r="G199">
         <f>E199-D199</f>
@@ -7009,13 +7009,13 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>348</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>349</v>
@@ -7068,19 +7068,19 @@
         <v>350</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>0</v>
+        <v>46973</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>0</v>
+        <v>46973</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>0</v>
+        <v>46973</v>
       </c>
       <c r="G202">
         <f>E202-D202</f>
@@ -7096,19 +7096,19 @@
         <v>352</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>0</v>
+        <v>120280.55</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>0</v>
+        <v>120280.55</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>0</v>
+        <v>120280.55</v>
       </c>
       <c r="G203">
         <f>E203-D203</f>

--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -40,37 +40,247 @@
     <t>diff by source</t>
   </si>
   <si>
+    <t>abel-guillen.json</t>
+  </si>
+  <si>
+    <t>oakland-2014-11-04</t>
+  </si>
+  <si>
+    <t>Abel Guillén</t>
+  </si>
+  <si>
+    <t>aimee-eng.json</t>
+  </si>
+  <si>
+    <t>Aimee Eng</t>
+  </si>
+  <si>
+    <t>andrew-park.json</t>
+  </si>
+  <si>
+    <t>Andrew Park</t>
+  </si>
+  <si>
+    <t>annie-campbell-washington.json</t>
+  </si>
+  <si>
+    <t>Annie Campbell Washington</t>
+  </si>
+  <si>
+    <t>brenda-roberts.json</t>
+  </si>
+  <si>
+    <t>Brenda Roberts</t>
+  </si>
+  <si>
+    <t>bryan-parker.json</t>
+  </si>
+  <si>
+    <t>Bryan Parker</t>
+  </si>
+  <si>
+    <t>charles-williams.json</t>
+  </si>
+  <si>
+    <t>Charles Williams</t>
+  </si>
+  <si>
+    <t>cheri-spigner.json</t>
+  </si>
+  <si>
+    <t>Cheri Spigner</t>
+  </si>
+  <si>
+    <t>christopher-dobbins.json</t>
+  </si>
+  <si>
+    <t>Christopher Dobbins</t>
+  </si>
+  <si>
+    <t>courtney-ruby.json</t>
+  </si>
+  <si>
+    <t>Courtney Ruby</t>
+  </si>
+  <si>
+    <t>dan-siegel.json</t>
+  </si>
+  <si>
+    <t>Dan Siegel</t>
+  </si>
+  <si>
+    <t>dana-king.json</t>
+  </si>
+  <si>
+    <t>Dana King</t>
+  </si>
+  <si>
+    <t>desley-brooks.json</t>
+  </si>
+  <si>
+    <t>Desley Brooks</t>
+  </si>
+  <si>
+    <t>eric-wilson.json</t>
+  </si>
+  <si>
+    <t>Eric Wilson</t>
+  </si>
+  <si>
+    <t>james-moore.json</t>
+  </si>
+  <si>
+    <t>James Moore</t>
+  </si>
+  <si>
+    <t>jason-anderson.json</t>
+  </si>
+  <si>
+    <t>Jason Anderson</t>
+  </si>
+  <si>
+    <t>jean-quan.json</t>
+  </si>
+  <si>
+    <t>Jean Quan</t>
+  </si>
+  <si>
+    <t>jill-broadhurst.json</t>
+  </si>
+  <si>
+    <t>Jill Broadhurst</t>
+  </si>
+  <si>
+    <t>joe-tuman.json</t>
+  </si>
+  <si>
+    <t>Joe Tuman</t>
+  </si>
+  <si>
+    <t>karl-debro.json</t>
+  </si>
+  <si>
+    <t>Karl Debro</t>
+  </si>
+  <si>
+    <t>ken-houston.json</t>
+  </si>
+  <si>
+    <t>Ken Houston</t>
+  </si>
+  <si>
+    <t>ken-maxey.json</t>
+  </si>
+  <si>
+    <t>Ken Maxey</t>
+  </si>
+  <si>
+    <t>kevin-blackburn.json</t>
+  </si>
+  <si>
+    <t>Kevin Blackburn</t>
+  </si>
+  <si>
+    <t>len-raphael.json</t>
+  </si>
+  <si>
+    <t>Len Raphael</t>
+  </si>
+  <si>
+    <t>libby-schaaf.json</t>
+  </si>
+  <si>
+    <t>Libby Schaaf</t>
+  </si>
+  <si>
+    <t>michael-johnson.json</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>nancy-sidebotham.json</t>
+  </si>
+  <si>
+    <t>Nancy Sidebotham</t>
+  </si>
+  <si>
+    <t>nicolas-heidorn.json</t>
+  </si>
+  <si>
+    <t>Nicolas Heidorn</t>
+  </si>
+  <si>
+    <t>nina-senn.json</t>
+  </si>
+  <si>
+    <t>Nina Senn</t>
+  </si>
+  <si>
+    <t>pat-mccullough.json</t>
+  </si>
+  <si>
+    <t>Pat Mccullough</t>
+  </si>
+  <si>
+    <t>paul-lim.json</t>
+  </si>
+  <si>
+    <t>Paul Lim</t>
+  </si>
+  <si>
+    <t>peter-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Liu</t>
+  </si>
+  <si>
+    <t>rebecca-kaplan.json</t>
+  </si>
+  <si>
+    <t>Rebecca Kaplan</t>
+  </si>
+  <si>
+    <t>renato-almanzor.json</t>
+  </si>
+  <si>
+    <t>Renato Almanzor</t>
+  </si>
+  <si>
+    <t>saied-karamooz.json</t>
+  </si>
+  <si>
+    <t>Saied Karamooz</t>
+  </si>
+  <si>
     <t>saleem-shakir-gilmore.json</t>
   </si>
   <si>
-    <t>oakland-2014-11-04</t>
-  </si>
-  <si>
     <t>Saleem Shakir-Gilmore</t>
   </si>
   <si>
-    <t>nicolas-heidorn.json</t>
-  </si>
-  <si>
-    <t>Nicolas Heidorn</t>
-  </si>
-  <si>
-    <t>renato-almanzor.json</t>
-  </si>
-  <si>
-    <t>Renato Almanzor</t>
-  </si>
-  <si>
-    <t>courtney-ruby.json</t>
-  </si>
-  <si>
-    <t>Courtney Ruby</t>
-  </si>
-  <si>
-    <t>jean-quan.json</t>
-  </si>
-  <si>
-    <t>Jean Quan</t>
+    <t>shanthi-gonzales.json</t>
+  </si>
+  <si>
+    <t>Shanthi Gonzales</t>
+  </si>
+  <si>
+    <t>shereda-nosakhare.json</t>
+  </si>
+  <si>
+    <t>Shereda Nosakhare</t>
+  </si>
+  <si>
+    <t>summuel-washington.json</t>
+  </si>
+  <si>
+    <t>Summuel Washington</t>
+  </si>
+  <si>
+    <t>vicente-cruz.json</t>
+  </si>
+  <si>
+    <t>Vicente Cruz</t>
   </si>
   <si>
     <t>william-bo-ghirardelli.json</t>
@@ -79,307 +289,469 @@
     <t>William "Bo" Ghirardelli</t>
   </si>
   <si>
-    <t>joe-tuman.json</t>
-  </si>
-  <si>
-    <t>Joe Tuman</t>
-  </si>
-  <si>
-    <t>annie-campbell-washington.json</t>
-  </si>
-  <si>
-    <t>Annie Campbell Washington</t>
-  </si>
-  <si>
-    <t>libby-schaaf.json</t>
-  </si>
-  <si>
-    <t>Libby Schaaf</t>
-  </si>
-  <si>
-    <t>cheri-spigner.json</t>
-  </si>
-  <si>
-    <t>Cheri Spigner</t>
-  </si>
-  <si>
-    <t>ken-houston.json</t>
-  </si>
-  <si>
-    <t>Ken Houston</t>
-  </si>
-  <si>
-    <t>bryan-parker.json</t>
-  </si>
-  <si>
-    <t>Bryan Parker</t>
-  </si>
-  <si>
-    <t>len-raphael.json</t>
-  </si>
-  <si>
-    <t>Len Raphael</t>
-  </si>
-  <si>
-    <t>jason-anderson.json</t>
-  </si>
-  <si>
-    <t>Jason Anderson</t>
-  </si>
-  <si>
-    <t>andrew-park.json</t>
-  </si>
-  <si>
-    <t>Andrew Park</t>
-  </si>
-  <si>
-    <t>rebecca-kaplan.json</t>
-  </si>
-  <si>
-    <t>Rebecca Kaplan</t>
-  </si>
-  <si>
-    <t>paul-lim.json</t>
-  </si>
-  <si>
-    <t>Paul Lim</t>
-  </si>
-  <si>
-    <t>shanthi-gonzales.json</t>
-  </si>
-  <si>
-    <t>Shanthi Gonzales</t>
-  </si>
-  <si>
-    <t>peter-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Liu</t>
-  </si>
-  <si>
-    <t>pat-mccullough.json</t>
-  </si>
-  <si>
-    <t>Pat Mccullough</t>
-  </si>
-  <si>
-    <t>desley-brooks.json</t>
-  </si>
-  <si>
-    <t>Desley Brooks</t>
-  </si>
-  <si>
-    <t>vicente-cruz.json</t>
-  </si>
-  <si>
-    <t>Vicente Cruz</t>
-  </si>
-  <si>
-    <t>aimee-eng.json</t>
-  </si>
-  <si>
-    <t>Aimee Eng</t>
-  </si>
-  <si>
-    <t>james-moore.json</t>
-  </si>
-  <si>
-    <t>James Moore</t>
-  </si>
-  <si>
-    <t>michael-johnson.json</t>
-  </si>
-  <si>
-    <t>Michael Johnson</t>
-  </si>
-  <si>
-    <t>christopher-dobbins.json</t>
-  </si>
-  <si>
-    <t>Christopher Dobbins</t>
-  </si>
-  <si>
-    <t>eric-wilson.json</t>
-  </si>
-  <si>
-    <t>Eric Wilson</t>
-  </si>
-  <si>
-    <t>saied-karamooz.json</t>
-  </si>
-  <si>
-    <t>Saied Karamooz</t>
-  </si>
-  <si>
-    <t>shereda-nosakhare.json</t>
-  </si>
-  <si>
-    <t>Shereda Nosakhare</t>
-  </si>
-  <si>
-    <t>summuel-washington.json</t>
-  </si>
-  <si>
-    <t>Summuel Washington</t>
-  </si>
-  <si>
-    <t>abel-guillen.json</t>
-  </si>
-  <si>
-    <t>Abel Guillén</t>
-  </si>
-  <si>
-    <t>nancy-sidebotham.json</t>
-  </si>
-  <si>
-    <t>Nancy Sidebotham</t>
-  </si>
-  <si>
-    <t>kevin-blackburn.json</t>
-  </si>
-  <si>
-    <t>Kevin Blackburn</t>
-  </si>
-  <si>
-    <t>nina-senn.json</t>
-  </si>
-  <si>
-    <t>Nina Senn</t>
-  </si>
-  <si>
-    <t>jill-broadhurst.json</t>
-  </si>
-  <si>
-    <t>Jill Broadhurst</t>
-  </si>
-  <si>
-    <t>dana-king.json</t>
-  </si>
-  <si>
-    <t>Dana King</t>
-  </si>
-  <si>
-    <t>brenda-roberts.json</t>
-  </si>
-  <si>
-    <t>Brenda Roberts</t>
-  </si>
-  <si>
-    <t>karl-debro.json</t>
-  </si>
-  <si>
-    <t>Karl Debro</t>
-  </si>
-  <si>
-    <t>ken-maxey.json</t>
-  </si>
-  <si>
-    <t>Ken Maxey</t>
-  </si>
-  <si>
-    <t>charles-williams.json</t>
-  </si>
-  <si>
-    <t>Charles Williams</t>
-  </si>
-  <si>
-    <t>dan-siegel.json</t>
-  </si>
-  <si>
-    <t>Dan Siegel</t>
+    <t>barbara-parker.json</t>
+  </si>
+  <si>
+    <t>oakland-2016-11-08</t>
+  </si>
+  <si>
+    <t>Barbara Parker</t>
+  </si>
+  <si>
+    <t>benjamin-lang.json</t>
+  </si>
+  <si>
+    <t>Benjamin Lang</t>
+  </si>
+  <si>
+    <t>bruce-quan.json</t>
+  </si>
+  <si>
+    <t>Bruce Quan</t>
+  </si>
+  <si>
+    <t>chris-jackson.json</t>
+  </si>
+  <si>
+    <t>Chris Jackson</t>
+  </si>
+  <si>
+    <t>dan-kalb.json</t>
+  </si>
+  <si>
+    <t>Dan Kalb</t>
+  </si>
+  <si>
+    <t>donald-macleay.json</t>
+  </si>
+  <si>
+    <t>Donald Macleay</t>
+  </si>
+  <si>
+    <t>francis-matt-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Matt Hummel</t>
+  </si>
+  <si>
+    <t>huber-trenado.json</t>
+  </si>
+  <si>
+    <t>Huber Trenado</t>
+  </si>
+  <si>
+    <t>james-harris.json</t>
+  </si>
+  <si>
+    <t>James Harris</t>
+  </si>
+  <si>
+    <t>jody-london.json</t>
+  </si>
+  <si>
+    <t>Jody London</t>
+  </si>
+  <si>
+    <t>jumoke-hinton-hodge.json</t>
+  </si>
+  <si>
+    <t>Jumoke Hinton Hodge</t>
+  </si>
+  <si>
+    <t>kevin-corbett.json</t>
+  </si>
+  <si>
+    <t>Kevin Corbett</t>
+  </si>
+  <si>
+    <t>kharyshi-wiginton.json</t>
+  </si>
+  <si>
+    <t>Kharyshi Wiginton</t>
+  </si>
+  <si>
+    <t>larry-reid.json</t>
+  </si>
+  <si>
+    <t>Larry Reid</t>
+  </si>
+  <si>
+    <t>lucky-narain.json</t>
+  </si>
+  <si>
+    <t>Lucky Narain</t>
+  </si>
+  <si>
+    <t>lynette-gibson-mcelhaney.json</t>
+  </si>
+  <si>
+    <t>Lynette Gibson McElhaney</t>
+  </si>
+  <si>
+    <t>marcie-hodge.json</t>
+  </si>
+  <si>
+    <t>Marcie Hodge</t>
+  </si>
+  <si>
+    <t>michael-hassid.json</t>
+  </si>
+  <si>
+    <t>Michael Hassid</t>
+  </si>
+  <si>
+    <t>michael-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Michael Hutchinson</t>
+  </si>
+  <si>
+    <t>nehanda-imara.json</t>
+  </si>
+  <si>
+    <t>Nehanda Imara</t>
+  </si>
+  <si>
+    <t>noel-gallo.json</t>
+  </si>
+  <si>
+    <t>Noel Gallo</t>
+  </si>
+  <si>
+    <t>noni-session.json</t>
+  </si>
+  <si>
+    <t>Noni Session</t>
+  </si>
+  <si>
+    <t>peggy-moore.json</t>
+  </si>
+  <si>
+    <t>Peggy Moore</t>
+  </si>
+  <si>
+    <t>roseann-torres.json</t>
+  </si>
+  <si>
+    <t>Roseann Torres</t>
+  </si>
+  <si>
+    <t>viola-gonzales.json</t>
+  </si>
+  <si>
+    <t>Viola Gonzales</t>
+  </si>
+  <si>
+    <t>oakland-2018-11-06</t>
+  </si>
+  <si>
+    <t>anthony-wilson.json</t>
+  </si>
+  <si>
+    <t>Anthony Wilson</t>
+  </si>
+  <si>
+    <t>cat-brooks.json</t>
+  </si>
+  <si>
+    <t>Cat Brooks</t>
+  </si>
+  <si>
+    <t>cedric-anthony-troupe.json</t>
+  </si>
+  <si>
+    <t>Cedric Anthony Troupe</t>
+  </si>
+  <si>
+    <t>charlie-michelson.json</t>
+  </si>
+  <si>
+    <t>Charlie Michelson</t>
+  </si>
+  <si>
+    <t>clarissa-doutherd.json</t>
+  </si>
+  <si>
+    <t>Clarissa Doutherd</t>
+  </si>
+  <si>
+    <t>donte-kenzie-smith.json</t>
+  </si>
+  <si>
+    <t>Donte Kenzie Smith</t>
+  </si>
+  <si>
+    <t>francis-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Hummel</t>
+  </si>
+  <si>
+    <t>gary-yee.json</t>
+  </si>
+  <si>
+    <t>Gary Yee</t>
+  </si>
+  <si>
+    <t>jesse-a-j-smith.json</t>
+  </si>
+  <si>
+    <t>Jesse A.J. Smith</t>
+  </si>
+  <si>
+    <t>joseph-simmons.json</t>
+  </si>
+  <si>
+    <t>Joseph Simmons</t>
+  </si>
+  <si>
+    <t>joseph-tanios.json</t>
+  </si>
+  <si>
+    <t>Joseph Tanios</t>
+  </si>
+  <si>
+    <t>loren-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Taylor</t>
+  </si>
+  <si>
+    <t>marchon-tatmon.json</t>
+  </si>
+  <si>
+    <t>Marchon Tatmon</t>
+  </si>
+  <si>
+    <t>maria-marlo-rodriguez.json</t>
+  </si>
+  <si>
+    <t>Maria "Marlo" Rodriguez</t>
+  </si>
+  <si>
+    <t>mya-whitaker.json</t>
+  </si>
+  <si>
+    <t>Mya Whitaker</t>
+  </si>
+  <si>
+    <t>natasha-middleton.json</t>
+  </si>
+  <si>
+    <t>Natasha Middleton</t>
+  </si>
+  <si>
+    <t>nayeli-maxson.json</t>
+  </si>
+  <si>
+    <t>Nayeli Maxson</t>
+  </si>
+  <si>
+    <t>nikki-fortunato-bas.json</t>
+  </si>
+  <si>
+    <t>Nikki Fortunato Bas</t>
+  </si>
+  <si>
+    <t>pamela-harris.json</t>
+  </si>
+  <si>
+    <t>Pamela Harris</t>
+  </si>
+  <si>
+    <t>pamela-price.json</t>
+  </si>
+  <si>
+    <t>Pamela Price</t>
+  </si>
+  <si>
+    <t>sheng-thao.json</t>
+  </si>
+  <si>
+    <t>Sheng Thao</t>
+  </si>
+  <si>
+    <t>aaron-clay.json</t>
+  </si>
+  <si>
+    <t>oakland-2020-11-03</t>
+  </si>
+  <si>
+    <t>Aaron Clay</t>
+  </si>
+  <si>
+    <t>alexus-taylor.json</t>
+  </si>
+  <si>
+    <t>Alexus Taylor</t>
+  </si>
+  <si>
+    <t>austin-dannhaus.json</t>
+  </si>
+  <si>
+    <t>Austin Dannhaus</t>
+  </si>
+  <si>
+    <t>ben-coach-tapscott.json</t>
+  </si>
+  <si>
+    <t>Ben "Coach" Tapscott</t>
+  </si>
+  <si>
+    <t>benjamin-sam-davis.json</t>
+  </si>
+  <si>
+    <t>Benjamin "Sam" Davis</t>
+  </si>
+  <si>
+    <t>bronche-taylor.json</t>
+  </si>
+  <si>
+    <t>Bronché Taylor</t>
+  </si>
+  <si>
+    <t>carroll-fife.json</t>
+  </si>
+  <si>
+    <t>Carroll Fife</t>
+  </si>
+  <si>
+    <t>cherisse-gash.json</t>
+  </si>
+  <si>
+    <t>Cherisse Gash</t>
+  </si>
+  <si>
+    <t>clifford-thompson.json</t>
+  </si>
+  <si>
+    <t>Clifford Thompson</t>
+  </si>
+  <si>
+    <t>derreck-b-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck B. Johnson</t>
+  </si>
+  <si>
+    <t>eli-ferran.json</t>
+  </si>
+  <si>
+    <t>Eli Ferran</t>
+  </si>
+  <si>
+    <t>faye-taylor.json</t>
+  </si>
+  <si>
+    <t>Faye Taylor</t>
+  </si>
+  <si>
+    <t>jorge-c-lerma.json</t>
+  </si>
+  <si>
+    <t>Jorge C. Lerma</t>
+  </si>
+  <si>
+    <t>kristina-molina.json</t>
+  </si>
+  <si>
+    <t>Kristina Molina</t>
+  </si>
+  <si>
+    <t>leroy-gaines.json</t>
+  </si>
+  <si>
+    <t>Leroy Gaines</t>
+  </si>
+  <si>
+    <t>maiya-edgerly.json</t>
+  </si>
+  <si>
+    <t>Maiya Edgerly</t>
+  </si>
+  <si>
+    <t>mark-hurty.json</t>
+  </si>
+  <si>
+    <t>Mark Hurty</t>
+  </si>
+  <si>
+    <t>maximo-santana.json</t>
+  </si>
+  <si>
+    <t>Maximo Santana</t>
+  </si>
+  <si>
+    <t>meron-semedar.json</t>
+  </si>
+  <si>
+    <t>Meron Semedar</t>
+  </si>
+  <si>
+    <t>mike-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Mike Hutchinson</t>
+  </si>
+  <si>
+    <t>richard-santos-raya.json</t>
+  </si>
+  <si>
+    <t>Richard Santos Raya</t>
+  </si>
+  <si>
+    <t>robert-bob-jackson.json</t>
+  </si>
+  <si>
+    <t>Robert "Bob" Jackson</t>
+  </si>
+  <si>
+    <t>seneca-scott.json</t>
+  </si>
+  <si>
+    <t>Seneca Scott</t>
+  </si>
+  <si>
+    <t>sheila-pope-lawrence.json</t>
+  </si>
+  <si>
+    <t>Sheila Pope Lawrence</t>
+  </si>
+  <si>
+    <t>stacy-thomas.json</t>
+  </si>
+  <si>
+    <t>Stacy Thomas</t>
+  </si>
+  <si>
+    <t>steph-dominguez-walton.json</t>
+  </si>
+  <si>
+    <t>Steph Dominguez Walton</t>
+  </si>
+  <si>
+    <t>treva-reid.json</t>
+  </si>
+  <si>
+    <t>Treva Reid</t>
+  </si>
+  <si>
+    <t>tri-ngo.json</t>
+  </si>
+  <si>
+    <t>Tri Ngo</t>
   </si>
   <si>
     <t>vancedric-williams.json</t>
   </si>
   <si>
-    <t>oakland-2020-11-03</t>
-  </si>
-  <si>
     <t>VanCedric Williams</t>
   </si>
   <si>
-    <t>cherisse-gash.json</t>
-  </si>
-  <si>
-    <t>Cherisse Gash</t>
-  </si>
-  <si>
-    <t>eli-ferran.json</t>
-  </si>
-  <si>
-    <t>Eli Ferran</t>
-  </si>
-  <si>
-    <t>clifford-thompson.json</t>
-  </si>
-  <si>
-    <t>Clifford Thompson</t>
-  </si>
-  <si>
-    <t>treva-reid.json</t>
-  </si>
-  <si>
-    <t>Treva Reid</t>
-  </si>
-  <si>
-    <t>steph-dominguez-walton.json</t>
-  </si>
-  <si>
-    <t>Steph Dominguez Walton</t>
-  </si>
-  <si>
-    <t>alexus-taylor.json</t>
-  </si>
-  <si>
-    <t>Alexus Taylor</t>
-  </si>
-  <si>
-    <t>mike-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Mike Hutchinson</t>
-  </si>
-  <si>
-    <t>derreck-b-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck B. Johnson</t>
-  </si>
-  <si>
-    <t>austin-dannhaus.json</t>
-  </si>
-  <si>
-    <t>Austin Dannhaus</t>
-  </si>
-  <si>
-    <t>tri-ngo.json</t>
-  </si>
-  <si>
-    <t>Tri Ngo</t>
-  </si>
-  <si>
-    <t>mark-hurty.json</t>
-  </si>
-  <si>
-    <t>Mark Hurty</t>
-  </si>
-  <si>
-    <t>faye-taylor.json</t>
-  </si>
-  <si>
-    <t>Faye Taylor</t>
-  </si>
-  <si>
-    <t>kristina-molina.json</t>
-  </si>
-  <si>
-    <t>Kristina Molina</t>
-  </si>
-  <si>
-    <t>marchon-tatmon.json</t>
-  </si>
-  <si>
-    <t>Marchon Tatmon</t>
+    <t>victor-javier-valerio.json</t>
+  </si>
+  <si>
+    <t>Victor Javier Valerio</t>
   </si>
   <si>
     <t>zoe-lopez-meraz.json</t>
@@ -388,694 +760,322 @@
     <t>Zoe Lopez-Meraz</t>
   </si>
   <si>
-    <t>carroll-fife.json</t>
-  </si>
-  <si>
-    <t>Carroll Fife</t>
-  </si>
-  <si>
-    <t>maiya-edgerly.json</t>
-  </si>
-  <si>
-    <t>Maiya Edgerly</t>
-  </si>
-  <si>
-    <t>stacy-thomas.json</t>
-  </si>
-  <si>
-    <t>Stacy Thomas</t>
-  </si>
-  <si>
-    <t>leroy-gaines.json</t>
-  </si>
-  <si>
-    <t>Leroy Gaines</t>
-  </si>
-  <si>
-    <t>ben-coach-tapscott.json</t>
-  </si>
-  <si>
-    <t>Ben "Coach" Tapscott</t>
-  </si>
-  <si>
-    <t>bronche-taylor.json</t>
-  </si>
-  <si>
-    <t>Bronché Taylor</t>
-  </si>
-  <si>
-    <t>lynette-gibson-mcelhaney.json</t>
-  </si>
-  <si>
-    <t>Lynette Gibson McElhaney</t>
-  </si>
-  <si>
-    <t>marcie-hodge.json</t>
-  </si>
-  <si>
-    <t>Marcie Hodge</t>
-  </si>
-  <si>
-    <t>maximo-santana.json</t>
-  </si>
-  <si>
-    <t>Maximo Santana</t>
-  </si>
-  <si>
-    <t>meron-semedar.json</t>
-  </si>
-  <si>
-    <t>Meron Semedar</t>
-  </si>
-  <si>
-    <t>barbara-parker.json</t>
-  </si>
-  <si>
-    <t>Barbara Parker</t>
-  </si>
-  <si>
-    <t>seneca-scott.json</t>
-  </si>
-  <si>
-    <t>Seneca Scott</t>
-  </si>
-  <si>
-    <t>robert-bob-jackson.json</t>
-  </si>
-  <si>
-    <t>Robert "Bob" Jackson</t>
-  </si>
-  <si>
-    <t>benjamin-sam-davis.json</t>
-  </si>
-  <si>
-    <t>Benjamin "Sam" Davis</t>
-  </si>
-  <si>
-    <t>richard-santos-raya.json</t>
-  </si>
-  <si>
-    <t>Richard Santos Raya</t>
-  </si>
-  <si>
-    <t>victor-javier-valerio.json</t>
-  </si>
-  <si>
-    <t>Victor Javier Valerio</t>
-  </si>
-  <si>
-    <t>aaron-clay.json</t>
-  </si>
-  <si>
-    <t>Aaron Clay</t>
-  </si>
-  <si>
-    <t>jorge-c-lerma.json</t>
-  </si>
-  <si>
-    <t>Jorge C. Lerma</t>
-  </si>
-  <si>
-    <t>dan-kalb.json</t>
-  </si>
-  <si>
-    <t>Dan Kalb</t>
-  </si>
-  <si>
-    <t>sheila-pope-lawrence.json</t>
-  </si>
-  <si>
-    <t>Sheila Pope Lawrence</t>
-  </si>
-  <si>
-    <t>noel-gallo.json</t>
-  </si>
-  <si>
-    <t>Noel Gallo</t>
-  </si>
-  <si>
-    <t>natasha-middleton.json</t>
-  </si>
-  <si>
-    <t>oakland-2018-11-06</t>
-  </si>
-  <si>
-    <t>Natasha Middleton</t>
-  </si>
-  <si>
-    <t>pamela-price.json</t>
-  </si>
-  <si>
-    <t>Pamela Price</t>
-  </si>
-  <si>
-    <t>francis-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Hummel</t>
-  </si>
-  <si>
-    <t>joseph-tanios.json</t>
-  </si>
-  <si>
-    <t>Joseph Tanios</t>
-  </si>
-  <si>
-    <t>mya-whitaker.json</t>
-  </si>
-  <si>
-    <t>Mya Whitaker</t>
-  </si>
-  <si>
-    <t>cedric-anthony-troupe.json</t>
-  </si>
-  <si>
-    <t>Cedric Anthony Troupe</t>
-  </si>
-  <si>
-    <t>nikki-fortunato-bas.json</t>
-  </si>
-  <si>
-    <t>Nikki Fortunato Bas</t>
-  </si>
-  <si>
-    <t>charlie-michelson.json</t>
-  </si>
-  <si>
-    <t>Charlie Michelson</t>
-  </si>
-  <si>
-    <t>maria-marlo-rodriguez.json</t>
-  </si>
-  <si>
-    <t>Maria "Marlo" Rodriguez</t>
-  </si>
-  <si>
-    <t>sheng-thao.json</t>
-  </si>
-  <si>
-    <t>Sheng Thao</t>
-  </si>
-  <si>
-    <t>nayeli-maxson.json</t>
-  </si>
-  <si>
-    <t>Nayeli Maxson</t>
-  </si>
-  <si>
-    <t>clarissa-doutherd.json</t>
-  </si>
-  <si>
-    <t>Clarissa Doutherd</t>
-  </si>
-  <si>
-    <t>gary-yee.json</t>
-  </si>
-  <si>
-    <t>Gary Yee</t>
-  </si>
-  <si>
-    <t>jesse-a-j-smith.json</t>
-  </si>
-  <si>
-    <t>Jesse A.J. Smith</t>
-  </si>
-  <si>
-    <t>pamela-harris.json</t>
-  </si>
-  <si>
-    <t>Pamela Harris</t>
-  </si>
-  <si>
-    <t>donte-kenzie-smith.json</t>
-  </si>
-  <si>
-    <t>Donte Kenzie Smith</t>
-  </si>
-  <si>
-    <t>joseph-simmons.json</t>
-  </si>
-  <si>
-    <t>Joseph Simmons</t>
-  </si>
-  <si>
-    <t>anthony-wilson.json</t>
-  </si>
-  <si>
-    <t>Anthony Wilson</t>
-  </si>
-  <si>
-    <t>loren-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Taylor</t>
-  </si>
-  <si>
-    <t>cat-brooks.json</t>
-  </si>
-  <si>
-    <t>Cat Brooks</t>
+    <t>allyssa-victory-villanueva.json</t>
+  </si>
+  <si>
+    <t>oakland-2022-11-08</t>
+  </si>
+  <si>
+    <t>Allyssa Victory Villanueva</t>
+  </si>
+  <si>
+    <t>david-kakishiba.json</t>
+  </si>
+  <si>
+    <t>David Kakishiba</t>
+  </si>
+  <si>
+    <t>derreck-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck Johnson</t>
+  </si>
+  <si>
+    <t>derrick-soo.json</t>
+  </si>
+  <si>
+    <t>Derrick Soo</t>
+  </si>
+  <si>
+    <t>desmond-i-jeffries.json</t>
+  </si>
+  <si>
+    <t>Desmond I. Jeffries</t>
+  </si>
+  <si>
+    <t>elbert-owens.json</t>
+  </si>
+  <si>
+    <t>Elbert Owens</t>
+  </si>
+  <si>
+    <t>gregory-hodge.json</t>
+  </si>
+  <si>
+    <t>Gregory Hodge</t>
+  </si>
+  <si>
+    <t>harold-lowe.json</t>
+  </si>
+  <si>
+    <t>Harold Lowe</t>
+  </si>
+  <si>
+    <t>ignacio-de-la-fuente.json</t>
+  </si>
+  <si>
+    <t>Ignacio De La Fuente</t>
+  </si>
+  <si>
+    <t>janani-ramachandran.json</t>
+  </si>
+  <si>
+    <t>Janani Ramachandran</t>
+  </si>
+  <si>
+    <t>jennifer-brouhard.json</t>
+  </si>
+  <si>
+    <t>Jennifer Brouhard</t>
+  </si>
+  <si>
+    <t>jesse-tapia-juarez.json</t>
+  </si>
+  <si>
+    <t>Jesse Tapia-Juarez</t>
+  </si>
+  <si>
+    <t>joel-velasquez.json</t>
+  </si>
+  <si>
+    <t>Joel Velasquez</t>
+  </si>
+  <si>
+    <t>john-mimosa-marks.json</t>
+  </si>
+  <si>
+    <t>John Mimosa Marks</t>
+  </si>
+  <si>
+    <t>john-reimann.json</t>
+  </si>
+  <si>
+    <t>John Reimann</t>
+  </si>
+  <si>
+    <t>kenny-session.json</t>
+  </si>
+  <si>
+    <t>Kenny Session</t>
+  </si>
+  <si>
+    <t>kevin-jenkins.json</t>
+  </si>
+  <si>
+    <t>Kevin Jenkins</t>
+  </si>
+  <si>
+    <t>kyra-mungia.json</t>
+  </si>
+  <si>
+    <t>Kyra Mungia</t>
+  </si>
+  <si>
+    <t>loren-manuel-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Manuel Taylor</t>
+  </si>
+  <si>
+    <t>mart-bradley.json</t>
+  </si>
+  <si>
+    <t>Mart Bradley</t>
+  </si>
+  <si>
+    <t>max-orozco.json</t>
+  </si>
+  <si>
+    <t>Max Orozco</t>
+  </si>
+  <si>
+    <t>monesha-carter.json</t>
+  </si>
+  <si>
+    <t>Monesha Carter</t>
+  </si>
+  <si>
+    <t>nenna-joiner.json</t>
+  </si>
+  <si>
+    <t>Nenna Joiner</t>
+  </si>
+  <si>
+    <t>nick-resnick.json</t>
+  </si>
+  <si>
+    <t>Nick Resnick</t>
+  </si>
+  <si>
+    <t>paulina-gonzalez.json</t>
+  </si>
+  <si>
+    <t>Paulina Gonzalez</t>
+  </si>
+  <si>
+    <t>pecolia-manigo.json</t>
+  </si>
+  <si>
+    <t>Pecolia Manigo</t>
+  </si>
+  <si>
+    <t>peter-y-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Y. Liu</t>
+  </si>
+  <si>
+    <t>renia-webb.json</t>
+  </si>
+  <si>
+    <t>Renia Webb</t>
+  </si>
+  <si>
+    <t>stephen-schear.json</t>
+  </si>
+  <si>
+    <t>Stephen Schear</t>
+  </si>
+  <si>
+    <t>treva-d-reid.json</t>
+  </si>
+  <si>
+    <t>Treva D. Reid</t>
+  </si>
+  <si>
+    <t>tyron-c-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron C. Jordan</t>
+  </si>
+  <si>
+    <t>valarie-bachelor.json</t>
+  </si>
+  <si>
+    <t>Valarie Bachelor</t>
+  </si>
+  <si>
+    <t>yakpasua-michael-gbagba-zazaboi.json</t>
+  </si>
+  <si>
+    <t>Yakpasua Michael Gbagba Zazaboi</t>
+  </si>
+  <si>
+    <t>alexandra-ritzie-hernandez.json</t>
+  </si>
+  <si>
+    <t>oakland-2023-11-07</t>
+  </si>
+  <si>
+    <t>Alexandra Ritzie-Hernandez</t>
+  </si>
+  <si>
+    <t>christian-miguel-martinez.json</t>
+  </si>
+  <si>
+    <t>Christian Miguel Martinez</t>
+  </si>
+  <si>
+    <t>michael-houston.json</t>
+  </si>
+  <si>
+    <t>oakland-2024-03-05</t>
+  </si>
+  <si>
+    <t>Michael Houston</t>
   </si>
   <si>
     <t>oakland-2024-11-05</t>
   </si>
   <si>
+    <t>debra-sherman.json</t>
+  </si>
+  <si>
+    <t>Debra Sherman</t>
+  </si>
+  <si>
     <t>donnel-c-dunbar.json</t>
   </si>
   <si>
     <t>Donnel C. Dunbar</t>
   </si>
   <si>
+    <t>edward-c-frank.json</t>
+  </si>
+  <si>
+    <t>Edward C. Frank</t>
+  </si>
+  <si>
+    <t>fabian-robinson.json</t>
+  </si>
+  <si>
+    <t>Fabian Robinson</t>
+  </si>
+  <si>
+    <t>merika-goolsby.json</t>
+  </si>
+  <si>
+    <t>Merika Goolsby</t>
+  </si>
+  <si>
+    <t>ryan-richardson.json</t>
+  </si>
+  <si>
+    <t>Ryan Richardson</t>
+  </si>
+  <si>
+    <t>sam-davis.json</t>
+  </si>
+  <si>
+    <t>Sam Davis</t>
+  </si>
+  <si>
+    <t>selika-thomas.json</t>
+  </si>
+  <si>
+    <t>Selika Thomas</t>
+  </si>
+  <si>
+    <t>shan-m-hirsch.json</t>
+  </si>
+  <si>
+    <t>Shan M. Hirsch</t>
+  </si>
+  <si>
     <t>shantell-herndon.json</t>
   </si>
   <si>
     <t>Shantell Herndon</t>
   </si>
   <si>
+    <t>tonya-love.json</t>
+  </si>
+  <si>
+    <t>Tonya Love</t>
+  </si>
+  <si>
+    <t>tyron-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron Jordan</t>
+  </si>
+  <si>
     <t>van-cedric-williams.json</t>
   </si>
   <si>
     <t>Van Cedric Williams</t>
   </si>
   <si>
-    <t>shan-m-hirsch.json</t>
-  </si>
-  <si>
-    <t>Shan M. Hirsch</t>
-  </si>
-  <si>
-    <t>edward-c-frank.json</t>
-  </si>
-  <si>
-    <t>Edward C. Frank</t>
-  </si>
-  <si>
-    <t>tonya-love.json</t>
-  </si>
-  <si>
-    <t>Tonya Love</t>
-  </si>
-  <si>
-    <t>sam-davis.json</t>
-  </si>
-  <si>
-    <t>Sam Davis</t>
-  </si>
-  <si>
-    <t>debra-sherman.json</t>
-  </si>
-  <si>
-    <t>Debra Sherman</t>
-  </si>
-  <si>
-    <t>selika-thomas.json</t>
-  </si>
-  <si>
-    <t>Selika Thomas</t>
-  </si>
-  <si>
-    <t>ryan-richardson.json</t>
-  </si>
-  <si>
-    <t>Ryan Richardson</t>
-  </si>
-  <si>
-    <t>alexandra-ritzie-hernandez.json</t>
-  </si>
-  <si>
-    <t>Alexandra Ritzie-Hernandez</t>
-  </si>
-  <si>
     <t>warren-logan.json</t>
   </si>
   <si>
     <t>Warren Logan</t>
   </si>
   <si>
-    <t>fabian-robinson.json</t>
-  </si>
-  <si>
-    <t>Fabian Robinson</t>
-  </si>
-  <si>
-    <t>tyron-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron Jordan</t>
-  </si>
-  <si>
-    <t>merika-goolsby.json</t>
-  </si>
-  <si>
-    <t>Merika Goolsby</t>
-  </si>
-  <si>
     <t>zac-unger.json</t>
   </si>
   <si>
     <t>Zac Unger</t>
-  </si>
-  <si>
-    <t>christian-miguel-martinez.json</t>
-  </si>
-  <si>
-    <t>oakland-2023-11-07</t>
-  </si>
-  <si>
-    <t>Christian Miguel Martinez</t>
-  </si>
-  <si>
-    <t>michael-houston.json</t>
-  </si>
-  <si>
-    <t>oakland-2024-03-05</t>
-  </si>
-  <si>
-    <t>Michael Houston</t>
-  </si>
-  <si>
-    <t>bruce-quan.json</t>
-  </si>
-  <si>
-    <t>oakland-2016-11-08</t>
-  </si>
-  <si>
-    <t>Bruce Quan</t>
-  </si>
-  <si>
-    <t>roseann-torres.json</t>
-  </si>
-  <si>
-    <t>Roseann Torres</t>
-  </si>
-  <si>
-    <t>jody-london.json</t>
-  </si>
-  <si>
-    <t>Jody London</t>
-  </si>
-  <si>
-    <t>francis-matt-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Matt Hummel</t>
-  </si>
-  <si>
-    <t>larry-reid.json</t>
-  </si>
-  <si>
-    <t>Larry Reid</t>
-  </si>
-  <si>
-    <t>peggy-moore.json</t>
-  </si>
-  <si>
-    <t>Peggy Moore</t>
-  </si>
-  <si>
-    <t>lucky-narain.json</t>
-  </si>
-  <si>
-    <t>Lucky Narain</t>
-  </si>
-  <si>
-    <t>donald-macleay.json</t>
-  </si>
-  <si>
-    <t>Donald Macleay</t>
-  </si>
-  <si>
-    <t>jumoke-hinton-hodge.json</t>
-  </si>
-  <si>
-    <t>Jumoke Hinton Hodge</t>
-  </si>
-  <si>
-    <t>benjamin-lang.json</t>
-  </si>
-  <si>
-    <t>Benjamin Lang</t>
-  </si>
-  <si>
-    <t>viola-gonzales.json</t>
-  </si>
-  <si>
-    <t>Viola Gonzales</t>
-  </si>
-  <si>
-    <t>nehanda-imara.json</t>
-  </si>
-  <si>
-    <t>Nehanda Imara</t>
-  </si>
-  <si>
-    <t>james-harris.json</t>
-  </si>
-  <si>
-    <t>James Harris</t>
-  </si>
-  <si>
-    <t>kharyshi-wiginton.json</t>
-  </si>
-  <si>
-    <t>Kharyshi Wiginton</t>
-  </si>
-  <si>
-    <t>chris-jackson.json</t>
-  </si>
-  <si>
-    <t>Chris Jackson</t>
-  </si>
-  <si>
-    <t>michael-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>huber-trenado.json</t>
-  </si>
-  <si>
-    <t>Huber Trenado</t>
-  </si>
-  <si>
-    <t>noni-session.json</t>
-  </si>
-  <si>
-    <t>Noni Session</t>
-  </si>
-  <si>
-    <t>kevin-corbett.json</t>
-  </si>
-  <si>
-    <t>Kevin Corbett</t>
-  </si>
-  <si>
-    <t>michael-hassid.json</t>
-  </si>
-  <si>
-    <t>Michael Hassid</t>
-  </si>
-  <si>
-    <t>derrick-soo.json</t>
-  </si>
-  <si>
-    <t>oakland-2022-11-08</t>
-  </si>
-  <si>
-    <t>Derrick Soo</t>
-  </si>
-  <si>
-    <t>max-orozco.json</t>
-  </si>
-  <si>
-    <t>Max Orozco</t>
-  </si>
-  <si>
-    <t>john-reimann.json</t>
-  </si>
-  <si>
-    <t>John Reimann</t>
-  </si>
-  <si>
-    <t>nick-resnick.json</t>
-  </si>
-  <si>
-    <t>Nick Resnick</t>
-  </si>
-  <si>
-    <t>paulina-gonzalez.json</t>
-  </si>
-  <si>
-    <t>Paulina Gonzalez</t>
-  </si>
-  <si>
-    <t>john-mimosa-marks.json</t>
-  </si>
-  <si>
-    <t>John Mimosa Marks</t>
-  </si>
-  <si>
-    <t>nenna-joiner.json</t>
-  </si>
-  <si>
-    <t>Nenna Joiner</t>
-  </si>
-  <si>
-    <t>jesse-tapia-juarez.json</t>
-  </si>
-  <si>
-    <t>Jesse Tapia-Juarez</t>
-  </si>
-  <si>
-    <t>kevin-jenkins.json</t>
-  </si>
-  <si>
-    <t>Kevin Jenkins</t>
-  </si>
-  <si>
-    <t>loren-manuel-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Manuel Taylor</t>
-  </si>
-  <si>
-    <t>ignacio-de-la-fuente.json</t>
-  </si>
-  <si>
-    <t>Ignacio De La Fuente</t>
-  </si>
-  <si>
-    <t>desmond-i-jeffries.json</t>
-  </si>
-  <si>
-    <t>Desmond I. Jeffries</t>
-  </si>
-  <si>
-    <t>tyron-c-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron C. Jordan</t>
-  </si>
-  <si>
-    <t>kenny-session.json</t>
-  </si>
-  <si>
-    <t>Kenny Session</t>
-  </si>
-  <si>
-    <t>yakpasua-michael-gbagba-zazaboi.json</t>
-  </si>
-  <si>
-    <t>Yakpasua Michael Gbagba Zazaboi</t>
-  </si>
-  <si>
-    <t>renia-webb.json</t>
-  </si>
-  <si>
-    <t>Renia Webb</t>
-  </si>
-  <si>
-    <t>pecolia-manigo.json</t>
-  </si>
-  <si>
-    <t>Pecolia Manigo</t>
-  </si>
-  <si>
-    <t>janani-ramachandran.json</t>
-  </si>
-  <si>
-    <t>Janani Ramachandran</t>
-  </si>
-  <si>
-    <t>valarie-bachelor.json</t>
-  </si>
-  <si>
-    <t>Valarie Bachelor</t>
-  </si>
-  <si>
-    <t>stephen-schear.json</t>
-  </si>
-  <si>
-    <t>Stephen Schear</t>
-  </si>
-  <si>
-    <t>derreck-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck Johnson</t>
-  </si>
-  <si>
-    <t>jennifer-brouhard.json</t>
-  </si>
-  <si>
-    <t>Jennifer Brouhard</t>
-  </si>
-  <si>
-    <t>david-kakishiba.json</t>
-  </si>
-  <si>
-    <t>David Kakishiba</t>
-  </si>
-  <si>
-    <t>treva-d-reid.json</t>
-  </si>
-  <si>
-    <t>Treva D. Reid</t>
-  </si>
-  <si>
-    <t>gregory-hodge.json</t>
-  </si>
-  <si>
-    <t>Gregory Hodge</t>
-  </si>
-  <si>
-    <t>kyra-mungia.json</t>
-  </si>
-  <si>
-    <t>Kyra Mungia</t>
-  </si>
-  <si>
-    <t>peter-y-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Y. Liu</t>
-  </si>
-  <si>
-    <t>allyssa-victory-villanueva.json</t>
-  </si>
-  <si>
-    <t>Allyssa Victory Villanueva</t>
-  </si>
-  <si>
-    <t>elbert-owens.json</t>
-  </si>
-  <si>
-    <t>Elbert Owens</t>
-  </si>
-  <si>
-    <t>harold-lowe.json</t>
-  </si>
-  <si>
-    <t>Harold Lowe</t>
-  </si>
-  <si>
-    <t>joel-velasquez.json</t>
-  </si>
-  <si>
-    <t>Joel Velasquez</t>
-  </si>
-  <si>
-    <t>monesha-carter.json</t>
-  </si>
-  <si>
-    <t>Monesha Carter</t>
-  </si>
-  <si>
-    <t>mart-bradley.json</t>
-  </si>
-  <si>
-    <t>Mart Bradley</t>
   </si>
 </sst>
 </file>
@@ -1474,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>17639</v>
+        <v>177069.06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>17639</v>
+        <v>177069.06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17639</v>
+        <v>177069.06</v>
       </c>
       <c r="G2">
         <f>E2-D2</f>
@@ -1502,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>147.23</v>
+        <v>33744.95</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>147.23</v>
+        <v>33744.95</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>147.23</v>
+        <v>33744.95</v>
       </c>
       <c r="G3">
         <f>E3-D3</f>
@@ -1530,13 +1530,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12093</v>
+        <v>67825.58</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>12093</v>
+        <v>67825.58</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>12093</v>
+        <v>67825.58</v>
       </c>
       <c r="G4">
         <f>E4-D4</f>
@@ -1558,13 +1558,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>164638.37</v>
+        <v>124860.15</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>164638.37</v>
+        <v>124860.15</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>164638.37</v>
+        <v>124860.15</v>
       </c>
       <c r="G5">
         <f>E5-D5</f>
@@ -1586,13 +1586,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>242342.31</v>
+        <v>69175</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>242342.31</v>
+        <v>69175</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>242342.31</v>
+        <v>69175</v>
       </c>
       <c r="G6">
         <f>E6-D6</f>
@@ -1614,13 +1614,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>237608.59</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>237608.59</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0</v>
+        <v>237608.59</v>
       </c>
       <c r="G7">
         <f>E7-D7</f>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>115502.98</v>
+        <v>11835</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>115502.98</v>
+        <v>11835</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>115502.98</v>
+        <v>11835</v>
       </c>
       <c r="G8">
         <f>E8-D8</f>
@@ -1670,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>124860.15</v>
+        <v>18747.83</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>124860.15</v>
+        <v>18747.83</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>124860.15</v>
+        <v>18747.83</v>
       </c>
       <c r="G9">
         <f>E9-D9</f>
@@ -1698,13 +1698,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>462809.82</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>462809.82</v>
+        <v>5000</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>462809.82</v>
+        <v>5000</v>
       </c>
       <c r="G10">
         <f>E10-D10</f>
@@ -1726,13 +1726,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>18747.83</v>
+        <v>164638.37</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>18747.83</v>
+        <v>164638.37</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>18747.83</v>
+        <v>164638.37</v>
       </c>
       <c r="G11">
         <f>E11-D11</f>
@@ -1754,13 +1754,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="G12">
         <f>E12-D12</f>
@@ -1782,13 +1782,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>237608.59</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>237608.59</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>237608.59</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="G13">
         <f>E13-D13</f>
@@ -1810,13 +1810,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>37784.69</v>
+        <v>38429</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>37784.69</v>
+        <v>38429</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>37784.69</v>
+        <v>38429</v>
       </c>
       <c r="G14">
         <f>E14-D14</f>
@@ -1866,13 +1866,13 @@
         <v>38</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>67825.58</v>
+        <v>10758</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>67825.58</v>
+        <v>10758</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>67825.58</v>
+        <v>10758</v>
       </c>
       <c r="G16">
         <f>E16-D16</f>
@@ -1894,13 +1894,13 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>347445.36</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>347445.36</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>347445.36</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f>E17-D17</f>
@@ -1922,13 +1922,13 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>242342.31</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>242342.31</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>242342.31</v>
       </c>
       <c r="G18">
         <f>E18-D18</f>
@@ -1950,13 +1950,13 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>73585.61</v>
+        <v>96641</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>73885.61</v>
+        <v>78241</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>73885.61</v>
+        <v>78241</v>
       </c>
       <c r="G19">
         <f>E19-D19</f>
@@ -1978,13 +1978,13 @@
         <v>46</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>115502.98</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>115502.98</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>115502.98</v>
       </c>
       <c r="G20">
         <f>E20-D20</f>
@@ -2006,13 +2006,13 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>1165.8</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>1165.8</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>1165.8</v>
       </c>
       <c r="G21">
         <f>E21-D21</f>
@@ -2034,13 +2034,13 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>38429</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>38429</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>38429</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f>E22-D22</f>
@@ -2090,13 +2090,13 @@
         <v>54</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>33744.95</v>
+        <v>62212</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>33744.95</v>
+        <v>62212</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>33744.95</v>
+        <v>62212</v>
       </c>
       <c r="G24">
         <f>E24-D24</f>
@@ -2118,13 +2118,13 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>10758</v>
+        <v>37784.69</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>10758</v>
+        <v>37784.69</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>10758</v>
+        <v>37784.69</v>
       </c>
       <c r="G25">
         <f>E25-D25</f>
@@ -2146,13 +2146,13 @@
         <v>58</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>34487.87</v>
+        <v>462809.82</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>34487.87</v>
+        <v>462809.82</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>34487.87</v>
+        <v>462809.82</v>
       </c>
       <c r="G26">
         <f>E26-D26</f>
@@ -2174,13 +2174,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5000</v>
+        <v>34487.87</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>5000</v>
+        <v>34487.87</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5000</v>
+        <v>34487.87</v>
       </c>
       <c r="G27">
         <f>E27-D27</f>
@@ -2230,13 +2230,13 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2609.9</v>
+        <v>147.23</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2609.9</v>
+        <v>147.23</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2609.9</v>
+        <v>147.23</v>
       </c>
       <c r="G29">
         <f>E29-D29</f>
@@ -2258,13 +2258,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>32601.29</v>
+        <v>24233.82</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>28801.29</v>
+        <v>24233.82</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>28801.29</v>
+        <v>24233.82</v>
       </c>
       <c r="G30">
         <f>E30-D30</f>
@@ -2314,13 +2314,13 @@
         <v>70</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>177069.06</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>177069.06</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>177069.06</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <f>E32-D32</f>
@@ -2370,13 +2370,13 @@
         <v>74</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>62212</v>
+        <v>347445.36</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>62212</v>
+        <v>347445.36</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>62212</v>
+        <v>347445.36</v>
       </c>
       <c r="G34">
         <f>E34-D34</f>
@@ -2398,13 +2398,13 @@
         <v>76</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>24233.82</v>
+        <v>12093</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>24233.82</v>
+        <v>12093</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>24233.82</v>
+        <v>12093</v>
       </c>
       <c r="G35">
         <f>E35-D35</f>
@@ -2426,13 +2426,13 @@
         <v>78</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>96641</v>
+        <v>2609.9</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>78241</v>
+        <v>2609.9</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>78241</v>
+        <v>2609.9</v>
       </c>
       <c r="G36">
         <f>E36-D36</f>
@@ -2454,13 +2454,13 @@
         <v>80</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>17639</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>17639</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>17639</v>
       </c>
       <c r="G37">
         <f>E37-D37</f>
@@ -2482,13 +2482,13 @@
         <v>82</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>69175</v>
+        <v>73585.61</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>69175</v>
+        <v>73885.61</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>69175</v>
+        <v>73885.61</v>
       </c>
       <c r="G38">
         <f>E38-D38</f>
@@ -2510,13 +2510,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1165.8</v>
+        <v>32601.29</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1165.8</v>
+        <v>28801.29</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1165.8</v>
+        <v>28801.29</v>
       </c>
       <c r="G39">
         <f>E39-D39</f>
@@ -2566,13 +2566,13 @@
         <v>88</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>11835</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>11835</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>11835</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f>E41-D41</f>
@@ -2594,13 +2594,13 @@
         <v>90</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <f>E42-D42</f>
@@ -2622,13 +2622,13 @@
         <v>93</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>36218.73</v>
+        <v>67909</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>36218.73</v>
+        <v>67909</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>36218.73</v>
+        <v>67909</v>
       </c>
       <c r="G43">
         <f>E43-D43</f>
@@ -2650,13 +2650,13 @@
         <v>95</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <f>E44-D44</f>
@@ -2678,13 +2678,13 @@
         <v>97</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>91201.06</v>
+        <v>75623.14</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>116256.07</v>
+        <v>75623.14</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>116256.07</v>
+        <v>75623.14</v>
       </c>
       <c r="G45">
         <f>E45-D45</f>
@@ -2706,13 +2706,13 @@
         <v>99</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>8261</v>
+        <v>25462</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>17570</v>
+        <v>25462</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>17570</v>
+        <v>25462</v>
       </c>
       <c r="G46">
         <f>E46-D46</f>
@@ -2734,13 +2734,13 @@
         <v>101</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>166664.47</v>
+        <v>114510.66</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>166664.47</v>
+        <v>114510.66</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>166664.47</v>
+        <v>114510.66</v>
       </c>
       <c r="G47">
         <f>E47-D47</f>
@@ -2762,13 +2762,13 @@
         <v>103</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>175685.18</v>
+        <v>5219.5</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>171785.18</v>
+        <v>5219.5</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>171785.18</v>
+        <v>5219.5</v>
       </c>
       <c r="G48">
         <f>E48-D48</f>
@@ -2790,13 +2790,13 @@
         <v>105</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G49">
         <f>E49-D49</f>
@@ -2818,13 +2818,13 @@
         <v>107</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>27381.49</v>
+        <v>21685.48</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>27381.49</v>
+        <v>21685.48</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>27381.49</v>
+        <v>21685.48</v>
       </c>
       <c r="G50">
         <f>E50-D50</f>
@@ -2846,13 +2846,13 @@
         <v>109</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>152579.98</v>
+        <v>27586</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>263064.98</v>
+        <v>27586</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>263064.98</v>
+        <v>27586</v>
       </c>
       <c r="G51">
         <f>E51-D51</f>
@@ -2874,13 +2874,13 @@
         <v>111</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>39343</v>
+        <v>22344</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>39343</v>
+        <v>22344</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>39343</v>
+        <v>22344</v>
       </c>
       <c r="G52">
         <f>E52-D52</f>
@@ -2902,13 +2902,13 @@
         <v>113</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>26410.15</v>
+        <v>25041.85</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>26410.15</v>
+        <v>25041.85</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>26410.15</v>
+        <v>25041.85</v>
       </c>
       <c r="G53">
         <f>E53-D53</f>
@@ -2930,13 +2930,13 @@
         <v>115</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>19109</v>
+        <v>42542</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>19109</v>
+        <v>42542</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>19109</v>
+        <v>42542</v>
       </c>
       <c r="G54">
         <f>E54-D54</f>
@@ -2958,13 +2958,13 @@
         <v>117</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2250</v>
+        <v>5798</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2250</v>
+        <v>5798</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2250</v>
+        <v>5798</v>
       </c>
       <c r="G55">
         <f>E55-D55</f>
@@ -2986,13 +2986,13 @@
         <v>119</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="G56">
         <f>E56-D56</f>
@@ -3014,13 +3014,13 @@
         <v>121</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>28147.36</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <f>E57-D57</f>
@@ -3033,22 +3033,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>252632.43</v>
+        <v>128456.69</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>252632.43</v>
+        <v>128456.69</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>252632.43</v>
+        <v>128456.69</v>
       </c>
       <c r="G58">
         <f>E58-D58</f>
@@ -3061,22 +3061,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2563.15</v>
+        <v>49348</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>6364.15</v>
+        <v>45848</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>6364.15</v>
+        <v>45848</v>
       </c>
       <c r="G59">
         <f>E59-D59</f>
@@ -3089,22 +3089,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>53915.6</v>
+        <v>8546</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>202245.6</v>
+        <v>8546</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>202245.6</v>
+        <v>8546</v>
       </c>
       <c r="G60">
         <f>E60-D60</f>
@@ -3117,22 +3117,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <f>E61-D61</f>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>175</v>
+        <v>396</v>
       </c>
       <c r="G62">
         <f>E62-D62</f>
@@ -3182,13 +3182,13 @@
         <v>131</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>48671.7</v>
+        <v>27941</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>48671.7</v>
+        <v>27941</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>48671.7</v>
+        <v>27941</v>
       </c>
       <c r="G63">
         <f>E63-D63</f>
@@ -3210,13 +3210,13 @@
         <v>133</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>13862.58</v>
+        <v>48119</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>13862.58</v>
+        <v>48119</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>13862.58</v>
+        <v>48119</v>
       </c>
       <c r="G64">
         <f>E64-D64</f>
@@ -3238,13 +3238,13 @@
         <v>135</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>0</v>
+        <v>10634</v>
       </c>
       <c r="G65">
         <f>E65-D65</f>
@@ -3266,13 +3266,13 @@
         <v>137</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>238153.84</v>
+        <v>316892.58</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>238153.84</v>
+        <v>134325.58</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>238153.84</v>
+        <v>134325.58</v>
       </c>
       <c r="G66">
         <f>E66-D66</f>
@@ -3285,22 +3285,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>15065</v>
+        <v>174571.99</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>15065</v>
+        <v>174571.99</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>15065</v>
+        <v>174571.99</v>
       </c>
       <c r="G67">
         <f>E67-D67</f>
@@ -3313,22 +3313,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="G68">
         <f>E68-D68</f>
@@ -3341,22 +3341,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0</v>
+        <v>69742.41</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>0</v>
+        <v>69742.41</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>0</v>
+        <v>69742.41</v>
       </c>
       <c r="G69">
         <f>E69-D69</f>
@@ -3369,22 +3369,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>84182.67</v>
+        <v>200652</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>94682.67</v>
+        <v>200652</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>94682.67</v>
+        <v>200652</v>
       </c>
       <c r="G70">
         <f>E70-D70</f>
@@ -3397,22 +3397,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0</v>
+        <v>-3014.3</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>0</v>
+        <v>-3014.3</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>0</v>
+        <v>-3014.3</v>
       </c>
       <c r="G71">
         <f>E71-D71</f>
@@ -3425,22 +3425,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>171614.83</v>
+        <v>11770.79</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>101546.49</v>
+        <v>10960.79</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>101546.49</v>
+        <v>10960.79</v>
       </c>
       <c r="G72">
         <f>E72-D72</f>
@@ -3453,22 +3453,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>57047.13</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>57047.13</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>57047.13</v>
       </c>
       <c r="G73">
         <f>E73-D73</f>
@@ -3481,22 +3481,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>32262.96</v>
+        <v>191189.79</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>32262.96</v>
+        <v>191189.79</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>32262.96</v>
+        <v>191189.79</v>
       </c>
       <c r="G74">
         <f>E74-D74</f>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -3537,22 +3537,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>71517.67</v>
+        <v>95012</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>71517.67</v>
+        <v>95236</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>71517.67</v>
+        <v>95236</v>
       </c>
       <c r="G76">
         <f>E76-D76</f>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0</v>
+        <v>55131.12</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>0</v>
+        <v>55131.12</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>0</v>
+        <v>55131.12</v>
       </c>
       <c r="G77">
         <f>E77-D77</f>
@@ -3593,22 +3593,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>50576</v>
+        <v>52266.74</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>35026</v>
+        <v>52266.74</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>35026</v>
+        <v>52266.74</v>
       </c>
       <c r="G78">
         <f>E78-D78</f>
@@ -3621,22 +3621,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>164884.39</v>
+        <v>105825</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>164884.39</v>
+        <v>105825</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>164884.39</v>
+        <v>105825</v>
       </c>
       <c r="G79">
         <f>E79-D79</f>
@@ -3649,22 +3649,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>17885.74</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>17885.74</v>
+        <v>0</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>17885.74</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <f>E80-D80</f>
@@ -3677,22 +3677,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>82077</v>
+        <v>14928.6</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>82077</v>
+        <v>14928.6</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>82077</v>
+        <v>14928.6</v>
       </c>
       <c r="G81">
         <f>E81-D81</f>
@@ -3705,22 +3705,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>33876.58</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>25168.58</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>25168.58</v>
       </c>
       <c r="G82">
         <f>E82-D82</f>
@@ -3733,22 +3733,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>52764.9</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <f>E83-D83</f>
@@ -3761,22 +3761,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>52266.74</v>
+        <v>57141.65</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>52266.74</v>
+        <v>57141.65</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>52266.74</v>
+        <v>57141.65</v>
       </c>
       <c r="G84">
         <f>E84-D84</f>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>14928.6</v>
+        <v>24920</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>14928.6</v>
+        <v>24920</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>14928.6</v>
+        <v>24920</v>
       </c>
       <c r="G85">
         <f>E85-D85</f>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <f>E86-D86</f>
@@ -3845,22 +3845,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="G87">
         <f>E87-D87</f>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>24920</v>
+        <v>153340.26</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>24920</v>
+        <v>154427.26</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>24920</v>
+        <v>154427.26</v>
       </c>
       <c r="G88">
         <f>E88-D88</f>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>28752</v>
+        <v>22734.8</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>19392</v>
+        <v>22734.8</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>19392</v>
+        <v>22734.8</v>
       </c>
       <c r="G89">
         <f>E89-D89</f>
@@ -3929,22 +3929,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>22734.8</v>
+        <v>25483</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>22734.8</v>
+        <v>25483</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>22734.8</v>
+        <v>25483</v>
       </c>
       <c r="G90">
         <f>E90-D90</f>
@@ -3957,22 +3957,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>47283</v>
+        <v>28752</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>41883</v>
+        <v>19392</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>41883</v>
+        <v>19392</v>
       </c>
       <c r="G91">
         <f>E91-D91</f>
@@ -3985,13 +3985,13 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -4013,22 +4013,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>0</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>0</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="G93">
         <f>E93-D93</f>
@@ -4041,22 +4041,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>43000</v>
+        <v>58399.56</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>43000</v>
+        <v>58399.56</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>43000</v>
+        <v>58399.56</v>
       </c>
       <c r="G94">
         <f>E94-D94</f>
@@ -4069,22 +4069,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>95012</v>
+        <v>43000</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>95236</v>
+        <v>43000</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>95236</v>
+        <v>43000</v>
       </c>
       <c r="G95">
         <f>E95-D95</f>
@@ -4097,22 +4097,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>105825</v>
+        <v>68499.13</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>105825</v>
+        <v>68499.13</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>105825</v>
+        <v>68499.13</v>
       </c>
       <c r="G96">
         <f>E96-D96</f>
@@ -4125,22 +4125,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>25483</v>
+        <v>52764.9</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>25483</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>25483</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="G97">
         <f>E97-D97</f>
@@ -4153,22 +4153,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>125319.19</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>125319.19</v>
+        <v>0</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>125319.19</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <f>E98-D98</f>
@@ -4181,22 +4181,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-3014.3</v>
+        <v>9548.6</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>-3014.3</v>
+        <v>9548.6</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-3014.3</v>
+        <v>9548.6</v>
       </c>
       <c r="G99">
         <f>E99-D99</f>
@@ -4209,22 +4209,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>58399.56</v>
+        <v>47283</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>58399.56</v>
+        <v>41883</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>58399.56</v>
+        <v>41883</v>
       </c>
       <c r="G100">
         <f>E100-D100</f>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>55131.12</v>
+        <v>125319.19</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>55131.12</v>
+        <v>125319.19</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>55131.12</v>
+        <v>125319.19</v>
       </c>
       <c r="G101">
         <f>E101-D101</f>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>33876.58</v>
+        <v>71517.67</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>25168.58</v>
+        <v>71517.67</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>25168.58</v>
+        <v>71517.67</v>
       </c>
       <c r="G102">
         <f>E102-D102</f>
@@ -4293,22 +4293,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>9548.6</v>
+        <v>0</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>9548.6</v>
+        <v>0</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>9548.6</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <f>E103-D103</f>
@@ -4321,22 +4321,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>0</v>
+        <v>39343</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>0</v>
+        <v>39343</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>0</v>
+        <v>39343</v>
       </c>
       <c r="G104">
         <f>E104-D104</f>
@@ -4349,22 +4349,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>68499.13</v>
+        <v>84182.67</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>68499.13</v>
+        <v>94682.67</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>68499.13</v>
+        <v>94682.67</v>
       </c>
       <c r="G105">
         <f>E105-D105</f>
@@ -4377,22 +4377,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>200652</v>
+        <v>13862.58</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>200652</v>
+        <v>13862.58</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>200652</v>
+        <v>13862.58</v>
       </c>
       <c r="G106">
         <f>E106-D106</f>
@@ -4405,22 +4405,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>0</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>0</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>0</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="G107">
         <f>E107-D107</f>
@@ -4433,13 +4433,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -4461,22 +4461,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D109" s="2" t="n">
-        <v>57141.65</v>
+        <v>53915.6</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>57141.65</v>
+        <v>202245.6</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>57141.65</v>
+        <v>202245.6</v>
       </c>
       <c r="G109">
         <f>E109-D109</f>
@@ -4489,22 +4489,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>57047.13</v>
+        <v>6225</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>57047.13</v>
+        <v>6225</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>57047.13</v>
+        <v>6225</v>
       </c>
       <c r="G110">
         <f>E110-D110</f>
@@ -4517,22 +4517,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>11770.79</v>
+        <v>8261</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>10960.79</v>
+        <v>17570</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>10960.79</v>
+        <v>17570</v>
       </c>
       <c r="G111">
         <f>E111-D111</f>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>153340.26</v>
+        <v>164884.39</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>154427.26</v>
+        <v>164884.39</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>154427.26</v>
+        <v>164884.39</v>
       </c>
       <c r="G112">
         <f>E112-D112</f>
@@ -4573,22 +4573,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="D113" s="2" t="n">
-        <v>191189.79</v>
+        <v>152579.98</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>191189.79</v>
+        <v>263064.98</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>191189.79</v>
+        <v>263064.98</v>
       </c>
       <c r="G113">
         <f>E113-D113</f>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D114" s="2" t="n">
-        <v>10088.01</v>
+        <v>91201.06</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>21036.5</v>
+        <v>116256.07</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>21036.5</v>
+        <v>116256.07</v>
       </c>
       <c r="G114">
         <f>E114-D114</f>
@@ -4632,19 +4632,19 @@
         <v>208</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="G115">
         <f>E115-D115</f>
@@ -4660,19 +4660,19 @@
         <v>210</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>0</v>
+        <v>50576</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>0</v>
+        <v>35026</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>0</v>
+        <v>35026</v>
       </c>
       <c r="G116">
         <f>E116-D116</f>
@@ -4688,7 +4688,7 @@
         <v>212</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>213</v>
@@ -4716,19 +4716,19 @@
         <v>214</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>0</v>
+        <v>48671.7</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>0</v>
+        <v>48671.7</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>0</v>
+        <v>48671.7</v>
       </c>
       <c r="G118">
         <f>E118-D118</f>
@@ -4741,22 +4741,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>0</v>
+        <v>238153.84</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>0</v>
+        <v>238153.84</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>0</v>
+        <v>238153.84</v>
       </c>
       <c r="G119">
         <f>E119-D119</f>
@@ -4769,22 +4769,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="G120">
         <f>E120-D120</f>
@@ -4797,22 +4797,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>0</v>
+        <v>28147.36</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="G121">
         <f>E121-D121</f>
@@ -4825,22 +4825,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>971</v>
+        <v>15065</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>971</v>
+        <v>15065</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>971</v>
+        <v>15065</v>
       </c>
       <c r="G122">
         <f>E122-D122</f>
@@ -4853,22 +4853,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>4592</v>
+        <v>19109</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>4592</v>
+        <v>19109</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>4592</v>
+        <v>19109</v>
       </c>
       <c r="G123">
         <f>E123-D123</f>
@@ -4881,13 +4881,13 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -4909,22 +4909,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <f>E125-D125</f>
@@ -4940,19 +4940,19 @@
         <v>224</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>0</v>
+        <v>27381.49</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>0</v>
+        <v>27381.49</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>0</v>
+        <v>27381.49</v>
       </c>
       <c r="G126">
         <f>E126-D126</f>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>25186</v>
+        <v>0</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>25186</v>
+        <v>0</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>25186</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <f>E127-D127</f>
@@ -4993,22 +4993,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>0</v>
+        <v>82077</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>0</v>
+        <v>82077</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>0</v>
+        <v>82077</v>
       </c>
       <c r="G128">
         <f>E128-D128</f>
@@ -5021,22 +5021,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>46973</v>
+        <v>252632.43</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>46973</v>
+        <v>252632.43</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>46973</v>
+        <v>252632.43</v>
       </c>
       <c r="G129">
         <f>E129-D129</f>
@@ -5049,22 +5049,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>0</v>
+        <v>32262.96</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>0</v>
+        <v>32262.96</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>0</v>
+        <v>32262.96</v>
       </c>
       <c r="G130">
         <f>E130-D130</f>
@@ -5077,22 +5077,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>0</v>
+        <v>171614.83</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>0</v>
+        <v>101546.49</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>0</v>
+        <v>101546.49</v>
       </c>
       <c r="G131">
         <f>E131-D131</f>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>0</v>
@@ -5133,22 +5133,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>120280.55</v>
+        <v>17885.74</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>120280.55</v>
+        <v>17885.74</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>120280.55</v>
+        <v>17885.74</v>
       </c>
       <c r="G133">
         <f>E133-D133</f>
@@ -5161,22 +5161,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G134">
         <f>E134-D134</f>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>29118</v>
+        <v>175685.18</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>19568</v>
+        <v>171785.18</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>19568</v>
+        <v>171785.18</v>
       </c>
       <c r="G135">
         <f>E135-D135</f>
@@ -5217,22 +5217,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>5885</v>
+        <v>166664.47</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>16223</v>
+        <v>166664.47</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>16223</v>
+        <v>166664.47</v>
       </c>
       <c r="G136">
         <f>E136-D136</f>
@@ -5245,22 +5245,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>17045</v>
+        <v>26410.15</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>17045</v>
+        <v>26410.15</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>17045</v>
+        <v>26410.15</v>
       </c>
       <c r="G137">
         <f>E137-D137</f>
@@ -5273,22 +5273,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>75623.14</v>
+        <v>36218.73</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>75623.14</v>
+        <v>36218.73</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>75623.14</v>
+        <v>36218.73</v>
       </c>
       <c r="G138">
         <f>E138-D138</f>
@@ -5301,22 +5301,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <f>E139-D139</f>
@@ -5329,22 +5329,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D140" s="2" t="n">
-        <v>22344</v>
+        <v>2563.15</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>22344</v>
+        <v>6364.15</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>22344</v>
+        <v>6364.15</v>
       </c>
       <c r="G140">
         <f>E140-D140</f>
@@ -5357,22 +5357,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1750</v>
+        <v>34544.2</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>1750</v>
+        <v>26700.2</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>1750</v>
+        <v>26700.2</v>
       </c>
       <c r="G141">
         <f>E141-D141</f>
@@ -5385,22 +5385,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <f>E142-D142</f>
@@ -5413,22 +5413,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>316892.58</v>
+        <v>37094.65</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>134325.58</v>
+        <v>41144.65</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>134325.58</v>
+        <v>41144.65</v>
       </c>
       <c r="G143">
         <f>E143-D143</f>
@@ -5441,22 +5441,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>0</v>
+        <v>23645</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="G144">
         <f>E144-D144</f>
@@ -5469,22 +5469,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>5219.5</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <f>E145-D145</f>
@@ -5497,22 +5497,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>25041.85</v>
+        <v>0</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>25041.85</v>
+        <v>0</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>25041.85</v>
+        <v>0</v>
       </c>
       <c r="G146">
         <f>E146-D146</f>
@@ -5525,13 +5525,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>0</v>
@@ -5553,22 +5553,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>174571.99</v>
+        <v>137576.15</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>174571.99</v>
+        <v>173686.15</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>174571.99</v>
+        <v>173686.15</v>
       </c>
       <c r="G148">
         <f>E148-D148</f>
@@ -5581,22 +5581,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>69742.41</v>
+        <v>18839</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>69742.41</v>
+        <v>34089</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>69742.41</v>
+        <v>34089</v>
       </c>
       <c r="G149">
         <f>E149-D149</f>
@@ -5609,22 +5609,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>27941</v>
+        <v>257158.97</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>27941</v>
+        <v>257158.97</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>27941</v>
+        <v>257158.97</v>
       </c>
       <c r="G150">
         <f>E150-D150</f>
@@ -5637,22 +5637,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>27586</v>
+        <v>178133.19</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>27586</v>
+        <v>178133.19</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>27586</v>
+        <v>178133.19</v>
       </c>
       <c r="G151">
         <f>E151-D151</f>
@@ -5665,22 +5665,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>5798</v>
+        <v>16286</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>5798</v>
+        <v>22436</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>5798</v>
+        <v>22436</v>
       </c>
       <c r="G152">
         <f>E152-D152</f>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>25462</v>
+        <v>0</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>25462</v>
+        <v>0</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>25462</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <f>E153-D153</f>
@@ -5721,13 +5721,13 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>0</v>
@@ -5749,22 +5749,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>128456.69</v>
+        <v>0</v>
       </c>
       <c r="G155">
         <f>E155-D155</f>
@@ -5777,22 +5777,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>138</v>
+        <v>277</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>49348</v>
+        <v>0</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>45848</v>
+        <v>0</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45848</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <f>E156-D156</f>
@@ -5808,19 +5808,19 @@
         <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>21685.48</v>
+        <v>8965</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>21685.48</v>
+        <v>13215</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>21685.48</v>
+        <v>13215</v>
       </c>
       <c r="G157">
         <f>E157-D157</f>
@@ -5836,19 +5836,19 @@
         <v>281</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>10634</v>
+        <v>52204</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>10634</v>
+        <v>83679</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>10634</v>
+        <v>83679</v>
       </c>
       <c r="G158">
         <f>E158-D158</f>
@@ -5861,22 +5861,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>67909</v>
+        <v>49384</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>67909</v>
+        <v>69234</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>67909</v>
+        <v>69234</v>
       </c>
       <c r="G159">
         <f>E159-D159</f>
@@ -5889,22 +5889,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>42542</v>
+        <v>424114.99</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>42542</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>42542</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="G160">
         <f>E160-D160</f>
@@ -5917,22 +5917,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>8546</v>
+        <v>0</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>8546</v>
+        <v>0</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>8546</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <f>E161-D161</f>
@@ -5945,22 +5945,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>396</v>
+        <v>2594.65</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>396</v>
+        <v>2294.65</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>396</v>
+        <v>2294.65</v>
       </c>
       <c r="G162">
         <f>E162-D162</f>
@@ -5973,22 +5973,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>114510.66</v>
+        <v>10346</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>114510.66</v>
+        <v>10346</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>114510.66</v>
+        <v>10346</v>
       </c>
       <c r="G163">
         <f>E163-D163</f>
@@ -6001,22 +6001,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>48119</v>
+        <v>0</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>48119</v>
+        <v>0</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>48119</v>
+        <v>0</v>
       </c>
       <c r="G164">
         <f>E164-D164</f>
@@ -6029,13 +6029,13 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="D165" s="2" t="n">
         <v>0</v>
@@ -6057,22 +6057,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>2594.65</v>
+        <v>59938.36</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>2294.65</v>
+        <v>59938.36</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>2294.65</v>
+        <v>59938.36</v>
       </c>
       <c r="G166">
         <f>E166-D166</f>
@@ -6085,22 +6085,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>0</v>
+        <v>28103</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>0</v>
+        <v>58618</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>0</v>
+        <v>58618</v>
       </c>
       <c r="G167">
         <f>E167-D167</f>
@@ -6113,22 +6113,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>28103</v>
+        <v>175063</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>58618</v>
+        <v>175063</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>58618</v>
+        <v>175063</v>
       </c>
       <c r="G168">
         <f>E168-D168</f>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>5131</v>
@@ -6169,22 +6169,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>0</v>
+        <v>34858</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>0</v>
+        <v>38208</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>0</v>
+        <v>38208</v>
       </c>
       <c r="G170">
         <f>E170-D170</f>
@@ -6197,22 +6197,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <f>E171-D171</f>
@@ -6225,13 +6225,13 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>0</v>
@@ -6253,22 +6253,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>59938.36</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>59938.36</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>59938.36</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="G173">
         <f>E173-D173</f>
@@ -6281,22 +6281,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>0</v>
+        <v>574120.47</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="G174">
         <f>E174-D174</f>
@@ -6309,22 +6309,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>52204</v>
+        <v>0</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>83679</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <f>E175-D175</f>
@@ -6337,22 +6337,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>424114.99</v>
+        <v>125340.12</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>227843.71</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>227843.71</v>
       </c>
       <c r="G176">
         <f>E176-D176</f>
@@ -6365,22 +6365,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>257158.97</v>
+        <v>0</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>257158.97</v>
+        <v>0</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>257158.97</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <f>E177-D177</f>
@@ -6393,22 +6393,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>0</v>
+        <v>17092.21</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="G178">
         <f>E178-D178</f>
@@ -6421,22 +6421,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>0</v>
+        <v>13256.09</v>
       </c>
       <c r="G179">
         <f>E179-D179</f>
@@ -6449,22 +6449,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>8965</v>
+        <v>29118</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>13215</v>
+        <v>19568</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>13215</v>
+        <v>19568</v>
       </c>
       <c r="G180">
         <f>E180-D180</f>
@@ -6477,22 +6477,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>179</v>
+        <v>318</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>180</v>
+        <v>319</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>175063</v>
+        <v>0</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>175063</v>
+        <v>0</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>175063</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <f>E181-D181</f>
@@ -6505,22 +6505,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="C182" s="1" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>13256.09</v>
+        <v>5885</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>13256.09</v>
+        <v>16223</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>13256.09</v>
+        <v>16223</v>
       </c>
       <c r="G182">
         <f>E182-D182</f>
@@ -6533,22 +6533,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="G183">
         <f>E183-D183</f>
@@ -6561,22 +6561,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>574120.47</v>
+        <v>0</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="G184">
         <f>E184-D184</f>
@@ -6589,22 +6589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>320</v>
+        <v>198</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>34858</v>
+        <v>1200</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>38208</v>
+        <v>1200</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>38208</v>
+        <v>1200</v>
       </c>
       <c r="G185">
         <f>E185-D185</f>
@@ -6617,22 +6617,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>178133.19</v>
+        <v>0</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>178133.19</v>
+        <v>0</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>178133.19</v>
+        <v>0</v>
       </c>
       <c r="G186">
         <f>E186-D186</f>
@@ -6645,22 +6645,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>17092.21</v>
+        <v>0</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <f>E187-D187</f>
@@ -6673,13 +6673,13 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0</v>
@@ -6701,22 +6701,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>23645</v>
+        <v>0</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="G189">
         <f>E189-D189</f>
@@ -6729,22 +6729,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>330</v>
+        <v>208</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>16286</v>
+        <v>0</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>22436</v>
+        <v>0</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>22436</v>
+        <v>0</v>
       </c>
       <c r="G190">
         <f>E190-D190</f>
@@ -6757,22 +6757,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>333</v>
+        <v>56</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>37094.65</v>
+        <v>971</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>41144.65</v>
+        <v>971</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>41144.65</v>
+        <v>971</v>
       </c>
       <c r="G191">
         <f>E191-D191</f>
@@ -6785,22 +6785,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>0</v>
       </c>
       <c r="G192">
         <f>E192-D192</f>
@@ -6816,19 +6816,19 @@
         <v>334</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>125340.12</v>
+        <v>25186</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>227843.71</v>
+        <v>25186</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>227843.71</v>
+        <v>25186</v>
       </c>
       <c r="G193">
         <f>E193-D193</f>
@@ -6844,19 +6844,19 @@
         <v>336</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>137576.15</v>
+        <v>4592</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>173686.15</v>
+        <v>4592</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>173686.15</v>
+        <v>4592</v>
       </c>
       <c r="G194">
         <f>E194-D194</f>
@@ -6872,19 +6872,19 @@
         <v>338</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>49384</v>
+        <v>0</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>69234</v>
+        <v>0</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>69234</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <f>E195-D195</f>
@@ -6900,7 +6900,7 @@
         <v>340</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>341</v>
@@ -6928,19 +6928,19 @@
         <v>342</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>34544.2</v>
+        <v>0</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>26700.2</v>
+        <v>0</v>
       </c>
       <c r="G197">
         <f>E197-D197</f>
@@ -6956,7 +6956,7 @@
         <v>344</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>345</v>
@@ -6981,22 +6981,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>18839</v>
+        <v>10088.01</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>34089</v>
+        <v>21036.5</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>34089</v>
+        <v>21036.5</v>
       </c>
       <c r="G199">
         <f>E199-D199</f>
@@ -7009,13 +7009,13 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>348</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>349</v>
@@ -7068,19 +7068,19 @@
         <v>350</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>0</v>
+        <v>46973</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>0</v>
+        <v>46973</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>0</v>
+        <v>46973</v>
       </c>
       <c r="G202">
         <f>E202-D202</f>
@@ -7096,19 +7096,19 @@
         <v>352</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>0</v>
+        <v>120280.55</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>0</v>
+        <v>120280.55</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>0</v>
+        <v>120280.55</v>
       </c>
       <c r="G203">
         <f>E203-D203</f>

--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -40,31 +40,223 @@
     <t>diff by source</t>
   </si>
   <si>
+    <t>saleem-shakir-gilmore.json</t>
+  </si>
+  <si>
+    <t>oakland-2014-11-04</t>
+  </si>
+  <si>
+    <t>Saleem Shakir-Gilmore</t>
+  </si>
+  <si>
+    <t>nicolas-heidorn.json</t>
+  </si>
+  <si>
+    <t>Nicolas Heidorn</t>
+  </si>
+  <si>
+    <t>renato-almanzor.json</t>
+  </si>
+  <si>
+    <t>Renato Almanzor</t>
+  </si>
+  <si>
+    <t>courtney-ruby.json</t>
+  </si>
+  <si>
+    <t>Courtney Ruby</t>
+  </si>
+  <si>
+    <t>jean-quan.json</t>
+  </si>
+  <si>
+    <t>Jean Quan</t>
+  </si>
+  <si>
+    <t>william-bo-ghirardelli.json</t>
+  </si>
+  <si>
+    <t>William "Bo" Ghirardelli</t>
+  </si>
+  <si>
+    <t>joe-tuman.json</t>
+  </si>
+  <si>
+    <t>Joe Tuman</t>
+  </si>
+  <si>
+    <t>annie-campbell-washington.json</t>
+  </si>
+  <si>
+    <t>Annie Campbell Washington</t>
+  </si>
+  <si>
+    <t>libby-schaaf.json</t>
+  </si>
+  <si>
+    <t>Libby Schaaf</t>
+  </si>
+  <si>
+    <t>cheri-spigner.json</t>
+  </si>
+  <si>
+    <t>Cheri Spigner</t>
+  </si>
+  <si>
+    <t>ken-houston.json</t>
+  </si>
+  <si>
+    <t>Ken Houston</t>
+  </si>
+  <si>
+    <t>bryan-parker.json</t>
+  </si>
+  <si>
+    <t>Bryan Parker</t>
+  </si>
+  <si>
+    <t>len-raphael.json</t>
+  </si>
+  <si>
+    <t>Len Raphael</t>
+  </si>
+  <si>
+    <t>jason-anderson.json</t>
+  </si>
+  <si>
+    <t>Jason Anderson</t>
+  </si>
+  <si>
+    <t>andrew-park.json</t>
+  </si>
+  <si>
+    <t>Andrew Park</t>
+  </si>
+  <si>
+    <t>rebecca-kaplan.json</t>
+  </si>
+  <si>
+    <t>Rebecca Kaplan</t>
+  </si>
+  <si>
+    <t>paul-lim.json</t>
+  </si>
+  <si>
+    <t>Paul Lim</t>
+  </si>
+  <si>
+    <t>shanthi-gonzales.json</t>
+  </si>
+  <si>
+    <t>Shanthi Gonzales</t>
+  </si>
+  <si>
+    <t>peter-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Liu</t>
+  </si>
+  <si>
+    <t>pat-mccullough.json</t>
+  </si>
+  <si>
+    <t>Pat Mccullough</t>
+  </si>
+  <si>
+    <t>desley-brooks.json</t>
+  </si>
+  <si>
+    <t>Desley Brooks</t>
+  </si>
+  <si>
+    <t>vicente-cruz.json</t>
+  </si>
+  <si>
+    <t>Vicente Cruz</t>
+  </si>
+  <si>
+    <t>aimee-eng.json</t>
+  </si>
+  <si>
+    <t>Aimee Eng</t>
+  </si>
+  <si>
+    <t>james-moore.json</t>
+  </si>
+  <si>
+    <t>James Moore</t>
+  </si>
+  <si>
+    <t>michael-johnson.json</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>christopher-dobbins.json</t>
+  </si>
+  <si>
+    <t>Christopher Dobbins</t>
+  </si>
+  <si>
+    <t>eric-wilson.json</t>
+  </si>
+  <si>
+    <t>Eric Wilson</t>
+  </si>
+  <si>
+    <t>saied-karamooz.json</t>
+  </si>
+  <si>
+    <t>Saied Karamooz</t>
+  </si>
+  <si>
+    <t>shereda-nosakhare.json</t>
+  </si>
+  <si>
+    <t>Shereda Nosakhare</t>
+  </si>
+  <si>
+    <t>summuel-washington.json</t>
+  </si>
+  <si>
+    <t>Summuel Washington</t>
+  </si>
+  <si>
     <t>abel-guillen.json</t>
   </si>
   <si>
-    <t>oakland-2014-11-04</t>
-  </si>
-  <si>
     <t>Abel Guillén</t>
   </si>
   <si>
-    <t>aimee-eng.json</t>
-  </si>
-  <si>
-    <t>Aimee Eng</t>
-  </si>
-  <si>
-    <t>andrew-park.json</t>
-  </si>
-  <si>
-    <t>Andrew Park</t>
-  </si>
-  <si>
-    <t>annie-campbell-washington.json</t>
-  </si>
-  <si>
-    <t>Annie Campbell Washington</t>
+    <t>nancy-sidebotham.json</t>
+  </si>
+  <si>
+    <t>Nancy Sidebotham</t>
+  </si>
+  <si>
+    <t>kevin-blackburn.json</t>
+  </si>
+  <si>
+    <t>Kevin Blackburn</t>
+  </si>
+  <si>
+    <t>nina-senn.json</t>
+  </si>
+  <si>
+    <t>Nina Senn</t>
+  </si>
+  <si>
+    <t>jill-broadhurst.json</t>
+  </si>
+  <si>
+    <t>Jill Broadhurst</t>
+  </si>
+  <si>
+    <t>dana-king.json</t>
+  </si>
+  <si>
+    <t>Dana King</t>
   </si>
   <si>
     <t>brenda-roberts.json</t>
@@ -73,10 +265,16 @@
     <t>Brenda Roberts</t>
   </si>
   <si>
-    <t>bryan-parker.json</t>
-  </si>
-  <si>
-    <t>Bryan Parker</t>
+    <t>karl-debro.json</t>
+  </si>
+  <si>
+    <t>Karl Debro</t>
+  </si>
+  <si>
+    <t>ken-maxey.json</t>
+  </si>
+  <si>
+    <t>Ken Maxey</t>
   </si>
   <si>
     <t>charles-williams.json</t>
@@ -85,217 +283,532 @@
     <t>Charles Williams</t>
   </si>
   <si>
-    <t>cheri-spigner.json</t>
-  </si>
-  <si>
-    <t>Cheri Spigner</t>
-  </si>
-  <si>
-    <t>christopher-dobbins.json</t>
-  </si>
-  <si>
-    <t>Christopher Dobbins</t>
-  </si>
-  <si>
-    <t>courtney-ruby.json</t>
-  </si>
-  <si>
-    <t>Courtney Ruby</t>
-  </si>
-  <si>
     <t>dan-siegel.json</t>
   </si>
   <si>
     <t>Dan Siegel</t>
   </si>
   <si>
-    <t>dana-king.json</t>
-  </si>
-  <si>
-    <t>Dana King</t>
-  </si>
-  <si>
-    <t>desley-brooks.json</t>
-  </si>
-  <si>
-    <t>Desley Brooks</t>
-  </si>
-  <si>
-    <t>eric-wilson.json</t>
-  </si>
-  <si>
-    <t>Eric Wilson</t>
-  </si>
-  <si>
-    <t>james-moore.json</t>
-  </si>
-  <si>
-    <t>James Moore</t>
-  </si>
-  <si>
-    <t>jason-anderson.json</t>
-  </si>
-  <si>
-    <t>Jason Anderson</t>
-  </si>
-  <si>
-    <t>jean-quan.json</t>
-  </si>
-  <si>
-    <t>Jean Quan</t>
-  </si>
-  <si>
-    <t>jill-broadhurst.json</t>
-  </si>
-  <si>
-    <t>Jill Broadhurst</t>
-  </si>
-  <si>
-    <t>joe-tuman.json</t>
-  </si>
-  <si>
-    <t>Joe Tuman</t>
-  </si>
-  <si>
-    <t>karl-debro.json</t>
-  </si>
-  <si>
-    <t>Karl Debro</t>
-  </si>
-  <si>
-    <t>ken-houston.json</t>
-  </si>
-  <si>
-    <t>Ken Houston</t>
-  </si>
-  <si>
-    <t>ken-maxey.json</t>
-  </si>
-  <si>
-    <t>Ken Maxey</t>
-  </si>
-  <si>
-    <t>kevin-blackburn.json</t>
-  </si>
-  <si>
-    <t>Kevin Blackburn</t>
-  </si>
-  <si>
-    <t>len-raphael.json</t>
-  </si>
-  <si>
-    <t>Len Raphael</t>
-  </si>
-  <si>
-    <t>libby-schaaf.json</t>
-  </si>
-  <si>
-    <t>Libby Schaaf</t>
-  </si>
-  <si>
-    <t>michael-johnson.json</t>
-  </si>
-  <si>
-    <t>Michael Johnson</t>
-  </si>
-  <si>
-    <t>nancy-sidebotham.json</t>
-  </si>
-  <si>
-    <t>Nancy Sidebotham</t>
-  </si>
-  <si>
-    <t>nicolas-heidorn.json</t>
-  </si>
-  <si>
-    <t>Nicolas Heidorn</t>
-  </si>
-  <si>
-    <t>nina-senn.json</t>
-  </si>
-  <si>
-    <t>Nina Senn</t>
-  </si>
-  <si>
-    <t>pat-mccullough.json</t>
-  </si>
-  <si>
-    <t>Pat Mccullough</t>
-  </si>
-  <si>
-    <t>paul-lim.json</t>
-  </si>
-  <si>
-    <t>Paul Lim</t>
-  </si>
-  <si>
-    <t>peter-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Liu</t>
-  </si>
-  <si>
-    <t>rebecca-kaplan.json</t>
-  </si>
-  <si>
-    <t>Rebecca Kaplan</t>
-  </si>
-  <si>
-    <t>renato-almanzor.json</t>
-  </si>
-  <si>
-    <t>Renato Almanzor</t>
-  </si>
-  <si>
-    <t>saied-karamooz.json</t>
-  </si>
-  <si>
-    <t>Saied Karamooz</t>
-  </si>
-  <si>
-    <t>saleem-shakir-gilmore.json</t>
-  </si>
-  <si>
-    <t>Saleem Shakir-Gilmore</t>
-  </si>
-  <si>
-    <t>shanthi-gonzales.json</t>
-  </si>
-  <si>
-    <t>Shanthi Gonzales</t>
-  </si>
-  <si>
-    <t>shereda-nosakhare.json</t>
-  </si>
-  <si>
-    <t>Shereda Nosakhare</t>
-  </si>
-  <si>
-    <t>summuel-washington.json</t>
-  </si>
-  <si>
-    <t>Summuel Washington</t>
-  </si>
-  <si>
-    <t>vicente-cruz.json</t>
-  </si>
-  <si>
-    <t>Vicente Cruz</t>
-  </si>
-  <si>
-    <t>william-bo-ghirardelli.json</t>
-  </si>
-  <si>
-    <t>William "Bo" Ghirardelli</t>
+    <t>vancedric-williams.json</t>
+  </si>
+  <si>
+    <t>oakland-2020-11-03</t>
+  </si>
+  <si>
+    <t>VanCedric Williams</t>
+  </si>
+  <si>
+    <t>cherisse-gash.json</t>
+  </si>
+  <si>
+    <t>Cherisse Gash</t>
+  </si>
+  <si>
+    <t>eli-ferran.json</t>
+  </si>
+  <si>
+    <t>Eli Ferran</t>
+  </si>
+  <si>
+    <t>clifford-thompson.json</t>
+  </si>
+  <si>
+    <t>Clifford Thompson</t>
+  </si>
+  <si>
+    <t>treva-reid.json</t>
+  </si>
+  <si>
+    <t>Treva Reid</t>
+  </si>
+  <si>
+    <t>steph-dominguez-walton.json</t>
+  </si>
+  <si>
+    <t>Steph Dominguez Walton</t>
+  </si>
+  <si>
+    <t>alexus-taylor.json</t>
+  </si>
+  <si>
+    <t>Alexus Taylor</t>
+  </si>
+  <si>
+    <t>mike-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Mike Hutchinson</t>
+  </si>
+  <si>
+    <t>derreck-b-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck B. Johnson</t>
+  </si>
+  <si>
+    <t>austin-dannhaus.json</t>
+  </si>
+  <si>
+    <t>Austin Dannhaus</t>
+  </si>
+  <si>
+    <t>tri-ngo.json</t>
+  </si>
+  <si>
+    <t>Tri Ngo</t>
+  </si>
+  <si>
+    <t>mark-hurty.json</t>
+  </si>
+  <si>
+    <t>Mark Hurty</t>
+  </si>
+  <si>
+    <t>faye-taylor.json</t>
+  </si>
+  <si>
+    <t>Faye Taylor</t>
+  </si>
+  <si>
+    <t>kristina-molina.json</t>
+  </si>
+  <si>
+    <t>Kristina Molina</t>
+  </si>
+  <si>
+    <t>marchon-tatmon.json</t>
+  </si>
+  <si>
+    <t>Marchon Tatmon</t>
+  </si>
+  <si>
+    <t>zoe-lopez-meraz.json</t>
+  </si>
+  <si>
+    <t>Zoe Lopez-Meraz</t>
+  </si>
+  <si>
+    <t>carroll-fife.json</t>
+  </si>
+  <si>
+    <t>Carroll Fife</t>
+  </si>
+  <si>
+    <t>maiya-edgerly.json</t>
+  </si>
+  <si>
+    <t>Maiya Edgerly</t>
+  </si>
+  <si>
+    <t>stacy-thomas.json</t>
+  </si>
+  <si>
+    <t>Stacy Thomas</t>
+  </si>
+  <si>
+    <t>leroy-gaines.json</t>
+  </si>
+  <si>
+    <t>Leroy Gaines</t>
+  </si>
+  <si>
+    <t>ben-coach-tapscott.json</t>
+  </si>
+  <si>
+    <t>Ben "Coach" Tapscott</t>
+  </si>
+  <si>
+    <t>bronche-taylor.json</t>
+  </si>
+  <si>
+    <t>Bronché Taylor</t>
+  </si>
+  <si>
+    <t>lynette-gibson-mcelhaney.json</t>
+  </si>
+  <si>
+    <t>Lynette Gibson McElhaney</t>
+  </si>
+  <si>
+    <t>marcie-hodge.json</t>
+  </si>
+  <si>
+    <t>Marcie Hodge</t>
+  </si>
+  <si>
+    <t>maximo-santana.json</t>
+  </si>
+  <si>
+    <t>Maximo Santana</t>
+  </si>
+  <si>
+    <t>meron-semedar.json</t>
+  </si>
+  <si>
+    <t>Meron Semedar</t>
   </si>
   <si>
     <t>barbara-parker.json</t>
   </si>
   <si>
+    <t>Barbara Parker</t>
+  </si>
+  <si>
+    <t>seneca-scott.json</t>
+  </si>
+  <si>
+    <t>Seneca Scott</t>
+  </si>
+  <si>
+    <t>robert-bob-jackson.json</t>
+  </si>
+  <si>
+    <t>Robert "Bob" Jackson</t>
+  </si>
+  <si>
+    <t>benjamin-sam-davis.json</t>
+  </si>
+  <si>
+    <t>Benjamin "Sam" Davis</t>
+  </si>
+  <si>
+    <t>richard-santos-raya.json</t>
+  </si>
+  <si>
+    <t>Richard Santos Raya</t>
+  </si>
+  <si>
+    <t>victor-javier-valerio.json</t>
+  </si>
+  <si>
+    <t>Victor Javier Valerio</t>
+  </si>
+  <si>
+    <t>aaron-clay.json</t>
+  </si>
+  <si>
+    <t>Aaron Clay</t>
+  </si>
+  <si>
+    <t>jorge-c-lerma.json</t>
+  </si>
+  <si>
+    <t>Jorge C. Lerma</t>
+  </si>
+  <si>
+    <t>dan-kalb.json</t>
+  </si>
+  <si>
+    <t>Dan Kalb</t>
+  </si>
+  <si>
+    <t>sheila-pope-lawrence.json</t>
+  </si>
+  <si>
+    <t>Sheila Pope Lawrence</t>
+  </si>
+  <si>
+    <t>noel-gallo.json</t>
+  </si>
+  <si>
+    <t>Noel Gallo</t>
+  </si>
+  <si>
+    <t>natasha-middleton.json</t>
+  </si>
+  <si>
+    <t>oakland-2018-11-06</t>
+  </si>
+  <si>
+    <t>Natasha Middleton</t>
+  </si>
+  <si>
+    <t>pamela-price.json</t>
+  </si>
+  <si>
+    <t>Pamela Price</t>
+  </si>
+  <si>
+    <t>francis-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Hummel</t>
+  </si>
+  <si>
+    <t>joseph-tanios.json</t>
+  </si>
+  <si>
+    <t>Joseph Tanios</t>
+  </si>
+  <si>
+    <t>mya-whitaker.json</t>
+  </si>
+  <si>
+    <t>Mya Whitaker</t>
+  </si>
+  <si>
+    <t>cedric-anthony-troupe.json</t>
+  </si>
+  <si>
+    <t>Cedric Anthony Troupe</t>
+  </si>
+  <si>
+    <t>nikki-fortunato-bas.json</t>
+  </si>
+  <si>
+    <t>Nikki Fortunato Bas</t>
+  </si>
+  <si>
+    <t>charlie-michelson.json</t>
+  </si>
+  <si>
+    <t>Charlie Michelson</t>
+  </si>
+  <si>
+    <t>maria-marlo-rodriguez.json</t>
+  </si>
+  <si>
+    <t>Maria "Marlo" Rodriguez</t>
+  </si>
+  <si>
+    <t>sheng-thao.json</t>
+  </si>
+  <si>
+    <t>Sheng Thao</t>
+  </si>
+  <si>
+    <t>nayeli-maxson.json</t>
+  </si>
+  <si>
+    <t>Nayeli Maxson</t>
+  </si>
+  <si>
+    <t>clarissa-doutherd.json</t>
+  </si>
+  <si>
+    <t>Clarissa Doutherd</t>
+  </si>
+  <si>
+    <t>gary-yee.json</t>
+  </si>
+  <si>
+    <t>Gary Yee</t>
+  </si>
+  <si>
+    <t>jesse-a-j-smith.json</t>
+  </si>
+  <si>
+    <t>Jesse A.J. Smith</t>
+  </si>
+  <si>
+    <t>pamela-harris.json</t>
+  </si>
+  <si>
+    <t>Pamela Harris</t>
+  </si>
+  <si>
+    <t>donte-kenzie-smith.json</t>
+  </si>
+  <si>
+    <t>Donte Kenzie Smith</t>
+  </si>
+  <si>
+    <t>joseph-simmons.json</t>
+  </si>
+  <si>
+    <t>Joseph Simmons</t>
+  </si>
+  <si>
+    <t>anthony-wilson.json</t>
+  </si>
+  <si>
+    <t>Anthony Wilson</t>
+  </si>
+  <si>
+    <t>loren-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Taylor</t>
+  </si>
+  <si>
+    <t>cat-brooks.json</t>
+  </si>
+  <si>
+    <t>Cat Brooks</t>
+  </si>
+  <si>
+    <t>oakland-2024-11-05</t>
+  </si>
+  <si>
+    <t>donnel-c-dunbar.json</t>
+  </si>
+  <si>
+    <t>Donnel C. Dunbar</t>
+  </si>
+  <si>
+    <t>shantell-herndon.json</t>
+  </si>
+  <si>
+    <t>Shantell Herndon</t>
+  </si>
+  <si>
+    <t>van-cedric-williams.json</t>
+  </si>
+  <si>
+    <t>Van Cedric Williams</t>
+  </si>
+  <si>
+    <t>shan-m-hirsch.json</t>
+  </si>
+  <si>
+    <t>Shan M. Hirsch</t>
+  </si>
+  <si>
+    <t>edward-c-frank.json</t>
+  </si>
+  <si>
+    <t>Edward C. Frank</t>
+  </si>
+  <si>
+    <t>tonya-love.json</t>
+  </si>
+  <si>
+    <t>Tonya Love</t>
+  </si>
+  <si>
+    <t>sam-davis.json</t>
+  </si>
+  <si>
+    <t>Sam Davis</t>
+  </si>
+  <si>
+    <t>debra-sherman.json</t>
+  </si>
+  <si>
+    <t>Debra Sherman</t>
+  </si>
+  <si>
+    <t>selika-thomas.json</t>
+  </si>
+  <si>
+    <t>Selika Thomas</t>
+  </si>
+  <si>
+    <t>ryan-richardson.json</t>
+  </si>
+  <si>
+    <t>Ryan Richardson</t>
+  </si>
+  <si>
+    <t>alexandra-ritzie-hernandez.json</t>
+  </si>
+  <si>
+    <t>Alexandra Ritzie-Hernandez</t>
+  </si>
+  <si>
+    <t>warren-logan.json</t>
+  </si>
+  <si>
+    <t>Warren Logan</t>
+  </si>
+  <si>
+    <t>fabian-robinson.json</t>
+  </si>
+  <si>
+    <t>Fabian Robinson</t>
+  </si>
+  <si>
+    <t>tyron-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron Jordan</t>
+  </si>
+  <si>
+    <t>merika-goolsby.json</t>
+  </si>
+  <si>
+    <t>Merika Goolsby</t>
+  </si>
+  <si>
+    <t>zac-unger.json</t>
+  </si>
+  <si>
+    <t>Zac Unger</t>
+  </si>
+  <si>
+    <t>christian-miguel-martinez.json</t>
+  </si>
+  <si>
+    <t>oakland-2023-11-07</t>
+  </si>
+  <si>
+    <t>Christian Miguel Martinez</t>
+  </si>
+  <si>
+    <t>michael-houston.json</t>
+  </si>
+  <si>
+    <t>oakland-2024-03-05</t>
+  </si>
+  <si>
+    <t>Michael Houston</t>
+  </si>
+  <si>
+    <t>bruce-quan.json</t>
+  </si>
+  <si>
     <t>oakland-2016-11-08</t>
   </si>
   <si>
-    <t>Barbara Parker</t>
+    <t>Bruce Quan</t>
+  </si>
+  <si>
+    <t>roseann-torres.json</t>
+  </si>
+  <si>
+    <t>Roseann Torres</t>
+  </si>
+  <si>
+    <t>jody-london.json</t>
+  </si>
+  <si>
+    <t>Jody London</t>
+  </si>
+  <si>
+    <t>francis-matt-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Matt Hummel</t>
+  </si>
+  <si>
+    <t>larry-reid.json</t>
+  </si>
+  <si>
+    <t>Larry Reid</t>
+  </si>
+  <si>
+    <t>peggy-moore.json</t>
+  </si>
+  <si>
+    <t>Peggy Moore</t>
+  </si>
+  <si>
+    <t>lucky-narain.json</t>
+  </si>
+  <si>
+    <t>Lucky Narain</t>
+  </si>
+  <si>
+    <t>donald-macleay.json</t>
+  </si>
+  <si>
+    <t>Donald Macleay</t>
+  </si>
+  <si>
+    <t>jumoke-hinton-hodge.json</t>
+  </si>
+  <si>
+    <t>Jumoke Hinton Hodge</t>
   </si>
   <si>
     <t>benjamin-lang.json</t>
@@ -304,10 +817,28 @@
     <t>Benjamin Lang</t>
   </si>
   <si>
-    <t>bruce-quan.json</t>
-  </si>
-  <si>
-    <t>Bruce Quan</t>
+    <t>viola-gonzales.json</t>
+  </si>
+  <si>
+    <t>Viola Gonzales</t>
+  </si>
+  <si>
+    <t>nehanda-imara.json</t>
+  </si>
+  <si>
+    <t>Nehanda Imara</t>
+  </si>
+  <si>
+    <t>james-harris.json</t>
+  </si>
+  <si>
+    <t>James Harris</t>
+  </si>
+  <si>
+    <t>kharyshi-wiginton.json</t>
+  </si>
+  <si>
+    <t>Kharyshi Wiginton</t>
   </si>
   <si>
     <t>chris-jackson.json</t>
@@ -316,22 +847,10 @@
     <t>Chris Jackson</t>
   </si>
   <si>
-    <t>dan-kalb.json</t>
-  </si>
-  <si>
-    <t>Dan Kalb</t>
-  </si>
-  <si>
-    <t>donald-macleay.json</t>
-  </si>
-  <si>
-    <t>Donald Macleay</t>
-  </si>
-  <si>
-    <t>francis-matt-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Matt Hummel</t>
+    <t>michael-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Michael Hutchinson</t>
   </si>
   <si>
     <t>huber-trenado.json</t>
@@ -340,22 +859,10 @@
     <t>Huber Trenado</t>
   </si>
   <si>
-    <t>james-harris.json</t>
-  </si>
-  <si>
-    <t>James Harris</t>
-  </si>
-  <si>
-    <t>jody-london.json</t>
-  </si>
-  <si>
-    <t>Jody London</t>
-  </si>
-  <si>
-    <t>jumoke-hinton-hodge.json</t>
-  </si>
-  <si>
-    <t>Jumoke Hinton Hodge</t>
+    <t>noni-session.json</t>
+  </si>
+  <si>
+    <t>Noni Session</t>
   </si>
   <si>
     <t>kevin-corbett.json</t>
@@ -364,718 +871,211 @@
     <t>Kevin Corbett</t>
   </si>
   <si>
-    <t>kharyshi-wiginton.json</t>
-  </si>
-  <si>
-    <t>Kharyshi Wiginton</t>
-  </si>
-  <si>
-    <t>larry-reid.json</t>
-  </si>
-  <si>
-    <t>Larry Reid</t>
-  </si>
-  <si>
-    <t>lucky-narain.json</t>
-  </si>
-  <si>
-    <t>Lucky Narain</t>
-  </si>
-  <si>
-    <t>lynette-gibson-mcelhaney.json</t>
-  </si>
-  <si>
-    <t>Lynette Gibson McElhaney</t>
-  </si>
-  <si>
-    <t>marcie-hodge.json</t>
-  </si>
-  <si>
-    <t>Marcie Hodge</t>
-  </si>
-  <si>
     <t>michael-hassid.json</t>
   </si>
   <si>
     <t>Michael Hassid</t>
   </si>
   <si>
-    <t>michael-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>nehanda-imara.json</t>
-  </si>
-  <si>
-    <t>Nehanda Imara</t>
-  </si>
-  <si>
-    <t>noel-gallo.json</t>
-  </si>
-  <si>
-    <t>Noel Gallo</t>
-  </si>
-  <si>
-    <t>noni-session.json</t>
-  </si>
-  <si>
-    <t>Noni Session</t>
-  </si>
-  <si>
-    <t>peggy-moore.json</t>
-  </si>
-  <si>
-    <t>Peggy Moore</t>
-  </si>
-  <si>
-    <t>roseann-torres.json</t>
-  </si>
-  <si>
-    <t>Roseann Torres</t>
-  </si>
-  <si>
-    <t>viola-gonzales.json</t>
-  </si>
-  <si>
-    <t>Viola Gonzales</t>
-  </si>
-  <si>
-    <t>oakland-2018-11-06</t>
-  </si>
-  <si>
-    <t>anthony-wilson.json</t>
-  </si>
-  <si>
-    <t>Anthony Wilson</t>
-  </si>
-  <si>
-    <t>cat-brooks.json</t>
-  </si>
-  <si>
-    <t>Cat Brooks</t>
-  </si>
-  <si>
-    <t>cedric-anthony-troupe.json</t>
-  </si>
-  <si>
-    <t>Cedric Anthony Troupe</t>
-  </si>
-  <si>
-    <t>charlie-michelson.json</t>
-  </si>
-  <si>
-    <t>Charlie Michelson</t>
-  </si>
-  <si>
-    <t>clarissa-doutherd.json</t>
-  </si>
-  <si>
-    <t>Clarissa Doutherd</t>
-  </si>
-  <si>
-    <t>donte-kenzie-smith.json</t>
-  </si>
-  <si>
-    <t>Donte Kenzie Smith</t>
-  </si>
-  <si>
-    <t>francis-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Hummel</t>
-  </si>
-  <si>
-    <t>gary-yee.json</t>
-  </si>
-  <si>
-    <t>Gary Yee</t>
-  </si>
-  <si>
-    <t>jesse-a-j-smith.json</t>
-  </si>
-  <si>
-    <t>Jesse A.J. Smith</t>
-  </si>
-  <si>
-    <t>joseph-simmons.json</t>
-  </si>
-  <si>
-    <t>Joseph Simmons</t>
-  </si>
-  <si>
-    <t>joseph-tanios.json</t>
-  </si>
-  <si>
-    <t>Joseph Tanios</t>
-  </si>
-  <si>
-    <t>loren-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Taylor</t>
-  </si>
-  <si>
-    <t>marchon-tatmon.json</t>
-  </si>
-  <si>
-    <t>Marchon Tatmon</t>
-  </si>
-  <si>
-    <t>maria-marlo-rodriguez.json</t>
-  </si>
-  <si>
-    <t>Maria "Marlo" Rodriguez</t>
-  </si>
-  <si>
-    <t>mya-whitaker.json</t>
-  </si>
-  <si>
-    <t>Mya Whitaker</t>
-  </si>
-  <si>
-    <t>natasha-middleton.json</t>
-  </si>
-  <si>
-    <t>Natasha Middleton</t>
-  </si>
-  <si>
-    <t>nayeli-maxson.json</t>
-  </si>
-  <si>
-    <t>Nayeli Maxson</t>
-  </si>
-  <si>
-    <t>nikki-fortunato-bas.json</t>
-  </si>
-  <si>
-    <t>Nikki Fortunato Bas</t>
-  </si>
-  <si>
-    <t>pamela-harris.json</t>
-  </si>
-  <si>
-    <t>Pamela Harris</t>
-  </si>
-  <si>
-    <t>pamela-price.json</t>
-  </si>
-  <si>
-    <t>Pamela Price</t>
-  </si>
-  <si>
-    <t>sheng-thao.json</t>
-  </si>
-  <si>
-    <t>Sheng Thao</t>
-  </si>
-  <si>
-    <t>aaron-clay.json</t>
-  </si>
-  <si>
-    <t>oakland-2020-11-03</t>
-  </si>
-  <si>
-    <t>Aaron Clay</t>
-  </si>
-  <si>
-    <t>alexus-taylor.json</t>
-  </si>
-  <si>
-    <t>Alexus Taylor</t>
-  </si>
-  <si>
-    <t>austin-dannhaus.json</t>
-  </si>
-  <si>
-    <t>Austin Dannhaus</t>
-  </si>
-  <si>
-    <t>ben-coach-tapscott.json</t>
-  </si>
-  <si>
-    <t>Ben "Coach" Tapscott</t>
-  </si>
-  <si>
-    <t>benjamin-sam-davis.json</t>
-  </si>
-  <si>
-    <t>Benjamin "Sam" Davis</t>
-  </si>
-  <si>
-    <t>bronche-taylor.json</t>
-  </si>
-  <si>
-    <t>Bronché Taylor</t>
-  </si>
-  <si>
-    <t>carroll-fife.json</t>
-  </si>
-  <si>
-    <t>Carroll Fife</t>
-  </si>
-  <si>
-    <t>cherisse-gash.json</t>
-  </si>
-  <si>
-    <t>Cherisse Gash</t>
-  </si>
-  <si>
-    <t>clifford-thompson.json</t>
-  </si>
-  <si>
-    <t>Clifford Thompson</t>
-  </si>
-  <si>
-    <t>derreck-b-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck B. Johnson</t>
-  </si>
-  <si>
-    <t>eli-ferran.json</t>
-  </si>
-  <si>
-    <t>Eli Ferran</t>
-  </si>
-  <si>
-    <t>faye-taylor.json</t>
-  </si>
-  <si>
-    <t>Faye Taylor</t>
-  </si>
-  <si>
-    <t>jorge-c-lerma.json</t>
-  </si>
-  <si>
-    <t>Jorge C. Lerma</t>
-  </si>
-  <si>
-    <t>kristina-molina.json</t>
-  </si>
-  <si>
-    <t>Kristina Molina</t>
-  </si>
-  <si>
-    <t>leroy-gaines.json</t>
-  </si>
-  <si>
-    <t>Leroy Gaines</t>
-  </si>
-  <si>
-    <t>maiya-edgerly.json</t>
-  </si>
-  <si>
-    <t>Maiya Edgerly</t>
-  </si>
-  <si>
-    <t>mark-hurty.json</t>
-  </si>
-  <si>
-    <t>Mark Hurty</t>
-  </si>
-  <si>
-    <t>maximo-santana.json</t>
-  </si>
-  <si>
-    <t>Maximo Santana</t>
-  </si>
-  <si>
-    <t>meron-semedar.json</t>
-  </si>
-  <si>
-    <t>Meron Semedar</t>
-  </si>
-  <si>
-    <t>mike-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Mike Hutchinson</t>
-  </si>
-  <si>
-    <t>richard-santos-raya.json</t>
-  </si>
-  <si>
-    <t>Richard Santos Raya</t>
-  </si>
-  <si>
-    <t>robert-bob-jackson.json</t>
-  </si>
-  <si>
-    <t>Robert "Bob" Jackson</t>
-  </si>
-  <si>
-    <t>seneca-scott.json</t>
-  </si>
-  <si>
-    <t>Seneca Scott</t>
-  </si>
-  <si>
-    <t>sheila-pope-lawrence.json</t>
-  </si>
-  <si>
-    <t>Sheila Pope Lawrence</t>
-  </si>
-  <si>
-    <t>stacy-thomas.json</t>
-  </si>
-  <si>
-    <t>Stacy Thomas</t>
-  </si>
-  <si>
-    <t>steph-dominguez-walton.json</t>
-  </si>
-  <si>
-    <t>Steph Dominguez Walton</t>
-  </si>
-  <si>
-    <t>treva-reid.json</t>
-  </si>
-  <si>
-    <t>Treva Reid</t>
-  </si>
-  <si>
-    <t>tri-ngo.json</t>
-  </si>
-  <si>
-    <t>Tri Ngo</t>
-  </si>
-  <si>
-    <t>vancedric-williams.json</t>
-  </si>
-  <si>
-    <t>VanCedric Williams</t>
-  </si>
-  <si>
-    <t>victor-javier-valerio.json</t>
-  </si>
-  <si>
-    <t>Victor Javier Valerio</t>
-  </si>
-  <si>
-    <t>zoe-lopez-meraz.json</t>
-  </si>
-  <si>
-    <t>Zoe Lopez-Meraz</t>
+    <t>derrick-soo.json</t>
+  </si>
+  <si>
+    <t>oakland-2022-11-08</t>
+  </si>
+  <si>
+    <t>Derrick Soo</t>
+  </si>
+  <si>
+    <t>max-orozco.json</t>
+  </si>
+  <si>
+    <t>Max Orozco</t>
+  </si>
+  <si>
+    <t>john-reimann.json</t>
+  </si>
+  <si>
+    <t>John Reimann</t>
+  </si>
+  <si>
+    <t>nick-resnick.json</t>
+  </si>
+  <si>
+    <t>Nick Resnick</t>
+  </si>
+  <si>
+    <t>paulina-gonzalez.json</t>
+  </si>
+  <si>
+    <t>Paulina Gonzalez</t>
+  </si>
+  <si>
+    <t>john-mimosa-marks.json</t>
+  </si>
+  <si>
+    <t>John Mimosa Marks</t>
+  </si>
+  <si>
+    <t>nenna-joiner.json</t>
+  </si>
+  <si>
+    <t>Nenna Joiner</t>
+  </si>
+  <si>
+    <t>jesse-tapia-juarez.json</t>
+  </si>
+  <si>
+    <t>Jesse Tapia-Juarez</t>
+  </si>
+  <si>
+    <t>kevin-jenkins.json</t>
+  </si>
+  <si>
+    <t>Kevin Jenkins</t>
+  </si>
+  <si>
+    <t>loren-manuel-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Manuel Taylor</t>
+  </si>
+  <si>
+    <t>ignacio-de-la-fuente.json</t>
+  </si>
+  <si>
+    <t>Ignacio De La Fuente</t>
+  </si>
+  <si>
+    <t>desmond-i-jeffries.json</t>
+  </si>
+  <si>
+    <t>Desmond I. Jeffries</t>
+  </si>
+  <si>
+    <t>tyron-c-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron C. Jordan</t>
+  </si>
+  <si>
+    <t>kenny-session.json</t>
+  </si>
+  <si>
+    <t>Kenny Session</t>
+  </si>
+  <si>
+    <t>yakpasua-michael-gbagba-zazaboi.json</t>
+  </si>
+  <si>
+    <t>Yakpasua Michael Gbagba Zazaboi</t>
+  </si>
+  <si>
+    <t>renia-webb.json</t>
+  </si>
+  <si>
+    <t>Renia Webb</t>
+  </si>
+  <si>
+    <t>pecolia-manigo.json</t>
+  </si>
+  <si>
+    <t>Pecolia Manigo</t>
+  </si>
+  <si>
+    <t>janani-ramachandran.json</t>
+  </si>
+  <si>
+    <t>Janani Ramachandran</t>
+  </si>
+  <si>
+    <t>valarie-bachelor.json</t>
+  </si>
+  <si>
+    <t>Valarie Bachelor</t>
+  </si>
+  <si>
+    <t>stephen-schear.json</t>
+  </si>
+  <si>
+    <t>Stephen Schear</t>
+  </si>
+  <si>
+    <t>derreck-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck Johnson</t>
+  </si>
+  <si>
+    <t>jennifer-brouhard.json</t>
+  </si>
+  <si>
+    <t>Jennifer Brouhard</t>
+  </si>
+  <si>
+    <t>david-kakishiba.json</t>
+  </si>
+  <si>
+    <t>David Kakishiba</t>
+  </si>
+  <si>
+    <t>treva-d-reid.json</t>
+  </si>
+  <si>
+    <t>Treva D. Reid</t>
+  </si>
+  <si>
+    <t>gregory-hodge.json</t>
+  </si>
+  <si>
+    <t>Gregory Hodge</t>
+  </si>
+  <si>
+    <t>kyra-mungia.json</t>
+  </si>
+  <si>
+    <t>Kyra Mungia</t>
+  </si>
+  <si>
+    <t>peter-y-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Y. Liu</t>
   </si>
   <si>
     <t>allyssa-victory-villanueva.json</t>
   </si>
   <si>
-    <t>oakland-2022-11-08</t>
-  </si>
-  <si>
     <t>Allyssa Victory Villanueva</t>
   </si>
   <si>
-    <t>david-kakishiba.json</t>
-  </si>
-  <si>
-    <t>David Kakishiba</t>
-  </si>
-  <si>
-    <t>derreck-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck Johnson</t>
-  </si>
-  <si>
-    <t>derrick-soo.json</t>
-  </si>
-  <si>
-    <t>Derrick Soo</t>
-  </si>
-  <si>
-    <t>desmond-i-jeffries.json</t>
-  </si>
-  <si>
-    <t>Desmond I. Jeffries</t>
-  </si>
-  <si>
     <t>elbert-owens.json</t>
   </si>
   <si>
     <t>Elbert Owens</t>
   </si>
   <si>
-    <t>gregory-hodge.json</t>
-  </si>
-  <si>
-    <t>Gregory Hodge</t>
-  </si>
-  <si>
     <t>harold-lowe.json</t>
   </si>
   <si>
     <t>Harold Lowe</t>
   </si>
   <si>
-    <t>ignacio-de-la-fuente.json</t>
-  </si>
-  <si>
-    <t>Ignacio De La Fuente</t>
-  </si>
-  <si>
-    <t>janani-ramachandran.json</t>
-  </si>
-  <si>
-    <t>Janani Ramachandran</t>
-  </si>
-  <si>
-    <t>jennifer-brouhard.json</t>
-  </si>
-  <si>
-    <t>Jennifer Brouhard</t>
-  </si>
-  <si>
-    <t>jesse-tapia-juarez.json</t>
-  </si>
-  <si>
-    <t>Jesse Tapia-Juarez</t>
-  </si>
-  <si>
     <t>joel-velasquez.json</t>
   </si>
   <si>
     <t>Joel Velasquez</t>
   </si>
   <si>
-    <t>john-mimosa-marks.json</t>
-  </si>
-  <si>
-    <t>John Mimosa Marks</t>
-  </si>
-  <si>
-    <t>john-reimann.json</t>
-  </si>
-  <si>
-    <t>John Reimann</t>
-  </si>
-  <si>
-    <t>kenny-session.json</t>
-  </si>
-  <si>
-    <t>Kenny Session</t>
-  </si>
-  <si>
-    <t>kevin-jenkins.json</t>
-  </si>
-  <si>
-    <t>Kevin Jenkins</t>
-  </si>
-  <si>
-    <t>kyra-mungia.json</t>
-  </si>
-  <si>
-    <t>Kyra Mungia</t>
-  </si>
-  <si>
-    <t>loren-manuel-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Manuel Taylor</t>
+    <t>monesha-carter.json</t>
+  </si>
+  <si>
+    <t>Monesha Carter</t>
   </si>
   <si>
     <t>mart-bradley.json</t>
   </si>
   <si>
     <t>Mart Bradley</t>
-  </si>
-  <si>
-    <t>max-orozco.json</t>
-  </si>
-  <si>
-    <t>Max Orozco</t>
-  </si>
-  <si>
-    <t>monesha-carter.json</t>
-  </si>
-  <si>
-    <t>Monesha Carter</t>
-  </si>
-  <si>
-    <t>nenna-joiner.json</t>
-  </si>
-  <si>
-    <t>Nenna Joiner</t>
-  </si>
-  <si>
-    <t>nick-resnick.json</t>
-  </si>
-  <si>
-    <t>Nick Resnick</t>
-  </si>
-  <si>
-    <t>paulina-gonzalez.json</t>
-  </si>
-  <si>
-    <t>Paulina Gonzalez</t>
-  </si>
-  <si>
-    <t>pecolia-manigo.json</t>
-  </si>
-  <si>
-    <t>Pecolia Manigo</t>
-  </si>
-  <si>
-    <t>peter-y-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Y. Liu</t>
-  </si>
-  <si>
-    <t>renia-webb.json</t>
-  </si>
-  <si>
-    <t>Renia Webb</t>
-  </si>
-  <si>
-    <t>stephen-schear.json</t>
-  </si>
-  <si>
-    <t>Stephen Schear</t>
-  </si>
-  <si>
-    <t>treva-d-reid.json</t>
-  </si>
-  <si>
-    <t>Treva D. Reid</t>
-  </si>
-  <si>
-    <t>tyron-c-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron C. Jordan</t>
-  </si>
-  <si>
-    <t>valarie-bachelor.json</t>
-  </si>
-  <si>
-    <t>Valarie Bachelor</t>
-  </si>
-  <si>
-    <t>yakpasua-michael-gbagba-zazaboi.json</t>
-  </si>
-  <si>
-    <t>Yakpasua Michael Gbagba Zazaboi</t>
-  </si>
-  <si>
-    <t>alexandra-ritzie-hernandez.json</t>
-  </si>
-  <si>
-    <t>oakland-2023-11-07</t>
-  </si>
-  <si>
-    <t>Alexandra Ritzie-Hernandez</t>
-  </si>
-  <si>
-    <t>christian-miguel-martinez.json</t>
-  </si>
-  <si>
-    <t>Christian Miguel Martinez</t>
-  </si>
-  <si>
-    <t>michael-houston.json</t>
-  </si>
-  <si>
-    <t>oakland-2024-03-05</t>
-  </si>
-  <si>
-    <t>Michael Houston</t>
-  </si>
-  <si>
-    <t>oakland-2024-11-05</t>
-  </si>
-  <si>
-    <t>debra-sherman.json</t>
-  </si>
-  <si>
-    <t>Debra Sherman</t>
-  </si>
-  <si>
-    <t>donnel-c-dunbar.json</t>
-  </si>
-  <si>
-    <t>Donnel C. Dunbar</t>
-  </si>
-  <si>
-    <t>edward-c-frank.json</t>
-  </si>
-  <si>
-    <t>Edward C. Frank</t>
-  </si>
-  <si>
-    <t>fabian-robinson.json</t>
-  </si>
-  <si>
-    <t>Fabian Robinson</t>
-  </si>
-  <si>
-    <t>merika-goolsby.json</t>
-  </si>
-  <si>
-    <t>Merika Goolsby</t>
-  </si>
-  <si>
-    <t>ryan-richardson.json</t>
-  </si>
-  <si>
-    <t>Ryan Richardson</t>
-  </si>
-  <si>
-    <t>sam-davis.json</t>
-  </si>
-  <si>
-    <t>Sam Davis</t>
-  </si>
-  <si>
-    <t>selika-thomas.json</t>
-  </si>
-  <si>
-    <t>Selika Thomas</t>
-  </si>
-  <si>
-    <t>shan-m-hirsch.json</t>
-  </si>
-  <si>
-    <t>Shan M. Hirsch</t>
-  </si>
-  <si>
-    <t>shantell-herndon.json</t>
-  </si>
-  <si>
-    <t>Shantell Herndon</t>
-  </si>
-  <si>
-    <t>tonya-love.json</t>
-  </si>
-  <si>
-    <t>Tonya Love</t>
-  </si>
-  <si>
-    <t>tyron-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron Jordan</t>
-  </si>
-  <si>
-    <t>van-cedric-williams.json</t>
-  </si>
-  <si>
-    <t>Van Cedric Williams</t>
-  </si>
-  <si>
-    <t>warren-logan.json</t>
-  </si>
-  <si>
-    <t>Warren Logan</t>
-  </si>
-  <si>
-    <t>zac-unger.json</t>
-  </si>
-  <si>
-    <t>Zac Unger</t>
   </si>
 </sst>
 </file>
@@ -1474,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>177069.06</v>
+        <v>17639</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>177069.06</v>
+        <v>17639</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>177069.06</v>
+        <v>17639</v>
       </c>
       <c r="G2">
         <f>E2-D2</f>
@@ -1502,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>33744.95</v>
+        <v>147.23</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>33744.95</v>
+        <v>147.23</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>33744.95</v>
+        <v>147.23</v>
       </c>
       <c r="G3">
         <f>E3-D3</f>
@@ -1530,13 +1530,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>67825.58</v>
+        <v>12093</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>67825.58</v>
+        <v>12093</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>67825.58</v>
+        <v>12093</v>
       </c>
       <c r="G4">
         <f>E4-D4</f>
@@ -1558,13 +1558,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>124860.15</v>
+        <v>164638.37</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>124860.15</v>
+        <v>164638.37</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>124860.15</v>
+        <v>164638.37</v>
       </c>
       <c r="G5">
         <f>E5-D5</f>
@@ -1586,13 +1586,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>69175</v>
+        <v>242342.31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>69175</v>
+        <v>242342.31</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>69175</v>
+        <v>242342.31</v>
       </c>
       <c r="G6">
         <f>E6-D6</f>
@@ -1614,13 +1614,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>237608.59</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>237608.59</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>237608.59</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>E7-D7</f>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>11835</v>
+        <v>115502.98</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>11835</v>
+        <v>115502.98</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>11835</v>
+        <v>115502.98</v>
       </c>
       <c r="G8">
         <f>E8-D8</f>
@@ -1670,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>18747.83</v>
+        <v>124860.15</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>18747.83</v>
+        <v>124860.15</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>18747.83</v>
+        <v>124860.15</v>
       </c>
       <c r="G9">
         <f>E9-D9</f>
@@ -1698,13 +1698,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5000</v>
+        <v>462809.82</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5000</v>
+        <v>462809.82</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5000</v>
+        <v>462809.82</v>
       </c>
       <c r="G10">
         <f>E10-D10</f>
@@ -1726,13 +1726,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>164638.37</v>
+        <v>18747.83</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>164638.37</v>
+        <v>18747.83</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>164638.37</v>
+        <v>18747.83</v>
       </c>
       <c r="G11">
         <f>E11-D11</f>
@@ -1754,13 +1754,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>E12-D12</f>
@@ -1782,13 +1782,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>237608.59</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>237608.59</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>237608.59</v>
       </c>
       <c r="G13">
         <f>E13-D13</f>
@@ -1810,13 +1810,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>38429</v>
+        <v>37784.69</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>38429</v>
+        <v>37784.69</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>38429</v>
+        <v>37784.69</v>
       </c>
       <c r="G14">
         <f>E14-D14</f>
@@ -1866,13 +1866,13 @@
         <v>38</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>10758</v>
+        <v>67825.58</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10758</v>
+        <v>67825.58</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>10758</v>
+        <v>67825.58</v>
       </c>
       <c r="G16">
         <f>E16-D16</f>
@@ -1894,13 +1894,13 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>347445.36</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>347445.36</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>347445.36</v>
       </c>
       <c r="G17">
         <f>E17-D17</f>
@@ -1922,13 +1922,13 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>242342.31</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>242342.31</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>242342.31</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f>E18-D18</f>
@@ -1950,13 +1950,13 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>96641</v>
+        <v>73585.61</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>78241</v>
+        <v>73885.61</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>78241</v>
+        <v>73885.61</v>
       </c>
       <c r="G19">
         <f>E19-D19</f>
@@ -1978,13 +1978,13 @@
         <v>46</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>115502.98</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>115502.98</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>115502.98</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f>E20-D20</f>
@@ -2006,13 +2006,13 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1165.8</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1165.8</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1165.8</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f>E21-D21</f>
@@ -2034,13 +2034,13 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>38429</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>38429</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>38429</v>
       </c>
       <c r="G22">
         <f>E22-D22</f>
@@ -2090,13 +2090,13 @@
         <v>54</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>62212</v>
+        <v>33744.95</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>62212</v>
+        <v>33744.95</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>62212</v>
+        <v>33744.95</v>
       </c>
       <c r="G24">
         <f>E24-D24</f>
@@ -2118,13 +2118,13 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>37784.69</v>
+        <v>10758</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>37784.69</v>
+        <v>10758</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>37784.69</v>
+        <v>10758</v>
       </c>
       <c r="G25">
         <f>E25-D25</f>
@@ -2146,13 +2146,13 @@
         <v>58</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>462809.82</v>
+        <v>34487.87</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>462809.82</v>
+        <v>34487.87</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>462809.82</v>
+        <v>34487.87</v>
       </c>
       <c r="G26">
         <f>E26-D26</f>
@@ -2174,13 +2174,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>34487.87</v>
+        <v>5000</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>34487.87</v>
+        <v>5000</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>34487.87</v>
+        <v>5000</v>
       </c>
       <c r="G27">
         <f>E27-D27</f>
@@ -2230,13 +2230,13 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>147.23</v>
+        <v>2609.9</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>147.23</v>
+        <v>2609.9</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>147.23</v>
+        <v>2609.9</v>
       </c>
       <c r="G29">
         <f>E29-D29</f>
@@ -2258,13 +2258,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>24233.82</v>
+        <v>32601.29</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>24233.82</v>
+        <v>28801.29</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>24233.82</v>
+        <v>28801.29</v>
       </c>
       <c r="G30">
         <f>E30-D30</f>
@@ -2314,13 +2314,13 @@
         <v>70</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0</v>
+        <v>177069.06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0</v>
+        <v>177069.06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0</v>
+        <v>177069.06</v>
       </c>
       <c r="G32">
         <f>E32-D32</f>
@@ -2370,13 +2370,13 @@
         <v>74</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>347445.36</v>
+        <v>62212</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>347445.36</v>
+        <v>62212</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>347445.36</v>
+        <v>62212</v>
       </c>
       <c r="G34">
         <f>E34-D34</f>
@@ -2398,13 +2398,13 @@
         <v>76</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>12093</v>
+        <v>24233.82</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>12093</v>
+        <v>24233.82</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>12093</v>
+        <v>24233.82</v>
       </c>
       <c r="G35">
         <f>E35-D35</f>
@@ -2426,13 +2426,13 @@
         <v>78</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2609.9</v>
+        <v>96641</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2609.9</v>
+        <v>78241</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2609.9</v>
+        <v>78241</v>
       </c>
       <c r="G36">
         <f>E36-D36</f>
@@ -2454,13 +2454,13 @@
         <v>80</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>17639</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>17639</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>17639</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="G37">
         <f>E37-D37</f>
@@ -2482,13 +2482,13 @@
         <v>82</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>73585.61</v>
+        <v>69175</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>73885.61</v>
+        <v>69175</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>73885.61</v>
+        <v>69175</v>
       </c>
       <c r="G38">
         <f>E38-D38</f>
@@ -2510,13 +2510,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>32601.29</v>
+        <v>1165.8</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>28801.29</v>
+        <v>1165.8</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>28801.29</v>
+        <v>1165.8</v>
       </c>
       <c r="G39">
         <f>E39-D39</f>
@@ -2566,13 +2566,13 @@
         <v>88</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="G41">
         <f>E41-D41</f>
@@ -2594,13 +2594,13 @@
         <v>90</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="G42">
         <f>E42-D42</f>
@@ -2622,13 +2622,13 @@
         <v>93</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>67909</v>
+        <v>36218.73</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>67909</v>
+        <v>36218.73</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>67909</v>
+        <v>36218.73</v>
       </c>
       <c r="G43">
         <f>E43-D43</f>
@@ -2650,13 +2650,13 @@
         <v>95</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="G44">
         <f>E44-D44</f>
@@ -2678,13 +2678,13 @@
         <v>97</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>75623.14</v>
+        <v>91201.06</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>75623.14</v>
+        <v>116256.07</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>75623.14</v>
+        <v>116256.07</v>
       </c>
       <c r="G45">
         <f>E45-D45</f>
@@ -2706,13 +2706,13 @@
         <v>99</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>25462</v>
+        <v>8261</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>25462</v>
+        <v>17570</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>25462</v>
+        <v>17570</v>
       </c>
       <c r="G46">
         <f>E46-D46</f>
@@ -2734,13 +2734,13 @@
         <v>101</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>114510.66</v>
+        <v>166664.47</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>114510.66</v>
+        <v>166664.47</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>114510.66</v>
+        <v>166664.47</v>
       </c>
       <c r="G47">
         <f>E47-D47</f>
@@ -2762,13 +2762,13 @@
         <v>103</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>5219.5</v>
+        <v>175685.18</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>5219.5</v>
+        <v>171785.18</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>5219.5</v>
+        <v>171785.18</v>
       </c>
       <c r="G48">
         <f>E48-D48</f>
@@ -2790,13 +2790,13 @@
         <v>105</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f>E49-D49</f>
@@ -2818,13 +2818,13 @@
         <v>107</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>21685.48</v>
+        <v>27381.49</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>21685.48</v>
+        <v>27381.49</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>21685.48</v>
+        <v>27381.49</v>
       </c>
       <c r="G50">
         <f>E50-D50</f>
@@ -2846,13 +2846,13 @@
         <v>109</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>27586</v>
+        <v>152579.98</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>27586</v>
+        <v>263064.98</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>27586</v>
+        <v>263064.98</v>
       </c>
       <c r="G51">
         <f>E51-D51</f>
@@ -2874,13 +2874,13 @@
         <v>111</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>22344</v>
+        <v>39343</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>22344</v>
+        <v>39343</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>22344</v>
+        <v>39343</v>
       </c>
       <c r="G52">
         <f>E52-D52</f>
@@ -2902,13 +2902,13 @@
         <v>113</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>25041.85</v>
+        <v>26410.15</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>25041.85</v>
+        <v>26410.15</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>25041.85</v>
+        <v>26410.15</v>
       </c>
       <c r="G53">
         <f>E53-D53</f>
@@ -2930,13 +2930,13 @@
         <v>115</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>42542</v>
+        <v>19109</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>42542</v>
+        <v>19109</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>42542</v>
+        <v>19109</v>
       </c>
       <c r="G54">
         <f>E54-D54</f>
@@ -2958,13 +2958,13 @@
         <v>117</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>5798</v>
+        <v>2250</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>5798</v>
+        <v>2250</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>5798</v>
+        <v>2250</v>
       </c>
       <c r="G55">
         <f>E55-D55</f>
@@ -2986,13 +2986,13 @@
         <v>119</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <f>E56-D56</f>
@@ -3014,13 +3014,13 @@
         <v>121</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0</v>
+        <v>28147.36</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="G57">
         <f>E57-D57</f>
@@ -3033,22 +3033,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>128456.69</v>
+        <v>252632.43</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>128456.69</v>
+        <v>252632.43</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>128456.69</v>
+        <v>252632.43</v>
       </c>
       <c r="G58">
         <f>E58-D58</f>
@@ -3061,22 +3061,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>49348</v>
+        <v>2563.15</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45848</v>
+        <v>6364.15</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45848</v>
+        <v>6364.15</v>
       </c>
       <c r="G59">
         <f>E59-D59</f>
@@ -3089,22 +3089,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>8546</v>
+        <v>53915.6</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>8546</v>
+        <v>202245.6</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>8546</v>
+        <v>202245.6</v>
       </c>
       <c r="G60">
         <f>E60-D60</f>
@@ -3117,22 +3117,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="G61">
         <f>E61-D61</f>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="G62">
         <f>E62-D62</f>
@@ -3182,13 +3182,13 @@
         <v>131</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>27941</v>
+        <v>48671.7</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>27941</v>
+        <v>48671.7</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>27941</v>
+        <v>48671.7</v>
       </c>
       <c r="G63">
         <f>E63-D63</f>
@@ -3210,13 +3210,13 @@
         <v>133</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>48119</v>
+        <v>13862.58</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>48119</v>
+        <v>13862.58</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>48119</v>
+        <v>13862.58</v>
       </c>
       <c r="G64">
         <f>E64-D64</f>
@@ -3238,13 +3238,13 @@
         <v>135</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>10634</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>10634</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>10634</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <f>E65-D65</f>
@@ -3266,13 +3266,13 @@
         <v>137</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>316892.58</v>
+        <v>238153.84</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>134325.58</v>
+        <v>238153.84</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>134325.58</v>
+        <v>238153.84</v>
       </c>
       <c r="G66">
         <f>E66-D66</f>
@@ -3285,22 +3285,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>174571.99</v>
+        <v>15065</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>174571.99</v>
+        <v>15065</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>174571.99</v>
+        <v>15065</v>
       </c>
       <c r="G67">
         <f>E67-D67</f>
@@ -3313,22 +3313,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <f>E68-D68</f>
@@ -3341,22 +3341,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>69742.41</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>69742.41</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>69742.41</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <f>E69-D69</f>
@@ -3369,22 +3369,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>200652</v>
+        <v>84182.67</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>200652</v>
+        <v>94682.67</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>200652</v>
+        <v>94682.67</v>
       </c>
       <c r="G70">
         <f>E70-D70</f>
@@ -3397,22 +3397,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-3014.3</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>-3014.3</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-3014.3</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <f>E71-D71</f>
@@ -3425,22 +3425,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>11770.79</v>
+        <v>171614.83</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>10960.79</v>
+        <v>101546.49</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>10960.79</v>
+        <v>101546.49</v>
       </c>
       <c r="G72">
         <f>E72-D72</f>
@@ -3453,22 +3453,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>57047.13</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>57047.13</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>57047.13</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="G73">
         <f>E73-D73</f>
@@ -3481,22 +3481,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>191189.79</v>
+        <v>32262.96</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>191189.79</v>
+        <v>32262.96</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>191189.79</v>
+        <v>32262.96</v>
       </c>
       <c r="G74">
         <f>E74-D74</f>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -3537,22 +3537,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>95012</v>
+        <v>71517.67</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>95236</v>
+        <v>71517.67</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>95236</v>
+        <v>71517.67</v>
       </c>
       <c r="G76">
         <f>E76-D76</f>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>55131.12</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>55131.12</v>
+        <v>0</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>55131.12</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <f>E77-D77</f>
@@ -3593,22 +3593,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>52266.74</v>
+        <v>50576</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>52266.74</v>
+        <v>35026</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>52266.74</v>
+        <v>35026</v>
       </c>
       <c r="G78">
         <f>E78-D78</f>
@@ -3621,22 +3621,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>105825</v>
+        <v>164884.39</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>105825</v>
+        <v>164884.39</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>105825</v>
+        <v>164884.39</v>
       </c>
       <c r="G79">
         <f>E79-D79</f>
@@ -3649,22 +3649,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0</v>
+        <v>17885.74</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>0</v>
+        <v>17885.74</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>0</v>
+        <v>17885.74</v>
       </c>
       <c r="G80">
         <f>E80-D80</f>
@@ -3677,22 +3677,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>14928.6</v>
+        <v>82077</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>14928.6</v>
+        <v>82077</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>14928.6</v>
+        <v>82077</v>
       </c>
       <c r="G81">
         <f>E81-D81</f>
@@ -3705,22 +3705,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>33876.58</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>25168.58</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>25168.58</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="G82">
         <f>E82-D82</f>
@@ -3733,22 +3733,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>52764.9</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>0</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>0</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="G83">
         <f>E83-D83</f>
@@ -3761,22 +3761,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>57141.65</v>
+        <v>52266.74</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>57141.65</v>
+        <v>52266.74</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>57141.65</v>
+        <v>52266.74</v>
       </c>
       <c r="G84">
         <f>E84-D84</f>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>24920</v>
+        <v>14928.6</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>24920</v>
+        <v>14928.6</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>24920</v>
+        <v>14928.6</v>
       </c>
       <c r="G85">
         <f>E85-D85</f>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="G86">
         <f>E86-D86</f>
@@ -3845,22 +3845,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <f>E87-D87</f>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>153340.26</v>
+        <v>24920</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>154427.26</v>
+        <v>24920</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>154427.26</v>
+        <v>24920</v>
       </c>
       <c r="G88">
         <f>E88-D88</f>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>22734.8</v>
+        <v>28752</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>22734.8</v>
+        <v>19392</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>22734.8</v>
+        <v>19392</v>
       </c>
       <c r="G89">
         <f>E89-D89</f>
@@ -3929,22 +3929,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>25483</v>
+        <v>22734.8</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>25483</v>
+        <v>22734.8</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>25483</v>
+        <v>22734.8</v>
       </c>
       <c r="G90">
         <f>E90-D90</f>
@@ -3957,22 +3957,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>28752</v>
+        <v>47283</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>19392</v>
+        <v>41883</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>19392</v>
+        <v>41883</v>
       </c>
       <c r="G91">
         <f>E91-D91</f>
@@ -3985,13 +3985,13 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -4013,22 +4013,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>0</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <f>E93-D93</f>
@@ -4041,22 +4041,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>58399.56</v>
+        <v>43000</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>58399.56</v>
+        <v>43000</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>58399.56</v>
+        <v>43000</v>
       </c>
       <c r="G94">
         <f>E94-D94</f>
@@ -4069,22 +4069,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>43000</v>
+        <v>95012</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>43000</v>
+        <v>95236</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>43000</v>
+        <v>95236</v>
       </c>
       <c r="G95">
         <f>E95-D95</f>
@@ -4097,22 +4097,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>68499.13</v>
+        <v>105825</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>68499.13</v>
+        <v>105825</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>68499.13</v>
+        <v>105825</v>
       </c>
       <c r="G96">
         <f>E96-D96</f>
@@ -4125,22 +4125,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>52764.9</v>
+        <v>25483</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>25483</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>25483</v>
       </c>
       <c r="G97">
         <f>E97-D97</f>
@@ -4153,22 +4153,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>125319.19</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>0</v>
+        <v>125319.19</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>0</v>
+        <v>125319.19</v>
       </c>
       <c r="G98">
         <f>E98-D98</f>
@@ -4181,22 +4181,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>9548.6</v>
+        <v>-3014.3</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>9548.6</v>
+        <v>-3014.3</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>9548.6</v>
+        <v>-3014.3</v>
       </c>
       <c r="G99">
         <f>E99-D99</f>
@@ -4209,22 +4209,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>47283</v>
+        <v>58399.56</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>41883</v>
+        <v>58399.56</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>41883</v>
+        <v>58399.56</v>
       </c>
       <c r="G100">
         <f>E100-D100</f>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>125319.19</v>
+        <v>55131.12</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>125319.19</v>
+        <v>55131.12</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>125319.19</v>
+        <v>55131.12</v>
       </c>
       <c r="G101">
         <f>E101-D101</f>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>71517.67</v>
+        <v>33876.58</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>71517.67</v>
+        <v>25168.58</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>71517.67</v>
+        <v>25168.58</v>
       </c>
       <c r="G102">
         <f>E102-D102</f>
@@ -4293,22 +4293,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>0</v>
+        <v>9548.6</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>0</v>
+        <v>9548.6</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>0</v>
+        <v>9548.6</v>
       </c>
       <c r="G103">
         <f>E103-D103</f>
@@ -4321,22 +4321,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>39343</v>
+        <v>0</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>39343</v>
+        <v>0</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>39343</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <f>E104-D104</f>
@@ -4349,22 +4349,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>84182.67</v>
+        <v>68499.13</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>94682.67</v>
+        <v>68499.13</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>94682.67</v>
+        <v>68499.13</v>
       </c>
       <c r="G105">
         <f>E105-D105</f>
@@ -4377,22 +4377,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>13862.58</v>
+        <v>200652</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>13862.58</v>
+        <v>200652</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>13862.58</v>
+        <v>200652</v>
       </c>
       <c r="G106">
         <f>E106-D106</f>
@@ -4405,22 +4405,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>0</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>0</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <f>E107-D107</f>
@@ -4433,13 +4433,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -4461,22 +4461,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>53915.6</v>
+        <v>57141.65</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>202245.6</v>
+        <v>57141.65</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>202245.6</v>
+        <v>57141.65</v>
       </c>
       <c r="G109">
         <f>E109-D109</f>
@@ -4489,22 +4489,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>6225</v>
+        <v>57047.13</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>6225</v>
+        <v>57047.13</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>6225</v>
+        <v>57047.13</v>
       </c>
       <c r="G110">
         <f>E110-D110</f>
@@ -4517,22 +4517,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D111" s="2" t="n">
-        <v>8261</v>
+        <v>11770.79</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>17570</v>
+        <v>10960.79</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>17570</v>
+        <v>10960.79</v>
       </c>
       <c r="G111">
         <f>E111-D111</f>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>164884.39</v>
+        <v>153340.26</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>164884.39</v>
+        <v>154427.26</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>164884.39</v>
+        <v>154427.26</v>
       </c>
       <c r="G112">
         <f>E112-D112</f>
@@ -4573,22 +4573,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>152579.98</v>
+        <v>191189.79</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>263064.98</v>
+        <v>191189.79</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>263064.98</v>
+        <v>191189.79</v>
       </c>
       <c r="G113">
         <f>E113-D113</f>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>91201.06</v>
+        <v>10088.01</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>116256.07</v>
+        <v>21036.5</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>116256.07</v>
+        <v>21036.5</v>
       </c>
       <c r="G114">
         <f>E114-D114</f>
@@ -4632,19 +4632,19 @@
         <v>208</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <f>E115-D115</f>
@@ -4660,19 +4660,19 @@
         <v>210</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>50576</v>
+        <v>0</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>35026</v>
+        <v>0</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>35026</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <f>E116-D116</f>
@@ -4688,7 +4688,7 @@
         <v>212</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>213</v>
@@ -4716,19 +4716,19 @@
         <v>214</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>48671.7</v>
+        <v>0</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>48671.7</v>
+        <v>0</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>48671.7</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <f>E118-D118</f>
@@ -4741,22 +4741,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>238153.84</v>
+        <v>0</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>238153.84</v>
+        <v>0</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>238153.84</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <f>E119-D119</f>
@@ -4769,22 +4769,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <f>E120-D120</f>
@@ -4797,22 +4797,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>28147.36</v>
+        <v>0</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <f>E121-D121</f>
@@ -4825,22 +4825,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>15065</v>
+        <v>971</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>15065</v>
+        <v>971</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>15065</v>
+        <v>971</v>
       </c>
       <c r="G122">
         <f>E122-D122</f>
@@ -4853,22 +4853,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>19109</v>
+        <v>4592</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>19109</v>
+        <v>4592</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>19109</v>
+        <v>4592</v>
       </c>
       <c r="G123">
         <f>E123-D123</f>
@@ -4881,13 +4881,13 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -4909,22 +4909,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G125">
         <f>E125-D125</f>
@@ -4940,19 +4940,19 @@
         <v>224</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>27381.49</v>
+        <v>0</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>27381.49</v>
+        <v>0</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>27381.49</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <f>E126-D126</f>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>0</v>
+        <v>25186</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>0</v>
+        <v>25186</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>0</v>
+        <v>25186</v>
       </c>
       <c r="G127">
         <f>E127-D127</f>
@@ -4993,22 +4993,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>82077</v>
+        <v>0</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>82077</v>
+        <v>0</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>82077</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <f>E128-D128</f>
@@ -5021,22 +5021,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>252632.43</v>
+        <v>46973</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>252632.43</v>
+        <v>46973</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>252632.43</v>
+        <v>46973</v>
       </c>
       <c r="G129">
         <f>E129-D129</f>
@@ -5049,22 +5049,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>32262.96</v>
+        <v>0</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>32262.96</v>
+        <v>0</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>32262.96</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <f>E130-D130</f>
@@ -5077,22 +5077,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>171614.83</v>
+        <v>0</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>101546.49</v>
+        <v>0</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>101546.49</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <f>E131-D131</f>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>0</v>
@@ -5133,22 +5133,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>17885.74</v>
+        <v>120280.55</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>17885.74</v>
+        <v>120280.55</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>17885.74</v>
+        <v>120280.55</v>
       </c>
       <c r="G133">
         <f>E133-D133</f>
@@ -5161,22 +5161,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <f>E134-D134</f>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>175685.18</v>
+        <v>29118</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>171785.18</v>
+        <v>19568</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>171785.18</v>
+        <v>19568</v>
       </c>
       <c r="G135">
         <f>E135-D135</f>
@@ -5217,22 +5217,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>166664.47</v>
+        <v>5885</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>166664.47</v>
+        <v>16223</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>166664.47</v>
+        <v>16223</v>
       </c>
       <c r="G136">
         <f>E136-D136</f>
@@ -5245,22 +5245,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>26410.15</v>
+        <v>17045</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>26410.15</v>
+        <v>17045</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>26410.15</v>
+        <v>17045</v>
       </c>
       <c r="G137">
         <f>E137-D137</f>
@@ -5273,22 +5273,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>36218.73</v>
+        <v>75623.14</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>36218.73</v>
+        <v>75623.14</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>36218.73</v>
+        <v>75623.14</v>
       </c>
       <c r="G138">
         <f>E138-D138</f>
@@ -5301,22 +5301,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="G139">
         <f>E139-D139</f>
@@ -5329,22 +5329,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>2563.15</v>
+        <v>22344</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>6364.15</v>
+        <v>22344</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>6364.15</v>
+        <v>22344</v>
       </c>
       <c r="G140">
         <f>E140-D140</f>
@@ -5357,22 +5357,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>34544.2</v>
+        <v>1750</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>26700.2</v>
+        <v>1750</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>26700.2</v>
+        <v>1750</v>
       </c>
       <c r="G141">
         <f>E141-D141</f>
@@ -5385,22 +5385,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="G142">
         <f>E142-D142</f>
@@ -5413,22 +5413,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>37094.65</v>
+        <v>316892.58</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>41144.65</v>
+        <v>134325.58</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>41144.65</v>
+        <v>134325.58</v>
       </c>
       <c r="G143">
         <f>E143-D143</f>
@@ -5441,22 +5441,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>23645</v>
+        <v>0</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <f>E144-D144</f>
@@ -5469,22 +5469,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>0</v>
+        <v>5219.5</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>0</v>
+        <v>5219.5</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>0</v>
+        <v>5219.5</v>
       </c>
       <c r="G145">
         <f>E145-D145</f>
@@ -5497,22 +5497,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="G146">
         <f>E146-D146</f>
@@ -5525,13 +5525,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>0</v>
@@ -5553,22 +5553,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>137576.15</v>
+        <v>174571.99</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>173686.15</v>
+        <v>174571.99</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>173686.15</v>
+        <v>174571.99</v>
       </c>
       <c r="G148">
         <f>E148-D148</f>
@@ -5581,22 +5581,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>18839</v>
+        <v>69742.41</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>34089</v>
+        <v>69742.41</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>34089</v>
+        <v>69742.41</v>
       </c>
       <c r="G149">
         <f>E149-D149</f>
@@ -5609,22 +5609,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>257158.97</v>
+        <v>27941</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>257158.97</v>
+        <v>27941</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>257158.97</v>
+        <v>27941</v>
       </c>
       <c r="G150">
         <f>E150-D150</f>
@@ -5637,22 +5637,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>178133.19</v>
+        <v>27586</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>178133.19</v>
+        <v>27586</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>178133.19</v>
+        <v>27586</v>
       </c>
       <c r="G151">
         <f>E151-D151</f>
@@ -5665,22 +5665,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>16286</v>
+        <v>5798</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>22436</v>
+        <v>5798</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>22436</v>
+        <v>5798</v>
       </c>
       <c r="G152">
         <f>E152-D152</f>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="G153">
         <f>E153-D153</f>
@@ -5721,13 +5721,13 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>0</v>
@@ -5749,22 +5749,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>0</v>
+        <v>128456.69</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>0</v>
+        <v>128456.69</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>0</v>
+        <v>128456.69</v>
       </c>
       <c r="G155">
         <f>E155-D155</f>
@@ -5777,22 +5777,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>0</v>
+        <v>49348</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>0</v>
+        <v>45848</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>0</v>
+        <v>45848</v>
       </c>
       <c r="G156">
         <f>E156-D156</f>
@@ -5808,19 +5808,19 @@
         <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>8965</v>
+        <v>21685.48</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>13215</v>
+        <v>21685.48</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>13215</v>
+        <v>21685.48</v>
       </c>
       <c r="G157">
         <f>E157-D157</f>
@@ -5836,19 +5836,19 @@
         <v>281</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>52204</v>
+        <v>10634</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>83679</v>
+        <v>10634</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>83679</v>
+        <v>10634</v>
       </c>
       <c r="G158">
         <f>E158-D158</f>
@@ -5861,22 +5861,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>49384</v>
+        <v>67909</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>69234</v>
+        <v>67909</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>69234</v>
+        <v>67909</v>
       </c>
       <c r="G159">
         <f>E159-D159</f>
@@ -5889,22 +5889,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>424114.99</v>
+        <v>42542</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>42542</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>42542</v>
       </c>
       <c r="G160">
         <f>E160-D160</f>
@@ -5917,22 +5917,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>0</v>
+        <v>8546</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>0</v>
+        <v>8546</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>0</v>
+        <v>8546</v>
       </c>
       <c r="G161">
         <f>E161-D161</f>
@@ -5945,22 +5945,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>2594.65</v>
+        <v>396</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>2294.65</v>
+        <v>396</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>2294.65</v>
+        <v>396</v>
       </c>
       <c r="G162">
         <f>E162-D162</f>
@@ -5973,22 +5973,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>10346</v>
+        <v>114510.66</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>10346</v>
+        <v>114510.66</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>10346</v>
+        <v>114510.66</v>
       </c>
       <c r="G163">
         <f>E163-D163</f>
@@ -6001,22 +6001,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>292</v>
+        <v>165</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="G164">
         <f>E164-D164</f>
@@ -6029,13 +6029,13 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="D165" s="2" t="n">
         <v>0</v>
@@ -6057,22 +6057,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>59938.36</v>
+        <v>2594.65</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>59938.36</v>
+        <v>2294.65</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>59938.36</v>
+        <v>2294.65</v>
       </c>
       <c r="G166">
         <f>E166-D166</f>
@@ -6085,22 +6085,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>28103</v>
+        <v>0</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>58618</v>
+        <v>0</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>58618</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <f>E167-D167</f>
@@ -6113,22 +6113,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>175063</v>
+        <v>28103</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>175063</v>
+        <v>58618</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>175063</v>
+        <v>58618</v>
       </c>
       <c r="G168">
         <f>E168-D168</f>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>5131</v>
@@ -6169,22 +6169,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>34858</v>
+        <v>0</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>38208</v>
+        <v>0</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>38208</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <f>E170-D170</f>
@@ -6197,22 +6197,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="G171">
         <f>E171-D171</f>
@@ -6225,13 +6225,13 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>0</v>
@@ -6253,22 +6253,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>59938.36</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>59938.36</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>59938.36</v>
       </c>
       <c r="G173">
         <f>E173-D173</f>
@@ -6281,22 +6281,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>574120.47</v>
+        <v>0</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <f>E174-D174</f>
@@ -6309,22 +6309,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="D175" s="2" t="n">
-        <v>0</v>
+        <v>52204</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>0</v>
+        <v>83679</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>0</v>
+        <v>83679</v>
       </c>
       <c r="G175">
         <f>E175-D175</f>
@@ -6337,22 +6337,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="D176" s="2" t="n">
-        <v>125340.12</v>
+        <v>424114.99</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>227843.71</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>227843.71</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="G176">
         <f>E176-D176</f>
@@ -6365,22 +6365,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="D177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="G177">
         <f>E177-D177</f>
@@ -6393,22 +6393,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="D178" s="2" t="n">
-        <v>17092.21</v>
+        <v>0</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="G178">
         <f>E178-D178</f>
@@ -6421,22 +6421,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="D179" s="2" t="n">
-        <v>13256.09</v>
+        <v>0</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>13256.09</v>
+        <v>0</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>13256.09</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <f>E179-D179</f>
@@ -6449,22 +6449,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="D180" s="2" t="n">
-        <v>29118</v>
+        <v>8965</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>19568</v>
+        <v>13215</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>19568</v>
+        <v>13215</v>
       </c>
       <c r="G180">
         <f>E180-D180</f>
@@ -6477,22 +6477,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>0</v>
+        <v>175063</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>0</v>
+        <v>175063</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>0</v>
+        <v>175063</v>
       </c>
       <c r="G181">
         <f>E181-D181</f>
@@ -6505,22 +6505,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>5885</v>
+        <v>13256.09</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>16223</v>
+        <v>13256.09</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>16223</v>
+        <v>13256.09</v>
       </c>
       <c r="G182">
         <f>E182-D182</f>
@@ -6533,22 +6533,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>17045</v>
+        <v>0</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>17045</v>
+        <v>0</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>17045</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <f>E183-D183</f>
@@ -6561,22 +6561,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>0</v>
+        <v>574120.47</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="G184">
         <f>E184-D184</f>
@@ -6589,22 +6589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>1200</v>
+        <v>34858</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>1200</v>
+        <v>38208</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>1200</v>
+        <v>38208</v>
       </c>
       <c r="G185">
         <f>E185-D185</f>
@@ -6617,22 +6617,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D186" s="2" t="n">
-        <v>0</v>
+        <v>178133.19</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>0</v>
+        <v>178133.19</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>0</v>
+        <v>178133.19</v>
       </c>
       <c r="G186">
         <f>E186-D186</f>
@@ -6645,22 +6645,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>0</v>
+        <v>17092.21</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="G187">
         <f>E187-D187</f>
@@ -6673,13 +6673,13 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0</v>
@@ -6701,22 +6701,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>0</v>
+        <v>23645</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="G189">
         <f>E189-D189</f>
@@ -6729,22 +6729,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>0</v>
+        <v>16286</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>0</v>
+        <v>22436</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>0</v>
+        <v>22436</v>
       </c>
       <c r="G190">
         <f>E190-D190</f>
@@ -6757,22 +6757,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>56</v>
+        <v>333</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>971</v>
+        <v>37094.65</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>971</v>
+        <v>41144.65</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>971</v>
+        <v>41144.65</v>
       </c>
       <c r="G191">
         <f>E191-D191</f>
@@ -6785,22 +6785,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>332</v>
+        <v>146</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>0</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>0</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>0</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="G192">
         <f>E192-D192</f>
@@ -6816,19 +6816,19 @@
         <v>334</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>25186</v>
+        <v>125340.12</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>25186</v>
+        <v>227843.71</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>25186</v>
+        <v>227843.71</v>
       </c>
       <c r="G193">
         <f>E193-D193</f>
@@ -6844,19 +6844,19 @@
         <v>336</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>4592</v>
+        <v>137576.15</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>4592</v>
+        <v>173686.15</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>4592</v>
+        <v>173686.15</v>
       </c>
       <c r="G194">
         <f>E194-D194</f>
@@ -6872,19 +6872,19 @@
         <v>338</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>0</v>
+        <v>49384</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="G195">
         <f>E195-D195</f>
@@ -6900,7 +6900,7 @@
         <v>340</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>341</v>
@@ -6928,19 +6928,19 @@
         <v>342</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>0</v>
+        <v>34544.2</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="G197">
         <f>E197-D197</f>
@@ -6956,7 +6956,7 @@
         <v>344</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>345</v>
@@ -6981,22 +6981,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>238</v>
+        <v>346</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>239</v>
+        <v>347</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>10088.01</v>
+        <v>18839</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>21036.5</v>
+        <v>34089</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>21036.5</v>
+        <v>34089</v>
       </c>
       <c r="G199">
         <f>E199-D199</f>
@@ -7009,13 +7009,13 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>346</v>
+        <v>71</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>348</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>349</v>
@@ -7068,19 +7068,19 @@
         <v>350</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>46973</v>
+        <v>0</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>46973</v>
+        <v>0</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>46973</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <f>E202-D202</f>
@@ -7096,19 +7096,19 @@
         <v>352</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>120280.55</v>
+        <v>0</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>120280.55</v>
+        <v>0</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>120280.55</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <f>E203-D203</f>

--- a/build/candidates.xlsx
+++ b/build/candidates.xlsx
@@ -40,31 +40,223 @@
     <t>diff by source</t>
   </si>
   <si>
+    <t>saleem-shakir-gilmore.json</t>
+  </si>
+  <si>
+    <t>oakland-2014-11-04</t>
+  </si>
+  <si>
+    <t>Saleem Shakir-Gilmore</t>
+  </si>
+  <si>
+    <t>nicolas-heidorn.json</t>
+  </si>
+  <si>
+    <t>Nicolas Heidorn</t>
+  </si>
+  <si>
+    <t>renato-almanzor.json</t>
+  </si>
+  <si>
+    <t>Renato Almanzor</t>
+  </si>
+  <si>
+    <t>courtney-ruby.json</t>
+  </si>
+  <si>
+    <t>Courtney Ruby</t>
+  </si>
+  <si>
+    <t>jean-quan.json</t>
+  </si>
+  <si>
+    <t>Jean Quan</t>
+  </si>
+  <si>
+    <t>william-bo-ghirardelli.json</t>
+  </si>
+  <si>
+    <t>William "Bo" Ghirardelli</t>
+  </si>
+  <si>
+    <t>joe-tuman.json</t>
+  </si>
+  <si>
+    <t>Joe Tuman</t>
+  </si>
+  <si>
+    <t>annie-campbell-washington.json</t>
+  </si>
+  <si>
+    <t>Annie Campbell Washington</t>
+  </si>
+  <si>
+    <t>libby-schaaf.json</t>
+  </si>
+  <si>
+    <t>Libby Schaaf</t>
+  </si>
+  <si>
+    <t>cheri-spigner.json</t>
+  </si>
+  <si>
+    <t>Cheri Spigner</t>
+  </si>
+  <si>
+    <t>ken-houston.json</t>
+  </si>
+  <si>
+    <t>Ken Houston</t>
+  </si>
+  <si>
+    <t>bryan-parker.json</t>
+  </si>
+  <si>
+    <t>Bryan Parker</t>
+  </si>
+  <si>
+    <t>len-raphael.json</t>
+  </si>
+  <si>
+    <t>Len Raphael</t>
+  </si>
+  <si>
+    <t>jason-anderson.json</t>
+  </si>
+  <si>
+    <t>Jason Anderson</t>
+  </si>
+  <si>
+    <t>andrew-park.json</t>
+  </si>
+  <si>
+    <t>Andrew Park</t>
+  </si>
+  <si>
+    <t>rebecca-kaplan.json</t>
+  </si>
+  <si>
+    <t>Rebecca Kaplan</t>
+  </si>
+  <si>
+    <t>paul-lim.json</t>
+  </si>
+  <si>
+    <t>Paul Lim</t>
+  </si>
+  <si>
+    <t>shanthi-gonzales.json</t>
+  </si>
+  <si>
+    <t>Shanthi Gonzales</t>
+  </si>
+  <si>
+    <t>peter-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Liu</t>
+  </si>
+  <si>
+    <t>pat-mccullough.json</t>
+  </si>
+  <si>
+    <t>Pat Mccullough</t>
+  </si>
+  <si>
+    <t>desley-brooks.json</t>
+  </si>
+  <si>
+    <t>Desley Brooks</t>
+  </si>
+  <si>
+    <t>vicente-cruz.json</t>
+  </si>
+  <si>
+    <t>Vicente Cruz</t>
+  </si>
+  <si>
+    <t>aimee-eng.json</t>
+  </si>
+  <si>
+    <t>Aimee Eng</t>
+  </si>
+  <si>
+    <t>james-moore.json</t>
+  </si>
+  <si>
+    <t>James Moore</t>
+  </si>
+  <si>
+    <t>michael-johnson.json</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>christopher-dobbins.json</t>
+  </si>
+  <si>
+    <t>Christopher Dobbins</t>
+  </si>
+  <si>
+    <t>eric-wilson.json</t>
+  </si>
+  <si>
+    <t>Eric Wilson</t>
+  </si>
+  <si>
+    <t>saied-karamooz.json</t>
+  </si>
+  <si>
+    <t>Saied Karamooz</t>
+  </si>
+  <si>
+    <t>shereda-nosakhare.json</t>
+  </si>
+  <si>
+    <t>Shereda Nosakhare</t>
+  </si>
+  <si>
+    <t>summuel-washington.json</t>
+  </si>
+  <si>
+    <t>Summuel Washington</t>
+  </si>
+  <si>
     <t>abel-guillen.json</t>
   </si>
   <si>
-    <t>oakland-2014-11-04</t>
-  </si>
-  <si>
     <t>Abel Guillén</t>
   </si>
   <si>
-    <t>aimee-eng.json</t>
-  </si>
-  <si>
-    <t>Aimee Eng</t>
-  </si>
-  <si>
-    <t>andrew-park.json</t>
-  </si>
-  <si>
-    <t>Andrew Park</t>
-  </si>
-  <si>
-    <t>annie-campbell-washington.json</t>
-  </si>
-  <si>
-    <t>Annie Campbell Washington</t>
+    <t>nancy-sidebotham.json</t>
+  </si>
+  <si>
+    <t>Nancy Sidebotham</t>
+  </si>
+  <si>
+    <t>kevin-blackburn.json</t>
+  </si>
+  <si>
+    <t>Kevin Blackburn</t>
+  </si>
+  <si>
+    <t>nina-senn.json</t>
+  </si>
+  <si>
+    <t>Nina Senn</t>
+  </si>
+  <si>
+    <t>jill-broadhurst.json</t>
+  </si>
+  <si>
+    <t>Jill Broadhurst</t>
+  </si>
+  <si>
+    <t>dana-king.json</t>
+  </si>
+  <si>
+    <t>Dana King</t>
   </si>
   <si>
     <t>brenda-roberts.json</t>
@@ -73,10 +265,16 @@
     <t>Brenda Roberts</t>
   </si>
   <si>
-    <t>bryan-parker.json</t>
-  </si>
-  <si>
-    <t>Bryan Parker</t>
+    <t>karl-debro.json</t>
+  </si>
+  <si>
+    <t>Karl Debro</t>
+  </si>
+  <si>
+    <t>ken-maxey.json</t>
+  </si>
+  <si>
+    <t>Ken Maxey</t>
   </si>
   <si>
     <t>charles-williams.json</t>
@@ -85,217 +283,532 @@
     <t>Charles Williams</t>
   </si>
   <si>
-    <t>cheri-spigner.json</t>
-  </si>
-  <si>
-    <t>Cheri Spigner</t>
-  </si>
-  <si>
-    <t>christopher-dobbins.json</t>
-  </si>
-  <si>
-    <t>Christopher Dobbins</t>
-  </si>
-  <si>
-    <t>courtney-ruby.json</t>
-  </si>
-  <si>
-    <t>Courtney Ruby</t>
-  </si>
-  <si>
     <t>dan-siegel.json</t>
   </si>
   <si>
     <t>Dan Siegel</t>
   </si>
   <si>
-    <t>dana-king.json</t>
-  </si>
-  <si>
-    <t>Dana King</t>
-  </si>
-  <si>
-    <t>desley-brooks.json</t>
-  </si>
-  <si>
-    <t>Desley Brooks</t>
-  </si>
-  <si>
-    <t>eric-wilson.json</t>
-  </si>
-  <si>
-    <t>Eric Wilson</t>
-  </si>
-  <si>
-    <t>james-moore.json</t>
-  </si>
-  <si>
-    <t>James Moore</t>
-  </si>
-  <si>
-    <t>jason-anderson.json</t>
-  </si>
-  <si>
-    <t>Jason Anderson</t>
-  </si>
-  <si>
-    <t>jean-quan.json</t>
-  </si>
-  <si>
-    <t>Jean Quan</t>
-  </si>
-  <si>
-    <t>jill-broadhurst.json</t>
-  </si>
-  <si>
-    <t>Jill Broadhurst</t>
-  </si>
-  <si>
-    <t>joe-tuman.json</t>
-  </si>
-  <si>
-    <t>Joe Tuman</t>
-  </si>
-  <si>
-    <t>karl-debro.json</t>
-  </si>
-  <si>
-    <t>Karl Debro</t>
-  </si>
-  <si>
-    <t>ken-houston.json</t>
-  </si>
-  <si>
-    <t>Ken Houston</t>
-  </si>
-  <si>
-    <t>ken-maxey.json</t>
-  </si>
-  <si>
-    <t>Ken Maxey</t>
-  </si>
-  <si>
-    <t>kevin-blackburn.json</t>
-  </si>
-  <si>
-    <t>Kevin Blackburn</t>
-  </si>
-  <si>
-    <t>len-raphael.json</t>
-  </si>
-  <si>
-    <t>Len Raphael</t>
-  </si>
-  <si>
-    <t>libby-schaaf.json</t>
-  </si>
-  <si>
-    <t>Libby Schaaf</t>
-  </si>
-  <si>
-    <t>michael-johnson.json</t>
-  </si>
-  <si>
-    <t>Michael Johnson</t>
-  </si>
-  <si>
-    <t>nancy-sidebotham.json</t>
-  </si>
-  <si>
-    <t>Nancy Sidebotham</t>
-  </si>
-  <si>
-    <t>nicolas-heidorn.json</t>
-  </si>
-  <si>
-    <t>Nicolas Heidorn</t>
-  </si>
-  <si>
-    <t>nina-senn.json</t>
-  </si>
-  <si>
-    <t>Nina Senn</t>
-  </si>
-  <si>
-    <t>pat-mccullough.json</t>
-  </si>
-  <si>
-    <t>Pat Mccullough</t>
-  </si>
-  <si>
-    <t>paul-lim.json</t>
-  </si>
-  <si>
-    <t>Paul Lim</t>
-  </si>
-  <si>
-    <t>peter-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Liu</t>
-  </si>
-  <si>
-    <t>rebecca-kaplan.json</t>
-  </si>
-  <si>
-    <t>Rebecca Kaplan</t>
-  </si>
-  <si>
-    <t>renato-almanzor.json</t>
-  </si>
-  <si>
-    <t>Renato Almanzor</t>
-  </si>
-  <si>
-    <t>saied-karamooz.json</t>
-  </si>
-  <si>
-    <t>Saied Karamooz</t>
-  </si>
-  <si>
-    <t>saleem-shakir-gilmore.json</t>
-  </si>
-  <si>
-    <t>Saleem Shakir-Gilmore</t>
-  </si>
-  <si>
-    <t>shanthi-gonzales.json</t>
-  </si>
-  <si>
-    <t>Shanthi Gonzales</t>
-  </si>
-  <si>
-    <t>shereda-nosakhare.json</t>
-  </si>
-  <si>
-    <t>Shereda Nosakhare</t>
-  </si>
-  <si>
-    <t>summuel-washington.json</t>
-  </si>
-  <si>
-    <t>Summuel Washington</t>
-  </si>
-  <si>
-    <t>vicente-cruz.json</t>
-  </si>
-  <si>
-    <t>Vicente Cruz</t>
-  </si>
-  <si>
-    <t>william-bo-ghirardelli.json</t>
-  </si>
-  <si>
-    <t>William "Bo" Ghirardelli</t>
+    <t>vancedric-williams.json</t>
+  </si>
+  <si>
+    <t>oakland-2020-11-03</t>
+  </si>
+  <si>
+    <t>VanCedric Williams</t>
+  </si>
+  <si>
+    <t>cherisse-gash.json</t>
+  </si>
+  <si>
+    <t>Cherisse Gash</t>
+  </si>
+  <si>
+    <t>eli-ferran.json</t>
+  </si>
+  <si>
+    <t>Eli Ferran</t>
+  </si>
+  <si>
+    <t>clifford-thompson.json</t>
+  </si>
+  <si>
+    <t>Clifford Thompson</t>
+  </si>
+  <si>
+    <t>treva-reid.json</t>
+  </si>
+  <si>
+    <t>Treva Reid</t>
+  </si>
+  <si>
+    <t>steph-dominguez-walton.json</t>
+  </si>
+  <si>
+    <t>Steph Dominguez Walton</t>
+  </si>
+  <si>
+    <t>alexus-taylor.json</t>
+  </si>
+  <si>
+    <t>Alexus Taylor</t>
+  </si>
+  <si>
+    <t>mike-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Mike Hutchinson</t>
+  </si>
+  <si>
+    <t>derreck-b-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck B. Johnson</t>
+  </si>
+  <si>
+    <t>austin-dannhaus.json</t>
+  </si>
+  <si>
+    <t>Austin Dannhaus</t>
+  </si>
+  <si>
+    <t>tri-ngo.json</t>
+  </si>
+  <si>
+    <t>Tri Ngo</t>
+  </si>
+  <si>
+    <t>mark-hurty.json</t>
+  </si>
+  <si>
+    <t>Mark Hurty</t>
+  </si>
+  <si>
+    <t>faye-taylor.json</t>
+  </si>
+  <si>
+    <t>Faye Taylor</t>
+  </si>
+  <si>
+    <t>kristina-molina.json</t>
+  </si>
+  <si>
+    <t>Kristina Molina</t>
+  </si>
+  <si>
+    <t>marchon-tatmon.json</t>
+  </si>
+  <si>
+    <t>Marchon Tatmon</t>
+  </si>
+  <si>
+    <t>zoe-lopez-meraz.json</t>
+  </si>
+  <si>
+    <t>Zoe Lopez-Meraz</t>
+  </si>
+  <si>
+    <t>carroll-fife.json</t>
+  </si>
+  <si>
+    <t>Carroll Fife</t>
+  </si>
+  <si>
+    <t>maiya-edgerly.json</t>
+  </si>
+  <si>
+    <t>Maiya Edgerly</t>
+  </si>
+  <si>
+    <t>stacy-thomas.json</t>
+  </si>
+  <si>
+    <t>Stacy Thomas</t>
+  </si>
+  <si>
+    <t>leroy-gaines.json</t>
+  </si>
+  <si>
+    <t>Leroy Gaines</t>
+  </si>
+  <si>
+    <t>ben-coach-tapscott.json</t>
+  </si>
+  <si>
+    <t>Ben "Coach" Tapscott</t>
+  </si>
+  <si>
+    <t>bronche-taylor.json</t>
+  </si>
+  <si>
+    <t>Bronché Taylor</t>
+  </si>
+  <si>
+    <t>lynette-gibson-mcelhaney.json</t>
+  </si>
+  <si>
+    <t>Lynette Gibson McElhaney</t>
+  </si>
+  <si>
+    <t>marcie-hodge.json</t>
+  </si>
+  <si>
+    <t>Marcie Hodge</t>
+  </si>
+  <si>
+    <t>maximo-santana.json</t>
+  </si>
+  <si>
+    <t>Maximo Santana</t>
+  </si>
+  <si>
+    <t>meron-semedar.json</t>
+  </si>
+  <si>
+    <t>Meron Semedar</t>
   </si>
   <si>
     <t>barbara-parker.json</t>
   </si>
   <si>
+    <t>Barbara Parker</t>
+  </si>
+  <si>
+    <t>seneca-scott.json</t>
+  </si>
+  <si>
+    <t>Seneca Scott</t>
+  </si>
+  <si>
+    <t>robert-bob-jackson.json</t>
+  </si>
+  <si>
+    <t>Robert "Bob" Jackson</t>
+  </si>
+  <si>
+    <t>benjamin-sam-davis.json</t>
+  </si>
+  <si>
+    <t>Benjamin "Sam" Davis</t>
+  </si>
+  <si>
+    <t>richard-santos-raya.json</t>
+  </si>
+  <si>
+    <t>Richard Santos Raya</t>
+  </si>
+  <si>
+    <t>victor-javier-valerio.json</t>
+  </si>
+  <si>
+    <t>Victor Javier Valerio</t>
+  </si>
+  <si>
+    <t>aaron-clay.json</t>
+  </si>
+  <si>
+    <t>Aaron Clay</t>
+  </si>
+  <si>
+    <t>jorge-c-lerma.json</t>
+  </si>
+  <si>
+    <t>Jorge C. Lerma</t>
+  </si>
+  <si>
+    <t>dan-kalb.json</t>
+  </si>
+  <si>
+    <t>Dan Kalb</t>
+  </si>
+  <si>
+    <t>sheila-pope-lawrence.json</t>
+  </si>
+  <si>
+    <t>Sheila Pope Lawrence</t>
+  </si>
+  <si>
+    <t>noel-gallo.json</t>
+  </si>
+  <si>
+    <t>Noel Gallo</t>
+  </si>
+  <si>
+    <t>natasha-middleton.json</t>
+  </si>
+  <si>
+    <t>oakland-2018-11-06</t>
+  </si>
+  <si>
+    <t>Natasha Middleton</t>
+  </si>
+  <si>
+    <t>pamela-price.json</t>
+  </si>
+  <si>
+    <t>Pamela Price</t>
+  </si>
+  <si>
+    <t>francis-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Hummel</t>
+  </si>
+  <si>
+    <t>joseph-tanios.json</t>
+  </si>
+  <si>
+    <t>Joseph Tanios</t>
+  </si>
+  <si>
+    <t>mya-whitaker.json</t>
+  </si>
+  <si>
+    <t>Mya Whitaker</t>
+  </si>
+  <si>
+    <t>cedric-anthony-troupe.json</t>
+  </si>
+  <si>
+    <t>Cedric Anthony Troupe</t>
+  </si>
+  <si>
+    <t>nikki-fortunato-bas.json</t>
+  </si>
+  <si>
+    <t>Nikki Fortunato Bas</t>
+  </si>
+  <si>
+    <t>charlie-michelson.json</t>
+  </si>
+  <si>
+    <t>Charlie Michelson</t>
+  </si>
+  <si>
+    <t>maria-marlo-rodriguez.json</t>
+  </si>
+  <si>
+    <t>Maria "Marlo" Rodriguez</t>
+  </si>
+  <si>
+    <t>sheng-thao.json</t>
+  </si>
+  <si>
+    <t>Sheng Thao</t>
+  </si>
+  <si>
+    <t>nayeli-maxson.json</t>
+  </si>
+  <si>
+    <t>Nayeli Maxson</t>
+  </si>
+  <si>
+    <t>clarissa-doutherd.json</t>
+  </si>
+  <si>
+    <t>Clarissa Doutherd</t>
+  </si>
+  <si>
+    <t>gary-yee.json</t>
+  </si>
+  <si>
+    <t>Gary Yee</t>
+  </si>
+  <si>
+    <t>jesse-a-j-smith.json</t>
+  </si>
+  <si>
+    <t>Jesse A.J. Smith</t>
+  </si>
+  <si>
+    <t>pamela-harris.json</t>
+  </si>
+  <si>
+    <t>Pamela Harris</t>
+  </si>
+  <si>
+    <t>donte-kenzie-smith.json</t>
+  </si>
+  <si>
+    <t>Donte Kenzie Smith</t>
+  </si>
+  <si>
+    <t>joseph-simmons.json</t>
+  </si>
+  <si>
+    <t>Joseph Simmons</t>
+  </si>
+  <si>
+    <t>anthony-wilson.json</t>
+  </si>
+  <si>
+    <t>Anthony Wilson</t>
+  </si>
+  <si>
+    <t>loren-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Taylor</t>
+  </si>
+  <si>
+    <t>cat-brooks.json</t>
+  </si>
+  <si>
+    <t>Cat Brooks</t>
+  </si>
+  <si>
+    <t>oakland-2024-11-05</t>
+  </si>
+  <si>
+    <t>donnel-c-dunbar.json</t>
+  </si>
+  <si>
+    <t>Donnel C. Dunbar</t>
+  </si>
+  <si>
+    <t>shantell-herndon.json</t>
+  </si>
+  <si>
+    <t>Shantell Herndon</t>
+  </si>
+  <si>
+    <t>van-cedric-williams.json</t>
+  </si>
+  <si>
+    <t>Van Cedric Williams</t>
+  </si>
+  <si>
+    <t>shan-m-hirsch.json</t>
+  </si>
+  <si>
+    <t>Shan M. Hirsch</t>
+  </si>
+  <si>
+    <t>edward-c-frank.json</t>
+  </si>
+  <si>
+    <t>Edward C. Frank</t>
+  </si>
+  <si>
+    <t>tonya-love.json</t>
+  </si>
+  <si>
+    <t>Tonya Love</t>
+  </si>
+  <si>
+    <t>sam-davis.json</t>
+  </si>
+  <si>
+    <t>Sam Davis</t>
+  </si>
+  <si>
+    <t>debra-sherman.json</t>
+  </si>
+  <si>
+    <t>Debra Sherman</t>
+  </si>
+  <si>
+    <t>selika-thomas.json</t>
+  </si>
+  <si>
+    <t>Selika Thomas</t>
+  </si>
+  <si>
+    <t>ryan-richardson.json</t>
+  </si>
+  <si>
+    <t>Ryan Richardson</t>
+  </si>
+  <si>
+    <t>alexandra-ritzie-hernandez.json</t>
+  </si>
+  <si>
+    <t>Alexandra Ritzie-Hernandez</t>
+  </si>
+  <si>
+    <t>warren-logan.json</t>
+  </si>
+  <si>
+    <t>Warren Logan</t>
+  </si>
+  <si>
+    <t>fabian-robinson.json</t>
+  </si>
+  <si>
+    <t>Fabian Robinson</t>
+  </si>
+  <si>
+    <t>tyron-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron Jordan</t>
+  </si>
+  <si>
+    <t>merika-goolsby.json</t>
+  </si>
+  <si>
+    <t>Merika Goolsby</t>
+  </si>
+  <si>
+    <t>zac-unger.json</t>
+  </si>
+  <si>
+    <t>Zac Unger</t>
+  </si>
+  <si>
+    <t>christian-miguel-martinez.json</t>
+  </si>
+  <si>
+    <t>oakland-2023-11-07</t>
+  </si>
+  <si>
+    <t>Christian Miguel Martinez</t>
+  </si>
+  <si>
+    <t>michael-houston.json</t>
+  </si>
+  <si>
+    <t>oakland-2024-03-05</t>
+  </si>
+  <si>
+    <t>Michael Houston</t>
+  </si>
+  <si>
+    <t>bruce-quan.json</t>
+  </si>
+  <si>
     <t>oakland-2016-11-08</t>
   </si>
   <si>
-    <t>Barbara Parker</t>
+    <t>Bruce Quan</t>
+  </si>
+  <si>
+    <t>roseann-torres.json</t>
+  </si>
+  <si>
+    <t>Roseann Torres</t>
+  </si>
+  <si>
+    <t>jody-london.json</t>
+  </si>
+  <si>
+    <t>Jody London</t>
+  </si>
+  <si>
+    <t>francis-matt-hummel.json</t>
+  </si>
+  <si>
+    <t>Francis Matt Hummel</t>
+  </si>
+  <si>
+    <t>larry-reid.json</t>
+  </si>
+  <si>
+    <t>Larry Reid</t>
+  </si>
+  <si>
+    <t>peggy-moore.json</t>
+  </si>
+  <si>
+    <t>Peggy Moore</t>
+  </si>
+  <si>
+    <t>lucky-narain.json</t>
+  </si>
+  <si>
+    <t>Lucky Narain</t>
+  </si>
+  <si>
+    <t>donald-macleay.json</t>
+  </si>
+  <si>
+    <t>Donald Macleay</t>
+  </si>
+  <si>
+    <t>jumoke-hinton-hodge.json</t>
+  </si>
+  <si>
+    <t>Jumoke Hinton Hodge</t>
   </si>
   <si>
     <t>benjamin-lang.json</t>
@@ -304,10 +817,28 @@
     <t>Benjamin Lang</t>
   </si>
   <si>
-    <t>bruce-quan.json</t>
-  </si>
-  <si>
-    <t>Bruce Quan</t>
+    <t>viola-gonzales.json</t>
+  </si>
+  <si>
+    <t>Viola Gonzales</t>
+  </si>
+  <si>
+    <t>nehanda-imara.json</t>
+  </si>
+  <si>
+    <t>Nehanda Imara</t>
+  </si>
+  <si>
+    <t>james-harris.json</t>
+  </si>
+  <si>
+    <t>James Harris</t>
+  </si>
+  <si>
+    <t>kharyshi-wiginton.json</t>
+  </si>
+  <si>
+    <t>Kharyshi Wiginton</t>
   </si>
   <si>
     <t>chris-jackson.json</t>
@@ -316,22 +847,10 @@
     <t>Chris Jackson</t>
   </si>
   <si>
-    <t>dan-kalb.json</t>
-  </si>
-  <si>
-    <t>Dan Kalb</t>
-  </si>
-  <si>
-    <t>donald-macleay.json</t>
-  </si>
-  <si>
-    <t>Donald Macleay</t>
-  </si>
-  <si>
-    <t>francis-matt-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Matt Hummel</t>
+    <t>michael-hutchinson.json</t>
+  </si>
+  <si>
+    <t>Michael Hutchinson</t>
   </si>
   <si>
     <t>huber-trenado.json</t>
@@ -340,22 +859,10 @@
     <t>Huber Trenado</t>
   </si>
   <si>
-    <t>james-harris.json</t>
-  </si>
-  <si>
-    <t>James Harris</t>
-  </si>
-  <si>
-    <t>jody-london.json</t>
-  </si>
-  <si>
-    <t>Jody London</t>
-  </si>
-  <si>
-    <t>jumoke-hinton-hodge.json</t>
-  </si>
-  <si>
-    <t>Jumoke Hinton Hodge</t>
+    <t>noni-session.json</t>
+  </si>
+  <si>
+    <t>Noni Session</t>
   </si>
   <si>
     <t>kevin-corbett.json</t>
@@ -364,718 +871,211 @@
     <t>Kevin Corbett</t>
   </si>
   <si>
-    <t>kharyshi-wiginton.json</t>
-  </si>
-  <si>
-    <t>Kharyshi Wiginton</t>
-  </si>
-  <si>
-    <t>larry-reid.json</t>
-  </si>
-  <si>
-    <t>Larry Reid</t>
-  </si>
-  <si>
-    <t>lucky-narain.json</t>
-  </si>
-  <si>
-    <t>Lucky Narain</t>
-  </si>
-  <si>
-    <t>lynette-gibson-mcelhaney.json</t>
-  </si>
-  <si>
-    <t>Lynette Gibson McElhaney</t>
-  </si>
-  <si>
-    <t>marcie-hodge.json</t>
-  </si>
-  <si>
-    <t>Marcie Hodge</t>
-  </si>
-  <si>
     <t>michael-hassid.json</t>
   </si>
   <si>
     <t>Michael Hassid</t>
   </si>
   <si>
-    <t>michael-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>nehanda-imara.json</t>
-  </si>
-  <si>
-    <t>Nehanda Imara</t>
-  </si>
-  <si>
-    <t>noel-gallo.json</t>
-  </si>
-  <si>
-    <t>Noel Gallo</t>
-  </si>
-  <si>
-    <t>noni-session.json</t>
-  </si>
-  <si>
-    <t>Noni Session</t>
-  </si>
-  <si>
-    <t>peggy-moore.json</t>
-  </si>
-  <si>
-    <t>Peggy Moore</t>
-  </si>
-  <si>
-    <t>roseann-torres.json</t>
-  </si>
-  <si>
-    <t>Roseann Torres</t>
-  </si>
-  <si>
-    <t>viola-gonzales.json</t>
-  </si>
-  <si>
-    <t>Viola Gonzales</t>
-  </si>
-  <si>
-    <t>oakland-2018-11-06</t>
-  </si>
-  <si>
-    <t>anthony-wilson.json</t>
-  </si>
-  <si>
-    <t>Anthony Wilson</t>
-  </si>
-  <si>
-    <t>cat-brooks.json</t>
-  </si>
-  <si>
-    <t>Cat Brooks</t>
-  </si>
-  <si>
-    <t>cedric-anthony-troupe.json</t>
-  </si>
-  <si>
-    <t>Cedric Anthony Troupe</t>
-  </si>
-  <si>
-    <t>charlie-michelson.json</t>
-  </si>
-  <si>
-    <t>Charlie Michelson</t>
-  </si>
-  <si>
-    <t>clarissa-doutherd.json</t>
-  </si>
-  <si>
-    <t>Clarissa Doutherd</t>
-  </si>
-  <si>
-    <t>donte-kenzie-smith.json</t>
-  </si>
-  <si>
-    <t>Donte Kenzie Smith</t>
-  </si>
-  <si>
-    <t>francis-hummel.json</t>
-  </si>
-  <si>
-    <t>Francis Hummel</t>
-  </si>
-  <si>
-    <t>gary-yee.json</t>
-  </si>
-  <si>
-    <t>Gary Yee</t>
-  </si>
-  <si>
-    <t>jesse-a-j-smith.json</t>
-  </si>
-  <si>
-    <t>Jesse A.J. Smith</t>
-  </si>
-  <si>
-    <t>joseph-simmons.json</t>
-  </si>
-  <si>
-    <t>Joseph Simmons</t>
-  </si>
-  <si>
-    <t>joseph-tanios.json</t>
-  </si>
-  <si>
-    <t>Joseph Tanios</t>
-  </si>
-  <si>
-    <t>loren-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Taylor</t>
-  </si>
-  <si>
-    <t>marchon-tatmon.json</t>
-  </si>
-  <si>
-    <t>Marchon Tatmon</t>
-  </si>
-  <si>
-    <t>maria-marlo-rodriguez.json</t>
-  </si>
-  <si>
-    <t>Maria "Marlo" Rodriguez</t>
-  </si>
-  <si>
-    <t>mya-whitaker.json</t>
-  </si>
-  <si>
-    <t>Mya Whitaker</t>
-  </si>
-  <si>
-    <t>natasha-middleton.json</t>
-  </si>
-  <si>
-    <t>Natasha Middleton</t>
-  </si>
-  <si>
-    <t>nayeli-maxson.json</t>
-  </si>
-  <si>
-    <t>Nayeli Maxson</t>
-  </si>
-  <si>
-    <t>nikki-fortunato-bas.json</t>
-  </si>
-  <si>
-    <t>Nikki Fortunato Bas</t>
-  </si>
-  <si>
-    <t>pamela-harris.json</t>
-  </si>
-  <si>
-    <t>Pamela Harris</t>
-  </si>
-  <si>
-    <t>pamela-price.json</t>
-  </si>
-  <si>
-    <t>Pamela Price</t>
-  </si>
-  <si>
-    <t>sheng-thao.json</t>
-  </si>
-  <si>
-    <t>Sheng Thao</t>
-  </si>
-  <si>
-    <t>aaron-clay.json</t>
-  </si>
-  <si>
-    <t>oakland-2020-11-03</t>
-  </si>
-  <si>
-    <t>Aaron Clay</t>
-  </si>
-  <si>
-    <t>alexus-taylor.json</t>
-  </si>
-  <si>
-    <t>Alexus Taylor</t>
-  </si>
-  <si>
-    <t>austin-dannhaus.json</t>
-  </si>
-  <si>
-    <t>Austin Dannhaus</t>
-  </si>
-  <si>
-    <t>ben-coach-tapscott.json</t>
-  </si>
-  <si>
-    <t>Ben "Coach" Tapscott</t>
-  </si>
-  <si>
-    <t>benjamin-sam-davis.json</t>
-  </si>
-  <si>
-    <t>Benjamin "Sam" Davis</t>
-  </si>
-  <si>
-    <t>bronche-taylor.json</t>
-  </si>
-  <si>
-    <t>Bronché Taylor</t>
-  </si>
-  <si>
-    <t>carroll-fife.json</t>
-  </si>
-  <si>
-    <t>Carroll Fife</t>
-  </si>
-  <si>
-    <t>cherisse-gash.json</t>
-  </si>
-  <si>
-    <t>Cherisse Gash</t>
-  </si>
-  <si>
-    <t>clifford-thompson.json</t>
-  </si>
-  <si>
-    <t>Clifford Thompson</t>
-  </si>
-  <si>
-    <t>derreck-b-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck B. Johnson</t>
-  </si>
-  <si>
-    <t>eli-ferran.json</t>
-  </si>
-  <si>
-    <t>Eli Ferran</t>
-  </si>
-  <si>
-    <t>faye-taylor.json</t>
-  </si>
-  <si>
-    <t>Faye Taylor</t>
-  </si>
-  <si>
-    <t>jorge-c-lerma.json</t>
-  </si>
-  <si>
-    <t>Jorge C. Lerma</t>
-  </si>
-  <si>
-    <t>kristina-molina.json</t>
-  </si>
-  <si>
-    <t>Kristina Molina</t>
-  </si>
-  <si>
-    <t>leroy-gaines.json</t>
-  </si>
-  <si>
-    <t>Leroy Gaines</t>
-  </si>
-  <si>
-    <t>maiya-edgerly.json</t>
-  </si>
-  <si>
-    <t>Maiya Edgerly</t>
-  </si>
-  <si>
-    <t>mark-hurty.json</t>
-  </si>
-  <si>
-    <t>Mark Hurty</t>
-  </si>
-  <si>
-    <t>maximo-santana.json</t>
-  </si>
-  <si>
-    <t>Maximo Santana</t>
-  </si>
-  <si>
-    <t>meron-semedar.json</t>
-  </si>
-  <si>
-    <t>Meron Semedar</t>
-  </si>
-  <si>
-    <t>mike-hutchinson.json</t>
-  </si>
-  <si>
-    <t>Mike Hutchinson</t>
-  </si>
-  <si>
-    <t>richard-santos-raya.json</t>
-  </si>
-  <si>
-    <t>Richard Santos Raya</t>
-  </si>
-  <si>
-    <t>robert-bob-jackson.json</t>
-  </si>
-  <si>
-    <t>Robert "Bob" Jackson</t>
-  </si>
-  <si>
-    <t>seneca-scott.json</t>
-  </si>
-  <si>
-    <t>Seneca Scott</t>
-  </si>
-  <si>
-    <t>sheila-pope-lawrence.json</t>
-  </si>
-  <si>
-    <t>Sheila Pope Lawrence</t>
-  </si>
-  <si>
-    <t>stacy-thomas.json</t>
-  </si>
-  <si>
-    <t>Stacy Thomas</t>
-  </si>
-  <si>
-    <t>steph-dominguez-walton.json</t>
-  </si>
-  <si>
-    <t>Steph Dominguez Walton</t>
-  </si>
-  <si>
-    <t>treva-reid.json</t>
-  </si>
-  <si>
-    <t>Treva Reid</t>
-  </si>
-  <si>
-    <t>tri-ngo.json</t>
-  </si>
-  <si>
-    <t>Tri Ngo</t>
-  </si>
-  <si>
-    <t>vancedric-williams.json</t>
-  </si>
-  <si>
-    <t>VanCedric Williams</t>
-  </si>
-  <si>
-    <t>victor-javier-valerio.json</t>
-  </si>
-  <si>
-    <t>Victor Javier Valerio</t>
-  </si>
-  <si>
-    <t>zoe-lopez-meraz.json</t>
-  </si>
-  <si>
-    <t>Zoe Lopez-Meraz</t>
+    <t>derrick-soo.json</t>
+  </si>
+  <si>
+    <t>oakland-2022-11-08</t>
+  </si>
+  <si>
+    <t>Derrick Soo</t>
+  </si>
+  <si>
+    <t>max-orozco.json</t>
+  </si>
+  <si>
+    <t>Max Orozco</t>
+  </si>
+  <si>
+    <t>john-reimann.json</t>
+  </si>
+  <si>
+    <t>John Reimann</t>
+  </si>
+  <si>
+    <t>nick-resnick.json</t>
+  </si>
+  <si>
+    <t>Nick Resnick</t>
+  </si>
+  <si>
+    <t>paulina-gonzalez.json</t>
+  </si>
+  <si>
+    <t>Paulina Gonzalez</t>
+  </si>
+  <si>
+    <t>john-mimosa-marks.json</t>
+  </si>
+  <si>
+    <t>John Mimosa Marks</t>
+  </si>
+  <si>
+    <t>nenna-joiner.json</t>
+  </si>
+  <si>
+    <t>Nenna Joiner</t>
+  </si>
+  <si>
+    <t>jesse-tapia-juarez.json</t>
+  </si>
+  <si>
+    <t>Jesse Tapia-Juarez</t>
+  </si>
+  <si>
+    <t>kevin-jenkins.json</t>
+  </si>
+  <si>
+    <t>Kevin Jenkins</t>
+  </si>
+  <si>
+    <t>loren-manuel-taylor.json</t>
+  </si>
+  <si>
+    <t>Loren Manuel Taylor</t>
+  </si>
+  <si>
+    <t>ignacio-de-la-fuente.json</t>
+  </si>
+  <si>
+    <t>Ignacio De La Fuente</t>
+  </si>
+  <si>
+    <t>desmond-i-jeffries.json</t>
+  </si>
+  <si>
+    <t>Desmond I. Jeffries</t>
+  </si>
+  <si>
+    <t>tyron-c-jordan.json</t>
+  </si>
+  <si>
+    <t>Tyron C. Jordan</t>
+  </si>
+  <si>
+    <t>kenny-session.json</t>
+  </si>
+  <si>
+    <t>Kenny Session</t>
+  </si>
+  <si>
+    <t>yakpasua-michael-gbagba-zazaboi.json</t>
+  </si>
+  <si>
+    <t>Yakpasua Michael Gbagba Zazaboi</t>
+  </si>
+  <si>
+    <t>renia-webb.json</t>
+  </si>
+  <si>
+    <t>Renia Webb</t>
+  </si>
+  <si>
+    <t>pecolia-manigo.json</t>
+  </si>
+  <si>
+    <t>Pecolia Manigo</t>
+  </si>
+  <si>
+    <t>janani-ramachandran.json</t>
+  </si>
+  <si>
+    <t>Janani Ramachandran</t>
+  </si>
+  <si>
+    <t>valarie-bachelor.json</t>
+  </si>
+  <si>
+    <t>Valarie Bachelor</t>
+  </si>
+  <si>
+    <t>stephen-schear.json</t>
+  </si>
+  <si>
+    <t>Stephen Schear</t>
+  </si>
+  <si>
+    <t>derreck-johnson.json</t>
+  </si>
+  <si>
+    <t>Derreck Johnson</t>
+  </si>
+  <si>
+    <t>jennifer-brouhard.json</t>
+  </si>
+  <si>
+    <t>Jennifer Brouhard</t>
+  </si>
+  <si>
+    <t>david-kakishiba.json</t>
+  </si>
+  <si>
+    <t>David Kakishiba</t>
+  </si>
+  <si>
+    <t>treva-d-reid.json</t>
+  </si>
+  <si>
+    <t>Treva D. Reid</t>
+  </si>
+  <si>
+    <t>gregory-hodge.json</t>
+  </si>
+  <si>
+    <t>Gregory Hodge</t>
+  </si>
+  <si>
+    <t>kyra-mungia.json</t>
+  </si>
+  <si>
+    <t>Kyra Mungia</t>
+  </si>
+  <si>
+    <t>peter-y-liu.json</t>
+  </si>
+  <si>
+    <t>Peter Y. Liu</t>
   </si>
   <si>
     <t>allyssa-victory-villanueva.json</t>
   </si>
   <si>
-    <t>oakland-2022-11-08</t>
-  </si>
-  <si>
     <t>Allyssa Victory Villanueva</t>
   </si>
   <si>
-    <t>david-kakishiba.json</t>
-  </si>
-  <si>
-    <t>David Kakishiba</t>
-  </si>
-  <si>
-    <t>derreck-johnson.json</t>
-  </si>
-  <si>
-    <t>Derreck Johnson</t>
-  </si>
-  <si>
-    <t>derrick-soo.json</t>
-  </si>
-  <si>
-    <t>Derrick Soo</t>
-  </si>
-  <si>
-    <t>desmond-i-jeffries.json</t>
-  </si>
-  <si>
-    <t>Desmond I. Jeffries</t>
-  </si>
-  <si>
     <t>elbert-owens.json</t>
   </si>
   <si>
     <t>Elbert Owens</t>
   </si>
   <si>
-    <t>gregory-hodge.json</t>
-  </si>
-  <si>
-    <t>Gregory Hodge</t>
-  </si>
-  <si>
     <t>harold-lowe.json</t>
   </si>
   <si>
     <t>Harold Lowe</t>
   </si>
   <si>
-    <t>ignacio-de-la-fuente.json</t>
-  </si>
-  <si>
-    <t>Ignacio De La Fuente</t>
-  </si>
-  <si>
-    <t>janani-ramachandran.json</t>
-  </si>
-  <si>
-    <t>Janani Ramachandran</t>
-  </si>
-  <si>
-    <t>jennifer-brouhard.json</t>
-  </si>
-  <si>
-    <t>Jennifer Brouhard</t>
-  </si>
-  <si>
-    <t>jesse-tapia-juarez.json</t>
-  </si>
-  <si>
-    <t>Jesse Tapia-Juarez</t>
-  </si>
-  <si>
     <t>joel-velasquez.json</t>
   </si>
   <si>
     <t>Joel Velasquez</t>
   </si>
   <si>
-    <t>john-mimosa-marks.json</t>
-  </si>
-  <si>
-    <t>John Mimosa Marks</t>
-  </si>
-  <si>
-    <t>john-reimann.json</t>
-  </si>
-  <si>
-    <t>John Reimann</t>
-  </si>
-  <si>
-    <t>kenny-session.json</t>
-  </si>
-  <si>
-    <t>Kenny Session</t>
-  </si>
-  <si>
-    <t>kevin-jenkins.json</t>
-  </si>
-  <si>
-    <t>Kevin Jenkins</t>
-  </si>
-  <si>
-    <t>kyra-mungia.json</t>
-  </si>
-  <si>
-    <t>Kyra Mungia</t>
-  </si>
-  <si>
-    <t>loren-manuel-taylor.json</t>
-  </si>
-  <si>
-    <t>Loren Manuel Taylor</t>
+    <t>monesha-carter.json</t>
+  </si>
+  <si>
+    <t>Monesha Carter</t>
   </si>
   <si>
     <t>mart-bradley.json</t>
   </si>
   <si>
     <t>Mart Bradley</t>
-  </si>
-  <si>
-    <t>max-orozco.json</t>
-  </si>
-  <si>
-    <t>Max Orozco</t>
-  </si>
-  <si>
-    <t>monesha-carter.json</t>
-  </si>
-  <si>
-    <t>Monesha Carter</t>
-  </si>
-  <si>
-    <t>nenna-joiner.json</t>
-  </si>
-  <si>
-    <t>Nenna Joiner</t>
-  </si>
-  <si>
-    <t>nick-resnick.json</t>
-  </si>
-  <si>
-    <t>Nick Resnick</t>
-  </si>
-  <si>
-    <t>paulina-gonzalez.json</t>
-  </si>
-  <si>
-    <t>Paulina Gonzalez</t>
-  </si>
-  <si>
-    <t>pecolia-manigo.json</t>
-  </si>
-  <si>
-    <t>Pecolia Manigo</t>
-  </si>
-  <si>
-    <t>peter-y-liu.json</t>
-  </si>
-  <si>
-    <t>Peter Y. Liu</t>
-  </si>
-  <si>
-    <t>renia-webb.json</t>
-  </si>
-  <si>
-    <t>Renia Webb</t>
-  </si>
-  <si>
-    <t>stephen-schear.json</t>
-  </si>
-  <si>
-    <t>Stephen Schear</t>
-  </si>
-  <si>
-    <t>treva-d-reid.json</t>
-  </si>
-  <si>
-    <t>Treva D. Reid</t>
-  </si>
-  <si>
-    <t>tyron-c-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron C. Jordan</t>
-  </si>
-  <si>
-    <t>valarie-bachelor.json</t>
-  </si>
-  <si>
-    <t>Valarie Bachelor</t>
-  </si>
-  <si>
-    <t>yakpasua-michael-gbagba-zazaboi.json</t>
-  </si>
-  <si>
-    <t>Yakpasua Michael Gbagba Zazaboi</t>
-  </si>
-  <si>
-    <t>alexandra-ritzie-hernandez.json</t>
-  </si>
-  <si>
-    <t>oakland-2023-11-07</t>
-  </si>
-  <si>
-    <t>Alexandra Ritzie-Hernandez</t>
-  </si>
-  <si>
-    <t>christian-miguel-martinez.json</t>
-  </si>
-  <si>
-    <t>Christian Miguel Martinez</t>
-  </si>
-  <si>
-    <t>michael-houston.json</t>
-  </si>
-  <si>
-    <t>oakland-2024-03-05</t>
-  </si>
-  <si>
-    <t>Michael Houston</t>
-  </si>
-  <si>
-    <t>oakland-2024-11-05</t>
-  </si>
-  <si>
-    <t>debra-sherman.json</t>
-  </si>
-  <si>
-    <t>Debra Sherman</t>
-  </si>
-  <si>
-    <t>donnel-c-dunbar.json</t>
-  </si>
-  <si>
-    <t>Donnel C. Dunbar</t>
-  </si>
-  <si>
-    <t>edward-c-frank.json</t>
-  </si>
-  <si>
-    <t>Edward C. Frank</t>
-  </si>
-  <si>
-    <t>fabian-robinson.json</t>
-  </si>
-  <si>
-    <t>Fabian Robinson</t>
-  </si>
-  <si>
-    <t>merika-goolsby.json</t>
-  </si>
-  <si>
-    <t>Merika Goolsby</t>
-  </si>
-  <si>
-    <t>ryan-richardson.json</t>
-  </si>
-  <si>
-    <t>Ryan Richardson</t>
-  </si>
-  <si>
-    <t>sam-davis.json</t>
-  </si>
-  <si>
-    <t>Sam Davis</t>
-  </si>
-  <si>
-    <t>selika-thomas.json</t>
-  </si>
-  <si>
-    <t>Selika Thomas</t>
-  </si>
-  <si>
-    <t>shan-m-hirsch.json</t>
-  </si>
-  <si>
-    <t>Shan M. Hirsch</t>
-  </si>
-  <si>
-    <t>shantell-herndon.json</t>
-  </si>
-  <si>
-    <t>Shantell Herndon</t>
-  </si>
-  <si>
-    <t>tonya-love.json</t>
-  </si>
-  <si>
-    <t>Tonya Love</t>
-  </si>
-  <si>
-    <t>tyron-jordan.json</t>
-  </si>
-  <si>
-    <t>Tyron Jordan</t>
-  </si>
-  <si>
-    <t>van-cedric-williams.json</t>
-  </si>
-  <si>
-    <t>Van Cedric Williams</t>
-  </si>
-  <si>
-    <t>warren-logan.json</t>
-  </si>
-  <si>
-    <t>Warren Logan</t>
-  </si>
-  <si>
-    <t>zac-unger.json</t>
-  </si>
-  <si>
-    <t>Zac Unger</t>
   </si>
 </sst>
 </file>
@@ -1474,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>177069.06</v>
+        <v>17639</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>176990.06</v>
+        <v>17639</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>176990.06</v>
+        <v>17639</v>
       </c>
       <c r="G2">
         <f>E2-D2</f>
@@ -1502,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>33744.95</v>
+        <v>147.23</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>33744.95</v>
+        <v>147.23</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>33744.95</v>
+        <v>147.23</v>
       </c>
       <c r="G3">
         <f>E3-D3</f>
@@ -1530,13 +1530,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>67825.58</v>
+        <v>12093</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>67450.58</v>
+        <v>12093</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>67450.58</v>
+        <v>12093</v>
       </c>
       <c r="G4">
         <f>E4-D4</f>
@@ -1558,13 +1558,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>124860.15</v>
+        <v>164638.37</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>124686.15</v>
+        <v>164638.37</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>124686.15</v>
+        <v>164638.37</v>
       </c>
       <c r="G5">
         <f>E5-D5</f>
@@ -1586,13 +1586,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>69175</v>
+        <v>242342.31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>69175</v>
+        <v>242342.31</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>69175</v>
+        <v>242342.31</v>
       </c>
       <c r="G6">
         <f>E6-D6</f>
@@ -1614,13 +1614,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>237608.59</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>237608.59</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>237608.59</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>E7-D7</f>
@@ -1642,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>11835</v>
+        <v>115502.98</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>11835</v>
+        <v>115502.98</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>11835</v>
+        <v>115502.98</v>
       </c>
       <c r="G8">
         <f>E8-D8</f>
@@ -1670,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>18747.83</v>
+        <v>124860.15</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>18747.83</v>
+        <v>124860.15</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>18747.83</v>
+        <v>124860.15</v>
       </c>
       <c r="G9">
         <f>E9-D9</f>
@@ -1698,13 +1698,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5000</v>
+        <v>462809.82</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5000</v>
+        <v>462809.82</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5000</v>
+        <v>462809.82</v>
       </c>
       <c r="G10">
         <f>E10-D10</f>
@@ -1726,13 +1726,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>164638.37</v>
+        <v>18747.83</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>164638.37</v>
+        <v>18747.83</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>164638.37</v>
+        <v>18747.83</v>
       </c>
       <c r="G11">
         <f>E11-D11</f>
@@ -1754,13 +1754,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>280968.87</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>E12-D12</f>
@@ -1782,13 +1782,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>237608.59</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>237608.59</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>91487.96000000001</v>
+        <v>237608.59</v>
       </c>
       <c r="G13">
         <f>E13-D13</f>
@@ -1810,13 +1810,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>38429</v>
+        <v>37784.69</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>38429</v>
+        <v>37784.69</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>38429</v>
+        <v>37784.69</v>
       </c>
       <c r="G14">
         <f>E14-D14</f>
@@ -1866,13 +1866,13 @@
         <v>38</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>10758</v>
+        <v>67825.58</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10758</v>
+        <v>67825.58</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>10758</v>
+        <v>67825.58</v>
       </c>
       <c r="G16">
         <f>E16-D16</f>
@@ -1894,13 +1894,13 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>347445.36</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>347445.36</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>347445.36</v>
       </c>
       <c r="G17">
         <f>E17-D17</f>
@@ -1922,13 +1922,13 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>242342.31</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>242276.53</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>242276.53</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f>E18-D18</f>
@@ -1950,13 +1950,13 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>96641</v>
+        <v>73585.61</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>78241</v>
+        <v>73885.61</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>78241</v>
+        <v>73885.61</v>
       </c>
       <c r="G19">
         <f>E19-D19</f>
@@ -1978,13 +1978,13 @@
         <v>46</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>115502.98</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>115502.98</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>115502.98</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f>E20-D20</f>
@@ -2006,13 +2006,13 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1165.8</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1165.8</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1165.8</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f>E21-D21</f>
@@ -2034,13 +2034,13 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>38429</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>38429</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>38429</v>
       </c>
       <c r="G22">
         <f>E22-D22</f>
@@ -2090,13 +2090,13 @@
         <v>54</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>62212</v>
+        <v>33744.95</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>62212</v>
+        <v>33744.95</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>62212</v>
+        <v>33744.95</v>
       </c>
       <c r="G24">
         <f>E24-D24</f>
@@ -2118,13 +2118,13 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>37784.69</v>
+        <v>10758</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>37784.69</v>
+        <v>10758</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>37784.69</v>
+        <v>10758</v>
       </c>
       <c r="G25">
         <f>E25-D25</f>
@@ -2146,13 +2146,13 @@
         <v>58</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>462809.82</v>
+        <v>34487.87</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>462809.82</v>
+        <v>34487.87</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>462809.82</v>
+        <v>34487.87</v>
       </c>
       <c r="G26">
         <f>E26-D26</f>
@@ -2174,13 +2174,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>34487.87</v>
+        <v>5000</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>34487.87</v>
+        <v>5000</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>34487.87</v>
+        <v>5000</v>
       </c>
       <c r="G27">
         <f>E27-D27</f>
@@ -2230,13 +2230,13 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>147.23</v>
+        <v>2609.9</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>147.23</v>
+        <v>2609.9</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>147.23</v>
+        <v>2609.9</v>
       </c>
       <c r="G29">
         <f>E29-D29</f>
@@ -2258,13 +2258,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>24233.82</v>
+        <v>32601.29</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>24233.82</v>
+        <v>28801.29</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>24233.82</v>
+        <v>28801.29</v>
       </c>
       <c r="G30">
         <f>E30-D30</f>
@@ -2314,13 +2314,13 @@
         <v>70</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0</v>
+        <v>177069.06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0</v>
+        <v>177069.06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0</v>
+        <v>177069.06</v>
       </c>
       <c r="G32">
         <f>E32-D32</f>
@@ -2370,13 +2370,13 @@
         <v>74</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>347445.36</v>
+        <v>62212</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>347445.36</v>
+        <v>62212</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>347445.36</v>
+        <v>62212</v>
       </c>
       <c r="G34">
         <f>E34-D34</f>
@@ -2398,13 +2398,13 @@
         <v>76</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>12093</v>
+        <v>24233.82</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>12093</v>
+        <v>24233.82</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>12093</v>
+        <v>24233.82</v>
       </c>
       <c r="G35">
         <f>E35-D35</f>
@@ -2426,13 +2426,13 @@
         <v>78</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2609.9</v>
+        <v>96641</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2609.9</v>
+        <v>78241</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2609.9</v>
+        <v>78241</v>
       </c>
       <c r="G36">
         <f>E36-D36</f>
@@ -2454,13 +2454,13 @@
         <v>80</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>17639</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>17639</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>17639</v>
+        <v>91487.96000000001</v>
       </c>
       <c r="G37">
         <f>E37-D37</f>
@@ -2482,13 +2482,13 @@
         <v>82</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>73585.61</v>
+        <v>69175</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>73885.61</v>
+        <v>69175</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>73885.61</v>
+        <v>69175</v>
       </c>
       <c r="G38">
         <f>E38-D38</f>
@@ -2510,13 +2510,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>32601.29</v>
+        <v>1165.8</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>28801.29</v>
+        <v>1165.8</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>28801.29</v>
+        <v>1165.8</v>
       </c>
       <c r="G39">
         <f>E39-D39</f>
@@ -2566,13 +2566,13 @@
         <v>88</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="G41">
         <f>E41-D41</f>
@@ -2594,13 +2594,13 @@
         <v>90</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0</v>
+        <v>280968.87</v>
       </c>
       <c r="G42">
         <f>E42-D42</f>
@@ -2622,13 +2622,13 @@
         <v>93</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>67909</v>
+        <v>36218.73</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>67909</v>
+        <v>36218.73</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>67909</v>
+        <v>36218.73</v>
       </c>
       <c r="G43">
         <f>E43-D43</f>
@@ -2650,13 +2650,13 @@
         <v>95</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="G44">
         <f>E44-D44</f>
@@ -2678,13 +2678,13 @@
         <v>97</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>75623.14</v>
+        <v>91201.06</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>75623.14</v>
+        <v>116256.07</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>75623.14</v>
+        <v>116256.07</v>
       </c>
       <c r="G45">
         <f>E45-D45</f>
@@ -2706,13 +2706,13 @@
         <v>99</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>25462</v>
+        <v>8261</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>25462</v>
+        <v>17570</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>25462</v>
+        <v>17570</v>
       </c>
       <c r="G46">
         <f>E46-D46</f>
@@ -2734,13 +2734,13 @@
         <v>101</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>114510.66</v>
+        <v>166664.47</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>114510.66</v>
+        <v>166664.47</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>114510.66</v>
+        <v>166664.47</v>
       </c>
       <c r="G47">
         <f>E47-D47</f>
@@ -2762,13 +2762,13 @@
         <v>103</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>5219.5</v>
+        <v>175685.18</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>5219.5</v>
+        <v>171785.18</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>5219.5</v>
+        <v>171785.18</v>
       </c>
       <c r="G48">
         <f>E48-D48</f>
@@ -2790,13 +2790,13 @@
         <v>105</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f>E49-D49</f>
@@ -2818,13 +2818,13 @@
         <v>107</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>21685.48</v>
+        <v>27381.49</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>21661.31</v>
+        <v>27381.49</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>21661.31</v>
+        <v>27381.49</v>
       </c>
       <c r="G50">
         <f>E50-D50</f>
@@ -2846,13 +2846,13 @@
         <v>109</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>27586</v>
+        <v>152579.98</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>27586</v>
+        <v>263064.98</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>27586</v>
+        <v>263064.98</v>
       </c>
       <c r="G51">
         <f>E51-D51</f>
@@ -2874,13 +2874,13 @@
         <v>111</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>22344</v>
+        <v>39343</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>22344</v>
+        <v>39343</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>22344</v>
+        <v>39343</v>
       </c>
       <c r="G52">
         <f>E52-D52</f>
@@ -2902,13 +2902,13 @@
         <v>113</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>25041.85</v>
+        <v>26410.15</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>25041.85</v>
+        <v>26410.15</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>25041.85</v>
+        <v>26410.15</v>
       </c>
       <c r="G53">
         <f>E53-D53</f>
@@ -2930,13 +2930,13 @@
         <v>115</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>42542</v>
+        <v>19109</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>42542</v>
+        <v>19109</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>42542</v>
+        <v>19109</v>
       </c>
       <c r="G54">
         <f>E54-D54</f>
@@ -2958,13 +2958,13 @@
         <v>117</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>5798</v>
+        <v>2250</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>5798</v>
+        <v>2250</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>5798</v>
+        <v>2250</v>
       </c>
       <c r="G55">
         <f>E55-D55</f>
@@ -2986,13 +2986,13 @@
         <v>119</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>76910.71000000001</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>76760.71000000001</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <f>E56-D56</f>
@@ -3014,13 +3014,13 @@
         <v>121</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0</v>
+        <v>28147.36</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>0</v>
+        <v>21597.36</v>
       </c>
       <c r="G57">
         <f>E57-D57</f>
@@ -3033,22 +3033,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>128456.69</v>
+        <v>252632.43</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>128456.69</v>
+        <v>252632.43</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>128456.69</v>
+        <v>252632.43</v>
       </c>
       <c r="G58">
         <f>E58-D58</f>
@@ -3061,22 +3061,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>49348</v>
+        <v>2563.15</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45848</v>
+        <v>6364.15</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45848</v>
+        <v>6364.15</v>
       </c>
       <c r="G59">
         <f>E59-D59</f>
@@ -3089,22 +3089,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>8546</v>
+        <v>53915.6</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>8546</v>
+        <v>202245.6</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>8546</v>
+        <v>202245.6</v>
       </c>
       <c r="G60">
         <f>E60-D60</f>
@@ -3117,22 +3117,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="G61">
         <f>E61-D61</f>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="G62">
         <f>E62-D62</f>
@@ -3182,13 +3182,13 @@
         <v>131</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>27941</v>
+        <v>48671.7</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>27941</v>
+        <v>48671.7</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>27941</v>
+        <v>48671.7</v>
       </c>
       <c r="G63">
         <f>E63-D63</f>
@@ -3210,13 +3210,13 @@
         <v>133</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>48119</v>
+        <v>13862.58</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>48119</v>
+        <v>13862.58</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>48119</v>
+        <v>13862.58</v>
       </c>
       <c r="G64">
         <f>E64-D64</f>
@@ -3238,13 +3238,13 @@
         <v>135</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>10634</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>10634</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>10634</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <f>E65-D65</f>
@@ -3266,13 +3266,13 @@
         <v>137</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>316892.58</v>
+        <v>238153.84</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>134125.58</v>
+        <v>238153.84</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>134125.58</v>
+        <v>238153.84</v>
       </c>
       <c r="G66">
         <f>E66-D66</f>
@@ -3285,22 +3285,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>174571.99</v>
+        <v>15065</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>174571.99</v>
+        <v>15065</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>174571.99</v>
+        <v>15065</v>
       </c>
       <c r="G67">
         <f>E67-D67</f>
@@ -3313,22 +3313,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>42403.01</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <f>E68-D68</f>
@@ -3341,22 +3341,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>69742.41</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>69742.41</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>69742.41</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <f>E69-D69</f>
@@ -3369,22 +3369,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>200652</v>
+        <v>84182.67</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>200652</v>
+        <v>94682.67</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>200652</v>
+        <v>94682.67</v>
       </c>
       <c r="G70">
         <f>E70-D70</f>
@@ -3397,22 +3397,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-3014.3</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>-3014.3</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-3014.3</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <f>E71-D71</f>
@@ -3425,22 +3425,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>11770.79</v>
+        <v>171614.83</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>10960.79</v>
+        <v>101546.49</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>10960.79</v>
+        <v>101546.49</v>
       </c>
       <c r="G72">
         <f>E72-D72</f>
@@ -3453,22 +3453,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>57047.13</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>57047.13</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>57047.13</v>
+        <v>70467.99000000001</v>
       </c>
       <c r="G73">
         <f>E73-D73</f>
@@ -3481,22 +3481,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>191189.79</v>
+        <v>32262.96</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>191169.79</v>
+        <v>32262.96</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>191169.79</v>
+        <v>32262.96</v>
       </c>
       <c r="G74">
         <f>E74-D74</f>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -3537,22 +3537,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>95012</v>
+        <v>71517.67</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>95196</v>
+        <v>71517.67</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>95196</v>
+        <v>71517.67</v>
       </c>
       <c r="G76">
         <f>E76-D76</f>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>55131.12</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>55131.12</v>
+        <v>0</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>55131.12</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <f>E77-D77</f>
@@ -3593,22 +3593,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>52266.74</v>
+        <v>50576</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>52227.34</v>
+        <v>35026</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>52227.34</v>
+        <v>35026</v>
       </c>
       <c r="G78">
         <f>E78-D78</f>
@@ -3621,22 +3621,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>105825</v>
+        <v>164884.39</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>105825</v>
+        <v>164884.39</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>105825</v>
+        <v>164884.39</v>
       </c>
       <c r="G79">
         <f>E79-D79</f>
@@ -3649,22 +3649,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0</v>
+        <v>17885.74</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>0</v>
+        <v>17885.74</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>0</v>
+        <v>17885.74</v>
       </c>
       <c r="G80">
         <f>E80-D80</f>
@@ -3677,22 +3677,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>14928.6</v>
+        <v>82077</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>14928.6</v>
+        <v>82077</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>14928.6</v>
+        <v>82077</v>
       </c>
       <c r="G81">
         <f>E81-D81</f>
@@ -3705,22 +3705,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>33876.58</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>25168.58</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>25168.58</v>
+        <v>77814.57000000001</v>
       </c>
       <c r="G82">
         <f>E82-D82</f>
@@ -3733,22 +3733,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>52764.9</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>0</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>0</v>
+        <v>83024.89999999999</v>
       </c>
       <c r="G83">
         <f>E83-D83</f>
@@ -3761,22 +3761,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>57141.65</v>
+        <v>52266.74</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>57141.65</v>
+        <v>52266.74</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>57141.65</v>
+        <v>52266.74</v>
       </c>
       <c r="G84">
         <f>E84-D84</f>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>24920</v>
+        <v>14928.6</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>24920</v>
+        <v>14928.6</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>24920</v>
+        <v>14928.6</v>
       </c>
       <c r="G85">
         <f>E85-D85</f>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>0</v>
+        <v>615686.6</v>
       </c>
       <c r="G86">
         <f>E86-D86</f>
@@ -3845,22 +3845,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>615686.6</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>615607.3</v>
+        <v>0</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>615607.3</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <f>E87-D87</f>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>153340.26</v>
+        <v>24920</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>154427.26</v>
+        <v>24920</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>154427.26</v>
+        <v>24920</v>
       </c>
       <c r="G88">
         <f>E88-D88</f>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>22734.8</v>
+        <v>28752</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>22734.8</v>
+        <v>19392</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>22734.8</v>
+        <v>19392</v>
       </c>
       <c r="G89">
         <f>E89-D89</f>
@@ -3929,22 +3929,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>25483</v>
+        <v>22734.8</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>25483</v>
+        <v>22734.8</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>25483</v>
+        <v>22734.8</v>
       </c>
       <c r="G90">
         <f>E90-D90</f>
@@ -3957,22 +3957,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>28752</v>
+        <v>47283</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>19392</v>
+        <v>41883</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>19392</v>
+        <v>41883</v>
       </c>
       <c r="G91">
         <f>E91-D91</f>
@@ -3985,13 +3985,13 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -4013,22 +4013,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>0</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>77814.57000000001</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <f>E93-D93</f>
@@ -4041,22 +4041,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>58399.56</v>
+        <v>43000</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>58379.56</v>
+        <v>43000</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>58379.56</v>
+        <v>43000</v>
       </c>
       <c r="G94">
         <f>E94-D94</f>
@@ -4069,22 +4069,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>43000</v>
+        <v>95012</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>43000</v>
+        <v>95236</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>43000</v>
+        <v>95236</v>
       </c>
       <c r="G95">
         <f>E95-D95</f>
@@ -4097,22 +4097,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>68499.13</v>
+        <v>105825</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>68464.13</v>
+        <v>105825</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>68464.13</v>
+        <v>105825</v>
       </c>
       <c r="G96">
         <f>E96-D96</f>
@@ -4125,22 +4125,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>52764.9</v>
+        <v>25483</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>25483</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>83024.89999999999</v>
+        <v>25483</v>
       </c>
       <c r="G97">
         <f>E97-D97</f>
@@ -4153,22 +4153,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>125319.19</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>0</v>
+        <v>125319.19</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>0</v>
+        <v>125319.19</v>
       </c>
       <c r="G98">
         <f>E98-D98</f>
@@ -4181,22 +4181,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>9548.6</v>
+        <v>-3014.3</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>9548.6</v>
+        <v>-3014.3</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>9548.6</v>
+        <v>-3014.3</v>
       </c>
       <c r="G99">
         <f>E99-D99</f>
@@ -4209,22 +4209,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>47283</v>
+        <v>58399.56</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>41883</v>
+        <v>58399.56</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>41883</v>
+        <v>58399.56</v>
       </c>
       <c r="G100">
         <f>E100-D100</f>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>125319.19</v>
+        <v>55131.12</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>125319.19</v>
+        <v>55131.12</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>125319.19</v>
+        <v>55131.12</v>
       </c>
       <c r="G101">
         <f>E101-D101</f>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>71517.67</v>
+        <v>33876.58</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>71517.67</v>
+        <v>25168.58</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>71517.67</v>
+        <v>25168.58</v>
       </c>
       <c r="G102">
         <f>E102-D102</f>
@@ -4293,22 +4293,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>0</v>
+        <v>9548.6</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>0</v>
+        <v>9548.6</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>0</v>
+        <v>9548.6</v>
       </c>
       <c r="G103">
         <f>E103-D103</f>
@@ -4321,22 +4321,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>39343</v>
+        <v>0</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>39343</v>
+        <v>0</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>39343</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <f>E104-D104</f>
@@ -4349,22 +4349,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>84182.67</v>
+        <v>68499.13</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>94682.67</v>
+        <v>68499.13</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>94682.67</v>
+        <v>68499.13</v>
       </c>
       <c r="G105">
         <f>E105-D105</f>
@@ -4377,22 +4377,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>13862.58</v>
+        <v>200652</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>13841.58</v>
+        <v>200652</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>13841.58</v>
+        <v>200652</v>
       </c>
       <c r="G106">
         <f>E106-D106</f>
@@ -4405,22 +4405,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>0</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>0</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>70467.99000000001</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <f>E107-D107</f>
@@ -4433,13 +4433,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -4461,22 +4461,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>53915.6</v>
+        <v>57141.65</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>202245.6</v>
+        <v>57141.65</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>202245.6</v>
+        <v>57141.65</v>
       </c>
       <c r="G109">
         <f>E109-D109</f>
@@ -4489,22 +4489,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>6225</v>
+        <v>57047.13</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>6225</v>
+        <v>57047.13</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>6225</v>
+        <v>57047.13</v>
       </c>
       <c r="G110">
         <f>E110-D110</f>
@@ -4517,22 +4517,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D111" s="2" t="n">
-        <v>8261</v>
+        <v>11770.79</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>17570</v>
+        <v>10960.79</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>17570</v>
+        <v>10960.79</v>
       </c>
       <c r="G111">
         <f>E111-D111</f>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>164884.39</v>
+        <v>153340.26</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>164800.04</v>
+        <v>154427.26</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>164800.04</v>
+        <v>154427.26</v>
       </c>
       <c r="G112">
         <f>E112-D112</f>
@@ -4573,22 +4573,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>152579.98</v>
+        <v>191189.79</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>263064.98</v>
+        <v>191189.79</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>263064.98</v>
+        <v>191189.79</v>
       </c>
       <c r="G113">
         <f>E113-D113</f>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>91201.06</v>
+        <v>10088.01</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>116256.07</v>
+        <v>21036.5</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>116256.07</v>
+        <v>21036.5</v>
       </c>
       <c r="G114">
         <f>E114-D114</f>
@@ -4632,19 +4632,19 @@
         <v>208</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <f>E115-D115</f>
@@ -4660,19 +4660,19 @@
         <v>210</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>50576</v>
+        <v>0</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>35026</v>
+        <v>0</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>35026</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <f>E116-D116</f>
@@ -4688,7 +4688,7 @@
         <v>212</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>213</v>
@@ -4716,19 +4716,19 @@
         <v>214</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>48671.7</v>
+        <v>0</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>48671.7</v>
+        <v>0</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>48671.7</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <f>E118-D118</f>
@@ -4741,22 +4741,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>238153.84</v>
+        <v>0</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>238153.84</v>
+        <v>0</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>238153.84</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <f>E119-D119</f>
@@ -4769,22 +4769,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>10103</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <f>E120-D120</f>
@@ -4797,22 +4797,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>28147.36</v>
+        <v>0</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>21597.36</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <f>E121-D121</f>
@@ -4825,22 +4825,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>15065</v>
+        <v>971</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>15065</v>
+        <v>971</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>15065</v>
+        <v>971</v>
       </c>
       <c r="G122">
         <f>E122-D122</f>
@@ -4853,22 +4853,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>19109</v>
+        <v>4592</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>19109</v>
+        <v>4592</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>19109</v>
+        <v>4592</v>
       </c>
       <c r="G123">
         <f>E123-D123</f>
@@ -4881,13 +4881,13 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -4909,22 +4909,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G125">
         <f>E125-D125</f>
@@ -4940,19 +4940,19 @@
         <v>224</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>27381.49</v>
+        <v>0</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>27360</v>
+        <v>0</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>27360</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <f>E126-D126</f>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>0</v>
+        <v>25186</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>0</v>
+        <v>25186</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>0</v>
+        <v>25186</v>
       </c>
       <c r="G127">
         <f>E127-D127</f>
@@ -4993,22 +4993,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>82077</v>
+        <v>0</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>82077</v>
+        <v>0</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>82077</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <f>E128-D128</f>
@@ -5021,22 +5021,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>252632.43</v>
+        <v>46973</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>252632.43</v>
+        <v>46973</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>252632.43</v>
+        <v>46973</v>
       </c>
       <c r="G129">
         <f>E129-D129</f>
@@ -5049,22 +5049,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>32262.96</v>
+        <v>0</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>32262.96</v>
+        <v>0</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>32262.96</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <f>E130-D130</f>
@@ -5077,22 +5077,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>171614.83</v>
+        <v>0</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>101546.49</v>
+        <v>0</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>101546.49</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <f>E131-D131</f>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>0</v>
@@ -5133,22 +5133,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>17885.74</v>
+        <v>120280.55</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>17885.74</v>
+        <v>120280.55</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>17885.74</v>
+        <v>120280.55</v>
       </c>
       <c r="G133">
         <f>E133-D133</f>
@@ -5161,22 +5161,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <f>E134-D134</f>
@@ -5189,22 +5189,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>175685.18</v>
+        <v>29118</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>171785.18</v>
+        <v>19568</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>171785.18</v>
+        <v>19568</v>
       </c>
       <c r="G135">
         <f>E135-D135</f>
@@ -5217,22 +5217,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>166664.47</v>
+        <v>5885</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>166664.47</v>
+        <v>16223</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>166664.47</v>
+        <v>16223</v>
       </c>
       <c r="G136">
         <f>E136-D136</f>
@@ -5245,22 +5245,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>26410.15</v>
+        <v>17045</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>26410.15</v>
+        <v>17045</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>26410.15</v>
+        <v>17045</v>
       </c>
       <c r="G137">
         <f>E137-D137</f>
@@ -5273,22 +5273,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>36218.73</v>
+        <v>75623.14</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>36218.73</v>
+        <v>75623.14</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>36218.73</v>
+        <v>75623.14</v>
       </c>
       <c r="G138">
         <f>E138-D138</f>
@@ -5301,22 +5301,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>0</v>
+        <v>42403.01</v>
       </c>
       <c r="G139">
         <f>E139-D139</f>
@@ -5329,22 +5329,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>2563.15</v>
+        <v>22344</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>6364.15</v>
+        <v>22344</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>6364.15</v>
+        <v>22344</v>
       </c>
       <c r="G140">
         <f>E140-D140</f>
@@ -5357,22 +5357,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>34544.2</v>
+        <v>1750</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>26700.2</v>
+        <v>1750</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>26700.2</v>
+        <v>1750</v>
       </c>
       <c r="G141">
         <f>E141-D141</f>
@@ -5385,22 +5385,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>0</v>
+        <v>76910.71000000001</v>
       </c>
       <c r="G142">
         <f>E142-D142</f>
@@ -5413,22 +5413,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>37094.65</v>
+        <v>316892.58</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>41144.65</v>
+        <v>134325.58</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>41144.65</v>
+        <v>134325.58</v>
       </c>
       <c r="G143">
         <f>E143-D143</f>
@@ -5441,22 +5441,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>23645</v>
+        <v>0</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>66770</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <f>E144-D144</f>
@@ -5469,22 +5469,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>0</v>
+        <v>5219.5</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>0</v>
+        <v>5219.5</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>0</v>
+        <v>5219.5</v>
       </c>
       <c r="G145">
         <f>E145-D145</f>
@@ -5497,22 +5497,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>0</v>
+        <v>25041.85</v>
       </c>
       <c r="G146">
         <f>E146-D146</f>
@@ -5525,13 +5525,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>0</v>
@@ -5553,22 +5553,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>137576.15</v>
+        <v>174571.99</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>173686.15</v>
+        <v>174571.99</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>173686.15</v>
+        <v>174571.99</v>
       </c>
       <c r="G148">
         <f>E148-D148</f>
@@ -5581,22 +5581,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>18839</v>
+        <v>69742.41</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>34089</v>
+        <v>69742.41</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>34089</v>
+        <v>69742.41</v>
       </c>
       <c r="G149">
         <f>E149-D149</f>
@@ -5609,22 +5609,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>257158.97</v>
+        <v>27941</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>257158.97</v>
+        <v>27941</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>257158.97</v>
+        <v>27941</v>
       </c>
       <c r="G150">
         <f>E150-D150</f>
@@ -5637,22 +5637,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>178133.19</v>
+        <v>27586</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>178133.19</v>
+        <v>27586</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>178133.19</v>
+        <v>27586</v>
       </c>
       <c r="G151">
         <f>E151-D151</f>
@@ -5665,22 +5665,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>16286</v>
+        <v>5798</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>22436</v>
+        <v>5798</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>22436</v>
+        <v>5798</v>
       </c>
       <c r="G152">
         <f>E152-D152</f>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>0</v>
+        <v>25462</v>
       </c>
       <c r="G153">
         <f>E153-D153</f>
@@ -5721,13 +5721,13 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>0</v>
@@ -5749,22 +5749,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>0</v>
+        <v>128456.69</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>0</v>
+        <v>128456.69</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>0</v>
+        <v>128456.69</v>
       </c>
       <c r="G155">
         <f>E155-D155</f>
@@ -5777,22 +5777,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>0</v>
+        <v>49348</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>0</v>
+        <v>45848</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>0</v>
+        <v>45848</v>
       </c>
       <c r="G156">
         <f>E156-D156</f>
@@ -5808,19 +5808,19 @@
         <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>8965</v>
+        <v>21685.48</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>13215</v>
+        <v>21685.48</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>13215</v>
+        <v>21685.48</v>
       </c>
       <c r="G157">
         <f>E157-D157</f>
@@ -5836,19 +5836,19 @@
         <v>281</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>52204</v>
+        <v>10634</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>83679</v>
+        <v>10634</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>83679</v>
+        <v>10634</v>
       </c>
       <c r="G158">
         <f>E158-D158</f>
@@ -5861,22 +5861,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>49384</v>
+        <v>67909</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>69234</v>
+        <v>67909</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>69234</v>
+        <v>67909</v>
       </c>
       <c r="G159">
         <f>E159-D159</f>
@@ -5889,22 +5889,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>424114.99</v>
+        <v>42542</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>42542</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>600467.4300000001</v>
+        <v>42542</v>
       </c>
       <c r="G160">
         <f>E160-D160</f>
@@ -5917,22 +5917,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>0</v>
+        <v>8546</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>0</v>
+        <v>8546</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>0</v>
+        <v>8546</v>
       </c>
       <c r="G161">
         <f>E161-D161</f>
@@ -5945,22 +5945,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>2594.65</v>
+        <v>396</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>2275</v>
+        <v>396</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>2275</v>
+        <v>396</v>
       </c>
       <c r="G162">
         <f>E162-D162</f>
@@ -5973,22 +5973,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>10346</v>
+        <v>114510.66</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>10346</v>
+        <v>114510.66</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>10346</v>
+        <v>114510.66</v>
       </c>
       <c r="G163">
         <f>E163-D163</f>
@@ -6001,22 +6001,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>292</v>
+        <v>165</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>0</v>
+        <v>48119</v>
       </c>
       <c r="G164">
         <f>E164-D164</f>
@@ -6029,13 +6029,13 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="D165" s="2" t="n">
         <v>0</v>
@@ -6057,22 +6057,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>59938.36</v>
+        <v>2594.65</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>59938.36</v>
+        <v>2294.65</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>59938.36</v>
+        <v>2294.65</v>
       </c>
       <c r="G166">
         <f>E166-D166</f>
@@ -6085,22 +6085,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>28103</v>
+        <v>0</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>58618</v>
+        <v>0</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>58618</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <f>E167-D167</f>
@@ -6113,22 +6113,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>175063</v>
+        <v>28103</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>175023.41</v>
+        <v>58618</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>175023.41</v>
+        <v>58618</v>
       </c>
       <c r="G168">
         <f>E168-D168</f>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>5131</v>
@@ -6169,22 +6169,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>34858</v>
+        <v>0</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>38208</v>
+        <v>0</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>38208</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <f>E170-D170</f>
@@ -6197,22 +6197,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>0</v>
+        <v>10346</v>
       </c>
       <c r="G171">
         <f>E171-D171</f>
@@ -6225,13 +6225,13 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>0</v>
@@ -6253,22 +6253,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>59938.36</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>59938.36</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>72405.50999999999</v>
+        <v>59938.36</v>
       </c>
       <c r="G173">
         <f>E173-D173</f>
@@ -6281,22 +6281,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>574120.47</v>
+        <v>0</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>479841.47</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <f>E174-D174</f>
@@ -6309,22 +6309,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="D175" s="2" t="n">
-        <v>0</v>
+        <v>52204</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>0</v>
+        <v>83679</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>0</v>
+        <v>83679</v>
       </c>
       <c r="G175">
         <f>E175-D175</f>
@@ -6337,22 +6337,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="D176" s="2" t="n">
-        <v>125340.12</v>
+        <v>424114.99</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>227843.71</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>227843.71</v>
+        <v>600467.4300000001</v>
       </c>
       <c r="G176">
         <f>E176-D176</f>
@@ -6365,22 +6365,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="D177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>0</v>
+        <v>257158.97</v>
       </c>
       <c r="G177">
         <f>E177-D177</f>
@@ -6393,22 +6393,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="D178" s="2" t="n">
-        <v>17092.21</v>
+        <v>0</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>35707.63</v>
+        <v>0</v>
       </c>
       <c r="G178">
         <f>E178-D178</f>
@@ -6421,22 +6421,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="D179" s="2" t="n">
-        <v>13256.09</v>
+        <v>0</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>13256.09</v>
+        <v>0</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>13256.09</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <f>E179-D179</f>
@@ -6449,22 +6449,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="D180" s="2" t="n">
-        <v>29118</v>
+        <v>8965</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>19568</v>
+        <v>13215</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>19568</v>
+        <v>13215</v>
       </c>
       <c r="G180">
         <f>E180-D180</f>
@@ -6477,22 +6477,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>0</v>
+        <v>175063</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>0</v>
+        <v>175063</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>0</v>
+        <v>175063</v>
       </c>
       <c r="G181">
         <f>E181-D181</f>
@@ -6505,22 +6505,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>5885</v>
+        <v>13256.09</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>16223</v>
+        <v>13256.09</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>16223</v>
+        <v>13256.09</v>
       </c>
       <c r="G182">
         <f>E182-D182</f>
@@ -6533,22 +6533,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>17045</v>
+        <v>0</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>17045</v>
+        <v>0</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>17045</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <f>E183-D183</f>
@@ -6561,22 +6561,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>0</v>
+        <v>574120.47</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>0</v>
+        <v>479841.47</v>
       </c>
       <c r="G184">
         <f>E184-D184</f>
@@ -6589,22 +6589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>1200</v>
+        <v>34858</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>1200</v>
+        <v>38208</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>1200</v>
+        <v>38208</v>
       </c>
       <c r="G185">
         <f>E185-D185</f>
@@ -6617,22 +6617,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D186" s="2" t="n">
-        <v>0</v>
+        <v>178133.19</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>0</v>
+        <v>178133.19</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>0</v>
+        <v>178133.19</v>
       </c>
       <c r="G186">
         <f>E186-D186</f>
@@ -6645,22 +6645,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>0</v>
+        <v>17092.21</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>0</v>
+        <v>35707.63</v>
       </c>
       <c r="G187">
         <f>E187-D187</f>
@@ -6673,13 +6673,13 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0</v>
@@ -6701,22 +6701,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>0</v>
+        <v>23645</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>0</v>
+        <v>66770</v>
       </c>
       <c r="G189">
         <f>E189-D189</f>
@@ -6729,22 +6729,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>0</v>
+        <v>16286</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>0</v>
+        <v>22436</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>0</v>
+        <v>22436</v>
       </c>
       <c r="G190">
         <f>E190-D190</f>
@@ -6757,22 +6757,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>56</v>
+        <v>333</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>971</v>
+        <v>37094.65</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>971</v>
+        <v>41144.65</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>971</v>
+        <v>41144.65</v>
       </c>
       <c r="G191">
         <f>E191-D191</f>
@@ -6785,22 +6785,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>332</v>
+        <v>146</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>0</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>0</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>0</v>
+        <v>72405.50999999999</v>
       </c>
       <c r="G192">
         <f>E192-D192</f>
@@ -6816,19 +6816,19 @@
         <v>334</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>25186</v>
+        <v>125340.12</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>25186</v>
+        <v>227843.71</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>25186</v>
+        <v>227843.71</v>
       </c>
       <c r="G193">
         <f>E193-D193</f>
@@ -6844,19 +6844,19 @@
         <v>336</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>4592</v>
+        <v>137576.15</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>4592</v>
+        <v>173686.15</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>4592</v>
+        <v>173686.15</v>
       </c>
       <c r="G194">
         <f>E194-D194</f>
@@ -6872,19 +6872,19 @@
         <v>338</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>0</v>
+        <v>49384</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>0</v>
+        <v>69234</v>
       </c>
       <c r="G195">
         <f>E195-D195</f>
@@ -6900,7 +6900,7 @@
         <v>340</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>341</v>
@@ -6928,19 +6928,19 @@
         <v>342</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>0</v>
+        <v>34544.2</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>0</v>
+        <v>26700.2</v>
       </c>
       <c r="G197">
         <f>E197-D197</f>
@@ -6956,7 +6956,7 @@
         <v>344</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>345</v>
@@ -6981,22 +6981,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>238</v>
+        <v>346</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>239</v>
+        <v>347</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>10088.01</v>
+        <v>18839</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>20986.5</v>
+        <v>34089</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>20986.5</v>
+        <v>34089</v>
       </c>
       <c r="G199">
         <f>E199-D199</f>
@@ -7009,13 +7009,13 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>346</v>
+        <v>71</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>348</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>349</v>
@@ -7068,19 +7068,19 @@
         <v>350</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>46973</v>
+        <v>0</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>46973</v>
+        <v>0</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>46973</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <f>E202-D202</f>
@@ -7096,19 +7096,19 @@
         <v>352</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>120280.55</v>
+        <v>0</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>120280.55</v>
+        <v>0</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>120280.55</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <f>E203-D203</f>
